--- a/SQ.xlsx
+++ b/SQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D44EDE-6768-FC46-AD3F-331DD2978511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BE214-EB80-7A47-A02E-246A9046177C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20280" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46280" yWindow="-4500" windowWidth="43140" windowHeight="26900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -283,12 +283,6 @@
     <t>Bitcoin</t>
   </si>
   <si>
-    <t>Gross Payment Volume</t>
-  </si>
-  <si>
-    <t>Gross Payment Volume y/y</t>
-  </si>
-  <si>
     <t>Transactions y/y</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
     <t>OE y/y</t>
   </si>
   <si>
-    <t>Products</t>
-  </si>
-  <si>
     <t>Square Reader</t>
   </si>
   <si>
@@ -328,34 +319,43 @@
     <t>Cash App</t>
   </si>
   <si>
-    <t>Person-to-person money transfers, bitcoin trading, debit card</t>
-  </si>
-  <si>
     <t>Caviar</t>
   </si>
   <si>
     <t>Food delivery service (aquired by DoorDash)</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Square Capital</t>
   </si>
   <si>
     <t>Credit lending to companies</t>
   </si>
   <si>
-    <t>1 340-1 360</t>
-  </si>
-  <si>
-    <t>1 160-1 180</t>
-  </si>
-  <si>
-    <t>5 900-5 960</t>
-  </si>
-  <si>
     <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>GPV</t>
+  </si>
+  <si>
+    <t>GPV y/y</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>P2P for bitcoin, cash card, direct deposits, stocks</t>
   </si>
 </sst>
 </file>
@@ -444,14 +444,15 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -495,7 +496,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -626,35 +627,14 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -664,6 +644,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -745,14 +738,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235439</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235439</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -769,8 +762,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12814300" y="177800"/>
-          <a:ext cx="0" cy="10071100"/>
+          <a:off x="14557131" y="178777"/>
+          <a:ext cx="0" cy="10130692"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1062,11 +1055,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:II67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1088,16 +1081,16 @@
         <v>51</v>
       </c>
       <c r="C2" s="2">
-        <v>73.790000000000006</v>
-      </c>
-      <c r="D2" s="85">
-        <v>43964</v>
+        <v>220.59</v>
+      </c>
+      <c r="D2" s="74">
+        <v>44224</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="4">
-        <v>-5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="17"/>
     </row>
@@ -1109,11 +1102,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="5">
-        <f>Reports!N24</f>
-        <v>434.94</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>105</v>
+        <f>Reports!P24</f>
+        <v>488.06900000000002</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1133,9 +1126,9 @@
       </c>
       <c r="C4" s="7">
         <f>C2*C3</f>
-        <v>32094.222600000001</v>
-      </c>
-      <c r="D4" s="87"/>
+        <v>107663.14071000001</v>
+      </c>
+      <c r="D4" s="76"/>
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1151,18 +1144,18 @@
         <v>25</v>
       </c>
       <c r="C5" s="5">
-        <f>Reports!N35</f>
-        <v>1252</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>105</v>
+        <f>Reports!P35</f>
+        <v>1521</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="8">
         <f>NPV(F4,E31:DP31)</f>
-        <v>66855.165933642245</v>
+        <v>159127.12694151772</v>
       </c>
       <c r="G5" s="6"/>
       <c r="I5" s="14"/>
@@ -1176,15 +1169,15 @@
       </c>
       <c r="C6" s="7">
         <f>C4-C5</f>
-        <v>30842.222600000001</v>
-      </c>
-      <c r="D6" s="87"/>
+        <v>106142.14071000001</v>
+      </c>
+      <c r="D6" s="76"/>
       <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="10">
         <f>F5+C5</f>
-        <v>68107.165933642245</v>
+        <v>160648.12694151772</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -1197,29 +1190,29 @@
       </c>
       <c r="C7" s="11">
         <f>C6/C3</f>
-        <v>70.911442037982255</v>
-      </c>
-      <c r="D7" s="87"/>
+        <v>217.47363735455437</v>
+      </c>
+      <c r="D7" s="76"/>
       <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="13">
         <f>F6/C3</f>
-        <v>156.58979614117405</v>
+        <v>329.15044172344017</v>
       </c>
       <c r="G7" s="14">
         <f>F7/C2-1</f>
-        <v>1.1221005033361435</v>
+        <v>0.49213673205240571</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -1319,24 +1312,24 @@
         <v>3082.18</v>
       </c>
       <c r="E12" s="17">
-        <f>D12*1.2</f>
-        <v>3698.6159999999995</v>
+        <f>D12*1.1</f>
+        <v>3390.3980000000001</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" ref="F12:I12" si="1">E12*1.2</f>
-        <v>4438.3391999999994</v>
+        <f t="shared" ref="F12:I12" si="1">E12*1.1</f>
+        <v>3729.4378000000006</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>5326.0070399999995</v>
+        <v>4102.3815800000011</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="1"/>
-        <v>6391.2084479999994</v>
+        <v>4512.6197380000012</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="1"/>
-        <v>7669.4501375999989</v>
+        <v>4963.8817118000015</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -1356,24 +1349,24 @@
         <v>1031.415</v>
       </c>
       <c r="E13" s="17">
-        <f>D13*1.35</f>
-        <v>1392.4102500000001</v>
+        <f>D13*1.25</f>
+        <v>1289.26875</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" ref="F13:I13" si="2">E13*1.35</f>
-        <v>1879.7538375000004</v>
+        <f t="shared" ref="F13:I13" si="2">E13*1.25</f>
+        <v>1611.5859375</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="2"/>
-        <v>2537.6676806250007</v>
+        <v>2014.482421875</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="2"/>
-        <v>3425.8513688437511</v>
+        <v>2518.10302734375</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="2"/>
-        <v>4624.8993479390647</v>
+        <v>3147.6287841796875</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -1427,24 +1420,24 @@
         <v>516.56700000000001</v>
       </c>
       <c r="E15" s="17">
-        <f>D15*1.5</f>
-        <v>774.85050000000001</v>
+        <f>D15*6</f>
+        <v>3099.402</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ref="F15:I15" si="4">E15*1.5</f>
-        <v>1162.27575</v>
+        <v>4649.1030000000001</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="4"/>
-        <v>1743.4136250000001</v>
+        <v>6973.6545000000006</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="4"/>
-        <v>2615.1204375000002</v>
+        <v>10460.481750000001</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="4"/>
-        <v>3922.6806562500005</v>
+        <v>15690.722625000002</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -1472,9 +1465,9 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:243" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="6" t="s">
-        <v>104</v>
+    <row r="19" spans="1:243" s="78" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="78">
+        <v>5900</v>
       </c>
     </row>
     <row r="20" spans="1:243" x14ac:dyDescent="0.15">
@@ -1495,59 +1488,59 @@
       </c>
       <c r="E20" s="18">
         <f>SUM(E12:E15)</f>
-        <v>5958.9004499999992</v>
+        <v>7872.0924500000001</v>
       </c>
       <c r="F20" s="18">
-        <f t="shared" ref="F20:I20" si="5">SUM(F12:F15)</f>
-        <v>7582.6948574999997</v>
+        <f>SUM(F12:F15)</f>
+        <v>10092.452807500002</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" si="5"/>
-        <v>9719.6470226250003</v>
+        <f t="shared" ref="F20:I20" si="5">SUM(G12:G15)</f>
+        <v>13203.077178875003</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="5"/>
-        <v>12555.99479904375</v>
+        <v>17615.019060043753</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="5"/>
-        <v>16353.226140959065</v>
+        <v>23938.429120149689</v>
       </c>
       <c r="J20" s="18">
         <f>I20*1.1</f>
-        <v>17988.548755054973</v>
+        <v>26332.272032164659</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ref="K20:R20" si="6">J20*1.1</f>
-        <v>19787.403630560471</v>
+        <v>28965.499235381129</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="6"/>
-        <v>21766.143993616519</v>
+        <v>31862.049158919242</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" si="6"/>
-        <v>23942.758392978172</v>
+        <v>35048.254074811171</v>
       </c>
       <c r="N20" s="18">
         <f t="shared" si="6"/>
-        <v>26337.03423227599</v>
+        <v>38553.079482292291</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" si="6"/>
-        <v>28970.737655503592</v>
+        <v>42408.387430521521</v>
       </c>
       <c r="P20" s="18">
         <f t="shared" si="6"/>
-        <v>31867.811421053953</v>
+        <v>46649.226173573676</v>
       </c>
       <c r="Q20" s="18">
         <f t="shared" si="6"/>
-        <v>35054.592563159349</v>
+        <v>51314.148790931045</v>
       </c>
       <c r="R20" s="18">
         <f t="shared" si="6"/>
-        <v>38560.051819475288</v>
+        <v>56445.563670024152</v>
       </c>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
@@ -1570,59 +1563,59 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" ref="E21:F21" si="7">E20-E22</f>
-        <v>3568.4427148455406</v>
+        <v>4714.1433540466496</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="7"/>
-        <v>4540.8397824707108</v>
+        <v>6043.7894537818311</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ref="G21:O21" si="8">G20-G22</f>
-        <v>5820.5375135535851</v>
+        <v>7906.5634621400532</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="8"/>
-        <v>7519.0630459829499</v>
+        <v>10548.621673429447</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="8"/>
-        <v>9793.0064743617295</v>
+        <v>14335.348226642134</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="8"/>
-        <v>10772.307121797905</v>
+        <v>15768.883049306349</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="8"/>
-        <v>11849.537833977694</v>
+        <v>17345.771354236986</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="8"/>
-        <v>13034.491617375466</v>
+        <v>19080.348489660686</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="8"/>
-        <v>14337.940779113014</v>
+        <v>20988.383338626758</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="8"/>
-        <v>15771.734857024316</v>
+        <v>23087.221672489432</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="8"/>
-        <v>17348.908342726747</v>
+        <v>25395.943839738378</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" ref="P21:R21" si="9">P20-P22</f>
-        <v>19083.799176999426</v>
+        <v>27935.538223712218</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="9"/>
-        <v>20992.179094699368</v>
+        <v>30729.092046083439</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="9"/>
-        <v>23091.39700416931</v>
+        <v>33802.001250691785</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -1645,59 +1638,59 @@
       </c>
       <c r="E22" s="5">
         <f>E20*D35</f>
-        <v>2390.4577351544585</v>
+        <v>3157.9490959533509</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:R22" si="10">F20*E35</f>
-        <v>3041.8550750292889</v>
+        <v>4048.6633537181706</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="10"/>
-        <v>3899.1095090714157</v>
+        <v>5296.5137167349494</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="10"/>
-        <v>5036.9317530608005</v>
+        <v>7066.3973866143069</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="10"/>
-        <v>6560.2196665973343</v>
+        <v>9603.0808935075547</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" si="10"/>
-        <v>7216.2416332570683</v>
+        <v>10563.388982858311</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="10"/>
-        <v>7937.8657965827761</v>
+        <v>11619.727881144143</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="10"/>
-        <v>8731.6523762410525</v>
+        <v>12781.700669258556</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="10"/>
-        <v>9604.8176138651579</v>
+        <v>14059.870736184415</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="10"/>
-        <v>10565.299375251674</v>
+        <v>15465.857809802857</v>
       </c>
       <c r="O22" s="5">
         <f t="shared" si="10"/>
-        <v>11621.829312776843</v>
+        <v>17012.443590783143</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="10"/>
-        <v>12784.012244054527</v>
+        <v>18713.687949861458</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="10"/>
-        <v>14062.413468459981</v>
+        <v>20585.056744847607</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="10"/>
-        <v>15468.654815305979</v>
+        <v>22643.562419332367</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -2020,59 +2013,59 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" ref="E27:F27" si="22">E22-E26</f>
-        <v>117.9639851544589</v>
+        <v>885.4553459533513</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="22"/>
-        <v>266.67288752928926</v>
+        <v>1273.481166218171</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" ref="G27:O27" si="23">G22-G26</f>
-        <v>505.38202469641601</v>
+        <v>1902.7862323599497</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="23"/>
-        <v>881.31018509205114</v>
+        <v>2910.7758186455576</v>
       </c>
       <c r="I27" s="5">
         <f>I22-I26</f>
-        <v>1465.2111622613975</v>
+        <v>4508.0723891716179</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="23"/>
-        <v>1844.3178388027718</v>
+        <v>5191.465188404014</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="23"/>
-        <v>2323.3585358788941</v>
+        <v>6005.220620440261</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="23"/>
-        <v>2850.8119305510527</v>
+        <v>6900.8602235685566</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="23"/>
-        <v>3431.6371361441334</v>
+        <v>7886.6902584633908</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="23"/>
-        <v>4071.2893807666615</v>
+        <v>8971.8478153178439</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="23"/>
-        <v>4775.7696659265976</v>
+        <v>10166.383943932899</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" ref="P27:R27" si="24">P22-P26</f>
-        <v>5551.6793910900833</v>
+        <v>11481.355096897014</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="24"/>
-        <v>6406.2804407963085</v>
+        <v>12928.923717183934</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="24"/>
-        <v>7347.5612806029749</v>
+        <v>14522.468884629363</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -2099,55 +2092,55 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="25"/>
-        <v>25.131967747625801</v>
+        <v>38.179320881206976</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="25"/>
-        <v>30.092650287333356</v>
+        <v>60.477549161896398</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="25"/>
-        <v>39.195719762057095</v>
+        <v>93.853033447767771</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="25"/>
-        <v>54.844320144576933</v>
+        <v>144.93172393335431</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="25"/>
-        <v>80.685263345478504</v>
+        <v>224.03279385613882</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="25"/>
-        <v>113.41031608199876</v>
+        <v>316.09625955456141</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="25"/>
-        <v>154.83538656533395</v>
+        <v>423.55864651447337</v>
       </c>
       <c r="M28" s="5">
         <f t="shared" si="25"/>
-        <v>205.9313909563125</v>
+        <v>548.07376730588487</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="25"/>
-        <v>267.7700559170201</v>
+        <v>691.46475574396266</v>
       </c>
       <c r="O28" s="5">
         <f t="shared" si="25"/>
-        <v>341.53406634064271</v>
+        <v>855.74106945201333</v>
       </c>
       <c r="P28" s="5">
         <f t="shared" si="25"/>
-        <v>428.52822978918573</v>
+        <v>1043.1171946795569</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="25"/>
-        <v>530.19175934413329</v>
+        <v>1256.0332236363586</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="25"/>
-        <v>648.11178674652081</v>
+        <v>1497.1774916303036</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -2170,59 +2163,59 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" ref="E29:F29" si="26">E27+E28</f>
-        <v>140.70398515445891</v>
+        <v>908.19534595335131</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="26"/>
-        <v>291.80485527691508</v>
+        <v>1311.6604870993779</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" ref="G29:O29" si="27">G27+G28</f>
-        <v>535.47467498374931</v>
+        <v>1963.2637815218461</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="27"/>
-        <v>920.50590485410828</v>
+        <v>3004.6288520933253</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="27"/>
-        <v>1520.0554824059743</v>
+        <v>4653.004113104972</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="27"/>
-        <v>1925.0031021482503</v>
+        <v>5415.4979822601526</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="27"/>
-        <v>2436.7688519608928</v>
+        <v>6321.3168799948226</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="27"/>
-        <v>3005.6473171163866</v>
+        <v>7324.41887008303</v>
       </c>
       <c r="M29" s="5">
         <f t="shared" si="27"/>
-        <v>3637.5685271004459</v>
+        <v>8434.7640257692765</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="27"/>
-        <v>4339.0594366836813</v>
+        <v>9663.312571061806</v>
       </c>
       <c r="O29" s="5">
         <f t="shared" si="27"/>
-        <v>5117.3037322672399</v>
+        <v>11022.125013384912</v>
       </c>
       <c r="P29" s="5">
         <f t="shared" ref="P29:R29" si="28">P27+P28</f>
-        <v>5980.2076208792687</v>
+        <v>12524.472291576571</v>
       </c>
       <c r="Q29" s="5">
         <f t="shared" si="28"/>
-        <v>6936.4722001404416</v>
+        <v>14184.956940820293</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="28"/>
-        <v>7995.6730673494958</v>
+        <v>16019.646376259667</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -2245,59 +2238,59 @@
       </c>
       <c r="E30" s="5">
         <f>E29*0.15</f>
-        <v>21.105597773168835</v>
+        <v>136.22930189300268</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ref="F30:O30" si="29">F29*0.15</f>
-        <v>43.77072829153726</v>
+        <v>196.74907306490667</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="29"/>
-        <v>80.321201247562399</v>
+        <v>294.48956722827688</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="29"/>
-        <v>138.07588572811625</v>
+        <v>450.69432781399877</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="29"/>
-        <v>228.00832236089613</v>
+        <v>697.95061696574578</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="29"/>
-        <v>288.75046532223752</v>
+        <v>812.32469733902292</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="29"/>
-        <v>365.5153277941339</v>
+        <v>948.19753199922332</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="29"/>
-        <v>450.84709756745798</v>
+        <v>1098.6628305124545</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="29"/>
-        <v>545.63527906506681</v>
+        <v>1265.2146038653914</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="29"/>
-        <v>650.85891550255212</v>
+        <v>1449.4968856592709</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="29"/>
-        <v>767.59555984008591</v>
+        <v>1653.3187520077367</v>
       </c>
       <c r="P30" s="5">
         <f t="shared" ref="P30:R30" si="30">P29*0.15</f>
-        <v>897.0311431318903</v>
+        <v>1878.6708437364855</v>
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="30"/>
-        <v>1040.4708300210661</v>
+        <v>2127.743541123044</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="30"/>
-        <v>1199.3509601024243</v>
+        <v>2402.9469564389501</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -2320,959 +2313,959 @@
       </c>
       <c r="E31" s="23">
         <f t="shared" si="31"/>
-        <v>119.59838738129007</v>
+        <v>771.96604406034862</v>
       </c>
       <c r="F31" s="23">
         <f t="shared" si="31"/>
-        <v>248.03412698537781</v>
+        <v>1114.9114140344711</v>
       </c>
       <c r="G31" s="23">
         <f t="shared" ref="G31" si="32">G29-G30</f>
-        <v>455.15347373618692</v>
+        <v>1668.7742142935692</v>
       </c>
       <c r="H31" s="23">
         <f t="shared" ref="H31" si="33">H29-H30</f>
-        <v>782.43001912599198</v>
+        <v>2553.9345242793265</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" ref="I31" si="34">I29-I30</f>
-        <v>1292.0471600450783</v>
+        <v>3955.0534961392264</v>
       </c>
       <c r="J31" s="23">
         <f t="shared" ref="J31" si="35">J29-J30</f>
-        <v>1636.2526368260128</v>
+        <v>4603.1732849211294</v>
       </c>
       <c r="K31" s="23">
         <f t="shared" ref="K31" si="36">K29-K30</f>
-        <v>2071.2535241667588</v>
+        <v>5373.1193479955991</v>
       </c>
       <c r="L31" s="23">
         <f t="shared" ref="L31" si="37">L29-L30</f>
-        <v>2554.8002195489285</v>
+        <v>6225.756039570575</v>
       </c>
       <c r="M31" s="23">
         <f t="shared" ref="M31" si="38">M29-M30</f>
-        <v>3091.9332480353792</v>
+        <v>7169.5494219038846</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" ref="N31" si="39">N29-N30</f>
-        <v>3688.2005211811293</v>
+        <v>8213.8156854025347</v>
       </c>
       <c r="O31" s="23">
         <f t="shared" ref="O31:P31" si="40">O29-O30</f>
-        <v>4349.7081724271538</v>
+        <v>9368.8062613771745</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" si="40"/>
-        <v>5083.1764777473782</v>
+        <v>10645.801447840086</v>
       </c>
       <c r="Q31" s="23">
         <f t="shared" ref="Q31:R31" si="41">Q29-Q30</f>
-        <v>5896.0013701193757</v>
+        <v>12057.21339969725</v>
       </c>
       <c r="R31" s="23">
         <f t="shared" si="41"/>
-        <v>6796.3221072470715</v>
+        <v>13616.699419820718</v>
       </c>
       <c r="S31" s="23">
         <f t="shared" ref="S31:AU31" si="42">R31*($F$2+1)</f>
-        <v>6762.3404967108363</v>
+        <v>13684.782916919819</v>
       </c>
       <c r="T31" s="23">
         <f t="shared" si="42"/>
-        <v>6728.5287942272817</v>
+        <v>13753.206831504416</v>
       </c>
       <c r="U31" s="23">
         <f t="shared" si="42"/>
-        <v>6694.8861502561449</v>
+        <v>13821.972865661937</v>
       </c>
       <c r="V31" s="23">
         <f t="shared" si="42"/>
-        <v>6661.4117195048639</v>
+        <v>13891.082729990245</v>
       </c>
       <c r="W31" s="23">
         <f t="shared" si="42"/>
-        <v>6628.1046609073392</v>
+        <v>13960.538143640195</v>
       </c>
       <c r="X31" s="23">
         <f t="shared" si="42"/>
-        <v>6594.9641376028021</v>
+        <v>14030.340834358394</v>
       </c>
       <c r="Y31" s="23">
         <f t="shared" si="42"/>
-        <v>6561.9893169147881</v>
+        <v>14100.492538530185</v>
       </c>
       <c r="Z31" s="23">
         <f t="shared" si="42"/>
-        <v>6529.1793703302137</v>
+        <v>14170.995001222835</v>
       </c>
       <c r="AA31" s="23">
         <f t="shared" si="42"/>
-        <v>6496.5334734785629</v>
+        <v>14241.849976228947</v>
       </c>
       <c r="AB31" s="23">
         <f t="shared" si="42"/>
-        <v>6464.0508061111705</v>
+        <v>14313.05922611009</v>
       </c>
       <c r="AC31" s="23">
         <f t="shared" si="42"/>
-        <v>6431.7305520806149</v>
+        <v>14384.62452224064</v>
       </c>
       <c r="AD31" s="23">
         <f t="shared" si="42"/>
-        <v>6399.5718993202117</v>
+        <v>14456.547644851842</v>
       </c>
       <c r="AE31" s="23">
         <f t="shared" si="42"/>
-        <v>6367.5740398236103</v>
+        <v>14528.8303830761</v>
       </c>
       <c r="AF31" s="23">
         <f t="shared" si="42"/>
-        <v>6335.7361696244925</v>
+        <v>14601.474534991479</v>
       </c>
       <c r="AG31" s="23">
         <f t="shared" si="42"/>
-        <v>6304.0574887763696</v>
+        <v>14674.481907666435</v>
       </c>
       <c r="AH31" s="23">
         <f t="shared" si="42"/>
-        <v>6272.5372013324877</v>
+        <v>14747.854317204767</v>
       </c>
       <c r="AI31" s="23">
         <f t="shared" si="42"/>
-        <v>6241.1745153258253</v>
+        <v>14821.593588790789</v>
       </c>
       <c r="AJ31" s="23">
         <f t="shared" si="42"/>
-        <v>6209.9686427491961</v>
+        <v>14895.701556734741</v>
       </c>
       <c r="AK31" s="23">
         <f t="shared" si="42"/>
-        <v>6178.9187995354505</v>
+        <v>14970.180064518412</v>
       </c>
       <c r="AL31" s="23">
         <f t="shared" si="42"/>
-        <v>6148.024205537773</v>
+        <v>15045.030964841002</v>
       </c>
       <c r="AM31" s="23">
         <f t="shared" si="42"/>
-        <v>6117.2840845100845</v>
+        <v>15120.256119665206</v>
       </c>
       <c r="AN31" s="23">
         <f t="shared" si="42"/>
-        <v>6086.6976640875337</v>
+        <v>15195.857400263531</v>
       </c>
       <c r="AO31" s="23">
         <f t="shared" si="42"/>
-        <v>6056.2641757670963</v>
+        <v>15271.836687264846</v>
       </c>
       <c r="AP31" s="23">
         <f t="shared" si="42"/>
-        <v>6025.9828548882606</v>
+        <v>15348.195870701169</v>
       </c>
       <c r="AQ31" s="23">
         <f t="shared" si="42"/>
-        <v>5995.8529406138196</v>
+        <v>15424.936850054673</v>
       </c>
       <c r="AR31" s="23">
         <f t="shared" si="42"/>
-        <v>5965.8736759107505</v>
+        <v>15502.061534304945</v>
       </c>
       <c r="AS31" s="23">
         <f t="shared" si="42"/>
-        <v>5936.0443075311969</v>
+        <v>15579.571841976467</v>
       </c>
       <c r="AT31" s="23">
         <f t="shared" si="42"/>
-        <v>5906.3640859935413</v>
+        <v>15657.469701186348</v>
       </c>
       <c r="AU31" s="23">
         <f t="shared" si="42"/>
-        <v>5876.8322655635739</v>
+        <v>15735.757049692278</v>
       </c>
       <c r="AV31" s="23">
         <f t="shared" ref="AV31:CA31" si="43">AU31*($F$2+1)</f>
-        <v>5847.4481042357556</v>
+        <v>15814.435834940738</v>
       </c>
       <c r="AW31" s="23">
         <f t="shared" si="43"/>
-        <v>5818.2108637145766</v>
+        <v>15893.508014115439</v>
       </c>
       <c r="AX31" s="23">
         <f t="shared" si="43"/>
-        <v>5789.1198093960038</v>
+        <v>15972.975554186014</v>
       </c>
       <c r="AY31" s="23">
         <f t="shared" si="43"/>
-        <v>5760.1742103490242</v>
+        <v>16052.840431956942</v>
       </c>
       <c r="AZ31" s="23">
         <f t="shared" si="43"/>
-        <v>5731.373339297279</v>
+        <v>16133.104634116724</v>
       </c>
       <c r="BA31" s="23">
         <f t="shared" si="43"/>
-        <v>5702.7164726007923</v>
+        <v>16213.770157287307</v>
       </c>
       <c r="BB31" s="23">
         <f t="shared" si="43"/>
-        <v>5674.2028902377879</v>
+        <v>16294.839008073741</v>
       </c>
       <c r="BC31" s="23">
         <f t="shared" si="43"/>
-        <v>5645.8318757865991</v>
+        <v>16376.313203114109</v>
       </c>
       <c r="BD31" s="23">
         <f t="shared" si="43"/>
-        <v>5617.6027164076659</v>
+        <v>16458.194769129677</v>
       </c>
       <c r="BE31" s="23">
         <f t="shared" si="43"/>
-        <v>5589.5147028256279</v>
+        <v>16540.485742975325</v>
       </c>
       <c r="BF31" s="23">
         <f t="shared" si="43"/>
-        <v>5561.5671293115001</v>
+        <v>16623.188171690199</v>
       </c>
       <c r="BG31" s="23">
         <f t="shared" si="43"/>
-        <v>5533.7592936649426</v>
+        <v>16706.304112548649</v>
       </c>
       <c r="BH31" s="23">
         <f t="shared" si="43"/>
-        <v>5506.0904971966174</v>
+        <v>16789.83563311139</v>
       </c>
       <c r="BI31" s="23">
         <f t="shared" si="43"/>
-        <v>5478.5600447106344</v>
+        <v>16873.784811276946</v>
       </c>
       <c r="BJ31" s="23">
         <f t="shared" si="43"/>
-        <v>5451.167244487081</v>
+        <v>16958.15373533333</v>
       </c>
       <c r="BK31" s="23">
         <f t="shared" si="43"/>
-        <v>5423.9114082646456</v>
+        <v>17042.944504009996</v>
       </c>
       <c r="BL31" s="23">
         <f t="shared" si="43"/>
-        <v>5396.7918512233227</v>
+        <v>17128.159226530046</v>
       </c>
       <c r="BM31" s="23">
         <f t="shared" si="43"/>
-        <v>5369.8078919672062</v>
+        <v>17213.800022662694</v>
       </c>
       <c r="BN31" s="23">
         <f t="shared" si="43"/>
-        <v>5342.9588525073705</v>
+        <v>17299.869022776005</v>
       </c>
       <c r="BO31" s="23">
         <f t="shared" si="43"/>
-        <v>5316.2440582448335</v>
+        <v>17386.368367889885</v>
       </c>
       <c r="BP31" s="23">
         <f t="shared" si="43"/>
-        <v>5289.6628379536096</v>
+        <v>17473.300209729332</v>
       </c>
       <c r="BQ31" s="23">
         <f t="shared" si="43"/>
-        <v>5263.2145237638415</v>
+        <v>17560.666710777976</v>
       </c>
       <c r="BR31" s="23">
         <f t="shared" si="43"/>
-        <v>5236.8984511450226</v>
+        <v>17648.470044331865</v>
       </c>
       <c r="BS31" s="23">
         <f t="shared" si="43"/>
-        <v>5210.7139588892978</v>
+        <v>17736.712394553524</v>
       </c>
       <c r="BT31" s="23">
         <f t="shared" si="43"/>
-        <v>5184.6603890948509</v>
+        <v>17825.395956526289</v>
       </c>
       <c r="BU31" s="23">
         <f t="shared" si="43"/>
-        <v>5158.7370871493767</v>
+        <v>17914.522936308917</v>
       </c>
       <c r="BV31" s="23">
         <f t="shared" si="43"/>
-        <v>5132.94340171363</v>
+        <v>18004.09555099046</v>
       </c>
       <c r="BW31" s="23">
         <f t="shared" si="43"/>
-        <v>5107.278684705062</v>
+        <v>18094.116028745411</v>
       </c>
       <c r="BX31" s="23">
         <f t="shared" si="43"/>
-        <v>5081.7422912815364</v>
+        <v>18184.586608889138</v>
       </c>
       <c r="BY31" s="23">
         <f t="shared" si="43"/>
-        <v>5056.3335798251283</v>
+        <v>18275.509541933581</v>
       </c>
       <c r="BZ31" s="23">
         <f t="shared" si="43"/>
-        <v>5031.0519119260025</v>
+        <v>18366.887089643245</v>
       </c>
       <c r="CA31" s="23">
         <f t="shared" si="43"/>
-        <v>5005.8966523663721</v>
+        <v>18458.72152509146</v>
       </c>
       <c r="CB31" s="23">
         <f t="shared" ref="CB31:DG31" si="44">CA31*($F$2+1)</f>
-        <v>4980.8671691045402</v>
+        <v>18551.015132716915</v>
       </c>
       <c r="CC31" s="23">
         <f t="shared" si="44"/>
-        <v>4955.9628332590173</v>
+        <v>18643.770208380498</v>
       </c>
       <c r="CD31" s="23">
         <f t="shared" si="44"/>
-        <v>4931.1830190927221</v>
+        <v>18736.989059422398</v>
       </c>
       <c r="CE31" s="23">
         <f t="shared" si="44"/>
-        <v>4906.5271039972586</v>
+        <v>18830.674004719509</v>
       </c>
       <c r="CF31" s="23">
         <f t="shared" si="44"/>
-        <v>4881.9944684772727</v>
+        <v>18924.827374743105</v>
       </c>
       <c r="CG31" s="23">
         <f t="shared" si="44"/>
-        <v>4857.5844961348866</v>
+        <v>19019.451511616819</v>
       </c>
       <c r="CH31" s="23">
         <f t="shared" si="44"/>
-        <v>4833.2965736542119</v>
+        <v>19114.5487691749</v>
       </c>
       <c r="CI31" s="23">
         <f t="shared" si="44"/>
-        <v>4809.1300907859404</v>
+        <v>19210.121513020771</v>
       </c>
       <c r="CJ31" s="23">
         <f t="shared" si="44"/>
-        <v>4785.0844403320107</v>
+        <v>19306.172120585874</v>
       </c>
       <c r="CK31" s="23">
         <f t="shared" si="44"/>
-        <v>4761.1590181303509</v>
+        <v>19402.702981188802</v>
       </c>
       <c r="CL31" s="23">
         <f t="shared" si="44"/>
-        <v>4737.3532230396995</v>
+        <v>19499.716496094745</v>
       </c>
       <c r="CM31" s="23">
         <f t="shared" si="44"/>
-        <v>4713.6664569245013</v>
+        <v>19597.215078575216</v>
       </c>
       <c r="CN31" s="23">
         <f t="shared" si="44"/>
-        <v>4690.0981246398787</v>
+        <v>19695.20115396809</v>
       </c>
       <c r="CO31" s="23">
         <f t="shared" si="44"/>
-        <v>4666.6476340166791</v>
+        <v>19793.677159737927</v>
       </c>
       <c r="CP31" s="23">
         <f t="shared" si="44"/>
-        <v>4643.3143958465953</v>
+        <v>19892.645545536616</v>
       </c>
       <c r="CQ31" s="23">
         <f t="shared" si="44"/>
-        <v>4620.0978238673624</v>
+        <v>19992.108773264295</v>
       </c>
       <c r="CR31" s="23">
         <f t="shared" si="44"/>
-        <v>4596.9973347480254</v>
+        <v>20092.069317130616</v>
       </c>
       <c r="CS31" s="23">
         <f t="shared" si="44"/>
-        <v>4574.012348074285</v>
+        <v>20192.529663716268</v>
       </c>
       <c r="CT31" s="23">
         <f t="shared" si="44"/>
-        <v>4551.1422863339139</v>
+        <v>20293.492312034847</v>
       </c>
       <c r="CU31" s="23">
         <f t="shared" si="44"/>
-        <v>4528.3865749022443</v>
+        <v>20394.959773595019</v>
       </c>
       <c r="CV31" s="23">
         <f t="shared" si="44"/>
-        <v>4505.7446420277329</v>
+        <v>20496.934572462993</v>
       </c>
       <c r="CW31" s="23">
         <f t="shared" si="44"/>
-        <v>4483.2159188175938</v>
+        <v>20599.419245325305</v>
       </c>
       <c r="CX31" s="23">
         <f t="shared" si="44"/>
-        <v>4460.7998392235058</v>
+        <v>20702.416341551929</v>
       </c>
       <c r="CY31" s="23">
         <f t="shared" si="44"/>
-        <v>4438.4958400273881</v>
+        <v>20805.928423259687</v>
       </c>
       <c r="CZ31" s="23">
         <f t="shared" si="44"/>
-        <v>4416.3033608272508</v>
+        <v>20909.958065375984</v>
       </c>
       <c r="DA31" s="23">
         <f t="shared" si="44"/>
-        <v>4394.2218440231145</v>
+        <v>21014.507855702861</v>
       </c>
       <c r="DB31" s="23">
         <f t="shared" si="44"/>
-        <v>4372.2507348029985</v>
+        <v>21119.580394981374</v>
       </c>
       <c r="DC31" s="23">
         <f t="shared" si="44"/>
-        <v>4350.3894811289838</v>
+        <v>21225.178296956277</v>
       </c>
       <c r="DD31" s="23">
         <f t="shared" si="44"/>
-        <v>4328.6375337233385</v>
+        <v>21331.304188441056</v>
       </c>
       <c r="DE31" s="23">
         <f t="shared" si="44"/>
-        <v>4306.994346054722</v>
+        <v>21437.96070938326</v>
       </c>
       <c r="DF31" s="23">
         <f t="shared" si="44"/>
-        <v>4285.4593743244486</v>
+        <v>21545.150512930173</v>
       </c>
       <c r="DG31" s="23">
         <f t="shared" si="44"/>
-        <v>4264.0320774528263</v>
+        <v>21652.876265494822</v>
       </c>
       <c r="DH31" s="23">
         <f t="shared" ref="DH31:DP31" si="45">DG31*($F$2+1)</f>
-        <v>4242.7119170655624</v>
+        <v>21761.140646822296</v>
       </c>
       <c r="DI31" s="23">
         <f t="shared" si="45"/>
-        <v>4221.4983574802345</v>
+        <v>21869.946350056405</v>
       </c>
       <c r="DJ31" s="23">
         <f t="shared" si="45"/>
-        <v>4200.3908656928334</v>
+        <v>21979.296081806686</v>
       </c>
       <c r="DK31" s="23">
         <f t="shared" si="45"/>
-        <v>4179.3889113643691</v>
+        <v>22089.192562215718</v>
       </c>
       <c r="DL31" s="23">
         <f t="shared" si="45"/>
-        <v>4158.4919668075472</v>
+        <v>22199.638525026792</v>
       </c>
       <c r="DM31" s="23">
         <f t="shared" si="45"/>
-        <v>4137.6995069735094</v>
+        <v>22310.636717651923</v>
       </c>
       <c r="DN31" s="23">
         <f t="shared" si="45"/>
-        <v>4117.0110094386418</v>
+        <v>22422.189901240181</v>
       </c>
       <c r="DO31" s="23">
         <f t="shared" si="45"/>
-        <v>4096.4259543914486</v>
+        <v>22534.300850746378</v>
       </c>
       <c r="DP31" s="23">
         <f t="shared" si="45"/>
-        <v>4075.9438246194914</v>
+        <v>22646.972355000107</v>
       </c>
       <c r="DQ31" s="23">
         <f t="shared" ref="DQ31" si="46">DP31*($F$2+1)</f>
-        <v>4055.5641054963939</v>
+        <v>22760.207216775107</v>
       </c>
       <c r="DR31" s="23">
         <f t="shared" ref="DR31" si="47">DQ31*($F$2+1)</f>
-        <v>4035.2862849689118</v>
+        <v>22874.008252858981</v>
       </c>
       <c r="DS31" s="23">
         <f t="shared" ref="DS31" si="48">DR31*($F$2+1)</f>
-        <v>4015.1098535440674</v>
+        <v>22988.378294123275</v>
       </c>
       <c r="DT31" s="23">
         <f t="shared" ref="DT31" si="49">DS31*($F$2+1)</f>
-        <v>3995.034304276347</v>
+        <v>23103.32018559389</v>
       </c>
       <c r="DU31" s="23">
         <f t="shared" ref="DU31" si="50">DT31*($F$2+1)</f>
-        <v>3975.0591327549655</v>
+        <v>23218.836786521857</v>
       </c>
       <c r="DV31" s="23">
         <f t="shared" ref="DV31" si="51">DU31*($F$2+1)</f>
-        <v>3955.1838370911905</v>
+        <v>23334.930970454465</v>
       </c>
       <c r="DW31" s="23">
         <f t="shared" ref="DW31" si="52">DV31*($F$2+1)</f>
-        <v>3935.4079179057344</v>
+        <v>23451.605625306736</v>
       </c>
       <c r="DX31" s="23">
         <f t="shared" ref="DX31" si="53">DW31*($F$2+1)</f>
-        <v>3915.7308783162057</v>
+        <v>23568.863653433269</v>
       </c>
       <c r="DY31" s="23">
         <f t="shared" ref="DY31" si="54">DX31*($F$2+1)</f>
-        <v>3896.1522239246246</v>
+        <v>23686.707971700434</v>
       </c>
       <c r="DZ31" s="23">
         <f t="shared" ref="DZ31" si="55">DY31*($F$2+1)</f>
-        <v>3876.6714628050013</v>
+        <v>23805.141511558933</v>
       </c>
       <c r="EA31" s="23">
         <f t="shared" ref="EA31" si="56">DZ31*($F$2+1)</f>
-        <v>3857.2881054909762</v>
+        <v>23924.167219116727</v>
       </c>
       <c r="EB31" s="23">
         <f t="shared" ref="EB31" si="57">EA31*($F$2+1)</f>
-        <v>3838.0016649635213</v>
+        <v>24043.78805521231</v>
       </c>
       <c r="EC31" s="23">
         <f t="shared" ref="EC31" si="58">EB31*($F$2+1)</f>
-        <v>3818.8116566387039</v>
+        <v>24164.006995488369</v>
       </c>
       <c r="ED31" s="23">
         <f t="shared" ref="ED31" si="59">EC31*($F$2+1)</f>
-        <v>3799.7175983555103</v>
+        <v>24284.827030465807</v>
       </c>
       <c r="EE31" s="23">
         <f t="shared" ref="EE31" si="60">ED31*($F$2+1)</f>
-        <v>3780.7190103637327</v>
+        <v>24406.251165618134</v>
       </c>
       <c r="EF31" s="23">
         <f t="shared" ref="EF31" si="61">EE31*($F$2+1)</f>
-        <v>3761.815415311914</v>
+        <v>24528.282421446223</v>
       </c>
       <c r="EG31" s="23">
         <f t="shared" ref="EG31" si="62">EF31*($F$2+1)</f>
-        <v>3743.0063382353542</v>
+        <v>24650.923833553454</v>
       </c>
       <c r="EH31" s="23">
         <f t="shared" ref="EH31" si="63">EG31*($F$2+1)</f>
-        <v>3724.2913065441776</v>
+        <v>24774.178452721218</v>
       </c>
       <c r="EI31" s="23">
         <f t="shared" ref="EI31" si="64">EH31*($F$2+1)</f>
-        <v>3705.6698500114567</v>
+        <v>24898.049344984822</v>
       </c>
       <c r="EJ31" s="23">
         <f t="shared" ref="EJ31" si="65">EI31*($F$2+1)</f>
-        <v>3687.1415007613996</v>
+        <v>25022.539591709745</v>
       </c>
       <c r="EK31" s="23">
         <f t="shared" ref="EK31" si="66">EJ31*($F$2+1)</f>
-        <v>3668.7057932575926</v>
+        <v>25147.652289668291</v>
       </c>
       <c r="EL31" s="23">
         <f t="shared" ref="EL31" si="67">EK31*($F$2+1)</f>
-        <v>3650.3622642913047</v>
+        <v>25273.39055111663</v>
       </c>
       <c r="EM31" s="23">
         <f t="shared" ref="EM31" si="68">EL31*($F$2+1)</f>
-        <v>3632.1104529698482</v>
+        <v>25399.75750387221</v>
       </c>
       <c r="EN31" s="23">
         <f t="shared" ref="EN31" si="69">EM31*($F$2+1)</f>
-        <v>3613.949900704999</v>
+        <v>25526.756291391568</v>
       </c>
       <c r="EO31" s="23">
         <f t="shared" ref="EO31" si="70">EN31*($F$2+1)</f>
-        <v>3595.8801512014738</v>
+        <v>25654.390072848524</v>
       </c>
       <c r="EP31" s="23">
         <f t="shared" ref="EP31" si="71">EO31*($F$2+1)</f>
-        <v>3577.9007504454667</v>
+        <v>25782.662023212764</v>
       </c>
       <c r="EQ31" s="23">
         <f t="shared" ref="EQ31" si="72">EP31*($F$2+1)</f>
-        <v>3560.0112466932392</v>
+        <v>25911.575333328827</v>
       </c>
       <c r="ER31" s="23">
         <f t="shared" ref="ER31" si="73">EQ31*($F$2+1)</f>
-        <v>3542.2111904597728</v>
+        <v>26041.133209995467</v>
       </c>
       <c r="ES31" s="23">
         <f t="shared" ref="ES31" si="74">ER31*($F$2+1)</f>
-        <v>3524.5001345074738</v>
+        <v>26171.33887604544</v>
       </c>
       <c r="ET31" s="23">
         <f t="shared" ref="ET31" si="75">ES31*($F$2+1)</f>
-        <v>3506.8776338349367</v>
+        <v>26302.195570425665</v>
       </c>
       <c r="EU31" s="23">
         <f t="shared" ref="EU31" si="76">ET31*($F$2+1)</f>
-        <v>3489.343245665762</v>
+        <v>26433.706548277791</v>
       </c>
       <c r="EV31" s="23">
         <f t="shared" ref="EV31" si="77">EU31*($F$2+1)</f>
-        <v>3471.8965294374329</v>
+        <v>26565.875081019178</v>
       </c>
       <c r="EW31" s="23">
         <f t="shared" ref="EW31" si="78">EV31*($F$2+1)</f>
-        <v>3454.5370467902458</v>
+        <v>26698.704456424271</v>
       </c>
       <c r="EX31" s="23">
         <f t="shared" ref="EX31" si="79">EW31*($F$2+1)</f>
-        <v>3437.2643615562947</v>
+        <v>26832.19797870639</v>
       </c>
       <c r="EY31" s="23">
         <f t="shared" ref="EY31" si="80">EX31*($F$2+1)</f>
-        <v>3420.0780397485132</v>
+        <v>26966.358968599918</v>
       </c>
       <c r="EZ31" s="23">
         <f t="shared" ref="EZ31" si="81">EY31*($F$2+1)</f>
-        <v>3402.9776495497708</v>
+        <v>27101.190763442915</v>
       </c>
       <c r="FA31" s="23">
         <f t="shared" ref="FA31" si="82">EZ31*($F$2+1)</f>
-        <v>3385.962761302022</v>
+        <v>27236.696717260125</v>
       </c>
       <c r="FB31" s="23">
         <f t="shared" ref="FB31" si="83">FA31*($F$2+1)</f>
-        <v>3369.032947495512</v>
+        <v>27372.880200846423</v>
       </c>
       <c r="FC31" s="23">
         <f t="shared" ref="FC31" si="84">FB31*($F$2+1)</f>
-        <v>3352.1877827580342</v>
+        <v>27509.744601850653</v>
       </c>
       <c r="FD31" s="23">
         <f t="shared" ref="FD31" si="85">FC31*($F$2+1)</f>
-        <v>3335.4268438442441</v>
+        <v>27647.293324859904</v>
       </c>
       <c r="FE31" s="23">
         <f t="shared" ref="FE31" si="86">FD31*($F$2+1)</f>
-        <v>3318.7497096250227</v>
+        <v>27785.529791484201</v>
       </c>
       <c r="FF31" s="23">
         <f t="shared" ref="FF31" si="87">FE31*($F$2+1)</f>
-        <v>3302.1559610768977</v>
+        <v>27924.45744044162</v>
       </c>
       <c r="FG31" s="23">
         <f t="shared" ref="FG31" si="88">FF31*($F$2+1)</f>
-        <v>3285.6451812715131</v>
+        <v>28064.079727643824</v>
       </c>
       <c r="FH31" s="23">
         <f t="shared" ref="FH31" si="89">FG31*($F$2+1)</f>
-        <v>3269.2169553651556</v>
+        <v>28204.400126282042</v>
       </c>
       <c r="FI31" s="23">
         <f t="shared" ref="FI31" si="90">FH31*($F$2+1)</f>
-        <v>3252.87087058833</v>
+        <v>28345.42212691345</v>
       </c>
       <c r="FJ31" s="23">
         <f t="shared" ref="FJ31" si="91">FI31*($F$2+1)</f>
-        <v>3236.6065162353884</v>
+        <v>28487.149237548016</v>
       </c>
       <c r="FK31" s="23">
         <f t="shared" ref="FK31" si="92">FJ31*($F$2+1)</f>
-        <v>3220.4234836542114</v>
+        <v>28629.584983735753</v>
       </c>
       <c r="FL31" s="23">
         <f t="shared" ref="FL31" si="93">FK31*($F$2+1)</f>
-        <v>3204.3213662359403</v>
+        <v>28772.732908654427</v>
       </c>
       <c r="FM31" s="23">
         <f t="shared" ref="FM31" si="94">FL31*($F$2+1)</f>
-        <v>3188.2997594047606</v>
+        <v>28916.596573197698</v>
       </c>
       <c r="FN31" s="23">
         <f t="shared" ref="FN31" si="95">FM31*($F$2+1)</f>
-        <v>3172.3582606077366</v>
+        <v>29061.179556063682</v>
       </c>
       <c r="FO31" s="23">
         <f t="shared" ref="FO31" si="96">FN31*($F$2+1)</f>
-        <v>3156.4964693046977</v>
+        <v>29206.485453843998</v>
       </c>
       <c r="FP31" s="23">
         <f t="shared" ref="FP31" si="97">FO31*($F$2+1)</f>
-        <v>3140.7139869581742</v>
+        <v>29352.517881113214</v>
       </c>
       <c r="FQ31" s="23">
         <f t="shared" ref="FQ31" si="98">FP31*($F$2+1)</f>
-        <v>3125.0104170233835</v>
+        <v>29499.280470518777</v>
       </c>
       <c r="FR31" s="23">
         <f t="shared" ref="FR31" si="99">FQ31*($F$2+1)</f>
-        <v>3109.3853649382668</v>
+        <v>29646.776872871367</v>
       </c>
       <c r="FS31" s="23">
         <f t="shared" ref="FS31" si="100">FR31*($F$2+1)</f>
-        <v>3093.8384381135756</v>
+        <v>29795.010757235719</v>
       </c>
       <c r="FT31" s="23">
         <f t="shared" ref="FT31" si="101">FS31*($F$2+1)</f>
-        <v>3078.3692459230078</v>
+        <v>29943.985811021896</v>
       </c>
       <c r="FU31" s="23">
         <f t="shared" ref="FU31" si="102">FT31*($F$2+1)</f>
-        <v>3062.9773996933927</v>
+        <v>30093.705740077003</v>
       </c>
       <c r="FV31" s="23">
         <f t="shared" ref="FV31" si="103">FU31*($F$2+1)</f>
-        <v>3047.6625126949257</v>
+        <v>30244.174268777384</v>
       </c>
       <c r="FW31" s="23">
         <f t="shared" ref="FW31" si="104">FV31*($F$2+1)</f>
-        <v>3032.424200131451</v>
+        <v>30395.395140121269</v>
       </c>
       <c r="FX31" s="23">
         <f t="shared" ref="FX31" si="105">FW31*($F$2+1)</f>
-        <v>3017.2620791307936</v>
+        <v>30547.372115821872</v>
       </c>
       <c r="FY31" s="23">
         <f t="shared" ref="FY31" si="106">FX31*($F$2+1)</f>
-        <v>3002.1757687351396</v>
+        <v>30700.108976400978</v>
       </c>
       <c r="FZ31" s="23">
         <f t="shared" ref="FZ31" si="107">FY31*($F$2+1)</f>
-        <v>2987.1648898914641</v>
+        <v>30853.609521282979</v>
       </c>
       <c r="GA31" s="23">
         <f t="shared" ref="GA31" si="108">FZ31*($F$2+1)</f>
-        <v>2972.2290654420067</v>
+        <v>31007.877568889391</v>
       </c>
       <c r="GB31" s="23">
         <f t="shared" ref="GB31" si="109">GA31*($F$2+1)</f>
-        <v>2957.3679201147966</v>
+        <v>31162.916956733836</v>
       </c>
       <c r="GC31" s="23">
         <f t="shared" ref="GC31" si="110">GB31*($F$2+1)</f>
-        <v>2942.5810805142228</v>
+        <v>31318.731541517504</v>
       </c>
       <c r="GD31" s="23">
         <f t="shared" ref="GD31" si="111">GC31*($F$2+1)</f>
-        <v>2927.8681751116515</v>
+        <v>31475.325199225088</v>
       </c>
       <c r="GE31" s="23">
         <f t="shared" ref="GE31" si="112">GD31*($F$2+1)</f>
-        <v>2913.228834236093</v>
+        <v>31632.701825221211</v>
       </c>
       <c r="GF31" s="23">
         <f t="shared" ref="GF31" si="113">GE31*($F$2+1)</f>
-        <v>2898.6626900649126</v>
+        <v>31790.865334347312</v>
       </c>
       <c r="GG31" s="23">
         <f t="shared" ref="GG31" si="114">GF31*($F$2+1)</f>
-        <v>2884.1693766145881</v>
+        <v>31949.819661019046</v>
       </c>
       <c r="GH31" s="23">
         <f t="shared" ref="GH31" si="115">GG31*($F$2+1)</f>
-        <v>2869.7485297315152</v>
+        <v>32109.568759324138</v>
       </c>
       <c r="GI31" s="23">
         <f t="shared" ref="GI31" si="116">GH31*($F$2+1)</f>
-        <v>2855.3997870828575</v>
+        <v>32270.116603120754</v>
       </c>
       <c r="GJ31" s="23">
         <f t="shared" ref="GJ31" si="117">GI31*($F$2+1)</f>
-        <v>2841.1227881474433</v>
+        <v>32431.467186136353</v>
       </c>
       <c r="GK31" s="23">
         <f t="shared" ref="GK31" si="118">GJ31*($F$2+1)</f>
-        <v>2826.917174206706</v>
+        <v>32593.624522067032</v>
       </c>
       <c r="GL31" s="23">
         <f t="shared" ref="GL31" si="119">GK31*($F$2+1)</f>
-        <v>2812.7825883356727</v>
+        <v>32756.592644677363</v>
       </c>
       <c r="GM31" s="23">
         <f t="shared" ref="GM31" si="120">GL31*($F$2+1)</f>
-        <v>2798.7186753939945</v>
+        <v>32920.375607900743</v>
       </c>
       <c r="GN31" s="23">
         <f t="shared" ref="GN31" si="121">GM31*($F$2+1)</f>
-        <v>2784.7250820170248</v>
+        <v>33084.977485940246</v>
       </c>
       <c r="GO31" s="23">
         <f t="shared" ref="GO31" si="122">GN31*($F$2+1)</f>
-        <v>2770.8014566069396</v>
+        <v>33250.402373369943</v>
       </c>
       <c r="GP31" s="23">
         <f t="shared" ref="GP31" si="123">GO31*($F$2+1)</f>
-        <v>2756.9474493239049</v>
+        <v>33416.65438523679</v>
       </c>
       <c r="GQ31" s="23">
         <f t="shared" ref="GQ31" si="124">GP31*($F$2+1)</f>
-        <v>2743.1627120772855</v>
+        <v>33583.737657162972</v>
       </c>
       <c r="GR31" s="23">
         <f t="shared" ref="GR31" si="125">GQ31*($F$2+1)</f>
-        <v>2729.4468985168992</v>
+        <v>33751.656345448784</v>
       </c>
       <c r="GS31" s="23">
         <f t="shared" ref="GS31" si="126">GR31*($F$2+1)</f>
-        <v>2715.7996640243146</v>
+        <v>33920.414627176026</v>
       </c>
       <c r="GT31" s="23">
         <f t="shared" ref="GT31" si="127">GS31*($F$2+1)</f>
-        <v>2702.2206657041929</v>
+        <v>34090.016700311899</v>
       </c>
       <c r="GU31" s="23">
         <f t="shared" ref="GU31" si="128">GT31*($F$2+1)</f>
-        <v>2688.7095623756718</v>
+        <v>34260.466783813456</v>
       </c>
       <c r="GV31" s="23">
         <f t="shared" ref="GV31" si="129">GU31*($F$2+1)</f>
-        <v>2675.2660145637933</v>
+        <v>34431.769117732518</v>
       </c>
       <c r="GW31" s="23">
         <f t="shared" ref="GW31" si="130">GV31*($F$2+1)</f>
-        <v>2661.8896844909741</v>
+        <v>34603.927963321177</v>
       </c>
       <c r="GX31" s="23">
         <f t="shared" ref="GX31" si="131">GW31*($F$2+1)</f>
-        <v>2648.5802360685193</v>
+        <v>34776.947603137778</v>
       </c>
       <c r="GY31" s="23">
         <f t="shared" ref="GY31" si="132">GX31*($F$2+1)</f>
-        <v>2635.3373348881769</v>
+        <v>34950.832341153466</v>
       </c>
       <c r="GZ31" s="23">
         <f t="shared" ref="GZ31" si="133">GY31*($F$2+1)</f>
-        <v>2622.1606482137358</v>
+        <v>35125.586502859231</v>
       </c>
       <c r="HA31" s="23">
         <f t="shared" ref="HA31" si="134">GZ31*($F$2+1)</f>
-        <v>2609.049844972667</v>
+        <v>35301.21443537352</v>
       </c>
       <c r="HB31" s="23">
         <f t="shared" ref="HB31" si="135">HA31*($F$2+1)</f>
-        <v>2596.0045957478037</v>
+        <v>35477.720507550381</v>
       </c>
       <c r="HC31" s="23">
         <f t="shared" ref="HC31" si="136">HB31*($F$2+1)</f>
-        <v>2583.0245727690649</v>
+        <v>35655.109110088131</v>
       </c>
       <c r="HD31" s="23">
         <f t="shared" ref="HD31" si="137">HC31*($F$2+1)</f>
-        <v>2570.1094499052197</v>
+        <v>35833.384655638569</v>
       </c>
       <c r="HE31" s="23">
         <f t="shared" ref="HE31" si="138">HD31*($F$2+1)</f>
-        <v>2557.2589026556934</v>
+        <v>36012.551578916755</v>
       </c>
       <c r="HF31" s="23">
         <f t="shared" ref="HF31" si="139">HE31*($F$2+1)</f>
-        <v>2544.4726081424151</v>
+        <v>36192.614336811333</v>
       </c>
       <c r="HG31" s="23">
         <f t="shared" ref="HG31" si="140">HF31*($F$2+1)</f>
-        <v>2531.7502451017031</v>
+        <v>36373.577408495388</v>
       </c>
       <c r="HH31" s="23">
         <f t="shared" ref="HH31" si="141">HG31*($F$2+1)</f>
-        <v>2519.0914938761944</v>
+        <v>36555.445295537858</v>
       </c>
       <c r="HI31" s="23">
         <f t="shared" ref="HI31" si="142">HH31*($F$2+1)</f>
-        <v>2506.4960364068133</v>
+        <v>36738.222522015545</v>
       </c>
       <c r="HJ31" s="23">
         <f t="shared" ref="HJ31" si="143">HI31*($F$2+1)</f>
-        <v>2493.9635562247795</v>
+        <v>36921.91363462562</v>
       </c>
       <c r="HK31" s="23">
         <f t="shared" ref="HK31" si="144">HJ31*($F$2+1)</f>
-        <v>2481.4937384436557</v>
+        <v>37106.523202798744</v>
       </c>
       <c r="HL31" s="23">
         <f t="shared" ref="HL31" si="145">HK31*($F$2+1)</f>
-        <v>2469.0862697514376</v>
+        <v>37292.055818812732</v>
       </c>
       <c r="HM31" s="23">
         <f t="shared" ref="HM31" si="146">HL31*($F$2+1)</f>
-        <v>2456.7408384026803</v>
+        <v>37478.516097906795</v>
       </c>
       <c r="HN31" s="23">
         <f t="shared" ref="HN31" si="147">HM31*($F$2+1)</f>
-        <v>2444.4571342106669</v>
+        <v>37665.908678396328</v>
       </c>
       <c r="HO31" s="23">
         <f t="shared" ref="HO31" si="148">HN31*($F$2+1)</f>
-        <v>2432.2348485396137</v>
+        <v>37854.238221788306</v>
       </c>
       <c r="HP31" s="23">
         <f t="shared" ref="HP31" si="149">HO31*($F$2+1)</f>
-        <v>2420.0736742969157</v>
+        <v>38043.509412897241</v>
       </c>
       <c r="HQ31" s="23">
         <f t="shared" ref="HQ31" si="150">HP31*($F$2+1)</f>
-        <v>2407.9733059254313</v>
+        <v>38233.726959961721</v>
       </c>
       <c r="HR31" s="23">
         <f t="shared" ref="HR31" si="151">HQ31*($F$2+1)</f>
-        <v>2395.9334393958043</v>
+        <v>38424.895594761525</v>
       </c>
       <c r="HS31" s="23">
         <f t="shared" ref="HS31" si="152">HR31*($F$2+1)</f>
-        <v>2383.9537721988254</v>
+        <v>38617.020072735329</v>
       </c>
       <c r="HT31" s="23">
         <f t="shared" ref="HT31" si="153">HS31*($F$2+1)</f>
-        <v>2372.0340033378311</v>
+        <v>38810.105173099</v>
       </c>
       <c r="HU31" s="23">
         <f t="shared" ref="HU31" si="154">HT31*($F$2+1)</f>
-        <v>2360.173833321142</v>
+        <v>39004.155698964489</v>
       </c>
       <c r="HV31" s="23">
         <f t="shared" ref="HV31" si="155">HU31*($F$2+1)</f>
-        <v>2348.372964154536</v>
+        <v>39199.17647745931</v>
       </c>
       <c r="HW31" s="23">
         <f t="shared" ref="HW31" si="156">HV31*($F$2+1)</f>
-        <v>2336.6310993337634</v>
+        <v>39395.172359846605</v>
       </c>
       <c r="HX31" s="23">
         <f t="shared" ref="HX31" si="157">HW31*($F$2+1)</f>
-        <v>2324.9479438370945</v>
+        <v>39592.148221645832</v>
       </c>
       <c r="HY31" s="23">
         <f t="shared" ref="HY31" si="158">HX31*($F$2+1)</f>
-        <v>2313.323204117909</v>
+        <v>39790.108962754057</v>
       </c>
       <c r="HZ31" s="23">
         <f t="shared" ref="HZ31" si="159">HY31*($F$2+1)</f>
-        <v>2301.7565880973193</v>
+        <v>39989.059507567821</v>
       </c>
       <c r="IA31" s="23">
         <f t="shared" ref="IA31" si="160">HZ31*($F$2+1)</f>
-        <v>2290.2478051568328</v>
+        <v>40189.004805105658</v>
       </c>
       <c r="IB31" s="23">
         <f t="shared" ref="IB31" si="161">IA31*($F$2+1)</f>
-        <v>2278.7965661310486</v>
+        <v>40389.949829131183</v>
       </c>
       <c r="IC31" s="23">
         <f t="shared" ref="IC31" si="162">IB31*($F$2+1)</f>
-        <v>2267.4025833003934</v>
+        <v>40591.899578276832</v>
       </c>
       <c r="ID31" s="23">
         <f t="shared" ref="ID31" si="163">IC31*($F$2+1)</f>
-        <v>2256.0655703838916</v>
+        <v>40794.859076168214</v>
       </c>
       <c r="IE31" s="23">
         <f t="shared" ref="IE31" si="164">ID31*($F$2+1)</f>
-        <v>2244.785242531972</v>
+        <v>40998.833371549052</v>
       </c>
       <c r="IF31" s="23">
         <f t="shared" ref="IF31" si="165">IE31*($F$2+1)</f>
-        <v>2233.561316319312</v>
+        <v>41203.827538406789</v>
       </c>
       <c r="IG31" s="23">
         <f t="shared" ref="IG31" si="166">IF31*($F$2+1)</f>
-        <v>2222.3935097377152</v>
+        <v>41409.846676098816</v>
       </c>
       <c r="IH31" s="23">
         <f t="shared" ref="IH31" si="167">IG31*($F$2+1)</f>
-        <v>2211.2815421890268</v>
+        <v>41616.895909479303</v>
       </c>
       <c r="II31" s="23">
         <f t="shared" ref="II31" si="168">IH31*($F$2+1)</f>
-        <v>2200.2251344780816</v>
+        <v>41824.980389026692</v>
       </c>
     </row>
     <row r="32" spans="1:243" x14ac:dyDescent="0.15">
@@ -3293,59 +3286,59 @@
       </c>
       <c r="E32" s="19">
         <f t="shared" ref="E32:F32" si="169">E31/E33</f>
-        <v>0.2463944494190082</v>
+        <v>1.5903905776757616</v>
       </c>
       <c r="F32" s="19">
         <f t="shared" si="169"/>
-        <v>0.51099545314811845</v>
+        <v>2.2969204688036342</v>
       </c>
       <c r="G32" s="19">
         <f t="shared" ref="G32:O32" si="170">G31/G33</f>
-        <v>0.93769901098115538</v>
+        <v>3.4379786612392595</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="170"/>
-        <v>1.6119482711487823</v>
+        <v>5.2615700323434709</v>
       </c>
       <c r="I32" s="19">
         <f t="shared" si="170"/>
-        <v>2.6618523509665928</v>
+        <v>8.1481301708287006</v>
       </c>
       <c r="J32" s="19">
         <f t="shared" si="170"/>
-        <v>3.3709782915034237</v>
+        <v>9.4833749179452766</v>
       </c>
       <c r="K32" s="19">
         <f t="shared" si="170"/>
-        <v>4.2671593059797992</v>
+        <v>11.069603967077464</v>
       </c>
       <c r="L32" s="19">
         <f t="shared" si="170"/>
-        <v>5.2633535221880132</v>
+        <v>12.826190763731267</v>
       </c>
       <c r="M32" s="19">
         <f t="shared" si="170"/>
-        <v>6.3699453393230634</v>
+        <v>14.770576937300183</v>
       </c>
       <c r="N32" s="19">
         <f t="shared" si="170"/>
-        <v>7.5983644651172639</v>
+        <v>16.921955535920375</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="170"/>
-        <v>8.9611906460054183</v>
+        <v>19.301446374238608</v>
       </c>
       <c r="P32" s="19">
         <f t="shared" ref="P32:R32" si="171">P31/P33</f>
-        <v>10.472268873837292</v>
+        <v>21.932288919599511</v>
       </c>
       <c r="Q32" s="19">
         <f t="shared" si="171"/>
-        <v>12.146836116885202</v>
+        <v>24.840054470589354</v>
       </c>
       <c r="R32" s="19">
         <f t="shared" si="171"/>
-        <v>14.001660727670863</v>
+        <v>28.052879557268358</v>
       </c>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
@@ -3476,47 +3469,47 @@
       </c>
       <c r="H35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093653</v>
+        <v>0.40115752146093647</v>
       </c>
       <c r="I35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093653</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="J35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093653</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093653</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="L35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093647</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="M35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093647</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="N35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093647</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="O35" s="22">
         <f t="shared" si="182"/>
-        <v>0.40115752146093647</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="P35" s="22">
         <f t="shared" ref="P35:R35" si="183">IFERROR(P22/P20,0)</f>
-        <v>0.40115752146093647</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="Q35" s="22">
         <f t="shared" si="183"/>
-        <v>0.40115752146093647</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="R35" s="22">
         <f t="shared" si="183"/>
-        <v>0.40115752146093647</v>
+        <v>0.40115752146093642</v>
       </c>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
@@ -3539,59 +3532,59 @@
       </c>
       <c r="E36" s="21">
         <f t="shared" si="184"/>
-        <v>1.9796267137582223E-2</v>
+        <v>0.11248030324559403</v>
       </c>
       <c r="F36" s="21">
         <f t="shared" si="184"/>
-        <v>3.5168616506508189E-2</v>
+        <v>0.12618153292446502</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="184"/>
-        <v>5.1995923670891363E-2</v>
+        <v>0.14411687567837733</v>
       </c>
       <c r="H36" s="21">
         <f t="shared" si="184"/>
-        <v>7.0190391059987589E-2</v>
+        <v>0.16524397780801084</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="184"/>
-        <v>8.9597682416410807E-2</v>
+        <v>0.18831947437089927</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="184"/>
-        <v>0.10252732801941562</v>
+        <v>0.19715219340217513</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="184"/>
-        <v>0.11741603796319214</v>
+        <v>0.20732322172803883</v>
       </c>
       <c r="L36" s="21">
         <f t="shared" si="184"/>
-        <v>0.13097459666659958</v>
+        <v>0.21658557455450969</v>
       </c>
       <c r="M36" s="21">
         <f t="shared" si="184"/>
-        <v>0.14332672450767198</v>
+        <v>0.22502376984682601</v>
       </c>
       <c r="N36" s="21">
         <f t="shared" si="184"/>
-        <v>0.1545842005162944</v>
+        <v>0.23271416799373132</v>
       </c>
       <c r="O36" s="21">
         <f t="shared" si="184"/>
-        <v>0.16484805194524763</v>
+        <v>0.23972578444744408</v>
       </c>
       <c r="P36" s="21">
         <f t="shared" ref="P36:R36" si="185">IFERROR(P27/P20,0)</f>
-        <v>0.17420962229688236</v>
+        <v>0.24612101933217251</v>
       </c>
       <c r="Q36" s="21">
         <f t="shared" si="185"/>
-        <v>0.1827515304664814</v>
+        <v>0.2519563126704133</v>
       </c>
       <c r="R36" s="21">
         <f t="shared" si="185"/>
-        <v>0.19054853232567462</v>
+        <v>0.25728273296244236</v>
       </c>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
@@ -3707,23 +3700,23 @@
       </c>
       <c r="E39" s="20">
         <f>E20/D20-1</f>
-        <v>0.26389034237174602</v>
+        <v>0.66968079183342266</v>
       </c>
       <c r="F39" s="20">
         <f>F20/E20-1</f>
-        <v>0.27249899895541985</v>
+        <v>0.28205465974932764</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" si="188"/>
-        <v>0.28181961760090535</v>
+        <v>0.30821292214152374</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" si="188"/>
-        <v>0.29181592395448264</v>
+        <v>0.33416012202275702</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" si="188"/>
-        <v>0.30242377467411075</v>
+        <v>0.3589783263107198</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" si="188"/>
@@ -3982,75 +3975,75 @@
     </row>
     <row r="43" spans="1:20" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70">
+        <v>87</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21">
         <f>C26/B26-1</f>
         <v>0.49776286353467558</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="21">
         <f t="shared" ref="D43:R43" si="192">D26/C26-1</f>
         <v>0.39172143390589986</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="21">
         <f t="shared" si="192"/>
         <v>0.21946630426908276</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="21">
         <f t="shared" si="192"/>
         <v>0.22120564137965171</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="21">
         <f t="shared" si="192"/>
         <v>0.222884573006074</v>
       </c>
-      <c r="H43" s="70">
+      <c r="H43" s="21">
         <f t="shared" si="192"/>
         <v>0.22450066692201198</v>
       </c>
-      <c r="I43" s="70">
+      <c r="I43" s="21">
         <f t="shared" si="192"/>
         <v>0.22605208896014939</v>
       </c>
-      <c r="J43" s="70">
+      <c r="J43" s="21">
         <f t="shared" si="192"/>
         <v>5.435030969677479E-2</v>
       </c>
-      <c r="K43" s="70">
+      <c r="K43" s="21">
         <f t="shared" si="192"/>
         <v>4.5157652180400687E-2</v>
       </c>
-      <c r="L43" s="70">
+      <c r="L43" s="21">
         <f t="shared" si="192"/>
         <v>4.7436608881102016E-2</v>
       </c>
-      <c r="M43" s="70">
+      <c r="M43" s="21">
         <f t="shared" si="192"/>
         <v>4.9710587241875936E-2</v>
       </c>
-      <c r="N43" s="70">
+      <c r="N43" s="21">
         <f t="shared" si="192"/>
         <v>5.1971510945105326E-2</v>
       </c>
-      <c r="O43" s="70">
+      <c r="O43" s="21">
         <f t="shared" si="192"/>
         <v>5.4211442955001354E-2</v>
       </c>
-      <c r="P43" s="70">
+      <c r="P43" s="21">
         <f t="shared" si="192"/>
         <v>5.6422705328300182E-2</v>
       </c>
-      <c r="Q43" s="70">
+      <c r="Q43" s="21">
         <f t="shared" si="192"/>
         <v>5.8597990899370567E-2</v>
       </c>
-      <c r="R43" s="70">
+      <c r="R43" s="21">
         <f t="shared" si="192"/>
         <v>6.0730463454501615E-2</v>
       </c>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
@@ -4088,59 +4081,59 @@
       </c>
       <c r="E45" s="18">
         <f>D45+E31</f>
-        <v>1256.59838738129</v>
+        <v>1908.9660440603486</v>
       </c>
       <c r="F45" s="18">
         <f t="shared" ref="F45:R45" si="193">E45+F31</f>
-        <v>1504.6325143666677</v>
+        <v>3023.8774580948198</v>
       </c>
       <c r="G45" s="18">
         <f t="shared" si="193"/>
-        <v>1959.7859881028546</v>
+        <v>4692.6516723883888</v>
       </c>
       <c r="H45" s="18">
         <f t="shared" si="193"/>
-        <v>2742.2160072288466</v>
+        <v>7246.5861966677148</v>
       </c>
       <c r="I45" s="18">
         <f t="shared" si="193"/>
-        <v>4034.2631672739249</v>
+        <v>11201.639692806941</v>
       </c>
       <c r="J45" s="18">
         <f t="shared" si="193"/>
-        <v>5670.5158040999377</v>
+        <v>15804.81297772807</v>
       </c>
       <c r="K45" s="18">
         <f t="shared" si="193"/>
-        <v>7741.7693282666969</v>
+        <v>21177.932325723668</v>
       </c>
       <c r="L45" s="18">
         <f t="shared" si="193"/>
-        <v>10296.569547815625</v>
+        <v>27403.688365294242</v>
       </c>
       <c r="M45" s="18">
         <f t="shared" si="193"/>
-        <v>13388.502795851004</v>
+        <v>34573.23778719813</v>
       </c>
       <c r="N45" s="18">
         <f t="shared" si="193"/>
-        <v>17076.703317032134</v>
+        <v>42787.053472600666</v>
       </c>
       <c r="O45" s="18">
         <f t="shared" si="193"/>
-        <v>21426.411489459286</v>
+        <v>52155.859733977843</v>
       </c>
       <c r="P45" s="18">
         <f t="shared" si="193"/>
-        <v>26509.587967206666</v>
+        <v>62801.66118181793</v>
       </c>
       <c r="Q45" s="18">
         <f t="shared" si="193"/>
-        <v>32405.589337326041</v>
+        <v>74858.874581515178</v>
       </c>
       <c r="R45" s="18">
         <f t="shared" si="193"/>
-        <v>39201.91144457311</v>
+        <v>88475.574001335888</v>
       </c>
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
@@ -4310,7 +4303,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="14">
         <f t="shared" ref="C61:D63" si="194">C12/B12-1</f>
@@ -4322,28 +4315,28 @@
       </c>
       <c r="E61" s="14">
         <f t="shared" ref="E61:I61" si="195">E12/D12-1</f>
-        <v>0.19999999999999996</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" si="195"/>
-        <v>0.19999999999999996</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G61" s="14">
         <f t="shared" si="195"/>
-        <v>0.19999999999999996</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="195"/>
-        <v>0.19999999999999996</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I61" s="14">
         <f t="shared" si="195"/>
-        <v>0.19999999999999996</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="14">
         <f t="shared" si="194"/>
@@ -4355,28 +4348,28 @@
       </c>
       <c r="E62" s="14">
         <f t="shared" ref="E62:I62" si="196">E13/D13-1</f>
-        <v>0.35000000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" si="196"/>
-        <v>0.35000000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="G62" s="14">
         <f t="shared" si="196"/>
-        <v>0.35000000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="196"/>
-        <v>0.35000000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="I62" s="14">
         <f t="shared" si="196"/>
-        <v>0.35000000000000031</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14">
@@ -4410,7 +4403,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -4420,7 +4413,7 @@
       </c>
       <c r="E64" s="14">
         <f t="shared" ref="E64:I64" si="198">E15/D15-1</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F64" s="14">
         <f t="shared" si="198"/>
@@ -4463,13 +4456,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4486,7 +4479,7 @@
     <col min="15" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -4526,11 +4519,20 @@
       <c r="M1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N1" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="34"/>
       <c r="B2" s="28" t="s">
         <v>24</v>
@@ -4568,11 +4570,17 @@
       <c r="M2" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="81">
+      <c r="N2" s="71">
         <v>43921</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O2" s="82">
+        <v>44012</v>
+      </c>
+      <c r="P2" s="82">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
         <v>77</v>
       </c>
@@ -4612,11 +4620,17 @@
       <c r="M3" s="37">
         <v>832.18</v>
       </c>
-      <c r="N3" s="82">
+      <c r="N3" s="72">
         <v>758.101</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="36">
+        <v>682.572</v>
+      </c>
+      <c r="P3" s="36">
+        <v>925.29399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
         <v>78</v>
       </c>
@@ -4656,11 +4670,17 @@
       <c r="M4" s="37">
         <v>281.41500000000002</v>
       </c>
-      <c r="N4" s="82">
+      <c r="N4" s="72">
         <v>296.23500000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="36">
+        <v>346.27499999999998</v>
+      </c>
+      <c r="P4" s="36">
+        <v>447.52199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>79</v>
       </c>
@@ -4700,11 +4720,17 @@
       <c r="M5" s="37">
         <v>22.567</v>
       </c>
-      <c r="N5" s="82">
+      <c r="N5" s="72">
         <v>20.675000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="36">
+        <v>19.321999999999999</v>
+      </c>
+      <c r="P5" s="36">
+        <v>27.294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>80</v>
       </c>
@@ -4736,11 +4762,17 @@
       <c r="M6" s="37">
         <v>177.56700000000001</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="72">
         <v>306.09800000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O6" s="36">
+        <v>875.45600000000002</v>
+      </c>
+      <c r="P6" s="36">
+        <v>1633.7639999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="29"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -4753,9 +4785,9 @@
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
-      <c r="N7" s="82"/>
-    </row>
-    <row r="8" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="72"/>
+    </row>
+    <row r="8" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>42</v>
       </c>
@@ -4771,9 +4803,9 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
-      <c r="N8" s="82"/>
-    </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="72"/>
+    </row>
+    <row r="9" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>55</v>
       </c>
@@ -4789,28 +4821,28 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="83"/>
-    </row>
-    <row r="10" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N9" s="73"/>
+    </row>
+    <row r="10" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80">
+        <v>1160</v>
+      </c>
+      <c r="N10" s="81">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
@@ -4866,8 +4898,16 @@
         <f>SUM(N3:N6)</f>
         <v>1381.1089999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="41">
+        <f t="shared" ref="O11:P11" si="1">SUM(O3:O6)</f>
+        <v>1923.625</v>
+      </c>
+      <c r="P11" s="41">
+        <f t="shared" si="1"/>
+        <v>3033.8739999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
         <v>5</v>
       </c>
@@ -4907,68 +4947,82 @@
       <c r="M12" s="37">
         <v>786.38</v>
       </c>
-      <c r="N12" s="82">
+      <c r="N12" s="72">
         <v>843</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="36">
+        <v>1326.8620000000001</v>
+      </c>
+      <c r="P12" s="36">
+        <v>2239.4189999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="44">
-        <f t="shared" ref="B13:D13" si="1">B11-B12</f>
+        <f t="shared" ref="B13:D13" si="2">B11-B12</f>
         <v>173</v>
       </c>
       <c r="C13" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="D13" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="E13" s="43">
-        <f t="shared" ref="E13:G13" si="2">E11-E12</f>
+        <f t="shared" ref="E13:G13" si="3">E11-E12</f>
         <v>240</v>
       </c>
       <c r="F13" s="44">
-        <f t="shared" ref="F13" si="3">F11-F12</f>
+        <f t="shared" ref="F13" si="4">F11-F12</f>
         <v>255</v>
       </c>
       <c r="G13" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>315</v>
       </c>
       <c r="H13" s="43">
-        <f t="shared" ref="H13:N13" si="4">H11-H12</f>
+        <f t="shared" ref="H13:P13" si="5">H11-H12</f>
         <v>353</v>
       </c>
       <c r="I13" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="J13" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>397</v>
       </c>
       <c r="K13" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>466</v>
       </c>
       <c r="L13" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>501</v>
       </c>
       <c r="M13" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>527.34900000000005</v>
       </c>
       <c r="N13" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>538.10899999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="43">
+        <f t="shared" si="5"/>
+        <v>596.76299999999992</v>
+      </c>
+      <c r="P13" s="43">
+        <f t="shared" si="5"/>
+        <v>794.45499999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
         <v>7</v>
       </c>
@@ -5008,11 +5062,17 @@
       <c r="M14" s="37">
         <v>173.28399999999999</v>
       </c>
-      <c r="N14" s="82">
+      <c r="N14" s="72">
         <v>195</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O14" s="36">
+        <v>207</v>
+      </c>
+      <c r="P14" s="36">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
         <v>8</v>
       </c>
@@ -5052,11 +5112,17 @@
       <c r="M15" s="37">
         <v>185.23099999999999</v>
       </c>
-      <c r="N15" s="82">
+      <c r="N15" s="72">
         <v>195</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="36">
+        <v>238</v>
+      </c>
+      <c r="P15" s="36">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
         <v>9</v>
       </c>
@@ -5108,98 +5174,114 @@
         <f>118+32+1</f>
         <v>151</v>
       </c>
-      <c r="N16" s="82">
+      <c r="N16" s="72">
         <f>129+109+1</f>
         <v>239</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="36">
+        <f>136+38+1</f>
+        <v>175</v>
+      </c>
+      <c r="P16" s="36">
+        <f>154+15+1</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="44">
-        <f t="shared" ref="B17:D17" si="5">SUM(B14:B16)</f>
+        <f t="shared" ref="B17:D17" si="6">SUM(B14:B16)</f>
         <v>188</v>
       </c>
       <c r="C17" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="D17" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>234</v>
       </c>
       <c r="E17" s="43">
-        <f t="shared" ref="E17:G17" si="6">SUM(E14:E16)</f>
+        <f t="shared" ref="E17:G17" si="7">SUM(E14:E16)</f>
         <v>253</v>
       </c>
       <c r="F17" s="44">
-        <f t="shared" ref="F17" si="7">SUM(F14:F16)</f>
+        <f t="shared" ref="F17" si="8">SUM(F14:F16)</f>
         <v>276</v>
       </c>
       <c r="G17" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>318</v>
       </c>
       <c r="H17" s="43">
-        <f t="shared" ref="H17:L17" si="8">SUM(H14:H16)</f>
+        <f t="shared" ref="H17:L17" si="9">SUM(H14:H16)</f>
         <v>363</v>
       </c>
       <c r="I17" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>382</v>
       </c>
       <c r="J17" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
       <c r="K17" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>466</v>
       </c>
       <c r="L17" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>468</v>
       </c>
       <c r="M17" s="43">
-        <f t="shared" ref="M17:N17" si="9">SUM(M14:M16)</f>
+        <f t="shared" ref="M17:N17" si="10">SUM(M14:M16)</f>
         <v>509.51499999999999</v>
       </c>
       <c r="N17" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>629</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="43">
+        <f t="shared" ref="O17:P17" si="11">SUM(O14:O16)</f>
+        <v>620</v>
+      </c>
+      <c r="P17" s="43">
+        <f t="shared" si="11"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="44">
-        <f t="shared" ref="B18:H18" si="10">B13-B17</f>
+        <f t="shared" ref="B18:H18" si="12">B13-B17</f>
         <v>-15</v>
       </c>
       <c r="C18" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
       <c r="D18" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-16</v>
       </c>
       <c r="E18" s="43">
-        <f t="shared" ref="E18" si="11">E13-E17</f>
+        <f t="shared" ref="E18" si="13">E13-E17</f>
         <v>-13</v>
       </c>
       <c r="F18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-21</v>
       </c>
       <c r="G18" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="H18" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="I18" s="43">
@@ -5207,27 +5289,35 @@
         <v>-2</v>
       </c>
       <c r="J18" s="44">
-        <f t="shared" ref="J18" si="12">J13-J17</f>
+        <f t="shared" ref="J18" si="14">J13-J17</f>
         <v>-23</v>
       </c>
       <c r="K18" s="43">
-        <f t="shared" ref="K18:L18" si="13">K13-K17</f>
+        <f t="shared" ref="K18:L18" si="15">K13-K17</f>
         <v>0</v>
       </c>
       <c r="L18" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="M18" s="43">
-        <f t="shared" ref="M18:N18" si="14">M13-M17</f>
+        <f t="shared" ref="M18:N18" si="16">M13-M17</f>
         <v>17.83400000000006</v>
       </c>
       <c r="N18" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-90.891000000000076</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="43">
+        <f t="shared" ref="O18:P18" si="17">O13-O17</f>
+        <v>-23.23700000000008</v>
+      </c>
+      <c r="P18" s="43">
+        <f t="shared" si="17"/>
+        <v>49.454999999999927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
         <v>12</v>
       </c>
@@ -5276,12 +5366,20 @@
         <f>373+6-7</f>
         <v>372</v>
       </c>
-      <c r="N19" s="82">
+      <c r="N19" s="72">
         <f>-9-6</f>
         <v>-15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O19" s="36">
+        <f>-15+26</f>
+        <v>11</v>
+      </c>
+      <c r="P19" s="36">
+        <f>-15+1</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
         <v>13</v>
       </c>
@@ -5290,27 +5388,27 @@
         <v>-16</v>
       </c>
       <c r="C20" s="43">
-        <f t="shared" ref="C20" si="15">C18+C19</f>
+        <f t="shared" ref="C20" si="18">C18+C19</f>
         <v>-15</v>
       </c>
       <c r="D20" s="43">
-        <f t="shared" ref="D20:E20" si="16">D18+D19</f>
+        <f t="shared" ref="D20:E20" si="19">D18+D19</f>
         <v>-18</v>
       </c>
       <c r="E20" s="43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-15</v>
       </c>
       <c r="F20" s="44">
-        <f t="shared" ref="F20" si="17">F18+F19</f>
+        <f t="shared" ref="F20" si="20">F18+F19</f>
         <v>-24</v>
       </c>
       <c r="G20" s="43">
-        <f t="shared" ref="G20:H20" si="18">G18+G19</f>
+        <f t="shared" ref="G20:H20" si="21">G18+G19</f>
         <v>-5</v>
       </c>
       <c r="H20" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="I20" s="43">
@@ -5318,27 +5416,35 @@
         <v>-26</v>
       </c>
       <c r="J20" s="44">
-        <f t="shared" ref="J20" si="19">J18+J19</f>
+        <f t="shared" ref="J20" si="22">J18+J19</f>
         <v>-39</v>
       </c>
       <c r="K20" s="43">
-        <f t="shared" ref="K20:N20" si="20">K18+K19</f>
+        <f t="shared" ref="K20:P20" si="23">K18+K19</f>
         <v>-7</v>
       </c>
       <c r="L20" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="M20" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>389.83400000000006</v>
       </c>
       <c r="N20" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-105.89100000000008</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O20" s="43">
+        <f t="shared" si="23"/>
+        <v>-12.23700000000008</v>
+      </c>
+      <c r="P20" s="43">
+        <f t="shared" si="23"/>
+        <v>35.454999999999927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
         <v>14</v>
       </c>
@@ -5378,125 +5484,147 @@
       <c r="M21" s="37">
         <v>1</v>
       </c>
-      <c r="N21" s="82">
+      <c r="N21" s="72">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="42">
-        <f t="shared" ref="B22:F22" si="21">B20-B21</f>
+        <f t="shared" ref="B22:F22" si="24">B20-B21</f>
         <v>-16</v>
       </c>
       <c r="C22" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-15</v>
       </c>
       <c r="D22" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-17</v>
       </c>
       <c r="E22" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-15</v>
       </c>
       <c r="F22" s="42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-24</v>
       </c>
       <c r="G22" s="41">
-        <f t="shared" ref="G22:H22" si="22">G20-G21</f>
+        <f t="shared" ref="G22:H22" si="25">G20-G21</f>
         <v>-6</v>
       </c>
       <c r="H22" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="I22" s="41">
-        <f t="shared" ref="I22:J22" si="23">I20-I21</f>
+        <f t="shared" ref="I22:J22" si="26">I20-I21</f>
         <v>-26</v>
       </c>
       <c r="J22" s="42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-39</v>
       </c>
       <c r="K22" s="41">
-        <f t="shared" ref="K22:L22" si="24">K20-K21</f>
+        <f t="shared" ref="K22:L22" si="27">K20-K21</f>
         <v>-7</v>
       </c>
       <c r="L22" s="41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>29</v>
       </c>
       <c r="M22" s="41">
-        <f t="shared" ref="M22:N22" si="25">M20-M21</f>
+        <f t="shared" ref="M22:N22" si="28">M20-M21</f>
         <v>388.83400000000006</v>
       </c>
       <c r="N22" s="42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-106.89100000000008</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O22" s="41">
+        <f t="shared" ref="O22:P22" si="29">O20-O21</f>
+        <v>-11.23700000000008</v>
+      </c>
+      <c r="P22" s="41">
+        <f t="shared" si="29"/>
+        <v>36.454999999999927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="46">
-        <f t="shared" ref="B23:C23" si="26">IFERROR(B22/B24,0)</f>
+        <f t="shared" ref="B23:C23" si="30">IFERROR(B22/B24,0)</f>
         <v>-4.3596730245231606E-2</v>
       </c>
       <c r="C23" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-3.9893617021276598E-2</v>
       </c>
       <c r="D23" s="45">
-        <f t="shared" ref="D23:E23" si="27">IFERROR(D22/D24,0)</f>
+        <f t="shared" ref="D23:E23" si="31">IFERROR(D22/D24,0)</f>
         <v>-4.4270833333333336E-2</v>
       </c>
       <c r="E23" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-3.8461538461538464E-2</v>
       </c>
       <c r="F23" s="46">
-        <f t="shared" ref="F23" si="28">IFERROR(F22/F24,0)</f>
+        <f t="shared" ref="F23" si="32">IFERROR(F22/F24,0)</f>
         <v>-6.0606060606060608E-2</v>
       </c>
       <c r="G23" s="45">
-        <f t="shared" ref="G23:H23" si="29">IFERROR(G22/G24,0)</f>
+        <f t="shared" ref="G23:H23" si="33">IFERROR(G22/G24,0)</f>
         <v>-1.488833746898263E-2</v>
       </c>
       <c r="H23" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>4.2105263157894736E-2</v>
       </c>
       <c r="I23" s="45">
-        <f t="shared" ref="I23:J23" si="30">IFERROR(I22/I24,0)</f>
+        <f t="shared" ref="I23:J23" si="34">IFERROR(I22/I24,0)</f>
         <v>-6.280193236714976E-2</v>
       </c>
       <c r="J23" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-9.3078758949880672E-2</v>
       </c>
       <c r="K23" s="45">
-        <f t="shared" ref="K23:L23" si="31">IFERROR(K22/K24,0)</f>
+        <f t="shared" ref="K23:L23" si="35">IFERROR(K22/K24,0)</f>
         <v>-1.6548463356973995E-2</v>
       </c>
       <c r="L23" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.2231759656652362E-2</v>
       </c>
       <c r="M23" s="45">
-        <f t="shared" ref="M23:N23" si="32">IFERROR(M22/M24,0)</f>
+        <f t="shared" ref="M23:N23" si="36">IFERROR(M22/M24,0)</f>
         <v>0.80106882244115096</v>
       </c>
       <c r="N23" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-0.24576033475881748</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O23" s="45">
+        <f t="shared" ref="O23:P23" si="37">IFERROR(O22/O24,0)</f>
+        <v>-2.5531847213354813E-2</v>
+      </c>
+      <c r="P23" s="45">
+        <f t="shared" si="37"/>
+        <v>7.4692307849914513E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="33" t="s">
         <v>17</v>
       </c>
@@ -5536,11 +5664,17 @@
       <c r="M24" s="37">
         <v>485.39400000000001</v>
       </c>
-      <c r="N24" s="80">
+      <c r="N24" s="70">
         <v>434.94</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O24" s="77">
+        <v>440.11700000000002</v>
+      </c>
+      <c r="P24" s="37">
+        <v>488.06900000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B25" s="29"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -5554,178 +5688,202 @@
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="48">
-        <f t="shared" ref="B26:J26" si="33">IFERROR(B13/B11,0)</f>
+        <f t="shared" ref="B26:J26" si="38">IFERROR(B13/B11,0)</f>
         <v>0.37527114967462039</v>
       </c>
       <c r="C26" s="47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.37568058076225047</v>
       </c>
       <c r="D26" s="47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.37264957264957266</v>
       </c>
       <c r="E26" s="47">
-        <f t="shared" ref="E26" si="34">IFERROR(E13/E11,0)</f>
+        <f t="shared" ref="E26" si="39">IFERROR(E13/E11,0)</f>
         <v>0.38961038961038963</v>
       </c>
       <c r="F26" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.38173652694610777</v>
       </c>
       <c r="G26" s="47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.38697788697788699</v>
       </c>
       <c r="H26" s="47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.40022675736961449</v>
       </c>
       <c r="I26" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.40772532188841204</v>
       </c>
       <c r="J26" s="48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.41354166666666664</v>
       </c>
       <c r="K26" s="47">
-        <f t="shared" ref="K26:L26" si="35">IFERROR(K13/K11,0)</f>
+        <f t="shared" ref="K26:L26" si="40">IFERROR(K13/K11,0)</f>
         <v>0.39693356047700168</v>
       </c>
       <c r="L26" s="47">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.39542225730071034</v>
       </c>
       <c r="M26" s="47">
-        <f t="shared" ref="M26:N26" si="36">IFERROR(M13/M11,0)</f>
+        <f t="shared" ref="M26:N26" si="41">IFERROR(M13/M11,0)</f>
         <v>0.40141383801377606</v>
       </c>
       <c r="N26" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.38962094954127441</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O26" s="47">
+        <f t="shared" ref="O26:P26" si="42">IFERROR(O13/O11,0)</f>
+        <v>0.31022834492169726</v>
+      </c>
+      <c r="P26" s="47">
+        <f t="shared" si="42"/>
+        <v>0.26186156709210734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="51">
-        <f t="shared" ref="B27:J27" si="37">IFERROR(B18/B11,0)</f>
+        <f t="shared" ref="B27:J27" si="43">IFERROR(B18/B11,0)</f>
         <v>-3.2537960954446853E-2</v>
       </c>
       <c r="C27" s="50">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-2.1778584392014518E-2</v>
       </c>
       <c r="D27" s="50">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-2.735042735042735E-2</v>
       </c>
       <c r="E27" s="50">
-        <f t="shared" ref="E27" si="38">IFERROR(E18/E11,0)</f>
+        <f t="shared" ref="E27" si="44">IFERROR(E18/E11,0)</f>
         <v>-2.1103896103896104E-2</v>
       </c>
       <c r="F27" s="51">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-3.1437125748502992E-2</v>
       </c>
       <c r="G27" s="50">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-3.6855036855036856E-3</v>
       </c>
       <c r="H27" s="50">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-1.1337868480725623E-2</v>
       </c>
       <c r="I27" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-2.1459227467811159E-3</v>
       </c>
       <c r="J27" s="51">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-2.3958333333333335E-2</v>
       </c>
       <c r="K27" s="50">
-        <f t="shared" ref="K27:L27" si="39">IFERROR(K18/K11,0)</f>
+        <f t="shared" ref="K27:L27" si="45">IFERROR(K18/K11,0)</f>
         <v>0</v>
       </c>
       <c r="L27" s="50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2.6045777426992895E-2</v>
       </c>
       <c r="M27" s="50">
-        <f t="shared" ref="M27:N27" si="40">IFERROR(M18/M11,0)</f>
+        <f t="shared" ref="M27:N27" si="46">IFERROR(M18/M11,0)</f>
         <v>1.3575098060558958E-2</v>
       </c>
       <c r="N27" s="51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>-6.5810156910135323E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O27" s="50">
+        <f t="shared" ref="O27:P27" si="47">IFERROR(O18/O11,0)</f>
+        <v>-1.2079797257781574E-2</v>
+      </c>
+      <c r="P27" s="50">
+        <f t="shared" si="47"/>
+        <v>1.6300940645524477E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="51">
-        <f t="shared" ref="B28:J28" si="41">IFERROR(B21/B20,0)</f>
+        <f t="shared" ref="B28:J28" si="48">IFERROR(B21/B20,0)</f>
         <v>0</v>
       </c>
       <c r="C28" s="50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D28" s="50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E28" s="50">
-        <f t="shared" ref="E28" si="42">IFERROR(E21/E20,0)</f>
+        <f t="shared" ref="E28" si="49">IFERROR(E21/E20,0)</f>
         <v>0</v>
       </c>
       <c r="F28" s="51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G28" s="50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-0.2</v>
       </c>
       <c r="H28" s="50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="I28" s="52">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J28" s="51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K28" s="50">
-        <f t="shared" ref="K28:L28" si="43">IFERROR(K21/K20,0)</f>
+        <f t="shared" ref="K28:L28" si="50">IFERROR(K21/K20,0)</f>
         <v>0</v>
       </c>
       <c r="L28" s="50">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>9.375E-2</v>
       </c>
       <c r="M28" s="50">
-        <f t="shared" ref="M28:N28" si="44">IFERROR(M21/M20,0)</f>
+        <f t="shared" ref="M28:N28" si="51">IFERROR(M21/M20,0)</f>
         <v>2.5651944160847945E-3</v>
       </c>
       <c r="N28" s="51">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>-9.4436732111321947E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O28" s="50">
+        <f t="shared" ref="O28:P28" si="52">IFERROR(O21/O20,0)</f>
+        <v>8.171937566396939E-2</v>
+      </c>
+      <c r="P28" s="50">
+        <f t="shared" si="52"/>
+        <v>-2.8204766605556396E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B29" s="29"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -5739,8 +5897,10 @@
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
       <c r="N29" s="29"/>
-    </row>
-    <row r="30" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+    </row>
+    <row r="30" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="53" t="s">
         <v>18</v>
       </c>
@@ -5761,43 +5921,51 @@
         <v>0</v>
       </c>
       <c r="F30" s="55">
-        <f t="shared" ref="F30:I30" si="45">IFERROR((F11/B11)-1,0)</f>
+        <f t="shared" ref="F30:I30" si="53">IFERROR((F11/B11)-1,0)</f>
         <v>0.44902386117136661</v>
       </c>
       <c r="G30" s="54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.47731397459165148</v>
       </c>
       <c r="H30" s="54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.50769230769230766</v>
       </c>
       <c r="I30" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.51298701298701288</v>
       </c>
       <c r="J30" s="55">
-        <f t="shared" ref="J30:N30" si="46">IFERROR((J11/F11)-1,0)</f>
+        <f t="shared" ref="J30:P30" si="54">IFERROR((J11/F11)-1,0)</f>
         <v>0.43712574850299402</v>
       </c>
       <c r="K30" s="54">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.44226044226044237</v>
       </c>
       <c r="L30" s="54">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.43650793650793651</v>
       </c>
       <c r="M30" s="54">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0.4095804721030043</v>
       </c>
       <c r="N30" s="55">
-        <f t="shared" si="46"/>
+        <f>IFERROR((N11/J11)-1,0)</f>
         <v>0.43865520833333327</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O30" s="54">
+        <f t="shared" si="54"/>
+        <v>0.63852214650766603</v>
+      </c>
+      <c r="P30" s="54">
+        <f t="shared" si="54"/>
+        <v>1.3945335438042621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="33" t="s">
         <v>43</v>
       </c>
@@ -5818,43 +5986,51 @@
         <v>#REF!</v>
       </c>
       <c r="F31" s="58">
-        <f t="shared" ref="F31:I33" si="47">F14/B14-1</f>
+        <f t="shared" ref="F31:I33" si="55">F14/B14-1</f>
         <v>0.52173913043478271</v>
       </c>
       <c r="G31" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.47435897435897445</v>
       </c>
       <c r="H31" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.63855421686746983</v>
       </c>
       <c r="I31" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.5268817204301075</v>
       </c>
       <c r="J31" s="58">
-        <f t="shared" ref="J31:N33" si="48">J14/F14-1</f>
+        <f t="shared" ref="J31:P33" si="56">J14/F14-1</f>
         <v>0.46666666666666656</v>
       </c>
       <c r="K31" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.51304347826086949</v>
       </c>
       <c r="L31" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.24264705882352944</v>
       </c>
       <c r="M31" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.22030985915492951</v>
       </c>
       <c r="N31" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.26623376623376616</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O31" s="57">
+        <f t="shared" si="56"/>
+        <v>0.18965517241379315</v>
+      </c>
+      <c r="P31" s="57">
+        <f t="shared" si="56"/>
+        <v>0.34319526627218933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="33" t="s">
         <v>44</v>
       </c>
@@ -5875,43 +6051,51 @@
         <v>#REF!</v>
       </c>
       <c r="F32" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.54</v>
       </c>
       <c r="G32" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="H32" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.73134328358208944</v>
       </c>
       <c r="I32" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="J32" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.74025974025974017</v>
       </c>
       <c r="K32" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.59183673469387754</v>
       </c>
       <c r="L32" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.28448275862068972</v>
       </c>
       <c r="M32" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.55656302521008394</v>
       </c>
       <c r="N32" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.45522388059701502</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O32" s="57">
+        <f t="shared" si="56"/>
+        <v>0.52564102564102555</v>
+      </c>
+      <c r="P32" s="57">
+        <f t="shared" si="56"/>
+        <v>1.3355704697986579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="33" t="s">
         <v>45</v>
       </c>
@@ -5932,43 +6116,51 @@
         <v>#REF!</v>
       </c>
       <c r="F33" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.3623188405797102</v>
       </c>
       <c r="G33" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="H33" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.3214285714285714</v>
       </c>
       <c r="I33" s="59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.45783132530120474</v>
       </c>
       <c r="J33" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.4042553191489362</v>
       </c>
       <c r="K33" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.2952380952380953</v>
       </c>
       <c r="L33" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.35135135135135132</v>
       </c>
       <c r="M33" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.24793388429752072</v>
       </c>
       <c r="N33" s="58">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.81060606060606055</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="57">
+        <f t="shared" si="56"/>
+        <v>0.28676470588235303</v>
+      </c>
+      <c r="P33" s="57">
+        <f t="shared" si="56"/>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="G34" s="60"/>
@@ -5979,8 +6171,9 @@
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
       <c r="N34" s="28"/>
-    </row>
-    <row r="35" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P34" s="60"/>
+    </row>
+    <row r="35" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="53" t="s">
         <v>25</v>
       </c>
@@ -5992,31 +6185,39 @@
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
       <c r="I35" s="41">
-        <f t="shared" ref="I35:N35" si="49">I36-I37</f>
+        <f t="shared" ref="I35:N35" si="57">I36-I37</f>
         <v>689</v>
       </c>
       <c r="J35" s="42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>661</v>
       </c>
       <c r="K35" s="41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>731</v>
       </c>
       <c r="L35" s="41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>806</v>
       </c>
       <c r="M35" s="41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1137</v>
       </c>
       <c r="N35" s="42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1252</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35" s="41">
+        <f t="shared" ref="O35:P35" si="58">O36-O37</f>
+        <v>1356</v>
+      </c>
+      <c r="P35" s="41">
+        <f t="shared" si="58"/>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="33" t="s">
         <v>26</v>
       </c>
@@ -6049,8 +6250,16 @@
         <f>1962+522+529</f>
         <v>3013</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O36" s="37">
+        <f>1973+714+447</f>
+        <v>3134</v>
+      </c>
+      <c r="P36" s="37">
+        <f>2119+762+399</f>
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="33" t="s">
         <v>27</v>
       </c>
@@ -6077,8 +6286,14 @@
       <c r="N37" s="29">
         <v>1761</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O37" s="37">
+        <v>1778</v>
+      </c>
+      <c r="P37" s="37">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B38" s="29"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -6090,8 +6305,9 @@
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
       <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P38" s="37"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
         <v>56</v>
       </c>
@@ -6124,8 +6340,16 @@
         <f>289+82</f>
         <v>371</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O39" s="33">
+        <f>296+100</f>
+        <v>396</v>
+      </c>
+      <c r="P39" s="37">
+        <f>301+108</f>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="33" t="s">
         <v>57</v>
       </c>
@@ -6152,8 +6376,14 @@
       <c r="N40" s="29">
         <v>6004</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O40" s="77">
+        <v>7812</v>
+      </c>
+      <c r="P40" s="37">
+        <v>8114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
         <v>58</v>
       </c>
@@ -6180,8 +6410,14 @@
       <c r="N41" s="29">
         <v>4196</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O41" s="77">
+        <v>5886</v>
+      </c>
+      <c r="P41" s="37">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B42" s="29"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -6193,8 +6429,9 @@
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
       <c r="N42" s="29"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P42" s="37"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="33" t="s">
         <v>59</v>
       </c>
@@ -6204,31 +6441,39 @@
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
       <c r="I43" s="43">
-        <f t="shared" ref="I43:N43" si="50">I40-I39-I36</f>
+        <f t="shared" ref="I43:N43" si="59">I40-I39-I36</f>
         <v>1353</v>
       </c>
       <c r="J43" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2486</v>
       </c>
       <c r="K43" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2650</v>
       </c>
       <c r="L43" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>1927</v>
       </c>
       <c r="M43" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2140</v>
       </c>
       <c r="N43" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2620</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O43" s="43">
+        <f t="shared" ref="O43:P43" si="60">O40-O39-O36</f>
+        <v>4282</v>
+      </c>
+      <c r="P43" s="43">
+        <f t="shared" si="60"/>
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="33" t="s">
         <v>60</v>
       </c>
@@ -6238,31 +6483,39 @@
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
       <c r="I44" s="43">
-        <f t="shared" ref="I44:N44" si="51">I40-I41</f>
+        <f t="shared" ref="I44:N44" si="61">I40-I41</f>
         <v>1120</v>
       </c>
       <c r="J44" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>1122</v>
       </c>
       <c r="K44" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>1184</v>
       </c>
       <c r="L44" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>1250</v>
       </c>
       <c r="M44" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>1715</v>
       </c>
       <c r="N44" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>1808</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O44" s="43">
+        <f t="shared" ref="O44:P44" si="62">O40-O41</f>
+        <v>1926</v>
+      </c>
+      <c r="P44" s="43">
+        <f t="shared" si="62"/>
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B45" s="29"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -6274,8 +6527,9 @@
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
       <c r="N45" s="29"/>
-    </row>
-    <row r="46" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P45" s="37"/>
+    </row>
+    <row r="46" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="40" t="s">
         <v>66</v>
       </c>
@@ -6287,31 +6541,39 @@
       <c r="G46" s="60"/>
       <c r="H46" s="60"/>
       <c r="I46" s="41">
-        <f t="shared" ref="I46:N46" si="52">SUM(F22:I22)</f>
+        <f t="shared" ref="I46:P46" si="63">SUM(F22:I22)</f>
         <v>-36</v>
       </c>
       <c r="J46" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-51</v>
       </c>
       <c r="K46" s="41">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-52</v>
       </c>
       <c r="L46" s="41">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>-43</v>
       </c>
       <c r="M46" s="41">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>371.83400000000006</v>
       </c>
       <c r="N46" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>303.94299999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O46" s="41">
+        <f t="shared" si="63"/>
+        <v>299.7059999999999</v>
+      </c>
+      <c r="P46" s="41">
+        <f t="shared" si="63"/>
+        <v>307.16099999999983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="64" t="s">
         <v>61</v>
       </c>
@@ -6323,31 +6585,39 @@
       <c r="G47" s="60"/>
       <c r="H47" s="60"/>
       <c r="I47" s="47">
-        <f t="shared" ref="I47:N47" si="53">I46/I44</f>
+        <f t="shared" ref="I47:N47" si="64">I46/I44</f>
         <v>-3.214285714285714E-2</v>
       </c>
       <c r="J47" s="48">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>-4.5454545454545456E-2</v>
       </c>
       <c r="K47" s="47">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>-4.3918918918918921E-2</v>
       </c>
       <c r="L47" s="47">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>-3.44E-2</v>
       </c>
       <c r="M47" s="47">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.21681282798833823</v>
       </c>
       <c r="N47" s="48">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.16811006637168141</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O47" s="47">
+        <f t="shared" ref="O47:P47" si="65">O46/O44</f>
+        <v>0.15561059190031148</v>
+      </c>
+      <c r="P47" s="47">
+        <f t="shared" si="65"/>
+        <v>0.14889045079980603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="64" t="s">
         <v>62</v>
       </c>
@@ -6359,31 +6629,39 @@
       <c r="G48" s="60"/>
       <c r="H48" s="60"/>
       <c r="I48" s="47">
-        <f t="shared" ref="I48:N48" si="54">I46/I40</f>
+        <f t="shared" ref="I48:N48" si="66">I46/I40</f>
         <v>-1.0972264553489789E-2</v>
       </c>
       <c r="J48" s="48">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-1.1583011583011582E-2</v>
       </c>
       <c r="K48" s="47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-1.11731843575419E-2</v>
       </c>
       <c r="L48" s="47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-1.0747313171707074E-2</v>
       </c>
       <c r="M48" s="47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>8.1703801362337958E-2</v>
       </c>
       <c r="N48" s="48">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>5.0623417721518987E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O48" s="47">
+        <f t="shared" ref="O48:P48" si="67">O46/O40</f>
+        <v>3.8364823348694302E-2</v>
+      </c>
+      <c r="P48" s="47">
+        <f t="shared" si="67"/>
+        <v>3.7855681538082303E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="64" t="s">
         <v>63</v>
       </c>
@@ -6395,31 +6673,39 @@
       <c r="G49" s="60"/>
       <c r="H49" s="60"/>
       <c r="I49" s="47">
-        <f t="shared" ref="I49:N49" si="55">I46/(I44-I39)</f>
+        <f t="shared" ref="I49:N49" si="68">I46/(I44-I39)</f>
         <v>-4.6094750320102434E-2</v>
       </c>
       <c r="J49" s="48">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>-6.580645161290323E-2</v>
       </c>
       <c r="K49" s="47">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>-6.2650602409638559E-2</v>
       </c>
       <c r="L49" s="47">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>-4.7200878155872671E-2</v>
       </c>
       <c r="M49" s="47">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0.26944492753623195</v>
       </c>
       <c r="N49" s="48">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0.21151217814892134</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O49" s="47">
+        <f t="shared" ref="O49:P49" si="69">O46/(O44-O39)</f>
+        <v>0.19588627450980386</v>
+      </c>
+      <c r="P49" s="47">
+        <f t="shared" si="69"/>
+        <v>0.1857079806529624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="64" t="s">
         <v>64</v>
       </c>
@@ -6431,31 +6717,39 @@
       <c r="G50" s="60"/>
       <c r="H50" s="60"/>
       <c r="I50" s="47">
-        <f t="shared" ref="I50:N50" si="56">I46/I43</f>
+        <f t="shared" ref="I50:N50" si="70">I46/I43</f>
         <v>-2.6607538802660754E-2</v>
       </c>
       <c r="J50" s="48">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.0514883346741754E-2</v>
       </c>
       <c r="K50" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-1.9622641509433963E-2</v>
       </c>
       <c r="L50" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.2314478463933574E-2</v>
       </c>
       <c r="M50" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.17375420560747667</v>
       </c>
       <c r="N50" s="48">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.1160087786259542</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O50" s="47">
+        <f t="shared" ref="O50:P50" si="71">O46/O43</f>
+        <v>6.9992059785147109E-2</v>
+      </c>
+      <c r="P50" s="47">
+        <f t="shared" si="71"/>
+        <v>6.941491525423725E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B51" s="29"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -6468,143 +6762,169 @@
       <c r="L51" s="37"/>
       <c r="M51" s="37"/>
       <c r="N51" s="29"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="F52" s="48">
-        <f t="shared" ref="F52:I54" si="57">F3/B3-1</f>
+        <f t="shared" ref="F52:I54" si="72">F3/B3-1</f>
         <v>0.29776674937965253</v>
       </c>
       <c r="G52" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.29668049792531126</v>
       </c>
       <c r="H52" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.28431372549019618</v>
       </c>
       <c r="I52" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.27238095238095239</v>
       </c>
       <c r="J52" s="48">
-        <f t="shared" ref="J52:N55" si="58">J3/F3-1</f>
+        <f t="shared" ref="J52:P55" si="73">J3/F3-1</f>
         <v>0.25621414913957929</v>
       </c>
       <c r="K52" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.24160000000000004</v>
       </c>
       <c r="L52" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.24732824427480926</v>
       </c>
       <c r="M52" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.24577844311377239</v>
       </c>
       <c r="N52" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.15388280060882797</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O52" s="47">
+        <f t="shared" si="73"/>
+        <v>-0.12039690721649488</v>
+      </c>
+      <c r="P52" s="47">
+        <f t="shared" si="73"/>
+        <v>0.13255079559363514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="29"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="F53" s="48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.97959183673469385</v>
       </c>
       <c r="G53" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>1.2711864406779663</v>
       </c>
       <c r="H53" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>1.5538461538461537</v>
       </c>
       <c r="I53" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>1.4556962025316458</v>
       </c>
       <c r="J53" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>1.2577319587628866</v>
       </c>
       <c r="K53" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.87313432835820892</v>
       </c>
       <c r="L53" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.68674698795180733</v>
       </c>
       <c r="M53" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.45059278350515464</v>
       </c>
       <c r="N53" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.35267123287671232</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O53" s="47">
+        <f t="shared" si="73"/>
+        <v>0.37958167330677273</v>
+      </c>
+      <c r="P53" s="47">
+        <f t="shared" si="73"/>
+        <v>0.59829285714285718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" s="29"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
       <c r="E54" s="47"/>
       <c r="F54" s="48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="G54" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.8</v>
       </c>
       <c r="H54" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.8</v>
       </c>
       <c r="I54" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.5</v>
       </c>
       <c r="J54" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="K54" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.22222222222222232</v>
       </c>
       <c r="L54" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.22222222222222232</v>
       </c>
       <c r="M54" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.25372222222222218</v>
       </c>
       <c r="N54" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.14861111111111125</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O54" s="47">
+        <f t="shared" si="73"/>
+        <v>-0.1217272727272728</v>
+      </c>
+      <c r="P54" s="47">
+        <f t="shared" si="73"/>
+        <v>0.24063636363636376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" s="29"/>
       <c r="C55" s="37"/>
@@ -6615,27 +6935,35 @@
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
       <c r="J55" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="K55" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>2.3783783783783785</v>
       </c>
       <c r="L55" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>2.441860465116279</v>
       </c>
       <c r="M55" s="47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>2.4147500000000002</v>
       </c>
       <c r="N55" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>3.6378484848484849</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O55" s="47">
+        <f t="shared" si="73"/>
+        <v>6.0036480000000001</v>
+      </c>
+      <c r="P55" s="47">
+        <f t="shared" si="73"/>
+        <v>10.038945945945946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B56" s="29"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -6648,8 +6976,9 @@
       <c r="K56" s="37"/>
       <c r="L56" s="37"/>
       <c r="M56" s="37"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P56" s="37"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="33" t="s">
         <v>67</v>
       </c>
@@ -6665,8 +6994,9 @@
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
       <c r="M57" s="47"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P57" s="47"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="33" t="s">
         <v>65</v>
       </c>
@@ -6682,91 +7012,106 @@
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
       <c r="M58" s="47"/>
-    </row>
-    <row r="60" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="67">
+      <c r="P58" s="47"/>
+    </row>
+    <row r="60" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="29">
         <v>14</v>
       </c>
-      <c r="C60" s="77">
+      <c r="C60" s="30">
         <v>16</v>
       </c>
-      <c r="D60" s="77">
+      <c r="D60" s="30">
         <v>17</v>
       </c>
-      <c r="E60" s="77">
+      <c r="E60" s="30">
         <v>18</v>
       </c>
-      <c r="F60" s="67">
+      <c r="F60" s="29">
         <v>18</v>
       </c>
-      <c r="G60" s="77">
+      <c r="G60" s="30">
         <v>21</v>
       </c>
-      <c r="H60" s="77">
+      <c r="H60" s="30">
         <v>22</v>
       </c>
-      <c r="I60" s="78">
+      <c r="I60" s="31">
         <v>23</v>
       </c>
-      <c r="J60" s="79">
+      <c r="J60" s="72">
         <v>23</v>
       </c>
-      <c r="K60" s="76">
+      <c r="K60" s="36">
         <v>27</v>
       </c>
-      <c r="L60" s="76">
+      <c r="L60" s="36">
         <v>28</v>
       </c>
-      <c r="M60" s="76">
+      <c r="M60" s="36">
         <v>28.638999999999999</v>
       </c>
-      <c r="N60" s="79">
+      <c r="N60" s="72">
         <v>25.742999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="33" t="s">
-        <v>82</v>
+      <c r="O60" s="36">
+        <v>23</v>
+      </c>
+      <c r="P60" s="36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A61" s="69" t="s">
+        <v>102</v>
       </c>
       <c r="B61" s="67"/>
       <c r="F61" s="65">
-        <f t="shared" ref="F61:N61" si="59">F60/B60-1</f>
+        <f t="shared" ref="F61:P61" si="74">F60/B60-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="G61" s="66">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.3125</v>
       </c>
       <c r="H61" s="66">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.29411764705882359</v>
       </c>
       <c r="I61" s="66">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.27777777777777768</v>
       </c>
       <c r="J61" s="65">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.27777777777777768</v>
       </c>
       <c r="K61" s="66">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="L61" s="66">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="M61" s="66">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.24517391304347824</v>
       </c>
       <c r="N61" s="65">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0.11926086956521731</v>
+      </c>
+      <c r="O61" s="66">
+        <f t="shared" si="74"/>
+        <v>-0.14814814814814814</v>
+      </c>
+      <c r="P61" s="66">
+        <f t="shared" si="74"/>
+        <v>0.14285714285714279</v>
       </c>
     </row>
   </sheetData>
@@ -6782,8 +7127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79397EBE-1DCF-814D-89D9-C0446CB926E5}">
   <dimension ref="B4:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6795,62 +7140,62 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="69" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="75" t="s">
+      <c r="C7" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="75" t="s">
+    </row>
+    <row r="8" spans="2:3" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="75" t="s">
+      <c r="C8" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="69"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C12" s="69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="75" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C13" s="69" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="75"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/SQ.xlsx
+++ b/SQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BE214-EB80-7A47-A02E-246A9046177C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F3DD3-5F6E-D644-8A95-AC641286768E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46280" yWindow="-4500" windowWidth="43140" windowHeight="26900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44740" yWindow="-5940" windowWidth="30840" windowHeight="26900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
       <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1081,10 +1081,10 @@
         <v>51</v>
       </c>
       <c r="C2" s="2">
-        <v>220.59</v>
+        <v>215.96</v>
       </c>
       <c r="D2" s="74">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
@@ -1126,14 +1126,13 @@
       </c>
       <c r="C4" s="7">
         <f>C2*C3</f>
-        <v>107663.14071000001</v>
+        <v>105403.38124</v>
       </c>
       <c r="D4" s="76"/>
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="4">
-        <f>6%</f>
         <v>0.06</v>
       </c>
       <c r="G4" s="6"/>
@@ -1155,7 +1154,7 @@
       </c>
       <c r="F5" s="8">
         <f>NPV(F4,E31:DP31)</f>
-        <v>159127.12694151772</v>
+        <v>198036.70662345708</v>
       </c>
       <c r="G5" s="6"/>
       <c r="I5" s="14"/>
@@ -1169,7 +1168,7 @@
       </c>
       <c r="C6" s="7">
         <f>C4-C5</f>
-        <v>106142.14071000001</v>
+        <v>103882.38124</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="9" t="s">
@@ -1177,7 +1176,7 @@
       </c>
       <c r="F6" s="10">
         <f>F5+C5</f>
-        <v>160648.12694151772</v>
+        <v>199557.70662345708</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -1190,7 +1189,7 @@
       </c>
       <c r="C7" s="11">
         <f>C6/C3</f>
-        <v>217.47363735455437</v>
+        <v>212.84363735455437</v>
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="12" t="s">
@@ -1198,11 +1197,11 @@
       </c>
       <c r="F7" s="13">
         <f>F6/C3</f>
-        <v>329.15044172344017</v>
+        <v>408.87191487977537</v>
       </c>
       <c r="G7" s="14">
         <f>F7/C2-1</f>
-        <v>0.49213673205240571</v>
+        <v>0.8932761385431347</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -1312,24 +1311,24 @@
         <v>3082.18</v>
       </c>
       <c r="E12" s="17">
-        <f>D12*1.1</f>
-        <v>3390.3980000000001</v>
+        <f>SUM(Reports!N3:Q3)</f>
+        <v>3281.3650000000002</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ref="F12:I12" si="1">E12*1.1</f>
-        <v>3729.4378000000006</v>
+        <v>3609.5015000000008</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>4102.3815800000011</v>
+        <v>3970.4516500000013</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="1"/>
-        <v>4512.6197380000012</v>
+        <v>4367.4968150000022</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="1"/>
-        <v>4963.8817118000015</v>
+        <v>4804.2464965000026</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -1349,24 +1348,24 @@
         <v>1031.415</v>
       </c>
       <c r="E13" s="17">
-        <f>D13*1.25</f>
-        <v>1289.26875</v>
+        <f>SUM(Reports!N4:Q4)</f>
+        <v>1441.8007499999999</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ref="F13:I13" si="2">E13*1.25</f>
-        <v>1611.5859375</v>
+        <v>1802.2509375</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="2"/>
-        <v>2014.482421875</v>
+        <v>2252.8136718750002</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="2"/>
-        <v>2518.10302734375</v>
+        <v>2816.01708984375</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="2"/>
-        <v>3147.6287841796875</v>
+        <v>3520.0213623046875</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -1386,24 +1385,24 @@
         <v>84.567000000000007</v>
       </c>
       <c r="E14" s="17">
-        <f>D14*1.1</f>
-        <v>93.023700000000019</v>
+        <f>SUM(Reports!N5:Q5)</f>
+        <v>87.601299999999995</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ref="F14:I14" si="3">E14*1.1</f>
-        <v>102.32607000000003</v>
+        <v>96.361429999999999</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" si="3"/>
-        <v>112.55867700000005</v>
+        <v>105.997573</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="3"/>
-        <v>123.81454470000006</v>
+        <v>116.59733030000001</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="3"/>
-        <v>136.19599917000008</v>
+        <v>128.25706333000002</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -1420,24 +1419,24 @@
         <v>516.56700000000001</v>
       </c>
       <c r="E15" s="17">
-        <f>D15*6</f>
-        <v>3099.402</v>
+        <f>SUM(Reports!N6:Q6)</f>
+        <v>3525.5860000000002</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:I15" si="4">E15*1.5</f>
-        <v>4649.1030000000001</v>
+        <f>E15*1.6</f>
+        <v>5640.9376000000011</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="4"/>
-        <v>6973.6545000000006</v>
+        <f>F15*1.55</f>
+        <v>8743.4532800000015</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="4"/>
-        <v>10460.481750000001</v>
+        <f>G15*1.5</f>
+        <v>13115.179920000002</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" si="4"/>
-        <v>15690.722625000002</v>
+        <f>H15*1.45</f>
+        <v>19017.010884000003</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -1488,59 +1487,59 @@
       </c>
       <c r="E20" s="18">
         <f>SUM(E12:E15)</f>
-        <v>7872.0924500000001</v>
+        <v>8336.3530500000015</v>
       </c>
       <c r="F20" s="18">
         <f>SUM(F12:F15)</f>
-        <v>10092.452807500002</v>
+        <v>11149.051467500001</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" ref="F20:I20" si="5">SUM(G12:G15)</f>
-        <v>13203.077178875003</v>
+        <f t="shared" ref="G20:I20" si="4">SUM(G12:G15)</f>
+        <v>15072.716174875004</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="5"/>
-        <v>17615.019060043753</v>
+        <f t="shared" si="4"/>
+        <v>20415.291155143754</v>
       </c>
       <c r="I20" s="18">
-        <f t="shared" si="5"/>
-        <v>23938.429120149689</v>
+        <f t="shared" si="4"/>
+        <v>27469.535806134692</v>
       </c>
       <c r="J20" s="18">
         <f>I20*1.1</f>
-        <v>26332.272032164659</v>
+        <v>30216.489386748162</v>
       </c>
       <c r="K20" s="18">
-        <f t="shared" ref="K20:R20" si="6">J20*1.1</f>
-        <v>28965.499235381129</v>
+        <f t="shared" ref="K20:R20" si="5">J20*1.1</f>
+        <v>33238.13832542298</v>
       </c>
       <c r="L20" s="18">
-        <f t="shared" si="6"/>
-        <v>31862.049158919242</v>
+        <f t="shared" si="5"/>
+        <v>36561.952157965279</v>
       </c>
       <c r="M20" s="18">
-        <f t="shared" si="6"/>
-        <v>35048.254074811171</v>
+        <f t="shared" si="5"/>
+        <v>40218.147373761807</v>
       </c>
       <c r="N20" s="18">
-        <f t="shared" si="6"/>
-        <v>38553.079482292291</v>
+        <f t="shared" si="5"/>
+        <v>44239.962111137989</v>
       </c>
       <c r="O20" s="18">
-        <f t="shared" si="6"/>
-        <v>42408.387430521521</v>
+        <f t="shared" si="5"/>
+        <v>48663.95832225179</v>
       </c>
       <c r="P20" s="18">
-        <f t="shared" si="6"/>
-        <v>46649.226173573676</v>
+        <f t="shared" si="5"/>
+        <v>53530.354154476976</v>
       </c>
       <c r="Q20" s="18">
-        <f t="shared" si="6"/>
-        <v>51314.148790931045</v>
+        <f t="shared" si="5"/>
+        <v>58883.389569924679</v>
       </c>
       <c r="R20" s="18">
-        <f t="shared" si="6"/>
-        <v>56445.563670024152</v>
+        <f t="shared" si="5"/>
+        <v>64771.728526917155</v>
       </c>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
@@ -1562,60 +1561,60 @@
         <v>2823.38</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ref="E21:F21" si="7">E20-E22</f>
-        <v>4714.1433540466496</v>
+        <f t="shared" ref="E21:F21" si="6">E20-E22</f>
+        <v>4992.1623224386822</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="6"/>
+        <v>6676.5256141572845</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ref="G21:O21" si="7">G20-G22</f>
+        <v>9026.1827124779811</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="7"/>
-        <v>6043.7894537818311</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" ref="G21:O21" si="8">G20-G22</f>
-        <v>7906.5634621400532</v>
-      </c>
-      <c r="H21" s="5">
+        <v>12225.543555442906</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="7"/>
+        <v>16449.924906463253</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="7"/>
+        <v>18094.917397109577</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="7"/>
+        <v>19904.409136820534</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="7"/>
+        <v>21894.850050502588</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="7"/>
+        <v>24084.335055552849</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="7"/>
+        <v>26492.768561108136</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="7"/>
+        <v>29142.045417218949</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" ref="P21:R21" si="8">P20-P22</f>
+        <v>32056.249958940847</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="8"/>
-        <v>10548.621673429447</v>
-      </c>
-      <c r="I21" s="5">
+        <v>35261.874954834937</v>
+      </c>
+      <c r="R21" s="5">
         <f t="shared" si="8"/>
-        <v>14335.348226642134</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="8"/>
-        <v>15768.883049306349</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="8"/>
-        <v>17345.771354236986</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="8"/>
-        <v>19080.348489660686</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="8"/>
-        <v>20988.383338626758</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="8"/>
-        <v>23087.221672489432</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="8"/>
-        <v>25395.943839738378</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" ref="P21:R21" si="9">P20-P22</f>
-        <v>27935.538223712218</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="9"/>
-        <v>30729.092046083439</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="9"/>
-        <v>33802.001250691785</v>
+        <v>38788.062450318437</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -1638,59 +1637,59 @@
       </c>
       <c r="E22" s="5">
         <f>E20*D35</f>
-        <v>3157.9490959533509</v>
+        <v>3344.1907275613189</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:R22" si="10">F20*E35</f>
-        <v>4048.6633537181706</v>
+        <f t="shared" ref="F22:R22" si="9">F20*E35</f>
+        <v>4472.5258533427168</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="10"/>
-        <v>5296.5137167349494</v>
+        <f t="shared" si="9"/>
+        <v>6046.5334623970239</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="10"/>
-        <v>7066.3973866143069</v>
+        <f t="shared" si="9"/>
+        <v>8189.7475997008469</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="10"/>
-        <v>9603.0808935075547</v>
+        <f t="shared" si="9"/>
+        <v>11019.610899671441</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="10"/>
-        <v>10563.388982858311</v>
+        <f t="shared" si="9"/>
+        <v>12121.571989638585</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="10"/>
-        <v>11619.727881144143</v>
+        <f t="shared" si="9"/>
+        <v>13333.729188602445</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="10"/>
-        <v>12781.700669258556</v>
+        <f t="shared" si="9"/>
+        <v>14667.10210746269</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="10"/>
-        <v>14059.870736184415</v>
+        <f t="shared" si="9"/>
+        <v>16133.812318208958</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="10"/>
-        <v>15465.857809802857</v>
+        <f t="shared" si="9"/>
+        <v>17747.193550029853</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="10"/>
-        <v>17012.443590783143</v>
+        <f t="shared" si="9"/>
+        <v>19521.912905032841</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="10"/>
-        <v>18713.687949861458</v>
+        <f t="shared" si="9"/>
+        <v>21474.104195536129</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="10"/>
-        <v>20585.056744847607</v>
+        <f t="shared" si="9"/>
+        <v>23621.514615089742</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="10"/>
-        <v>22643.562419332367</v>
+        <f t="shared" si="9"/>
+        <v>25983.666076598718</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -1716,19 +1715,19 @@
         <v>837.85500000000002</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ref="F23:I23" si="11">E23*1.25</f>
+        <f t="shared" ref="F23:I23" si="10">E23*1.25</f>
         <v>1047.3187499999999</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1309.1484375</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1636.435546875</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2045.54443359375</v>
       </c>
       <c r="J23" s="5">
@@ -1736,35 +1735,35 @@
         <v>2250.098876953125</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ref="K23" si="12">J23*1.1</f>
+        <f t="shared" ref="K23" si="11">J23*1.1</f>
         <v>2475.1087646484375</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:R23" si="13">K23*1.1</f>
+        <f t="shared" ref="L23:R23" si="12">K23*1.1</f>
         <v>2722.6196411132814</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2994.8816052246098</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3294.3697657470711</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3623.8067423217785</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3986.1874165539566</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4384.8061582093524</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4823.2867740302881</v>
       </c>
       <c r="S23" s="5"/>
@@ -1791,19 +1790,19 @@
         <v>780.28874999999994</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" ref="F24:I24" si="14">E24*1.25</f>
+        <f t="shared" ref="F24:I24" si="13">E24*1.25</f>
         <v>975.36093749999986</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1219.2011718749998</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1524.0014648437498</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1905.0018310546873</v>
       </c>
       <c r="J24" s="5">
@@ -1815,31 +1814,31 @@
         <v>2040.2569610595701</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" ref="L24:R24" si="15">K24*1.02</f>
+        <f t="shared" ref="L24:R24" si="14">K24*1.02</f>
         <v>2081.0621002807616</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2122.683342286377</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2165.1370091321046</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2208.4397493147467</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2252.6085443010415</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2297.6607151870626</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2343.6139294908039</v>
       </c>
       <c r="S24" s="5"/>
@@ -1866,19 +1865,19 @@
         <v>654.34999999999991</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ref="F25:I25" si="16">E25*1.15</f>
+        <f t="shared" ref="F25:I25" si="15">E25*1.15</f>
         <v>752.50249999999983</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>865.37787499999979</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>995.18455624999967</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1144.4622396874995</v>
       </c>
       <c r="J25" s="5">
@@ -1886,35 +1885,35 @@
         <v>1121.5729948937494</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" ref="K25" si="17">J25*0.98</f>
+        <f t="shared" ref="K25" si="16">J25*0.98</f>
         <v>1099.1415349958745</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25:R25" si="18">K25*0.98</f>
+        <f t="shared" ref="L25:R25" si="17">K25*0.98</f>
         <v>1077.158704295957</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1055.6155302100378</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1034.5032196058371</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1013.8131552137204</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>993.53689210944594</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>973.66615426725696</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>954.19283118191186</v>
       </c>
       <c r="S25" s="5"/>
@@ -1937,19 +1936,19 @@
         <v>1863.5149999999999</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" ref="E26:F26" si="19">SUM(E23:E25)</f>
+        <f t="shared" ref="E26:F26" si="18">SUM(E23:E25)</f>
         <v>2272.4937499999996</v>
       </c>
       <c r="F26" s="5">
+        <f t="shared" si="18"/>
+        <v>2775.1821874999996</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ref="G26:O26" si="19">SUM(G23:G25)</f>
+        <v>3393.7274843749997</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="19"/>
-        <v>2775.1821874999996</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" ref="G26:O26" si="20">SUM(G23:G25)</f>
-        <v>3393.7274843749997</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="20"/>
         <v>4155.6215679687493</v>
       </c>
       <c r="I26" s="5">
@@ -1957,39 +1956,39 @@
         <v>5095.0085043359368</v>
       </c>
       <c r="J26" s="5">
+        <f t="shared" si="19"/>
+        <v>5371.9237944542965</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="19"/>
+        <v>5614.5072607038819</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="19"/>
+        <v>5880.8404456899998</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="19"/>
+        <v>6173.1804777210245</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="19"/>
+        <v>6494.0099944850126</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="19"/>
+        <v>6846.0596468502454</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" ref="P26:R26" si="20">SUM(P23:P25)</f>
+        <v>7232.3328529644441</v>
+      </c>
+      <c r="Q26" s="5">
         <f t="shared" si="20"/>
-        <v>5371.9237944542965</v>
-      </c>
-      <c r="K26" s="5">
+        <v>7656.1330276636727</v>
+      </c>
+      <c r="R26" s="5">
         <f t="shared" si="20"/>
-        <v>5614.5072607038819</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="20"/>
-        <v>5880.8404456899998</v>
-      </c>
-      <c r="M26" s="5">
-        <f t="shared" si="20"/>
-        <v>6173.1804777210245</v>
-      </c>
-      <c r="N26" s="5">
-        <f t="shared" si="20"/>
-        <v>6494.0099944850126</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" si="20"/>
-        <v>6846.0596468502454</v>
-      </c>
-      <c r="P26" s="5">
-        <f t="shared" ref="P26:R26" si="21">SUM(P23:P25)</f>
-        <v>7232.3328529644441</v>
-      </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="21"/>
-        <v>7656.1330276636727</v>
-      </c>
-      <c r="R26" s="5">
-        <f t="shared" si="21"/>
         <v>8121.0935347030045</v>
       </c>
       <c r="S26" s="5"/>
@@ -2012,60 +2011,60 @@
         <v>27.833999999999378</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:F27" si="22">E22-E26</f>
-        <v>885.4553459533513</v>
+        <f t="shared" ref="E27:F27" si="21">E22-E26</f>
+        <v>1071.6969775613193</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="21"/>
+        <v>1697.3436658427172</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ref="G27:O27" si="22">G22-G26</f>
+        <v>2652.8059780220242</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="22"/>
-        <v>1273.481166218171</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" ref="G27:O27" si="23">G22-G26</f>
-        <v>1902.7862323599497</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="23"/>
-        <v>2910.7758186455576</v>
+        <v>4034.1260317320975</v>
       </c>
       <c r="I27" s="5">
         <f>I22-I26</f>
-        <v>4508.0723891716179</v>
+        <v>5924.6023953355043</v>
       </c>
       <c r="J27" s="5">
+        <f t="shared" si="22"/>
+        <v>6749.6481951842889</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="22"/>
+        <v>7719.2219278985631</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="22"/>
+        <v>8786.261661772689</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="22"/>
+        <v>9960.6318404879348</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="22"/>
+        <v>11253.183555544842</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="22"/>
+        <v>12675.853258182597</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" ref="P27:R27" si="23">P22-P26</f>
+        <v>14241.771342571685</v>
+      </c>
+      <c r="Q27" s="5">
         <f t="shared" si="23"/>
-        <v>5191.465188404014</v>
-      </c>
-      <c r="K27" s="5">
+        <v>15965.381587426069</v>
+      </c>
+      <c r="R27" s="5">
         <f t="shared" si="23"/>
-        <v>6005.220620440261</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="23"/>
-        <v>6900.8602235685566</v>
-      </c>
-      <c r="M27" s="5">
-        <f t="shared" si="23"/>
-        <v>7886.6902584633908</v>
-      </c>
-      <c r="N27" s="5">
-        <f t="shared" si="23"/>
-        <v>8971.8478153178439</v>
-      </c>
-      <c r="O27" s="5">
-        <f t="shared" si="23"/>
-        <v>10166.383943932899</v>
-      </c>
-      <c r="P27" s="5">
-        <f t="shared" ref="P27:R27" si="24">P22-P26</f>
-        <v>11481.355096897014</v>
-      </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="24"/>
-        <v>12928.923717183934</v>
-      </c>
-      <c r="R27" s="5">
-        <f t="shared" si="24"/>
-        <v>14522.468884629363</v>
+        <v>17862.572541895715</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -2087,60 +2086,60 @@
         <v>348</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" ref="E28:R28" si="25">D45*$F$3</f>
+        <f t="shared" ref="E28:R28" si="24">D45*$F$3</f>
         <v>22.740000000000002</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="25"/>
-        <v>38.179320881206976</v>
+        <f t="shared" si="24"/>
+        <v>41.345428618542428</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="25"/>
-        <v>60.477549161896398</v>
+        <f t="shared" si="24"/>
+        <v>70.90314322438384</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="25"/>
-        <v>93.853033447767771</v>
+        <f t="shared" si="24"/>
+        <v>117.20619828557278</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="25"/>
-        <v>144.93172393335431</v>
+        <f t="shared" si="24"/>
+        <v>187.7788461958732</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="25"/>
-        <v>224.03279385613882</v>
+        <f t="shared" si="24"/>
+        <v>291.68932730190659</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="25"/>
-        <v>316.09625955456141</v>
+        <f t="shared" si="24"/>
+        <v>411.39206518417194</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="25"/>
-        <v>423.55864651447337</v>
+        <f t="shared" si="24"/>
+        <v>549.61250306657848</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="25"/>
-        <v>548.07376730588487</v>
+        <f t="shared" si="24"/>
+        <v>708.32236386884597</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="25"/>
-        <v>691.46475574396266</v>
+        <f t="shared" si="24"/>
+        <v>889.6945853429113</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="25"/>
-        <v>855.74106945201333</v>
+        <f t="shared" si="24"/>
+        <v>1096.1235137380031</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="25"/>
-        <v>1043.1171946795569</v>
+        <f t="shared" si="24"/>
+        <v>1330.2471188606532</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="25"/>
-        <v>1256.0332236363586</v>
+        <f t="shared" si="24"/>
+        <v>1594.9714327050031</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="25"/>
-        <v>1497.1774916303036</v>
+        <f t="shared" si="24"/>
+        <v>1893.4974340472313</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -2162,60 +2161,60 @@
         <v>375.83399999999938</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" ref="E29:F29" si="26">E27+E28</f>
-        <v>908.19534595335131</v>
+        <f t="shared" ref="E29:F29" si="25">E27+E28</f>
+        <v>1094.4369775613193</v>
       </c>
       <c r="F29" s="5">
+        <f t="shared" si="25"/>
+        <v>1738.6890944612596</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" ref="G29:O29" si="26">G27+G28</f>
+        <v>2723.7091212464079</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="26"/>
-        <v>1311.6604870993779</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" ref="G29:O29" si="27">G27+G28</f>
-        <v>1963.2637815218461</v>
-      </c>
-      <c r="H29" s="5">
+        <v>4151.3322300176706</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="26"/>
+        <v>6112.3812415313778</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="26"/>
+        <v>7041.3375224861957</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="26"/>
+        <v>8130.6139930827349</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="26"/>
+        <v>9335.8741648392679</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="26"/>
+        <v>10668.954204356782</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="26"/>
+        <v>12142.878140887753</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="26"/>
+        <v>13771.976771920599</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" ref="P29:R29" si="27">P27+P28</f>
+        <v>15572.018461432337</v>
+      </c>
+      <c r="Q29" s="5">
         <f t="shared" si="27"/>
-        <v>3004.6288520933253</v>
-      </c>
-      <c r="I29" s="5">
+        <v>17560.353020131071</v>
+      </c>
+      <c r="R29" s="5">
         <f t="shared" si="27"/>
-        <v>4653.004113104972</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="27"/>
-        <v>5415.4979822601526</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="27"/>
-        <v>6321.3168799948226</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="27"/>
-        <v>7324.41887008303</v>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="27"/>
-        <v>8434.7640257692765</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" si="27"/>
-        <v>9663.312571061806</v>
-      </c>
-      <c r="O29" s="5">
-        <f t="shared" si="27"/>
-        <v>11022.125013384912</v>
-      </c>
-      <c r="P29" s="5">
-        <f t="shared" ref="P29:R29" si="28">P27+P28</f>
-        <v>12524.472291576571</v>
-      </c>
-      <c r="Q29" s="5">
-        <f t="shared" si="28"/>
-        <v>14184.956940820293</v>
-      </c>
-      <c r="R29" s="5">
-        <f t="shared" si="28"/>
-        <v>16019.646376259667</v>
+        <v>19756.069975942948</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -2238,59 +2237,59 @@
       </c>
       <c r="E30" s="5">
         <f>E29*0.15</f>
-        <v>136.22930189300268</v>
+        <v>164.16554663419788</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ref="F30:O30" si="29">F29*0.15</f>
-        <v>196.74907306490667</v>
+        <f t="shared" ref="F30:O30" si="28">F29*0.15</f>
+        <v>260.80336416918891</v>
       </c>
       <c r="G30" s="5">
+        <f t="shared" si="28"/>
+        <v>408.55636818696115</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="28"/>
+        <v>622.69983450265056</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="28"/>
+        <v>916.8571862297066</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="28"/>
+        <v>1056.2006283729293</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="28"/>
+        <v>1219.5920989624101</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="28"/>
+        <v>1400.3811247258902</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="28"/>
+        <v>1600.3431306535172</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="28"/>
+        <v>1821.4317211331629</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="28"/>
+        <v>2065.7965157880899</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" ref="P30:R30" si="29">P29*0.15</f>
+        <v>2335.8027692148503</v>
+      </c>
+      <c r="Q30" s="5">
         <f t="shared" si="29"/>
-        <v>294.48956722827688</v>
-      </c>
-      <c r="H30" s="5">
+        <v>2634.0529530196604</v>
+      </c>
+      <c r="R30" s="5">
         <f t="shared" si="29"/>
-        <v>450.69432781399877</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="29"/>
-        <v>697.95061696574578</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="29"/>
-        <v>812.32469733902292</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="29"/>
-        <v>948.19753199922332</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="29"/>
-        <v>1098.6628305124545</v>
-      </c>
-      <c r="M30" s="5">
-        <f t="shared" si="29"/>
-        <v>1265.2146038653914</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="29"/>
-        <v>1449.4968856592709</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="29"/>
-        <v>1653.3187520077367</v>
-      </c>
-      <c r="P30" s="5">
-        <f t="shared" ref="P30:R30" si="30">P29*0.15</f>
-        <v>1878.6708437364855</v>
-      </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="30"/>
-        <v>2127.743541123044</v>
-      </c>
-      <c r="R30" s="5">
-        <f t="shared" si="30"/>
-        <v>2402.9469564389501</v>
+        <v>2963.4104963914419</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -2308,964 +2307,964 @@
         <v>-36</v>
       </c>
       <c r="D31" s="23">
-        <f t="shared" ref="D31:F31" si="31">D29-D30</f>
+        <f t="shared" ref="D31:F31" si="30">D29-D30</f>
         <v>371.83399999999938</v>
       </c>
       <c r="E31" s="23">
-        <f t="shared" si="31"/>
-        <v>771.96604406034862</v>
+        <f t="shared" si="30"/>
+        <v>930.2714309271214</v>
       </c>
       <c r="F31" s="23">
-        <f t="shared" si="31"/>
-        <v>1114.9114140344711</v>
+        <f t="shared" si="30"/>
+        <v>1477.8857302920708</v>
       </c>
       <c r="G31" s="23">
-        <f t="shared" ref="G31" si="32">G29-G30</f>
-        <v>1668.7742142935692</v>
+        <f t="shared" ref="G31" si="31">G29-G30</f>
+        <v>2315.1527530594467</v>
       </c>
       <c r="H31" s="23">
-        <f t="shared" ref="H31" si="33">H29-H30</f>
-        <v>2553.9345242793265</v>
+        <f t="shared" ref="H31" si="32">H29-H30</f>
+        <v>3528.6323955150201</v>
       </c>
       <c r="I31" s="23">
-        <f t="shared" ref="I31" si="34">I29-I30</f>
-        <v>3955.0534961392264</v>
+        <f t="shared" ref="I31" si="33">I29-I30</f>
+        <v>5195.5240553016711</v>
       </c>
       <c r="J31" s="23">
-        <f t="shared" ref="J31" si="35">J29-J30</f>
-        <v>4603.1732849211294</v>
+        <f t="shared" ref="J31" si="34">J29-J30</f>
+        <v>5985.136894113266</v>
       </c>
       <c r="K31" s="23">
-        <f t="shared" ref="K31" si="36">K29-K30</f>
-        <v>5373.1193479955991</v>
+        <f t="shared" ref="K31" si="35">K29-K30</f>
+        <v>6911.0218941203248</v>
       </c>
       <c r="L31" s="23">
-        <f t="shared" ref="L31" si="37">L29-L30</f>
-        <v>6225.756039570575</v>
+        <f t="shared" ref="L31" si="36">L29-L30</f>
+        <v>7935.4930401133779</v>
       </c>
       <c r="M31" s="23">
-        <f t="shared" ref="M31" si="38">M29-M30</f>
-        <v>7169.5494219038846</v>
+        <f t="shared" ref="M31" si="37">M29-M30</f>
+        <v>9068.611073703265</v>
       </c>
       <c r="N31" s="23">
-        <f t="shared" ref="N31" si="39">N29-N30</f>
-        <v>8213.8156854025347</v>
+        <f t="shared" ref="N31" si="38">N29-N30</f>
+        <v>10321.446419754589</v>
       </c>
       <c r="O31" s="23">
-        <f t="shared" ref="O31:P31" si="40">O29-O30</f>
-        <v>9368.8062613771745</v>
+        <f t="shared" ref="O31:P31" si="39">O29-O30</f>
+        <v>11706.180256132509</v>
       </c>
       <c r="P31" s="23">
+        <f t="shared" si="39"/>
+        <v>13236.215692217487</v>
+      </c>
+      <c r="Q31" s="23">
+        <f t="shared" ref="Q31:R31" si="40">Q29-Q30</f>
+        <v>14926.300067111411</v>
+      </c>
+      <c r="R31" s="23">
         <f t="shared" si="40"/>
-        <v>10645.801447840086</v>
-      </c>
-      <c r="Q31" s="23">
-        <f t="shared" ref="Q31:R31" si="41">Q29-Q30</f>
-        <v>12057.21339969725</v>
-      </c>
-      <c r="R31" s="23">
+        <v>16792.659479551505</v>
+      </c>
+      <c r="S31" s="23">
+        <f t="shared" ref="S31:AU31" si="41">R31*($F$2+1)</f>
+        <v>16876.622776949262</v>
+      </c>
+      <c r="T31" s="23">
         <f t="shared" si="41"/>
-        <v>13616.699419820718</v>
-      </c>
-      <c r="S31" s="23">
-        <f t="shared" ref="S31:AU31" si="42">R31*($F$2+1)</f>
-        <v>13684.782916919819</v>
-      </c>
-      <c r="T31" s="23">
+        <v>16961.005890834007</v>
+      </c>
+      <c r="U31" s="23">
+        <f t="shared" si="41"/>
+        <v>17045.810920288175</v>
+      </c>
+      <c r="V31" s="23">
+        <f t="shared" si="41"/>
+        <v>17131.039974889612</v>
+      </c>
+      <c r="W31" s="23">
+        <f t="shared" si="41"/>
+        <v>17216.69517476406</v>
+      </c>
+      <c r="X31" s="23">
+        <f t="shared" si="41"/>
+        <v>17302.77865063788</v>
+      </c>
+      <c r="Y31" s="23">
+        <f t="shared" si="41"/>
+        <v>17389.292543891068</v>
+      </c>
+      <c r="Z31" s="23">
+        <f t="shared" si="41"/>
+        <v>17476.239006610522</v>
+      </c>
+      <c r="AA31" s="23">
+        <f t="shared" si="41"/>
+        <v>17563.620201643571</v>
+      </c>
+      <c r="AB31" s="23">
+        <f t="shared" si="41"/>
+        <v>17651.438302651786</v>
+      </c>
+      <c r="AC31" s="23">
+        <f t="shared" si="41"/>
+        <v>17739.695494165044</v>
+      </c>
+      <c r="AD31" s="23">
+        <f t="shared" si="41"/>
+        <v>17828.393971635865</v>
+      </c>
+      <c r="AE31" s="23">
+        <f t="shared" si="41"/>
+        <v>17917.535941494043</v>
+      </c>
+      <c r="AF31" s="23">
+        <f t="shared" si="41"/>
+        <v>18007.12362120151</v>
+      </c>
+      <c r="AG31" s="23">
+        <f t="shared" si="41"/>
+        <v>18097.159239307515</v>
+      </c>
+      <c r="AH31" s="23">
+        <f t="shared" si="41"/>
+        <v>18187.645035504051</v>
+      </c>
+      <c r="AI31" s="23">
+        <f t="shared" si="41"/>
+        <v>18278.583260681567</v>
+      </c>
+      <c r="AJ31" s="23">
+        <f t="shared" si="41"/>
+        <v>18369.976176984972</v>
+      </c>
+      <c r="AK31" s="23">
+        <f t="shared" si="41"/>
+        <v>18461.826057869894</v>
+      </c>
+      <c r="AL31" s="23">
+        <f t="shared" si="41"/>
+        <v>18554.135188159242</v>
+      </c>
+      <c r="AM31" s="23">
+        <f t="shared" si="41"/>
+        <v>18646.905864100037</v>
+      </c>
+      <c r="AN31" s="23">
+        <f t="shared" si="41"/>
+        <v>18740.140393420537</v>
+      </c>
+      <c r="AO31" s="23">
+        <f t="shared" si="41"/>
+        <v>18833.841095387637</v>
+      </c>
+      <c r="AP31" s="23">
+        <f t="shared" si="41"/>
+        <v>18928.010300864575</v>
+      </c>
+      <c r="AQ31" s="23">
+        <f t="shared" si="41"/>
+        <v>19022.650352368895</v>
+      </c>
+      <c r="AR31" s="23">
+        <f t="shared" si="41"/>
+        <v>19117.763604130738</v>
+      </c>
+      <c r="AS31" s="23">
+        <f t="shared" si="41"/>
+        <v>19213.352422151391</v>
+      </c>
+      <c r="AT31" s="23">
+        <f t="shared" si="41"/>
+        <v>19309.419184262144</v>
+      </c>
+      <c r="AU31" s="23">
+        <f t="shared" si="41"/>
+        <v>19405.966280183453</v>
+      </c>
+      <c r="AV31" s="23">
+        <f t="shared" ref="AV31:CA31" si="42">AU31*($F$2+1)</f>
+        <v>19502.996111584369</v>
+      </c>
+      <c r="AW31" s="23">
         <f t="shared" si="42"/>
-        <v>13753.206831504416</v>
-      </c>
-      <c r="U31" s="23">
+        <v>19600.511092142289</v>
+      </c>
+      <c r="AX31" s="23">
         <f t="shared" si="42"/>
-        <v>13821.972865661937</v>
-      </c>
-      <c r="V31" s="23">
+        <v>19698.513647602998</v>
+      </c>
+      <c r="AY31" s="23">
         <f t="shared" si="42"/>
-        <v>13891.082729990245</v>
-      </c>
-      <c r="W31" s="23">
+        <v>19797.006215841011</v>
+      </c>
+      <c r="AZ31" s="23">
         <f t="shared" si="42"/>
-        <v>13960.538143640195</v>
-      </c>
-      <c r="X31" s="23">
+        <v>19895.991246920214</v>
+      </c>
+      <c r="BA31" s="23">
         <f t="shared" si="42"/>
-        <v>14030.340834358394</v>
-      </c>
-      <c r="Y31" s="23">
+        <v>19995.471203154812</v>
+      </c>
+      <c r="BB31" s="23">
         <f t="shared" si="42"/>
-        <v>14100.492538530185</v>
-      </c>
-      <c r="Z31" s="23">
+        <v>20095.448559170585</v>
+      </c>
+      <c r="BC31" s="23">
         <f t="shared" si="42"/>
-        <v>14170.995001222835</v>
-      </c>
-      <c r="AA31" s="23">
+        <v>20195.925801966438</v>
+      </c>
+      <c r="BD31" s="23">
         <f t="shared" si="42"/>
-        <v>14241.849976228947</v>
-      </c>
-      <c r="AB31" s="23">
+        <v>20296.905430976269</v>
+      </c>
+      <c r="BE31" s="23">
         <f t="shared" si="42"/>
-        <v>14313.05922611009</v>
-      </c>
-      <c r="AC31" s="23">
+        <v>20398.389958131149</v>
+      </c>
+      <c r="BF31" s="23">
         <f t="shared" si="42"/>
-        <v>14384.62452224064</v>
-      </c>
-      <c r="AD31" s="23">
+        <v>20500.381907921801</v>
+      </c>
+      <c r="BG31" s="23">
         <f t="shared" si="42"/>
-        <v>14456.547644851842</v>
-      </c>
-      <c r="AE31" s="23">
+        <v>20602.883817461407</v>
+      </c>
+      <c r="BH31" s="23">
         <f t="shared" si="42"/>
-        <v>14528.8303830761</v>
-      </c>
-      <c r="AF31" s="23">
+        <v>20705.89823654871</v>
+      </c>
+      <c r="BI31" s="23">
         <f t="shared" si="42"/>
-        <v>14601.474534991479</v>
-      </c>
-      <c r="AG31" s="23">
+        <v>20809.42772773145</v>
+      </c>
+      <c r="BJ31" s="23">
         <f t="shared" si="42"/>
-        <v>14674.481907666435</v>
-      </c>
-      <c r="AH31" s="23">
+        <v>20913.474866370107</v>
+      </c>
+      <c r="BK31" s="23">
         <f t="shared" si="42"/>
-        <v>14747.854317204767</v>
-      </c>
-      <c r="AI31" s="23">
+        <v>21018.042240701954</v>
+      </c>
+      <c r="BL31" s="23">
         <f t="shared" si="42"/>
-        <v>14821.593588790789</v>
-      </c>
-      <c r="AJ31" s="23">
+        <v>21123.132451905461</v>
+      </c>
+      <c r="BM31" s="23">
         <f t="shared" si="42"/>
-        <v>14895.701556734741</v>
-      </c>
-      <c r="AK31" s="23">
+        <v>21228.748114164988</v>
+      </c>
+      <c r="BN31" s="23">
         <f t="shared" si="42"/>
-        <v>14970.180064518412</v>
-      </c>
-      <c r="AL31" s="23">
+        <v>21334.891854735812</v>
+      </c>
+      <c r="BO31" s="23">
         <f t="shared" si="42"/>
-        <v>15045.030964841002</v>
-      </c>
-      <c r="AM31" s="23">
+        <v>21441.566314009488</v>
+      </c>
+      <c r="BP31" s="23">
         <f t="shared" si="42"/>
-        <v>15120.256119665206</v>
-      </c>
-      <c r="AN31" s="23">
+        <v>21548.774145579533</v>
+      </c>
+      <c r="BQ31" s="23">
         <f t="shared" si="42"/>
-        <v>15195.857400263531</v>
-      </c>
-      <c r="AO31" s="23">
+        <v>21656.518016307429</v>
+      </c>
+      <c r="BR31" s="23">
         <f t="shared" si="42"/>
-        <v>15271.836687264846</v>
-      </c>
-      <c r="AP31" s="23">
+        <v>21764.800606388962</v>
+      </c>
+      <c r="BS31" s="23">
         <f t="shared" si="42"/>
-        <v>15348.195870701169</v>
-      </c>
-      <c r="AQ31" s="23">
+        <v>21873.624609420905</v>
+      </c>
+      <c r="BT31" s="23">
         <f t="shared" si="42"/>
-        <v>15424.936850054673</v>
-      </c>
-      <c r="AR31" s="23">
+        <v>21982.992732468007</v>
+      </c>
+      <c r="BU31" s="23">
         <f t="shared" si="42"/>
-        <v>15502.061534304945</v>
-      </c>
-      <c r="AS31" s="23">
+        <v>22092.907696130344</v>
+      </c>
+      <c r="BV31" s="23">
         <f t="shared" si="42"/>
-        <v>15579.571841976467</v>
-      </c>
-      <c r="AT31" s="23">
+        <v>22203.372234610993</v>
+      </c>
+      <c r="BW31" s="23">
         <f t="shared" si="42"/>
-        <v>15657.469701186348</v>
-      </c>
-      <c r="AU31" s="23">
+        <v>22314.389095784045</v>
+      </c>
+      <c r="BX31" s="23">
         <f t="shared" si="42"/>
-        <v>15735.757049692278</v>
-      </c>
-      <c r="AV31" s="23">
-        <f t="shared" ref="AV31:CA31" si="43">AU31*($F$2+1)</f>
-        <v>15814.435834940738</v>
-      </c>
-      <c r="AW31" s="23">
+        <v>22425.961041262963</v>
+      </c>
+      <c r="BY31" s="23">
+        <f t="shared" si="42"/>
+        <v>22538.090846469277</v>
+      </c>
+      <c r="BZ31" s="23">
+        <f t="shared" si="42"/>
+        <v>22650.781300701619</v>
+      </c>
+      <c r="CA31" s="23">
+        <f t="shared" si="42"/>
+        <v>22764.035207205125</v>
+      </c>
+      <c r="CB31" s="23">
+        <f t="shared" ref="CB31:DG31" si="43">CA31*($F$2+1)</f>
+        <v>22877.855383241149</v>
+      </c>
+      <c r="CC31" s="23">
         <f t="shared" si="43"/>
-        <v>15893.508014115439</v>
-      </c>
-      <c r="AX31" s="23">
+        <v>22992.244660157354</v>
+      </c>
+      <c r="CD31" s="23">
         <f t="shared" si="43"/>
-        <v>15972.975554186014</v>
-      </c>
-      <c r="AY31" s="23">
+        <v>23107.205883458137</v>
+      </c>
+      <c r="CE31" s="23">
         <f t="shared" si="43"/>
-        <v>16052.840431956942</v>
-      </c>
-      <c r="AZ31" s="23">
+        <v>23222.741912875426</v>
+      </c>
+      <c r="CF31" s="23">
         <f t="shared" si="43"/>
-        <v>16133.104634116724</v>
-      </c>
-      <c r="BA31" s="23">
+        <v>23338.855622439802</v>
+      </c>
+      <c r="CG31" s="23">
         <f t="shared" si="43"/>
-        <v>16213.770157287307</v>
-      </c>
-      <c r="BB31" s="23">
+        <v>23455.549900552</v>
+      </c>
+      <c r="CH31" s="23">
         <f t="shared" si="43"/>
-        <v>16294.839008073741</v>
-      </c>
-      <c r="BC31" s="23">
+        <v>23572.827650054758</v>
+      </c>
+      <c r="CI31" s="23">
         <f t="shared" si="43"/>
-        <v>16376.313203114109</v>
-      </c>
-      <c r="BD31" s="23">
+        <v>23690.69178830503</v>
+      </c>
+      <c r="CJ31" s="23">
         <f t="shared" si="43"/>
-        <v>16458.194769129677</v>
-      </c>
-      <c r="BE31" s="23">
+        <v>23809.145247246553</v>
+      </c>
+      <c r="CK31" s="23">
         <f t="shared" si="43"/>
-        <v>16540.485742975325</v>
-      </c>
-      <c r="BF31" s="23">
+        <v>23928.190973482782</v>
+      </c>
+      <c r="CL31" s="23">
         <f t="shared" si="43"/>
-        <v>16623.188171690199</v>
-      </c>
-      <c r="BG31" s="23">
+        <v>24047.831928350195</v>
+      </c>
+      <c r="CM31" s="23">
         <f t="shared" si="43"/>
-        <v>16706.304112548649</v>
-      </c>
-      <c r="BH31" s="23">
+        <v>24168.071087991942</v>
+      </c>
+      <c r="CN31" s="23">
         <f t="shared" si="43"/>
-        <v>16789.83563311139</v>
-      </c>
-      <c r="BI31" s="23">
+        <v>24288.911443431898</v>
+      </c>
+      <c r="CO31" s="23">
         <f t="shared" si="43"/>
-        <v>16873.784811276946</v>
-      </c>
-      <c r="BJ31" s="23">
+        <v>24410.356000649055</v>
+      </c>
+      <c r="CP31" s="23">
         <f t="shared" si="43"/>
-        <v>16958.15373533333</v>
-      </c>
-      <c r="BK31" s="23">
+        <v>24532.407780652298</v>
+      </c>
+      <c r="CQ31" s="23">
         <f t="shared" si="43"/>
-        <v>17042.944504009996</v>
-      </c>
-      <c r="BL31" s="23">
+        <v>24655.069819555556</v>
+      </c>
+      <c r="CR31" s="23">
         <f t="shared" si="43"/>
-        <v>17128.159226530046</v>
-      </c>
-      <c r="BM31" s="23">
+        <v>24778.34516865333</v>
+      </c>
+      <c r="CS31" s="23">
         <f t="shared" si="43"/>
-        <v>17213.800022662694</v>
-      </c>
-      <c r="BN31" s="23">
+        <v>24902.236894496593</v>
+      </c>
+      <c r="CT31" s="23">
         <f t="shared" si="43"/>
-        <v>17299.869022776005</v>
-      </c>
-      <c r="BO31" s="23">
+        <v>25026.748078969074</v>
+      </c>
+      <c r="CU31" s="23">
         <f t="shared" si="43"/>
-        <v>17386.368367889885</v>
-      </c>
-      <c r="BP31" s="23">
+        <v>25151.881819363916</v>
+      </c>
+      <c r="CV31" s="23">
         <f t="shared" si="43"/>
-        <v>17473.300209729332</v>
-      </c>
-      <c r="BQ31" s="23">
+        <v>25277.641228460732</v>
+      </c>
+      <c r="CW31" s="23">
         <f t="shared" si="43"/>
-        <v>17560.666710777976</v>
-      </c>
-      <c r="BR31" s="23">
+        <v>25404.029434603031</v>
+      </c>
+      <c r="CX31" s="23">
         <f t="shared" si="43"/>
-        <v>17648.470044331865</v>
-      </c>
-      <c r="BS31" s="23">
+        <v>25531.049581776046</v>
+      </c>
+      <c r="CY31" s="23">
         <f t="shared" si="43"/>
-        <v>17736.712394553524</v>
-      </c>
-      <c r="BT31" s="23">
+        <v>25658.704829684924</v>
+      </c>
+      <c r="CZ31" s="23">
         <f t="shared" si="43"/>
-        <v>17825.395956526289</v>
-      </c>
-      <c r="BU31" s="23">
+        <v>25786.998353833347</v>
+      </c>
+      <c r="DA31" s="23">
         <f t="shared" si="43"/>
-        <v>17914.522936308917</v>
-      </c>
-      <c r="BV31" s="23">
+        <v>25915.933345602512</v>
+      </c>
+      <c r="DB31" s="23">
         <f t="shared" si="43"/>
-        <v>18004.09555099046</v>
-      </c>
-      <c r="BW31" s="23">
+        <v>26045.513012330521</v>
+      </c>
+      <c r="DC31" s="23">
         <f t="shared" si="43"/>
-        <v>18094.116028745411</v>
-      </c>
-      <c r="BX31" s="23">
+        <v>26175.740577392171</v>
+      </c>
+      <c r="DD31" s="23">
         <f t="shared" si="43"/>
-        <v>18184.586608889138</v>
-      </c>
-      <c r="BY31" s="23">
+        <v>26306.61928027913</v>
+      </c>
+      <c r="DE31" s="23">
         <f t="shared" si="43"/>
-        <v>18275.509541933581</v>
-      </c>
-      <c r="BZ31" s="23">
+        <v>26438.152376680522</v>
+      </c>
+      <c r="DF31" s="23">
         <f t="shared" si="43"/>
-        <v>18366.887089643245</v>
-      </c>
-      <c r="CA31" s="23">
+        <v>26570.343138563923</v>
+      </c>
+      <c r="DG31" s="23">
         <f t="shared" si="43"/>
-        <v>18458.72152509146</v>
-      </c>
-      <c r="CB31" s="23">
-        <f t="shared" ref="CB31:DG31" si="44">CA31*($F$2+1)</f>
-        <v>18551.015132716915</v>
-      </c>
-      <c r="CC31" s="23">
+        <v>26703.194854256741</v>
+      </c>
+      <c r="DH31" s="23">
+        <f t="shared" ref="DH31:DP31" si="44">DG31*($F$2+1)</f>
+        <v>26836.710828528023</v>
+      </c>
+      <c r="DI31" s="23">
         <f t="shared" si="44"/>
-        <v>18643.770208380498</v>
-      </c>
-      <c r="CD31" s="23">
+        <v>26970.89438267066</v>
+      </c>
+      <c r="DJ31" s="23">
         <f t="shared" si="44"/>
-        <v>18736.989059422398</v>
-      </c>
-      <c r="CE31" s="23">
+        <v>27105.74885458401</v>
+      </c>
+      <c r="DK31" s="23">
         <f t="shared" si="44"/>
-        <v>18830.674004719509</v>
-      </c>
-      <c r="CF31" s="23">
+        <v>27241.277598856926</v>
+      </c>
+      <c r="DL31" s="23">
         <f t="shared" si="44"/>
-        <v>18924.827374743105</v>
-      </c>
-      <c r="CG31" s="23">
+        <v>27377.48398685121</v>
+      </c>
+      <c r="DM31" s="23">
         <f t="shared" si="44"/>
-        <v>19019.451511616819</v>
-      </c>
-      <c r="CH31" s="23">
+        <v>27514.371406785463</v>
+      </c>
+      <c r="DN31" s="23">
         <f t="shared" si="44"/>
-        <v>19114.5487691749</v>
-      </c>
-      <c r="CI31" s="23">
+        <v>27651.943263819387</v>
+      </c>
+      <c r="DO31" s="23">
         <f t="shared" si="44"/>
-        <v>19210.121513020771</v>
-      </c>
-      <c r="CJ31" s="23">
+        <v>27790.202980138482</v>
+      </c>
+      <c r="DP31" s="23">
         <f t="shared" si="44"/>
-        <v>19306.172120585874</v>
-      </c>
-      <c r="CK31" s="23">
-        <f t="shared" si="44"/>
-        <v>19402.702981188802</v>
-      </c>
-      <c r="CL31" s="23">
-        <f t="shared" si="44"/>
-        <v>19499.716496094745</v>
-      </c>
-      <c r="CM31" s="23">
-        <f t="shared" si="44"/>
-        <v>19597.215078575216</v>
-      </c>
-      <c r="CN31" s="23">
-        <f t="shared" si="44"/>
-        <v>19695.20115396809</v>
-      </c>
-      <c r="CO31" s="23">
-        <f t="shared" si="44"/>
-        <v>19793.677159737927</v>
-      </c>
-      <c r="CP31" s="23">
-        <f t="shared" si="44"/>
-        <v>19892.645545536616</v>
-      </c>
-      <c r="CQ31" s="23">
-        <f t="shared" si="44"/>
-        <v>19992.108773264295</v>
-      </c>
-      <c r="CR31" s="23">
-        <f t="shared" si="44"/>
-        <v>20092.069317130616</v>
-      </c>
-      <c r="CS31" s="23">
-        <f t="shared" si="44"/>
-        <v>20192.529663716268</v>
-      </c>
-      <c r="CT31" s="23">
-        <f t="shared" si="44"/>
-        <v>20293.492312034847</v>
-      </c>
-      <c r="CU31" s="23">
-        <f t="shared" si="44"/>
-        <v>20394.959773595019</v>
-      </c>
-      <c r="CV31" s="23">
-        <f t="shared" si="44"/>
-        <v>20496.934572462993</v>
-      </c>
-      <c r="CW31" s="23">
-        <f t="shared" si="44"/>
-        <v>20599.419245325305</v>
-      </c>
-      <c r="CX31" s="23">
-        <f t="shared" si="44"/>
-        <v>20702.416341551929</v>
-      </c>
-      <c r="CY31" s="23">
-        <f t="shared" si="44"/>
-        <v>20805.928423259687</v>
-      </c>
-      <c r="CZ31" s="23">
-        <f t="shared" si="44"/>
-        <v>20909.958065375984</v>
-      </c>
-      <c r="DA31" s="23">
-        <f t="shared" si="44"/>
-        <v>21014.507855702861</v>
-      </c>
-      <c r="DB31" s="23">
-        <f t="shared" si="44"/>
-        <v>21119.580394981374</v>
-      </c>
-      <c r="DC31" s="23">
-        <f t="shared" si="44"/>
-        <v>21225.178296956277</v>
-      </c>
-      <c r="DD31" s="23">
-        <f t="shared" si="44"/>
-        <v>21331.304188441056</v>
-      </c>
-      <c r="DE31" s="23">
-        <f t="shared" si="44"/>
-        <v>21437.96070938326</v>
-      </c>
-      <c r="DF31" s="23">
-        <f t="shared" si="44"/>
-        <v>21545.150512930173</v>
-      </c>
-      <c r="DG31" s="23">
-        <f t="shared" si="44"/>
-        <v>21652.876265494822</v>
-      </c>
-      <c r="DH31" s="23">
-        <f t="shared" ref="DH31:DP31" si="45">DG31*($F$2+1)</f>
-        <v>21761.140646822296</v>
-      </c>
-      <c r="DI31" s="23">
-        <f t="shared" si="45"/>
-        <v>21869.946350056405</v>
-      </c>
-      <c r="DJ31" s="23">
-        <f t="shared" si="45"/>
-        <v>21979.296081806686</v>
-      </c>
-      <c r="DK31" s="23">
-        <f t="shared" si="45"/>
-        <v>22089.192562215718</v>
-      </c>
-      <c r="DL31" s="23">
-        <f t="shared" si="45"/>
-        <v>22199.638525026792</v>
-      </c>
-      <c r="DM31" s="23">
-        <f t="shared" si="45"/>
-        <v>22310.636717651923</v>
-      </c>
-      <c r="DN31" s="23">
-        <f t="shared" si="45"/>
-        <v>22422.189901240181</v>
-      </c>
-      <c r="DO31" s="23">
-        <f t="shared" si="45"/>
-        <v>22534.300850746378</v>
-      </c>
-      <c r="DP31" s="23">
-        <f t="shared" si="45"/>
-        <v>22646.972355000107</v>
+        <v>27929.153995039171</v>
       </c>
       <c r="DQ31" s="23">
-        <f t="shared" ref="DQ31" si="46">DP31*($F$2+1)</f>
-        <v>22760.207216775107</v>
+        <f t="shared" ref="DQ31" si="45">DP31*($F$2+1)</f>
+        <v>28068.799765014362</v>
       </c>
       <c r="DR31" s="23">
-        <f t="shared" ref="DR31" si="47">DQ31*($F$2+1)</f>
-        <v>22874.008252858981</v>
+        <f t="shared" ref="DR31" si="46">DQ31*($F$2+1)</f>
+        <v>28209.143763839431</v>
       </c>
       <c r="DS31" s="23">
-        <f t="shared" ref="DS31" si="48">DR31*($F$2+1)</f>
-        <v>22988.378294123275</v>
+        <f t="shared" ref="DS31" si="47">DR31*($F$2+1)</f>
+        <v>28350.189482658625</v>
       </c>
       <c r="DT31" s="23">
-        <f t="shared" ref="DT31" si="49">DS31*($F$2+1)</f>
-        <v>23103.32018559389</v>
+        <f t="shared" ref="DT31" si="48">DS31*($F$2+1)</f>
+        <v>28491.940430071914</v>
       </c>
       <c r="DU31" s="23">
-        <f t="shared" ref="DU31" si="50">DT31*($F$2+1)</f>
-        <v>23218.836786521857</v>
+        <f t="shared" ref="DU31" si="49">DT31*($F$2+1)</f>
+        <v>28634.400132222272</v>
       </c>
       <c r="DV31" s="23">
-        <f t="shared" ref="DV31" si="51">DU31*($F$2+1)</f>
-        <v>23334.930970454465</v>
+        <f t="shared" ref="DV31" si="50">DU31*($F$2+1)</f>
+        <v>28777.572132883379</v>
       </c>
       <c r="DW31" s="23">
-        <f t="shared" ref="DW31" si="52">DV31*($F$2+1)</f>
-        <v>23451.605625306736</v>
+        <f t="shared" ref="DW31" si="51">DV31*($F$2+1)</f>
+        <v>28921.459993547793</v>
       </c>
       <c r="DX31" s="23">
-        <f t="shared" ref="DX31" si="53">DW31*($F$2+1)</f>
-        <v>23568.863653433269</v>
+        <f t="shared" ref="DX31" si="52">DW31*($F$2+1)</f>
+        <v>29066.067293515527</v>
       </c>
       <c r="DY31" s="23">
-        <f t="shared" ref="DY31" si="54">DX31*($F$2+1)</f>
-        <v>23686.707971700434</v>
+        <f t="shared" ref="DY31" si="53">DX31*($F$2+1)</f>
+        <v>29211.397629983101</v>
       </c>
       <c r="DZ31" s="23">
-        <f t="shared" ref="DZ31" si="55">DY31*($F$2+1)</f>
-        <v>23805.141511558933</v>
+        <f t="shared" ref="DZ31" si="54">DY31*($F$2+1)</f>
+        <v>29357.454618133015</v>
       </c>
       <c r="EA31" s="23">
-        <f t="shared" ref="EA31" si="56">DZ31*($F$2+1)</f>
-        <v>23924.167219116727</v>
+        <f t="shared" ref="EA31" si="55">DZ31*($F$2+1)</f>
+        <v>29504.241891223675</v>
       </c>
       <c r="EB31" s="23">
-        <f t="shared" ref="EB31" si="57">EA31*($F$2+1)</f>
-        <v>24043.78805521231</v>
+        <f t="shared" ref="EB31" si="56">EA31*($F$2+1)</f>
+        <v>29651.763100679789</v>
       </c>
       <c r="EC31" s="23">
-        <f t="shared" ref="EC31" si="58">EB31*($F$2+1)</f>
-        <v>24164.006995488369</v>
+        <f t="shared" ref="EC31" si="57">EB31*($F$2+1)</f>
+        <v>29800.021916183185</v>
       </c>
       <c r="ED31" s="23">
-        <f t="shared" ref="ED31" si="59">EC31*($F$2+1)</f>
-        <v>24284.827030465807</v>
+        <f t="shared" ref="ED31" si="58">EC31*($F$2+1)</f>
+        <v>29949.022025764098</v>
       </c>
       <c r="EE31" s="23">
-        <f t="shared" ref="EE31" si="60">ED31*($F$2+1)</f>
-        <v>24406.251165618134</v>
+        <f t="shared" ref="EE31" si="59">ED31*($F$2+1)</f>
+        <v>30098.767135892915</v>
       </c>
       <c r="EF31" s="23">
-        <f t="shared" ref="EF31" si="61">EE31*($F$2+1)</f>
-        <v>24528.282421446223</v>
+        <f t="shared" ref="EF31" si="60">EE31*($F$2+1)</f>
+        <v>30249.260971572377</v>
       </c>
       <c r="EG31" s="23">
-        <f t="shared" ref="EG31" si="62">EF31*($F$2+1)</f>
-        <v>24650.923833553454</v>
+        <f t="shared" ref="EG31" si="61">EF31*($F$2+1)</f>
+        <v>30400.507276430235</v>
       </c>
       <c r="EH31" s="23">
-        <f t="shared" ref="EH31" si="63">EG31*($F$2+1)</f>
-        <v>24774.178452721218</v>
+        <f t="shared" ref="EH31" si="62">EG31*($F$2+1)</f>
+        <v>30552.509812812383</v>
       </c>
       <c r="EI31" s="23">
-        <f t="shared" ref="EI31" si="64">EH31*($F$2+1)</f>
-        <v>24898.049344984822</v>
+        <f t="shared" ref="EI31" si="63">EH31*($F$2+1)</f>
+        <v>30705.272361876443</v>
       </c>
       <c r="EJ31" s="23">
-        <f t="shared" ref="EJ31" si="65">EI31*($F$2+1)</f>
-        <v>25022.539591709745</v>
+        <f t="shared" ref="EJ31" si="64">EI31*($F$2+1)</f>
+        <v>30858.798723685821</v>
       </c>
       <c r="EK31" s="23">
-        <f t="shared" ref="EK31" si="66">EJ31*($F$2+1)</f>
-        <v>25147.652289668291</v>
+        <f t="shared" ref="EK31" si="65">EJ31*($F$2+1)</f>
+        <v>31013.092717304247</v>
       </c>
       <c r="EL31" s="23">
-        <f t="shared" ref="EL31" si="67">EK31*($F$2+1)</f>
-        <v>25273.39055111663</v>
+        <f t="shared" ref="EL31" si="66">EK31*($F$2+1)</f>
+        <v>31168.158180890765</v>
       </c>
       <c r="EM31" s="23">
-        <f t="shared" ref="EM31" si="68">EL31*($F$2+1)</f>
-        <v>25399.75750387221</v>
+        <f t="shared" ref="EM31" si="67">EL31*($F$2+1)</f>
+        <v>31323.998971795216</v>
       </c>
       <c r="EN31" s="23">
-        <f t="shared" ref="EN31" si="69">EM31*($F$2+1)</f>
-        <v>25526.756291391568</v>
+        <f t="shared" ref="EN31" si="68">EM31*($F$2+1)</f>
+        <v>31480.618966654187</v>
       </c>
       <c r="EO31" s="23">
-        <f t="shared" ref="EO31" si="70">EN31*($F$2+1)</f>
-        <v>25654.390072848524</v>
+        <f t="shared" ref="EO31" si="69">EN31*($F$2+1)</f>
+        <v>31638.022061487456</v>
       </c>
       <c r="EP31" s="23">
-        <f t="shared" ref="EP31" si="71">EO31*($F$2+1)</f>
-        <v>25782.662023212764</v>
+        <f t="shared" ref="EP31" si="70">EO31*($F$2+1)</f>
+        <v>31796.21217179489</v>
       </c>
       <c r="EQ31" s="23">
-        <f t="shared" ref="EQ31" si="72">EP31*($F$2+1)</f>
-        <v>25911.575333328827</v>
+        <f t="shared" ref="EQ31" si="71">EP31*($F$2+1)</f>
+        <v>31955.193232653863</v>
       </c>
       <c r="ER31" s="23">
-        <f t="shared" ref="ER31" si="73">EQ31*($F$2+1)</f>
-        <v>26041.133209995467</v>
+        <f t="shared" ref="ER31" si="72">EQ31*($F$2+1)</f>
+        <v>32114.969198817129</v>
       </c>
       <c r="ES31" s="23">
-        <f t="shared" ref="ES31" si="74">ER31*($F$2+1)</f>
-        <v>26171.33887604544</v>
+        <f t="shared" ref="ES31" si="73">ER31*($F$2+1)</f>
+        <v>32275.544044811209</v>
       </c>
       <c r="ET31" s="23">
-        <f t="shared" ref="ET31" si="75">ES31*($F$2+1)</f>
-        <v>26302.195570425665</v>
+        <f t="shared" ref="ET31" si="74">ES31*($F$2+1)</f>
+        <v>32436.921765035262</v>
       </c>
       <c r="EU31" s="23">
-        <f t="shared" ref="EU31" si="76">ET31*($F$2+1)</f>
-        <v>26433.706548277791</v>
+        <f t="shared" ref="EU31" si="75">ET31*($F$2+1)</f>
+        <v>32599.106373860435</v>
       </c>
       <c r="EV31" s="23">
-        <f t="shared" ref="EV31" si="77">EU31*($F$2+1)</f>
-        <v>26565.875081019178</v>
+        <f t="shared" ref="EV31" si="76">EU31*($F$2+1)</f>
+        <v>32762.101905729734</v>
       </c>
       <c r="EW31" s="23">
-        <f t="shared" ref="EW31" si="78">EV31*($F$2+1)</f>
-        <v>26698.704456424271</v>
+        <f t="shared" ref="EW31" si="77">EV31*($F$2+1)</f>
+        <v>32925.912415258383</v>
       </c>
       <c r="EX31" s="23">
-        <f t="shared" ref="EX31" si="79">EW31*($F$2+1)</f>
-        <v>26832.19797870639</v>
+        <f t="shared" ref="EX31" si="78">EW31*($F$2+1)</f>
+        <v>33090.541977334673</v>
       </c>
       <c r="EY31" s="23">
-        <f t="shared" ref="EY31" si="80">EX31*($F$2+1)</f>
-        <v>26966.358968599918</v>
+        <f t="shared" ref="EY31" si="79">EX31*($F$2+1)</f>
+        <v>33255.99468722134</v>
       </c>
       <c r="EZ31" s="23">
-        <f t="shared" ref="EZ31" si="81">EY31*($F$2+1)</f>
-        <v>27101.190763442915</v>
+        <f t="shared" ref="EZ31" si="80">EY31*($F$2+1)</f>
+        <v>33422.274660657444</v>
       </c>
       <c r="FA31" s="23">
-        <f t="shared" ref="FA31" si="82">EZ31*($F$2+1)</f>
-        <v>27236.696717260125</v>
+        <f t="shared" ref="FA31" si="81">EZ31*($F$2+1)</f>
+        <v>33589.386033960727</v>
       </c>
       <c r="FB31" s="23">
-        <f t="shared" ref="FB31" si="83">FA31*($F$2+1)</f>
-        <v>27372.880200846423</v>
+        <f t="shared" ref="FB31" si="82">FA31*($F$2+1)</f>
+        <v>33757.332964130524</v>
       </c>
       <c r="FC31" s="23">
-        <f t="shared" ref="FC31" si="84">FB31*($F$2+1)</f>
-        <v>27509.744601850653</v>
+        <f t="shared" ref="FC31" si="83">FB31*($F$2+1)</f>
+        <v>33926.119628951172</v>
       </c>
       <c r="FD31" s="23">
-        <f t="shared" ref="FD31" si="85">FC31*($F$2+1)</f>
-        <v>27647.293324859904</v>
+        <f t="shared" ref="FD31" si="84">FC31*($F$2+1)</f>
+        <v>34095.750227095923</v>
       </c>
       <c r="FE31" s="23">
-        <f t="shared" ref="FE31" si="86">FD31*($F$2+1)</f>
-        <v>27785.529791484201</v>
+        <f t="shared" ref="FE31" si="85">FD31*($F$2+1)</f>
+        <v>34266.228978231396</v>
       </c>
       <c r="FF31" s="23">
-        <f t="shared" ref="FF31" si="87">FE31*($F$2+1)</f>
-        <v>27924.45744044162</v>
+        <f t="shared" ref="FF31" si="86">FE31*($F$2+1)</f>
+        <v>34437.560123122552</v>
       </c>
       <c r="FG31" s="23">
-        <f t="shared" ref="FG31" si="88">FF31*($F$2+1)</f>
-        <v>28064.079727643824</v>
+        <f t="shared" ref="FG31" si="87">FF31*($F$2+1)</f>
+        <v>34609.747923738163</v>
       </c>
       <c r="FH31" s="23">
-        <f t="shared" ref="FH31" si="89">FG31*($F$2+1)</f>
-        <v>28204.400126282042</v>
+        <f t="shared" ref="FH31" si="88">FG31*($F$2+1)</f>
+        <v>34782.79666335685</v>
       </c>
       <c r="FI31" s="23">
-        <f t="shared" ref="FI31" si="90">FH31*($F$2+1)</f>
-        <v>28345.42212691345</v>
+        <f t="shared" ref="FI31" si="89">FH31*($F$2+1)</f>
+        <v>34956.71064667363</v>
       </c>
       <c r="FJ31" s="23">
-        <f t="shared" ref="FJ31" si="91">FI31*($F$2+1)</f>
-        <v>28487.149237548016</v>
+        <f t="shared" ref="FJ31" si="90">FI31*($F$2+1)</f>
+        <v>35131.494199906992</v>
       </c>
       <c r="FK31" s="23">
-        <f t="shared" ref="FK31" si="92">FJ31*($F$2+1)</f>
-        <v>28629.584983735753</v>
+        <f t="shared" ref="FK31" si="91">FJ31*($F$2+1)</f>
+        <v>35307.151670906525</v>
       </c>
       <c r="FL31" s="23">
-        <f t="shared" ref="FL31" si="93">FK31*($F$2+1)</f>
-        <v>28772.732908654427</v>
+        <f t="shared" ref="FL31" si="92">FK31*($F$2+1)</f>
+        <v>35483.687429261052</v>
       </c>
       <c r="FM31" s="23">
-        <f t="shared" ref="FM31" si="94">FL31*($F$2+1)</f>
-        <v>28916.596573197698</v>
+        <f t="shared" ref="FM31" si="93">FL31*($F$2+1)</f>
+        <v>35661.10586640735</v>
       </c>
       <c r="FN31" s="23">
-        <f t="shared" ref="FN31" si="95">FM31*($F$2+1)</f>
-        <v>29061.179556063682</v>
+        <f t="shared" ref="FN31" si="94">FM31*($F$2+1)</f>
+        <v>35839.411395739386</v>
       </c>
       <c r="FO31" s="23">
-        <f t="shared" ref="FO31" si="96">FN31*($F$2+1)</f>
-        <v>29206.485453843998</v>
+        <f t="shared" ref="FO31" si="95">FN31*($F$2+1)</f>
+        <v>36018.608452718079</v>
       </c>
       <c r="FP31" s="23">
-        <f t="shared" ref="FP31" si="97">FO31*($F$2+1)</f>
-        <v>29352.517881113214</v>
+        <f t="shared" ref="FP31" si="96">FO31*($F$2+1)</f>
+        <v>36198.701494981666</v>
       </c>
       <c r="FQ31" s="23">
-        <f t="shared" ref="FQ31" si="98">FP31*($F$2+1)</f>
-        <v>29499.280470518777</v>
+        <f t="shared" ref="FQ31" si="97">FP31*($F$2+1)</f>
+        <v>36379.695002456567</v>
       </c>
       <c r="FR31" s="23">
-        <f t="shared" ref="FR31" si="99">FQ31*($F$2+1)</f>
-        <v>29646.776872871367</v>
+        <f t="shared" ref="FR31" si="98">FQ31*($F$2+1)</f>
+        <v>36561.593477468843</v>
       </c>
       <c r="FS31" s="23">
-        <f t="shared" ref="FS31" si="100">FR31*($F$2+1)</f>
-        <v>29795.010757235719</v>
+        <f t="shared" ref="FS31" si="99">FR31*($F$2+1)</f>
+        <v>36744.401444856187</v>
       </c>
       <c r="FT31" s="23">
-        <f t="shared" ref="FT31" si="101">FS31*($F$2+1)</f>
-        <v>29943.985811021896</v>
+        <f t="shared" ref="FT31" si="100">FS31*($F$2+1)</f>
+        <v>36928.123452080465</v>
       </c>
       <c r="FU31" s="23">
-        <f t="shared" ref="FU31" si="102">FT31*($F$2+1)</f>
-        <v>30093.705740077003</v>
+        <f t="shared" ref="FU31" si="101">FT31*($F$2+1)</f>
+        <v>37112.764069340861</v>
       </c>
       <c r="FV31" s="23">
-        <f t="shared" ref="FV31" si="103">FU31*($F$2+1)</f>
-        <v>30244.174268777384</v>
+        <f t="shared" ref="FV31" si="102">FU31*($F$2+1)</f>
+        <v>37298.327889687564</v>
       </c>
       <c r="FW31" s="23">
-        <f t="shared" ref="FW31" si="104">FV31*($F$2+1)</f>
-        <v>30395.395140121269</v>
+        <f t="shared" ref="FW31" si="103">FV31*($F$2+1)</f>
+        <v>37484.819529135995</v>
       </c>
       <c r="FX31" s="23">
-        <f t="shared" ref="FX31" si="105">FW31*($F$2+1)</f>
-        <v>30547.372115821872</v>
+        <f t="shared" ref="FX31" si="104">FW31*($F$2+1)</f>
+        <v>37672.243626781674</v>
       </c>
       <c r="FY31" s="23">
-        <f t="shared" ref="FY31" si="106">FX31*($F$2+1)</f>
-        <v>30700.108976400978</v>
+        <f t="shared" ref="FY31" si="105">FX31*($F$2+1)</f>
+        <v>37860.604844915579</v>
       </c>
       <c r="FZ31" s="23">
-        <f t="shared" ref="FZ31" si="107">FY31*($F$2+1)</f>
-        <v>30853.609521282979</v>
+        <f t="shared" ref="FZ31" si="106">FY31*($F$2+1)</f>
+        <v>38049.907869140152</v>
       </c>
       <c r="GA31" s="23">
-        <f t="shared" ref="GA31" si="108">FZ31*($F$2+1)</f>
-        <v>31007.877568889391</v>
+        <f t="shared" ref="GA31" si="107">FZ31*($F$2+1)</f>
+        <v>38240.157408485851</v>
       </c>
       <c r="GB31" s="23">
-        <f t="shared" ref="GB31" si="109">GA31*($F$2+1)</f>
-        <v>31162.916956733836</v>
+        <f t="shared" ref="GB31" si="108">GA31*($F$2+1)</f>
+        <v>38431.358195528279</v>
       </c>
       <c r="GC31" s="23">
-        <f t="shared" ref="GC31" si="110">GB31*($F$2+1)</f>
-        <v>31318.731541517504</v>
+        <f t="shared" ref="GC31" si="109">GB31*($F$2+1)</f>
+        <v>38623.514986505914</v>
       </c>
       <c r="GD31" s="23">
-        <f t="shared" ref="GD31" si="111">GC31*($F$2+1)</f>
-        <v>31475.325199225088</v>
+        <f t="shared" ref="GD31" si="110">GC31*($F$2+1)</f>
+        <v>38816.63256143844</v>
       </c>
       <c r="GE31" s="23">
-        <f t="shared" ref="GE31" si="112">GD31*($F$2+1)</f>
-        <v>31632.701825221211</v>
+        <f t="shared" ref="GE31" si="111">GD31*($F$2+1)</f>
+        <v>39010.715724245631</v>
       </c>
       <c r="GF31" s="23">
-        <f t="shared" ref="GF31" si="113">GE31*($F$2+1)</f>
-        <v>31790.865334347312</v>
+        <f t="shared" ref="GF31" si="112">GE31*($F$2+1)</f>
+        <v>39205.769302866851</v>
       </c>
       <c r="GG31" s="23">
-        <f t="shared" ref="GG31" si="114">GF31*($F$2+1)</f>
-        <v>31949.819661019046</v>
+        <f t="shared" ref="GG31" si="113">GF31*($F$2+1)</f>
+        <v>39401.798149381182</v>
       </c>
       <c r="GH31" s="23">
-        <f t="shared" ref="GH31" si="115">GG31*($F$2+1)</f>
-        <v>32109.568759324138</v>
+        <f t="shared" ref="GH31" si="114">GG31*($F$2+1)</f>
+        <v>39598.807140128083</v>
       </c>
       <c r="GI31" s="23">
-        <f t="shared" ref="GI31" si="116">GH31*($F$2+1)</f>
-        <v>32270.116603120754</v>
+        <f t="shared" ref="GI31" si="115">GH31*($F$2+1)</f>
+        <v>39796.801175828718</v>
       </c>
       <c r="GJ31" s="23">
-        <f t="shared" ref="GJ31" si="117">GI31*($F$2+1)</f>
-        <v>32431.467186136353</v>
+        <f t="shared" ref="GJ31" si="116">GI31*($F$2+1)</f>
+        <v>39995.785181707855</v>
       </c>
       <c r="GK31" s="23">
-        <f t="shared" ref="GK31" si="118">GJ31*($F$2+1)</f>
-        <v>32593.624522067032</v>
+        <f t="shared" ref="GK31" si="117">GJ31*($F$2+1)</f>
+        <v>40195.764107616393</v>
       </c>
       <c r="GL31" s="23">
-        <f t="shared" ref="GL31" si="119">GK31*($F$2+1)</f>
-        <v>32756.592644677363</v>
+        <f t="shared" ref="GL31" si="118">GK31*($F$2+1)</f>
+        <v>40396.742928154468</v>
       </c>
       <c r="GM31" s="23">
-        <f t="shared" ref="GM31" si="120">GL31*($F$2+1)</f>
-        <v>32920.375607900743</v>
+        <f t="shared" ref="GM31" si="119">GL31*($F$2+1)</f>
+        <v>40598.726642795235</v>
       </c>
       <c r="GN31" s="23">
-        <f t="shared" ref="GN31" si="121">GM31*($F$2+1)</f>
-        <v>33084.977485940246</v>
+        <f t="shared" ref="GN31" si="120">GM31*($F$2+1)</f>
+        <v>40801.720276009204</v>
       </c>
       <c r="GO31" s="23">
-        <f t="shared" ref="GO31" si="122">GN31*($F$2+1)</f>
-        <v>33250.402373369943</v>
+        <f t="shared" ref="GO31" si="121">GN31*($F$2+1)</f>
+        <v>41005.728877389243</v>
       </c>
       <c r="GP31" s="23">
-        <f t="shared" ref="GP31" si="123">GO31*($F$2+1)</f>
-        <v>33416.65438523679</v>
+        <f t="shared" ref="GP31" si="122">GO31*($F$2+1)</f>
+        <v>41210.757521776184</v>
       </c>
       <c r="GQ31" s="23">
-        <f t="shared" ref="GQ31" si="124">GP31*($F$2+1)</f>
-        <v>33583.737657162972</v>
+        <f t="shared" ref="GQ31" si="123">GP31*($F$2+1)</f>
+        <v>41416.811309385062</v>
       </c>
       <c r="GR31" s="23">
-        <f t="shared" ref="GR31" si="125">GQ31*($F$2+1)</f>
-        <v>33751.656345448784</v>
+        <f t="shared" ref="GR31" si="124">GQ31*($F$2+1)</f>
+        <v>41623.895365931981</v>
       </c>
       <c r="GS31" s="23">
-        <f t="shared" ref="GS31" si="126">GR31*($F$2+1)</f>
-        <v>33920.414627176026</v>
+        <f t="shared" ref="GS31" si="125">GR31*($F$2+1)</f>
+        <v>41832.014842761637</v>
       </c>
       <c r="GT31" s="23">
-        <f t="shared" ref="GT31" si="127">GS31*($F$2+1)</f>
-        <v>34090.016700311899</v>
+        <f t="shared" ref="GT31" si="126">GS31*($F$2+1)</f>
+        <v>42041.17491697544</v>
       </c>
       <c r="GU31" s="23">
-        <f t="shared" ref="GU31" si="128">GT31*($F$2+1)</f>
-        <v>34260.466783813456</v>
+        <f t="shared" ref="GU31" si="127">GT31*($F$2+1)</f>
+        <v>42251.38079156031</v>
       </c>
       <c r="GV31" s="23">
-        <f t="shared" ref="GV31" si="129">GU31*($F$2+1)</f>
-        <v>34431.769117732518</v>
+        <f t="shared" ref="GV31" si="128">GU31*($F$2+1)</f>
+        <v>42462.637695518104</v>
       </c>
       <c r="GW31" s="23">
-        <f t="shared" ref="GW31" si="130">GV31*($F$2+1)</f>
-        <v>34603.927963321177</v>
+        <f t="shared" ref="GW31" si="129">GV31*($F$2+1)</f>
+        <v>42674.950883995691</v>
       </c>
       <c r="GX31" s="23">
-        <f t="shared" ref="GX31" si="131">GW31*($F$2+1)</f>
-        <v>34776.947603137778</v>
+        <f t="shared" ref="GX31" si="130">GW31*($F$2+1)</f>
+        <v>42888.325638415663</v>
       </c>
       <c r="GY31" s="23">
-        <f t="shared" ref="GY31" si="132">GX31*($F$2+1)</f>
-        <v>34950.832341153466</v>
+        <f t="shared" ref="GY31" si="131">GX31*($F$2+1)</f>
+        <v>43102.767266607734</v>
       </c>
       <c r="GZ31" s="23">
-        <f t="shared" ref="GZ31" si="133">GY31*($F$2+1)</f>
-        <v>35125.586502859231</v>
+        <f t="shared" ref="GZ31" si="132">GY31*($F$2+1)</f>
+        <v>43318.281102940768</v>
       </c>
       <c r="HA31" s="23">
-        <f t="shared" ref="HA31" si="134">GZ31*($F$2+1)</f>
-        <v>35301.21443537352</v>
+        <f t="shared" ref="HA31" si="133">GZ31*($F$2+1)</f>
+        <v>43534.872508455468</v>
       </c>
       <c r="HB31" s="23">
-        <f t="shared" ref="HB31" si="135">HA31*($F$2+1)</f>
-        <v>35477.720507550381</v>
+        <f t="shared" ref="HB31" si="134">HA31*($F$2+1)</f>
+        <v>43752.546870997743</v>
       </c>
       <c r="HC31" s="23">
-        <f t="shared" ref="HC31" si="136">HB31*($F$2+1)</f>
-        <v>35655.109110088131</v>
+        <f t="shared" ref="HC31" si="135">HB31*($F$2+1)</f>
+        <v>43971.309605352726</v>
       </c>
       <c r="HD31" s="23">
-        <f t="shared" ref="HD31" si="137">HC31*($F$2+1)</f>
-        <v>35833.384655638569</v>
+        <f t="shared" ref="HD31" si="136">HC31*($F$2+1)</f>
+        <v>44191.166153379483</v>
       </c>
       <c r="HE31" s="23">
-        <f t="shared" ref="HE31" si="138">HD31*($F$2+1)</f>
-        <v>36012.551578916755</v>
+        <f t="shared" ref="HE31" si="137">HD31*($F$2+1)</f>
+        <v>44412.121984146375</v>
       </c>
       <c r="HF31" s="23">
-        <f t="shared" ref="HF31" si="139">HE31*($F$2+1)</f>
-        <v>36192.614336811333</v>
+        <f t="shared" ref="HF31" si="138">HE31*($F$2+1)</f>
+        <v>44634.182594067104</v>
       </c>
       <c r="HG31" s="23">
-        <f t="shared" ref="HG31" si="140">HF31*($F$2+1)</f>
-        <v>36373.577408495388</v>
+        <f t="shared" ref="HG31" si="139">HF31*($F$2+1)</f>
+        <v>44857.353507037435</v>
       </c>
       <c r="HH31" s="23">
-        <f t="shared" ref="HH31" si="141">HG31*($F$2+1)</f>
-        <v>36555.445295537858</v>
+        <f t="shared" ref="HH31" si="140">HG31*($F$2+1)</f>
+        <v>45081.640274572615</v>
       </c>
       <c r="HI31" s="23">
-        <f t="shared" ref="HI31" si="142">HH31*($F$2+1)</f>
-        <v>36738.222522015545</v>
+        <f t="shared" ref="HI31" si="141">HH31*($F$2+1)</f>
+        <v>45307.04847594547</v>
       </c>
       <c r="HJ31" s="23">
-        <f t="shared" ref="HJ31" si="143">HI31*($F$2+1)</f>
-        <v>36921.91363462562</v>
+        <f t="shared" ref="HJ31" si="142">HI31*($F$2+1)</f>
+        <v>45533.583718325193</v>
       </c>
       <c r="HK31" s="23">
-        <f t="shared" ref="HK31" si="144">HJ31*($F$2+1)</f>
-        <v>37106.523202798744</v>
+        <f t="shared" ref="HK31" si="143">HJ31*($F$2+1)</f>
+        <v>45761.251636916815</v>
       </c>
       <c r="HL31" s="23">
-        <f t="shared" ref="HL31" si="145">HK31*($F$2+1)</f>
-        <v>37292.055818812732</v>
+        <f t="shared" ref="HL31" si="144">HK31*($F$2+1)</f>
+        <v>45990.057895101396</v>
       </c>
       <c r="HM31" s="23">
-        <f t="shared" ref="HM31" si="146">HL31*($F$2+1)</f>
-        <v>37478.516097906795</v>
+        <f t="shared" ref="HM31" si="145">HL31*($F$2+1)</f>
+        <v>46220.008184576895</v>
       </c>
       <c r="HN31" s="23">
-        <f t="shared" ref="HN31" si="147">HM31*($F$2+1)</f>
-        <v>37665.908678396328</v>
+        <f t="shared" ref="HN31" si="146">HM31*($F$2+1)</f>
+        <v>46451.108225499775</v>
       </c>
       <c r="HO31" s="23">
-        <f t="shared" ref="HO31" si="148">HN31*($F$2+1)</f>
-        <v>37854.238221788306</v>
+        <f t="shared" ref="HO31" si="147">HN31*($F$2+1)</f>
+        <v>46683.36376662727</v>
       </c>
       <c r="HP31" s="23">
-        <f t="shared" ref="HP31" si="149">HO31*($F$2+1)</f>
-        <v>38043.509412897241</v>
+        <f t="shared" ref="HP31" si="148">HO31*($F$2+1)</f>
+        <v>46916.780585460401</v>
       </c>
       <c r="HQ31" s="23">
-        <f t="shared" ref="HQ31" si="150">HP31*($F$2+1)</f>
-        <v>38233.726959961721</v>
+        <f t="shared" ref="HQ31" si="149">HP31*($F$2+1)</f>
+        <v>47151.364488387699</v>
       </c>
       <c r="HR31" s="23">
-        <f t="shared" ref="HR31" si="151">HQ31*($F$2+1)</f>
-        <v>38424.895594761525</v>
+        <f t="shared" ref="HR31" si="150">HQ31*($F$2+1)</f>
+        <v>47387.121310829629</v>
       </c>
       <c r="HS31" s="23">
-        <f t="shared" ref="HS31" si="152">HR31*($F$2+1)</f>
-        <v>38617.020072735329</v>
+        <f t="shared" ref="HS31" si="151">HR31*($F$2+1)</f>
+        <v>47624.056917383772</v>
       </c>
       <c r="HT31" s="23">
-        <f t="shared" ref="HT31" si="153">HS31*($F$2+1)</f>
-        <v>38810.105173099</v>
+        <f t="shared" ref="HT31" si="152">HS31*($F$2+1)</f>
+        <v>47862.177201970684</v>
       </c>
       <c r="HU31" s="23">
-        <f t="shared" ref="HU31" si="154">HT31*($F$2+1)</f>
-        <v>39004.155698964489</v>
+        <f t="shared" ref="HU31" si="153">HT31*($F$2+1)</f>
+        <v>48101.488087980535</v>
       </c>
       <c r="HV31" s="23">
-        <f t="shared" ref="HV31" si="155">HU31*($F$2+1)</f>
-        <v>39199.17647745931</v>
+        <f t="shared" ref="HV31" si="154">HU31*($F$2+1)</f>
+        <v>48341.995528420433</v>
       </c>
       <c r="HW31" s="23">
-        <f t="shared" ref="HW31" si="156">HV31*($F$2+1)</f>
-        <v>39395.172359846605</v>
+        <f t="shared" ref="HW31" si="155">HV31*($F$2+1)</f>
+        <v>48583.705506062528</v>
       </c>
       <c r="HX31" s="23">
-        <f t="shared" ref="HX31" si="157">HW31*($F$2+1)</f>
-        <v>39592.148221645832</v>
+        <f t="shared" ref="HX31" si="156">HW31*($F$2+1)</f>
+        <v>48826.624033592838</v>
       </c>
       <c r="HY31" s="23">
-        <f t="shared" ref="HY31" si="158">HX31*($F$2+1)</f>
-        <v>39790.108962754057</v>
+        <f t="shared" ref="HY31" si="157">HX31*($F$2+1)</f>
+        <v>49070.757153760795</v>
       </c>
       <c r="HZ31" s="23">
-        <f t="shared" ref="HZ31" si="159">HY31*($F$2+1)</f>
-        <v>39989.059507567821</v>
+        <f t="shared" ref="HZ31" si="158">HY31*($F$2+1)</f>
+        <v>49316.110939529593</v>
       </c>
       <c r="IA31" s="23">
-        <f t="shared" ref="IA31" si="160">HZ31*($F$2+1)</f>
-        <v>40189.004805105658</v>
+        <f t="shared" ref="IA31" si="159">HZ31*($F$2+1)</f>
+        <v>49562.691494227234</v>
       </c>
       <c r="IB31" s="23">
-        <f t="shared" ref="IB31" si="161">IA31*($F$2+1)</f>
-        <v>40389.949829131183</v>
+        <f t="shared" ref="IB31" si="160">IA31*($F$2+1)</f>
+        <v>49810.504951698364</v>
       </c>
       <c r="IC31" s="23">
-        <f t="shared" ref="IC31" si="162">IB31*($F$2+1)</f>
-        <v>40591.899578276832</v>
+        <f t="shared" ref="IC31" si="161">IB31*($F$2+1)</f>
+        <v>50059.557476456852</v>
       </c>
       <c r="ID31" s="23">
-        <f t="shared" ref="ID31" si="163">IC31*($F$2+1)</f>
-        <v>40794.859076168214</v>
+        <f t="shared" ref="ID31" si="162">IC31*($F$2+1)</f>
+        <v>50309.855263839134</v>
       </c>
       <c r="IE31" s="23">
-        <f t="shared" ref="IE31" si="164">ID31*($F$2+1)</f>
-        <v>40998.833371549052</v>
+        <f t="shared" ref="IE31" si="163">ID31*($F$2+1)</f>
+        <v>50561.404540158321</v>
       </c>
       <c r="IF31" s="23">
-        <f t="shared" ref="IF31" si="165">IE31*($F$2+1)</f>
-        <v>41203.827538406789</v>
+        <f t="shared" ref="IF31" si="164">IE31*($F$2+1)</f>
+        <v>50814.211562859105</v>
       </c>
       <c r="IG31" s="23">
-        <f t="shared" ref="IG31" si="166">IF31*($F$2+1)</f>
-        <v>41409.846676098816</v>
+        <f t="shared" ref="IG31" si="165">IF31*($F$2+1)</f>
+        <v>51068.282620673395</v>
       </c>
       <c r="IH31" s="23">
-        <f t="shared" ref="IH31" si="167">IG31*($F$2+1)</f>
-        <v>41616.895909479303</v>
+        <f t="shared" ref="IH31" si="166">IG31*($F$2+1)</f>
+        <v>51323.624033776759</v>
       </c>
       <c r="II31" s="23">
-        <f t="shared" ref="II31" si="168">IH31*($F$2+1)</f>
-        <v>41824.980389026692</v>
+        <f t="shared" ref="II31" si="167">IH31*($F$2+1)</f>
+        <v>51580.242153945641</v>
       </c>
     </row>
     <row r="32" spans="1:243" x14ac:dyDescent="0.15">
@@ -3285,60 +3284,60 @@
         <v>0.76604572780050717</v>
       </c>
       <c r="E32" s="19">
-        <f t="shared" ref="E32:F32" si="169">E31/E33</f>
-        <v>1.5903905776757616</v>
+        <f t="shared" ref="E32:F32" si="168">E31/E33</f>
+        <v>1.9165284921674379</v>
       </c>
       <c r="F32" s="19">
+        <f t="shared" si="168"/>
+        <v>3.0447136352984807</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" ref="G32:O32" si="169">G31/G33</f>
+        <v>4.7696361163497007</v>
+      </c>
+      <c r="H32" s="19">
         <f t="shared" si="169"/>
-        <v>2.2969204688036342</v>
-      </c>
-      <c r="G32" s="19">
-        <f t="shared" ref="G32:O32" si="170">G31/G33</f>
-        <v>3.4379786612392595</v>
-      </c>
-      <c r="H32" s="19">
+        <v>7.2696250788329069</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="169"/>
+        <v>10.70372533509205</v>
+      </c>
+      <c r="J32" s="19">
+        <f t="shared" si="169"/>
+        <v>12.330471522337042</v>
+      </c>
+      <c r="K32" s="19">
+        <f t="shared" si="169"/>
+        <v>14.237963168313421</v>
+      </c>
+      <c r="L32" s="19">
+        <f t="shared" si="169"/>
+        <v>16.348560221414722</v>
+      </c>
+      <c r="M32" s="19">
+        <f t="shared" si="169"/>
+        <v>18.682989640793387</v>
+      </c>
+      <c r="N32" s="19">
+        <f t="shared" si="169"/>
+        <v>21.264058516905006</v>
+      </c>
+      <c r="O32" s="19">
+        <f t="shared" si="169"/>
+        <v>24.116862293585232</v>
+      </c>
+      <c r="P32" s="19">
+        <f t="shared" ref="P32:R32" si="170">P31/P33</f>
+        <v>27.269013816028806</v>
+      </c>
+      <c r="Q32" s="19">
         <f t="shared" si="170"/>
-        <v>5.2615700323434709</v>
-      </c>
-      <c r="I32" s="19">
+        <v>30.7508952873571</v>
+      </c>
+      <c r="R32" s="19">
         <f t="shared" si="170"/>
-        <v>8.1481301708287006</v>
-      </c>
-      <c r="J32" s="19">
-        <f t="shared" si="170"/>
-        <v>9.4833749179452766</v>
-      </c>
-      <c r="K32" s="19">
-        <f t="shared" si="170"/>
-        <v>11.069603967077464</v>
-      </c>
-      <c r="L32" s="19">
-        <f t="shared" si="170"/>
-        <v>12.826190763731267</v>
-      </c>
-      <c r="M32" s="19">
-        <f t="shared" si="170"/>
-        <v>14.770576937300183</v>
-      </c>
-      <c r="N32" s="19">
-        <f t="shared" si="170"/>
-        <v>16.921955535920375</v>
-      </c>
-      <c r="O32" s="19">
-        <f t="shared" si="170"/>
-        <v>19.301446374238608</v>
-      </c>
-      <c r="P32" s="19">
-        <f t="shared" ref="P32:R32" si="171">P31/P33</f>
-        <v>21.932288919599511</v>
-      </c>
-      <c r="Q32" s="19">
-        <f t="shared" si="171"/>
-        <v>24.840054470589354</v>
-      </c>
-      <c r="R32" s="19">
-        <f t="shared" si="171"/>
-        <v>28.052879557268358</v>
+        <v>34.595935424730229</v>
       </c>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
@@ -3364,55 +3363,55 @@
         <v>485.39400000000001</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" ref="F33" si="172">E33</f>
+        <f t="shared" ref="F33" si="171">E33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" ref="G33" si="173">F33</f>
+        <f t="shared" ref="G33" si="172">F33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" ref="H33" si="174">G33</f>
+        <f t="shared" ref="H33" si="173">G33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" ref="I33" si="175">H33</f>
+        <f t="shared" ref="I33" si="174">H33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ref="J33" si="176">I33</f>
+        <f t="shared" ref="J33" si="175">I33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" ref="K33" si="177">J33</f>
+        <f t="shared" ref="K33" si="176">J33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" ref="L33" si="178">K33</f>
+        <f t="shared" ref="L33" si="177">K33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" ref="M33" si="179">L33</f>
+        <f t="shared" ref="M33" si="178">L33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" ref="N33" si="180">M33</f>
+        <f t="shared" ref="N33" si="179">M33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" ref="O33:R33" si="181">N33</f>
+        <f t="shared" ref="O33:R33" si="180">N33</f>
         <v>485.39400000000001</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>485.39400000000001</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>485.39400000000001</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>485.39400000000001</v>
       </c>
       <c r="S33" s="5"/>
@@ -3444,72 +3443,72 @@
         <v>19</v>
       </c>
       <c r="B35" s="22">
-        <f t="shared" ref="B35:O35" si="182">IFERROR(B22/B20,0)</f>
+        <f t="shared" ref="B35:O35" si="181">IFERROR(B22/B20,0)</f>
         <v>0.37867148666967915</v>
       </c>
       <c r="C35" s="22">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.39532766990291263</v>
       </c>
       <c r="D35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="H35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="I35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="K35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="N35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="O35" s="22">
+        <f t="shared" si="181"/>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="P35" s="22">
+        <f t="shared" ref="P35:R35" si="182">IFERROR(P22/P20,0)</f>
+        <v>0.40115752146093647</v>
+      </c>
+      <c r="Q35" s="22">
         <f t="shared" si="182"/>
         <v>0.40115752146093647</v>
       </c>
-      <c r="E35" s="22">
+      <c r="R35" s="22">
         <f t="shared" si="182"/>
         <v>0.40115752146093647</v>
-      </c>
-      <c r="F35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093647</v>
-      </c>
-      <c r="G35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093647</v>
-      </c>
-      <c r="H35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093647</v>
-      </c>
-      <c r="I35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="J35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="K35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="L35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="M35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="N35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="O35" s="22">
-        <f t="shared" si="182"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="P35" s="22">
-        <f t="shared" ref="P35:R35" si="183">IFERROR(P22/P20,0)</f>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="Q35" s="22">
-        <f t="shared" si="183"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="R35" s="22">
-        <f t="shared" si="183"/>
-        <v>0.40115752146093642</v>
       </c>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
@@ -3519,72 +3518,72 @@
         <v>20</v>
       </c>
       <c r="B36" s="21">
-        <f t="shared" ref="B36:O36" si="184">IFERROR(B27/B20,0)</f>
+        <f t="shared" ref="B36:O36" si="183">IFERROR(B27/B20,0)</f>
         <v>-2.5305015815634886E-2</v>
       </c>
       <c r="C36" s="21">
+        <f t="shared" si="183"/>
+        <v>-1.0922330097087379E-2</v>
+      </c>
+      <c r="D36" s="21">
+        <f t="shared" si="183"/>
+        <v>5.9036266983742607E-3</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.12855705260243497</v>
+      </c>
+      <c r="F36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.15224108264192268</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.17600052619872433</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.19760315937084619</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.2156790139137473</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.22337631975686875</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.2322399002110877</v>
+      </c>
+      <c r="L36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.2403116120225692</v>
+      </c>
+      <c r="M36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.24766510868638916</v>
+      </c>
+      <c r="N36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.25436693474725436</v>
+      </c>
+      <c r="O36" s="21">
+        <f t="shared" si="183"/>
+        <v>0.26047723397762551</v>
+      </c>
+      <c r="P36" s="21">
+        <f t="shared" ref="P36:R36" si="184">IFERROR(P27/P20,0)</f>
+        <v>0.26605038519777069</v>
+      </c>
+      <c r="Q36" s="21">
         <f t="shared" si="184"/>
-        <v>-1.0922330097087379E-2</v>
-      </c>
-      <c r="D36" s="21">
+        <v>0.27113557327515941</v>
+      </c>
+      <c r="R36" s="21">
         <f t="shared" si="184"/>
-        <v>5.9036266983742607E-3</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.11248030324559403</v>
-      </c>
-      <c r="F36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.12618153292446502</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.14411687567837733</v>
-      </c>
-      <c r="H36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.16524397780801084</v>
-      </c>
-      <c r="I36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.18831947437089927</v>
-      </c>
-      <c r="J36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.19715219340217513</v>
-      </c>
-      <c r="K36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.20732322172803883</v>
-      </c>
-      <c r="L36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.21658557455450969</v>
-      </c>
-      <c r="M36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.22502376984682601</v>
-      </c>
-      <c r="N36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.23271416799373132</v>
-      </c>
-      <c r="O36" s="21">
-        <f t="shared" si="184"/>
-        <v>0.23972578444744408</v>
-      </c>
-      <c r="P36" s="21">
-        <f t="shared" ref="P36:R36" si="185">IFERROR(P27/P20,0)</f>
-        <v>0.24612101933217251</v>
-      </c>
-      <c r="Q36" s="21">
-        <f t="shared" si="185"/>
-        <v>0.2519563126704133</v>
-      </c>
-      <c r="R36" s="21">
-        <f t="shared" si="185"/>
-        <v>0.25728273296244236</v>
+        <v>0.27577730204424877</v>
       </c>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
@@ -3594,71 +3593,71 @@
         <v>21</v>
       </c>
       <c r="B37" s="21">
-        <f t="shared" ref="B37:O37" si="186">IFERROR(B30/B29,0)</f>
+        <f t="shared" ref="B37:O37" si="185">IFERROR(B30/B29,0)</f>
         <v>1.5625E-2</v>
       </c>
       <c r="C37" s="21">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>-5.8823529411764705E-2</v>
       </c>
       <c r="D37" s="21">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>1.0642996642134576E-2</v>
       </c>
       <c r="E37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="F37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="H37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="J37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="K37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="L37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="M37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="N37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="O37" s="21">
+        <f t="shared" si="185"/>
+        <v>0.15</v>
+      </c>
+      <c r="P37" s="21">
+        <f t="shared" ref="P37:R37" si="186">IFERROR(P30/P29,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="Q37" s="21">
         <f t="shared" si="186"/>
         <v>0.15</v>
       </c>
-      <c r="F37" s="21">
+      <c r="R37" s="21">
         <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="H37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="I37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="J37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="K37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="L37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="M37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="N37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="O37" s="21">
-        <f t="shared" si="186"/>
-        <v>0.15</v>
-      </c>
-      <c r="P37" s="21">
-        <f t="shared" ref="P37:R37" si="187">IFERROR(P30/P29,0)</f>
-        <v>0.15</v>
-      </c>
-      <c r="Q37" s="21">
-        <f t="shared" si="187"/>
-        <v>0.15</v>
-      </c>
-      <c r="R37" s="21">
-        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
       <c r="S37" s="21"/>
@@ -3695,63 +3694,63 @@
         <v>0.48938093086308188</v>
       </c>
       <c r="D39" s="20">
-        <f t="shared" ref="D39:R39" si="188">D20/C20-1</f>
+        <f t="shared" ref="D39:R39" si="187">D20/C20-1</f>
         <v>0.43043962378640765</v>
       </c>
       <c r="E39" s="20">
         <f>E20/D20-1</f>
-        <v>0.66968079183342266</v>
+        <v>0.76815105385696669</v>
       </c>
       <c r="F39" s="20">
         <f>F20/E20-1</f>
-        <v>0.28205465974932764</v>
+        <v>0.33740154725092886</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="188"/>
-        <v>0.30821292214152374</v>
+        <f t="shared" si="187"/>
+        <v>0.35192811862180973</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="188"/>
-        <v>0.33416012202275702</v>
+        <f t="shared" si="187"/>
+        <v>0.35445336582230547</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" si="188"/>
-        <v>0.3589783263107198</v>
+        <f t="shared" si="187"/>
+        <v>0.34553730325876741</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S39" s="20"/>
@@ -3763,67 +3762,67 @@
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21">
-        <f t="shared" ref="C40:R40" si="189">C23/B23-1</f>
+        <f t="shared" ref="C40:R40" si="188">C23/B23-1</f>
         <v>0.54179566563467496</v>
       </c>
       <c r="D40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.34595180722891561</v>
       </c>
       <c r="E40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.25</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.24999999999999978</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.25</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.25</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.25</v>
       </c>
       <c r="J40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R40" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S40" s="21"/>
@@ -3835,67 +3834,67 @@
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21">
-        <f t="shared" ref="C41:R41" si="190">C24/B24-1</f>
+        <f t="shared" ref="C41:R41" si="189">C24/B24-1</f>
         <v>0.61417322834645671</v>
       </c>
       <c r="D41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.52251463414634136</v>
       </c>
       <c r="E41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.25</v>
       </c>
       <c r="F41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.25</v>
       </c>
       <c r="G41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.25</v>
       </c>
       <c r="H41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.25</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.25</v>
       </c>
       <c r="J41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="L41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="M41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="N41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="O41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R41" s="21">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="S41" s="21"/>
@@ -3907,67 +3906,67 @@
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21">
-        <f t="shared" ref="C42:R42" si="191">C25/B25-1</f>
+        <f t="shared" ref="C42:R42" si="190">C25/B25-1</f>
         <v>0.35962145110410093</v>
       </c>
       <c r="D42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.32018561484918795</v>
       </c>
       <c r="E42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="F42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="G42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="H42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="K42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="L42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R42" s="21">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="S42" s="21"/>
@@ -3983,63 +3982,63 @@
         <v>0.49776286353467558</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" ref="D43:R43" si="192">D26/C26-1</f>
+        <f t="shared" ref="D43:R43" si="191">D26/C26-1</f>
         <v>0.39172143390589986</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.21946630426908276</v>
       </c>
       <c r="F43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.22120564137965171</v>
       </c>
       <c r="G43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.222884573006074</v>
       </c>
       <c r="H43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.22450066692201198</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.22605208896014939</v>
       </c>
       <c r="J43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>5.435030969677479E-2</v>
       </c>
       <c r="K43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>4.5157652180400687E-2</v>
       </c>
       <c r="L43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>4.7436608881102016E-2</v>
       </c>
       <c r="M43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>4.9710587241875936E-2</v>
       </c>
       <c r="N43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>5.1971510945105326E-2</v>
       </c>
       <c r="O43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>5.4211442955001354E-2</v>
       </c>
       <c r="P43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>5.6422705328300182E-2</v>
       </c>
       <c r="Q43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>5.8597990899370567E-2</v>
       </c>
       <c r="R43" s="21">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>6.0730463454501615E-2</v>
       </c>
       <c r="S43" s="21"/>
@@ -4081,59 +4080,59 @@
       </c>
       <c r="E45" s="18">
         <f>D45+E31</f>
-        <v>1908.9660440603486</v>
+        <v>2067.2714309271214</v>
       </c>
       <c r="F45" s="18">
-        <f t="shared" ref="F45:R45" si="193">E45+F31</f>
-        <v>3023.8774580948198</v>
+        <f t="shared" ref="F45:R45" si="192">E45+F31</f>
+        <v>3545.1571612191919</v>
       </c>
       <c r="G45" s="18">
-        <f t="shared" si="193"/>
-        <v>4692.6516723883888</v>
+        <f t="shared" si="192"/>
+        <v>5860.3099142786386</v>
       </c>
       <c r="H45" s="18">
-        <f t="shared" si="193"/>
-        <v>7246.5861966677148</v>
+        <f t="shared" si="192"/>
+        <v>9388.9423097936597</v>
       </c>
       <c r="I45" s="18">
-        <f t="shared" si="193"/>
-        <v>11201.639692806941</v>
+        <f t="shared" si="192"/>
+        <v>14584.46636509533</v>
       </c>
       <c r="J45" s="18">
-        <f t="shared" si="193"/>
-        <v>15804.81297772807</v>
+        <f t="shared" si="192"/>
+        <v>20569.603259208598</v>
       </c>
       <c r="K45" s="18">
-        <f t="shared" si="193"/>
-        <v>21177.932325723668</v>
+        <f t="shared" si="192"/>
+        <v>27480.625153328921</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" si="193"/>
-        <v>27403.688365294242</v>
+        <f t="shared" si="192"/>
+        <v>35416.1181934423</v>
       </c>
       <c r="M45" s="18">
-        <f t="shared" si="193"/>
-        <v>34573.23778719813</v>
+        <f t="shared" si="192"/>
+        <v>44484.729267145565</v>
       </c>
       <c r="N45" s="18">
-        <f t="shared" si="193"/>
-        <v>42787.053472600666</v>
+        <f t="shared" si="192"/>
+        <v>54806.175686900155</v>
       </c>
       <c r="O45" s="18">
-        <f t="shared" si="193"/>
-        <v>52155.859733977843</v>
+        <f t="shared" si="192"/>
+        <v>66512.355943032657</v>
       </c>
       <c r="P45" s="18">
-        <f t="shared" si="193"/>
-        <v>62801.66118181793</v>
+        <f t="shared" si="192"/>
+        <v>79748.571635250148</v>
       </c>
       <c r="Q45" s="18">
-        <f t="shared" si="193"/>
-        <v>74858.874581515178</v>
+        <f t="shared" si="192"/>
+        <v>94674.871702361561</v>
       </c>
       <c r="R45" s="18">
-        <f t="shared" si="193"/>
-        <v>88475.574001335888</v>
+        <f t="shared" si="192"/>
+        <v>111467.53118191307</v>
       </c>
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
@@ -4306,31 +4305,31 @@
         <v>81</v>
       </c>
       <c r="C61" s="14">
-        <f t="shared" ref="C61:D63" si="194">C12/B12-1</f>
+        <f t="shared" ref="C61:D63" si="193">C12/B12-1</f>
         <v>0.28697916666666656</v>
       </c>
       <c r="D61" s="14">
+        <f t="shared" si="193"/>
+        <v>0.24734115742614327</v>
+      </c>
+      <c r="E61" s="14">
+        <f t="shared" ref="E61:I61" si="194">E12/D12-1</f>
+        <v>6.4624713676683543E-2</v>
+      </c>
+      <c r="F61" s="14">
         <f t="shared" si="194"/>
-        <v>0.24734115742614327</v>
-      </c>
-      <c r="E61" s="14">
-        <f t="shared" ref="E61:I61" si="195">E12/D12-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F61" s="14">
-        <f t="shared" si="195"/>
+      <c r="G61" s="14">
+        <f t="shared" si="194"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="G61" s="14">
-        <f t="shared" si="195"/>
+      <c r="H61" s="14">
+        <f t="shared" si="194"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H61" s="14">
-        <f t="shared" si="195"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="I61" s="14">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4339,31 +4338,31 @@
         <v>82</v>
       </c>
       <c r="C62" s="14">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>1.3452380952380953</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>0.74520304568527918</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" ref="E62:I62" si="196">E13/D13-1</f>
+        <f t="shared" ref="E62:I62" si="195">E13/D13-1</f>
+        <v>0.39788615639679459</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="195"/>
         <v>0.25</v>
       </c>
-      <c r="F62" s="14">
-        <f t="shared" si="196"/>
+      <c r="G62" s="14">
+        <f t="shared" si="195"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="H62" s="14">
+        <f t="shared" si="195"/>
         <v>0.25</v>
       </c>
-      <c r="G62" s="14">
-        <f t="shared" si="196"/>
-        <v>0.25</v>
-      </c>
-      <c r="H62" s="14">
-        <f t="shared" si="196"/>
-        <v>0.25</v>
-      </c>
       <c r="I62" s="14">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4373,31 +4372,31 @@
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>0.65853658536585358</v>
       </c>
       <c r="D63" s="14">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>0.24363235294117658</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" ref="E63:I63" si="197">E14/D14-1</f>
+        <f t="shared" ref="E63:I63" si="196">E14/D14-1</f>
+        <v>3.5880426170964874E-2</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F63" s="14">
-        <f t="shared" si="197"/>
+      <c r="G63" s="14">
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="G63" s="14">
-        <f t="shared" si="197"/>
+      <c r="H63" s="14">
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H63" s="14">
-        <f t="shared" si="197"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="I63" s="14">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4412,24 +4411,24 @@
         <v>2.1118493975903614</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" ref="E64:I64" si="198">E15/D15-1</f>
-        <v>5</v>
+        <f t="shared" ref="E64:I64" si="197">E15/D15-1</f>
+        <v>5.825031409284759</v>
       </c>
       <c r="F64" s="14">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="G64" s="14">
+        <f t="shared" si="197"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H64" s="14">
+        <f t="shared" si="197"/>
         <v>0.5</v>
       </c>
-      <c r="G64" s="14">
-        <f t="shared" si="198"/>
-        <v>0.5</v>
-      </c>
-      <c r="H64" s="14">
-        <f t="shared" si="198"/>
-        <v>0.5</v>
-      </c>
       <c r="I64" s="14">
-        <f t="shared" si="198"/>
-        <v>0.5</v>
+        <f t="shared" si="197"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
@@ -4456,13 +4455,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4479,7 +4478,7 @@
     <col min="15" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="34"/>
       <c r="B2" s="28" t="s">
         <v>24</v>
@@ -4580,7 +4579,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
         <v>77</v>
       </c>
@@ -4629,8 +4628,12 @@
       <c r="P3" s="36">
         <v>925.29399999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q3" s="36">
+        <f>M3*1.1</f>
+        <v>915.39800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
         <v>78</v>
       </c>
@@ -4679,8 +4682,12 @@
       <c r="P4" s="36">
         <v>447.52199999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q4" s="36">
+        <f>M4*1.25</f>
+        <v>351.76875000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>79</v>
       </c>
@@ -4729,8 +4736,12 @@
       <c r="P5" s="36">
         <v>27.294</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q5" s="36">
+        <f>M5*0.9</f>
+        <v>20.310300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>80</v>
       </c>
@@ -4771,8 +4782,12 @@
       <c r="P6" s="36">
         <v>1633.7639999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="36">
+        <f>M6*4</f>
+        <v>710.26800000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="29"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -4787,7 +4802,7 @@
       <c r="M7" s="37"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>42</v>
       </c>
@@ -4805,7 +4820,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="72"/>
     </row>
-    <row r="9" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>55</v>
       </c>
@@ -4823,7 +4838,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="73"/>
     </row>
-    <row r="10" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -4842,7 +4857,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
@@ -4899,15 +4914,23 @@
         <v>1381.1089999999999</v>
       </c>
       <c r="O11" s="41">
-        <f t="shared" ref="O11:P11" si="1">SUM(O3:O6)</f>
+        <f t="shared" ref="O11:Q11" si="1">SUM(O3:O6)</f>
         <v>1923.625</v>
       </c>
       <c r="P11" s="41">
         <f t="shared" si="1"/>
         <v>3033.8739999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="41">
+        <f t="shared" si="1"/>
+        <v>1997.7450500000002</v>
+      </c>
+      <c r="S11" s="40">
+        <f>SUM(N11:Q11)</f>
+        <v>8336.3530499999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
         <v>5</v>
       </c>
@@ -4957,7 +4980,7 @@
         <v>2239.4189999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
         <v>6</v>
       </c>
@@ -5022,7 +5045,7 @@
         <v>794.45499999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
         <v>7</v>
       </c>
@@ -5072,7 +5095,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
         <v>8</v>
       </c>
@@ -5122,7 +5145,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
         <v>9</v>
       </c>
@@ -5187,7 +5210,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
         <v>10</v>
       </c>
@@ -5252,7 +5275,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -5317,7 +5340,7 @@
         <v>49.454999999999927</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
         <v>12</v>
       </c>
@@ -5379,7 +5402,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
         <v>13</v>
       </c>
@@ -5444,7 +5467,7 @@
         <v>35.454999999999927</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
         <v>14</v>
       </c>
@@ -5494,7 +5517,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
         <v>15</v>
       </c>
@@ -5559,7 +5582,7 @@
         <v>36.454999999999927</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
         <v>16</v>
       </c>
@@ -5624,7 +5647,7 @@
         <v>7.4692307849914513E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="33" t="s">
         <v>17</v>
       </c>
@@ -5674,7 +5697,7 @@
         <v>488.06900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B25" s="29"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -5688,7 +5711,7 @@
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="33" t="s">
         <v>19</v>
       </c>
@@ -5753,7 +5776,7 @@
         <v>0.26186156709210734</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="33" t="s">
         <v>20</v>
       </c>
@@ -5818,7 +5841,7 @@
         <v>1.6300940645524477E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="33" t="s">
         <v>21</v>
       </c>
@@ -5883,7 +5906,7 @@
         <v>-2.8204766605556396E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B29" s="29"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -5900,7 +5923,7 @@
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
     </row>
-    <row r="30" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="53" t="s">
         <v>18</v>
       </c>
@@ -5937,7 +5960,7 @@
         <v>0.51298701298701288</v>
       </c>
       <c r="J30" s="55">
-        <f t="shared" ref="J30:P30" si="54">IFERROR((J11/F11)-1,0)</f>
+        <f t="shared" ref="J30:Q30" si="54">IFERROR((J11/F11)-1,0)</f>
         <v>0.43712574850299402</v>
       </c>
       <c r="K30" s="54">
@@ -5964,8 +5987,12 @@
         <f t="shared" si="54"/>
         <v>1.3945335438042621</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q30" s="54">
+        <f t="shared" si="54"/>
+        <v>0.52066754254492387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="33" t="s">
         <v>43</v>
       </c>
@@ -6030,7 +6057,7 @@
         <v>0.34319526627218933</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="33" t="s">
         <v>44</v>
       </c>
@@ -6569,7 +6596,7 @@
         <v>299.7059999999999</v>
       </c>
       <c r="P46" s="41">
-        <f t="shared" si="63"/>
+        <f>SUM(M22:P22)</f>
         <v>307.16099999999983</v>
       </c>
     </row>
@@ -6661,7 +6688,7 @@
         <v>3.7855681538082303E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="64" t="s">
         <v>63</v>
       </c>
@@ -6705,7 +6732,7 @@
         <v>0.1857079806529624</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="64" t="s">
         <v>64</v>
       </c>
@@ -6749,7 +6776,7 @@
         <v>6.941491525423725E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B51" s="29"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -6765,7 +6792,7 @@
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="36" t="s">
         <v>81</v>
       </c>
@@ -6789,7 +6816,7 @@
         <v>0.27238095238095239</v>
       </c>
       <c r="J52" s="48">
-        <f t="shared" ref="J52:P55" si="73">J3/F3-1</f>
+        <f t="shared" ref="J52:Q55" si="73">J3/F3-1</f>
         <v>0.25621414913957929</v>
       </c>
       <c r="K52" s="47">
@@ -6816,8 +6843,12 @@
         <f t="shared" si="73"/>
         <v>0.13255079559363514</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q52" s="47">
+        <f t="shared" si="73"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="36" t="s">
         <v>82</v>
       </c>
@@ -6868,8 +6899,12 @@
         <f t="shared" si="73"/>
         <v>0.59829285714285718</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q53" s="47">
+        <f t="shared" si="73"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="36" t="s">
         <v>83</v>
       </c>
@@ -6921,8 +6956,12 @@
         <f t="shared" si="73"/>
         <v>0.24063636363636376</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q54" s="47">
+        <f t="shared" si="73"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="36" t="s">
         <v>84</v>
       </c>
@@ -6962,8 +7001,12 @@
         <f t="shared" si="73"/>
         <v>10.038945945945946</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q55" s="47">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B56" s="29"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -6978,7 +7021,7 @@
       <c r="M56" s="37"/>
       <c r="P56" s="37"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="33" t="s">
         <v>67</v>
       </c>
@@ -6996,7 +7039,7 @@
       <c r="M57" s="47"/>
       <c r="P57" s="47"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="33" t="s">
         <v>65</v>
       </c>
@@ -7014,7 +7057,7 @@
       <c r="M58" s="47"/>
       <c r="P58" s="47"/>
     </row>
-    <row r="60" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="78" t="s">
         <v>101</v>
       </c>
@@ -7064,7 +7107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="69" t="s">
         <v>102</v>
       </c>

--- a/SQ.xlsx
+++ b/SQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03151A6-19F4-5B40-961A-48D6A112B760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9820A9C-B75A-E54F-BB77-FCA559090F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56540" yWindow="-5940" windowWidth="28260" windowHeight="26900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56720" yWindow="-5940" windowWidth="28260" windowHeight="26900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>Q117</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>R/GPV</t>
+  </si>
+  <si>
+    <t>23% w/o BTC</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -653,6 +656,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -678,14 +690,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167055</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167055</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -702,7 +714,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4358054" y="1660769"/>
+          <a:off x="5139593" y="1660769"/>
           <a:ext cx="0" cy="9466385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -734,14 +746,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>235439</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167054</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>235439</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167054</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>156308</xdr:rowOff>
     </xdr:to>
@@ -758,8 +770,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14557131" y="178777"/>
-          <a:ext cx="0" cy="10440377"/>
+          <a:off x="15319131" y="178777"/>
+          <a:ext cx="0" cy="9609993"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1055,7 +1067,7 @@
       <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1077,10 +1089,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>272.75</v>
+        <v>256.58999999999997</v>
       </c>
       <c r="D2" s="71">
-        <v>44239</v>
+        <v>44250</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
@@ -1089,6 +1101,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -1098,20 +1111,21 @@
         <v>17</v>
       </c>
       <c r="C3" s="5">
-        <f>Reports!P21</f>
-        <v>488.06900000000002</v>
+        <f>Reports!Q21</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="6"/>
       <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
@@ -1122,7 +1136,7 @@
       </c>
       <c r="C4" s="7">
         <f>C2*C3</f>
-        <v>133120.81975</v>
+        <v>128868.99183</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="3" t="s">
@@ -1133,27 +1147,29 @@
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5">
-        <f>Reports!P33</f>
-        <v>1521</v>
+        <f>Reports!Q33</f>
+        <v>1730</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="8">
-        <f>NPV(F4,E28:DP28)</f>
-        <v>343204.18505276198</v>
+        <f>NPV(F4,F28:DP28)</f>
+        <v>282800.47980737506</v>
       </c>
       <c r="G5" s="6"/>
       <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
@@ -1164,7 +1180,7 @@
       </c>
       <c r="C6" s="7">
         <f>C4-C5</f>
-        <v>131599.81975</v>
+        <v>127138.99183</v>
       </c>
       <c r="D6" s="73"/>
       <c r="E6" s="9" t="s">
@@ -1172,9 +1188,10 @@
       </c>
       <c r="F6" s="10">
         <f>F5+C5</f>
-        <v>344725.18505276198</v>
+        <v>284530.47980737506</v>
       </c>
       <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
@@ -1185,7 +1202,7 @@
       </c>
       <c r="C7" s="11">
         <f>C6/C3</f>
-        <v>269.63363735455437</v>
+        <v>253.14541109077985</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="12" t="s">
@@ -1193,11 +1210,11 @@
       </c>
       <c r="F7" s="13">
         <f>F6/C3</f>
-        <v>706.30420094855845</v>
+        <v>566.52632085524374</v>
       </c>
       <c r="G7" s="14">
         <f>F7/C2-1</f>
-        <v>1.5895662729553015</v>
+        <v>1.2079049099935455</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -1308,23 +1325,27 @@
       </c>
       <c r="E12" s="17">
         <f>SUM(Reports!N3:Q3)</f>
-        <v>3281.3650000000002</v>
+        <v>3294.9780000000001</v>
       </c>
       <c r="F12" s="17">
         <f>E12*1.05</f>
-        <v>3445.4332500000005</v>
+        <v>3459.7269000000001</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" ref="G12:I12" si="1">F12*1.05</f>
-        <v>3617.7049125000008</v>
+        <f t="shared" ref="G12:J12" si="1">F12*1.05</f>
+        <v>3632.7132450000004</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="1"/>
-        <v>3798.5901581250009</v>
+        <v>3814.3489072500006</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="1"/>
-        <v>3988.5196660312513</v>
+        <v>4005.0663526125009</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="1"/>
+        <v>4205.319670243126</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -1345,23 +1366,27 @@
       </c>
       <c r="E13" s="17">
         <f>SUM(Reports!N4:Q4)</f>
-        <v>1441.8007499999999</v>
+        <v>1539.4029999999998</v>
       </c>
       <c r="F13" s="17">
         <f>E13*1.25</f>
-        <v>1802.2509375</v>
+        <v>1924.2537499999999</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" ref="G13:I13" si="2">F13*1.25</f>
-        <v>2252.8136718750002</v>
+        <f t="shared" ref="G13:J13" si="2">F13*1.25</f>
+        <v>2405.3171874999998</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="2"/>
-        <v>2816.01708984375</v>
+        <v>3006.646484375</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="2"/>
-        <v>3520.0213623046875</v>
+        <v>3758.30810546875</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="2"/>
+        <v>4697.8851318359375</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -1382,23 +1407,27 @@
       </c>
       <c r="E14" s="17">
         <f>SUM(Reports!N5:Q5)</f>
-        <v>87.601299999999995</v>
+        <v>91.653999999999996</v>
       </c>
       <c r="F14" s="17">
-        <f>E14*0.9</f>
-        <v>78.841169999999991</v>
+        <f>E14*1.1</f>
+        <v>100.8194</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" ref="G14:I14" si="3">F14*0.9</f>
-        <v>70.957052999999988</v>
+        <f t="shared" ref="G14:J14" si="3">F14*1.1</f>
+        <v>110.90134</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="3"/>
-        <v>63.861347699999989</v>
+        <v>121.99147400000001</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="3"/>
-        <v>57.475212929999991</v>
+        <v>134.19062140000003</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="3"/>
+        <v>147.60968354000005</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -1416,23 +1445,27 @@
       </c>
       <c r="E15" s="17">
         <f>SUM(Reports!N6:Q6)</f>
-        <v>3525.5860000000002</v>
+        <v>4571.5429999999997</v>
       </c>
       <c r="F15" s="17">
         <f>E15*2.5</f>
-        <v>8813.9650000000001</v>
+        <v>11428.857499999998</v>
       </c>
       <c r="G15" s="17">
         <f>F15*2</f>
-        <v>17627.93</v>
+        <v>22857.714999999997</v>
       </c>
       <c r="H15" s="17">
         <f>G15*1.5</f>
-        <v>26441.895</v>
+        <v>34286.572499999995</v>
       </c>
       <c r="I15" s="17">
         <f>H15*1.25</f>
-        <v>33052.368750000001</v>
+        <v>42858.215624999997</v>
+      </c>
+      <c r="J15" s="17">
+        <f>I15*1.25</f>
+        <v>53572.76953125</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -1448,74 +1481,77 @@
         <v>4</v>
       </c>
       <c r="B17" s="23">
-        <f>SUM(B12:B15)</f>
+        <f t="shared" ref="B17:I17" si="4">SUM(B12:B15)</f>
         <v>2213</v>
       </c>
       <c r="C17" s="23">
-        <f>SUM(C12:C15)</f>
+        <f t="shared" si="4"/>
         <v>3296</v>
       </c>
       <c r="D17" s="23">
-        <f>SUM(D12:D15)</f>
+        <f t="shared" si="4"/>
         <v>4714.7289999999994</v>
       </c>
-      <c r="E17" s="18">
-        <f>SUM(E12:E15)</f>
-        <v>8336.3530500000015</v>
+      <c r="E17" s="23">
+        <f t="shared" si="4"/>
+        <v>9497.5779999999995</v>
       </c>
       <c r="F17" s="18">
-        <f>SUM(F12:F15)</f>
-        <v>14140.490357500001</v>
+        <f t="shared" si="4"/>
+        <v>16913.657549999996</v>
       </c>
       <c r="G17" s="18">
-        <f>SUM(G12:G15)</f>
-        <v>23569.405637374999</v>
+        <f t="shared" si="4"/>
+        <v>29006.646772499997</v>
       </c>
       <c r="H17" s="18">
-        <f>SUM(H12:H15)</f>
-        <v>33120.36359566875</v>
+        <f t="shared" si="4"/>
+        <v>41229.559365624998</v>
       </c>
       <c r="I17" s="18">
-        <f>SUM(I12:I15)</f>
-        <v>40618.384991265943</v>
+        <f t="shared" si="4"/>
+        <v>50755.780704481251</v>
       </c>
       <c r="J17" s="18">
-        <f>I17*1.1</f>
-        <v>44680.223490392542</v>
+        <f t="shared" ref="J17" si="5">SUM(J12:J15)</f>
+        <v>62623.584016869063</v>
       </c>
       <c r="K17" s="18">
-        <f t="shared" ref="K17:R17" si="4">J17*1.1</f>
-        <v>49148.245839431802</v>
+        <f t="shared" ref="K17:S17" si="6">J17*1.1</f>
+        <v>68885.942418555976</v>
       </c>
       <c r="L17" s="18">
-        <f t="shared" si="4"/>
-        <v>54063.070423374986</v>
+        <f t="shared" si="6"/>
+        <v>75774.536660411584</v>
       </c>
       <c r="M17" s="18">
-        <f t="shared" si="4"/>
-        <v>59469.377465712489</v>
+        <f t="shared" si="6"/>
+        <v>83351.990326452753</v>
       </c>
       <c r="N17" s="18">
-        <f t="shared" si="4"/>
-        <v>65416.315212283742</v>
+        <f t="shared" si="6"/>
+        <v>91687.189359098033</v>
       </c>
       <c r="O17" s="18">
-        <f t="shared" si="4"/>
-        <v>71957.946733512115</v>
+        <f t="shared" si="6"/>
+        <v>100855.90829500784</v>
       </c>
       <c r="P17" s="18">
-        <f t="shared" si="4"/>
-        <v>79153.741406863337</v>
+        <f t="shared" si="6"/>
+        <v>110941.49912450864</v>
       </c>
       <c r="Q17" s="18">
-        <f t="shared" si="4"/>
-        <v>87069.115547549678</v>
+        <f t="shared" si="6"/>
+        <v>122035.64903695951</v>
       </c>
       <c r="R17" s="18">
-        <f t="shared" si="4"/>
-        <v>95776.027102304652</v>
-      </c>
-      <c r="S17" s="18"/>
+        <f t="shared" si="6"/>
+        <v>134239.21394065546</v>
+      </c>
+      <c r="S17" s="18">
+        <f t="shared" si="6"/>
+        <v>147663.13533472101</v>
+      </c>
       <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:243" x14ac:dyDescent="0.15">
@@ -1534,63 +1570,66 @@
         <f>SUM(Reports!J9:M9)</f>
         <v>2823.38</v>
       </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:F18" si="5">E17-E19</f>
-        <v>4992.1623224386822</v>
+      <c r="E18" s="17">
+        <f>SUM(Reports!N9:Q9)</f>
+        <v>6764.5609999999997</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="5"/>
-        <v>8467.9262934430299</v>
+        <f t="shared" ref="E18:F18" si="7">F17-F19</f>
+        <v>12046.594219082541</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18:O18" si="6">G17-G19</f>
-        <v>14114.361289578221</v>
+        <f t="shared" ref="G18:O18" si="8">G17-G19</f>
+        <v>20659.712560194752</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="6"/>
-        <v>19833.880625745245</v>
+        <f t="shared" si="8"/>
+        <v>29365.367605498119</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="6"/>
-        <v>24324.014342423594</v>
+        <f t="shared" si="8"/>
+        <v>36150.329555396798</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="6"/>
-        <v>26756.415776665959</v>
+        <f t="shared" ref="J18" si="9">J17-J19</f>
+        <v>44603.061340558175</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="6"/>
-        <v>29432.057354332559</v>
+        <f t="shared" si="8"/>
+        <v>49063.367474613995</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="6"/>
-        <v>32375.263089765816</v>
+        <f t="shared" si="8"/>
+        <v>53969.704222075408</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="6"/>
-        <v>35612.789398742403</v>
+        <f t="shared" si="8"/>
+        <v>59366.674644282946</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="6"/>
-        <v>39174.068338616642</v>
+        <f t="shared" si="8"/>
+        <v>65303.342108711251</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="6"/>
-        <v>43091.475172478305</v>
+        <f t="shared" si="8"/>
+        <v>71833.676319582388</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" ref="P18:R18" si="7">P17-P19</f>
-        <v>47400.622689726137</v>
+        <f t="shared" ref="P18:R18" si="10">P17-P19</f>
+        <v>79017.043951540632</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="7"/>
-        <v>52140.684958698759</v>
+        <f t="shared" si="10"/>
+        <v>86918.748346694687</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="7"/>
-        <v>57354.753454568643</v>
-      </c>
-      <c r="S18" s="5"/>
+        <f t="shared" si="10"/>
+        <v>95610.623181364164</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" ref="S18" si="11">S17-S19</f>
+        <v>105171.68549950057</v>
+      </c>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:243" x14ac:dyDescent="0.15">
@@ -1609,63 +1648,66 @@
         <f>D17-D18</f>
         <v>1891.3489999999993</v>
       </c>
-      <c r="E19" s="5">
-        <f>E17*D32</f>
-        <v>3344.1907275613189</v>
+      <c r="E19" s="7">
+        <f>E17-E18</f>
+        <v>2733.0169999999998</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ref="F19:R19" si="8">F17*E32</f>
-        <v>5672.5640640569718</v>
+        <f t="shared" ref="F19:S19" si="12">F17*E32</f>
+        <v>4867.0633309174546</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="8"/>
-        <v>9455.0443477967783</v>
+        <f t="shared" si="12"/>
+        <v>8346.9342123052447</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="8"/>
-        <v>13286.482969923505</v>
+        <f t="shared" si="12"/>
+        <v>11864.19176012688</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="8"/>
-        <v>16294.370648842347</v>
+        <f t="shared" si="12"/>
+        <v>14605.451149084452</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="8"/>
-        <v>17923.807713726583</v>
+        <f t="shared" si="12"/>
+        <v>18020.522676310888</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="8"/>
-        <v>19716.188485099243</v>
+        <f t="shared" si="12"/>
+        <v>19822.574943941981</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="8"/>
-        <v>21687.807333609169</v>
+        <f t="shared" si="12"/>
+        <v>21804.83243833618</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="8"/>
-        <v>23856.588066970089</v>
+        <f t="shared" si="12"/>
+        <v>23985.315682169803</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="8"/>
-        <v>26242.2468736671</v>
+        <f t="shared" si="12"/>
+        <v>26383.847250386785</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="8"/>
-        <v>28866.47156103381</v>
+        <f t="shared" si="12"/>
+        <v>29022.231975425464</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="8"/>
-        <v>31753.118717137197</v>
+        <f t="shared" si="12"/>
+        <v>31924.455172968013</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="8"/>
-        <v>34928.430588850919</v>
+        <f t="shared" si="12"/>
+        <v>35116.900690264818</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="8"/>
-        <v>38421.273647736009</v>
-      </c>
-      <c r="S19" s="5"/>
+        <f t="shared" si="12"/>
+        <v>38628.590759291299</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="12"/>
+        <v>42491.449835220432</v>
+      </c>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:243" x14ac:dyDescent="0.15">
@@ -1684,63 +1726,66 @@
         <f>SUM(Reports!J11:M11)</f>
         <v>670.28399999999999</v>
       </c>
-      <c r="E20" s="5">
-        <f>D20*1.25</f>
-        <v>837.85500000000002</v>
+      <c r="E20" s="17">
+        <f>SUM(Reports!N11:Q11)</f>
+        <v>882</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ref="F20:I20" si="9">E20*1.25</f>
-        <v>1047.3187499999999</v>
+        <f t="shared" ref="F20:J20" si="13">E20*1.25</f>
+        <v>1102.5</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="9"/>
-        <v>1309.1484375</v>
+        <f t="shared" si="13"/>
+        <v>1378.125</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
-        <v>1636.435546875</v>
+        <f t="shared" si="13"/>
+        <v>1722.65625</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="9"/>
-        <v>2045.54443359375</v>
+        <f t="shared" si="13"/>
+        <v>2153.3203125</v>
       </c>
       <c r="J20" s="5">
-        <f>I20*1.1</f>
-        <v>2250.098876953125</v>
+        <f t="shared" si="13"/>
+        <v>2691.650390625</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ref="K20" si="10">J20*1.1</f>
-        <v>2475.1087646484375</v>
+        <f t="shared" ref="K20" si="14">J20*1.1</f>
+        <v>2960.8154296875005</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" ref="L20:R20" si="11">K20*1.1</f>
-        <v>2722.6196411132814</v>
+        <f t="shared" ref="L20:S20" si="15">K20*1.1</f>
+        <v>3256.8969726562509</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="11"/>
-        <v>2994.8816052246098</v>
+        <f t="shared" si="15"/>
+        <v>3582.5866699218764</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="11"/>
-        <v>3294.3697657470711</v>
+        <f t="shared" si="15"/>
+        <v>3940.8453369140643</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="11"/>
-        <v>3623.8067423217785</v>
+        <f t="shared" si="15"/>
+        <v>4334.9298706054715</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="11"/>
-        <v>3986.1874165539566</v>
+        <f t="shared" si="15"/>
+        <v>4768.4228576660189</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="11"/>
-        <v>4384.8061582093524</v>
+        <f t="shared" si="15"/>
+        <v>5245.2651434326208</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="11"/>
-        <v>4823.2867740302881</v>
-      </c>
-      <c r="S20" s="5"/>
+        <f t="shared" si="15"/>
+        <v>5769.7916577758833</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="15"/>
+        <v>6346.7708235534719</v>
+      </c>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:243" x14ac:dyDescent="0.15">
@@ -1759,63 +1804,66 @@
         <f>SUM(Reports!J12:M12)</f>
         <v>624.23099999999999</v>
       </c>
-      <c r="E21" s="5">
-        <f>D21*1.25</f>
-        <v>780.28874999999994</v>
+      <c r="E21" s="17">
+        <f>SUM(Reports!N12:Q12)</f>
+        <v>1110</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ref="F21:I21" si="12">E21*1.25</f>
-        <v>975.36093749999986</v>
+        <f>E21*1.5</f>
+        <v>1665</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="12"/>
-        <v>1219.2011718749998</v>
+        <f t="shared" ref="G21:I21" si="16">F21*1.5</f>
+        <v>2497.5</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="12"/>
-        <v>1524.0014648437498</v>
+        <f t="shared" si="16"/>
+        <v>3746.25</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="12"/>
-        <v>1905.0018310546873</v>
+        <f t="shared" si="16"/>
+        <v>5619.375</v>
       </c>
       <c r="J21" s="5">
-        <f>I21*1.05</f>
-        <v>2000.2519226074216</v>
+        <f>I21*1.5</f>
+        <v>8429.0625</v>
       </c>
       <c r="K21" s="5">
         <f>J21*1.02</f>
-        <v>2040.2569610595701</v>
+        <v>8597.6437499999993</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" ref="L21:R21" si="13">K21*1.02</f>
-        <v>2081.0621002807616</v>
+        <f t="shared" ref="L21:S21" si="17">K21*1.02</f>
+        <v>8769.5966250000001</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="13"/>
-        <v>2122.683342286377</v>
+        <f t="shared" si="17"/>
+        <v>8944.9885575000008</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="13"/>
-        <v>2165.1370091321046</v>
+        <f t="shared" si="17"/>
+        <v>9123.8883286500004</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="13"/>
-        <v>2208.4397493147467</v>
+        <f t="shared" si="17"/>
+        <v>9306.3660952230002</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="13"/>
-        <v>2252.6085443010415</v>
+        <f t="shared" si="17"/>
+        <v>9492.4934171274599</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="13"/>
-        <v>2297.6607151870626</v>
+        <f t="shared" si="17"/>
+        <v>9682.3432854700095</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="13"/>
-        <v>2343.6139294908039</v>
-      </c>
-      <c r="S21" s="5"/>
+        <f t="shared" si="17"/>
+        <v>9875.9901511794105</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="17"/>
+        <v>10073.509954202998</v>
+      </c>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:243" x14ac:dyDescent="0.15">
@@ -1834,63 +1882,66 @@
         <f>SUM(Reports!J13:M13)</f>
         <v>569</v>
       </c>
-      <c r="E22" s="5">
-        <f>D22*1.15</f>
-        <v>654.34999999999991</v>
+      <c r="E22" s="17">
+        <f>SUM(Reports!N13:Q13)</f>
+        <v>760</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:I22" si="14">E22*1.15</f>
-        <v>752.50249999999983</v>
+        <f>E22*1.3</f>
+        <v>988</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="14"/>
-        <v>865.37787499999979</v>
+        <f t="shared" ref="G22:J22" si="18">F22*1.3</f>
+        <v>1284.4000000000001</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="14"/>
-        <v>995.18455624999967</v>
+        <f t="shared" si="18"/>
+        <v>1669.7200000000003</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="14"/>
-        <v>1144.4622396874995</v>
+        <f t="shared" si="18"/>
+        <v>2170.6360000000004</v>
       </c>
       <c r="J22" s="5">
-        <f>I22*0.98</f>
-        <v>1121.5729948937494</v>
+        <f t="shared" si="18"/>
+        <v>2821.8268000000007</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ref="K22" si="15">J22*0.98</f>
-        <v>1099.1415349958745</v>
+        <f t="shared" ref="K22" si="19">J22*0.98</f>
+        <v>2765.3902640000006</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" ref="L22:R22" si="16">K22*0.98</f>
-        <v>1077.158704295957</v>
+        <f t="shared" ref="L22:S22" si="20">K22*0.98</f>
+        <v>2710.0824587200004</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="16"/>
-        <v>1055.6155302100378</v>
+        <f t="shared" si="20"/>
+        <v>2655.8808095456002</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="16"/>
-        <v>1034.5032196058371</v>
+        <f t="shared" si="20"/>
+        <v>2602.7631933546882</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="16"/>
-        <v>1013.8131552137204</v>
+        <f t="shared" si="20"/>
+        <v>2550.7079294875944</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="16"/>
-        <v>993.53689210944594</v>
+        <f t="shared" si="20"/>
+        <v>2499.6937708978426</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="16"/>
-        <v>973.66615426725696</v>
+        <f t="shared" si="20"/>
+        <v>2449.6998954798855</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="16"/>
-        <v>954.19283118191186</v>
-      </c>
-      <c r="S22" s="5"/>
+        <f t="shared" si="20"/>
+        <v>2400.7058975702876</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="20"/>
+        <v>2352.6917796188818</v>
+      </c>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:243" x14ac:dyDescent="0.15">
@@ -1909,63 +1960,66 @@
         <f>SUM(D20:D22)</f>
         <v>1863.5149999999999</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" ref="E23:F23" si="17">SUM(E20:E22)</f>
-        <v>2272.4937499999996</v>
+      <c r="E23" s="7">
+        <f>SUM(E20:E22)</f>
+        <v>2752</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="17"/>
-        <v>2775.1821874999996</v>
+        <f>SUM(F20:F22)</f>
+        <v>3755.5</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" ref="G23:O23" si="18">SUM(G20:G22)</f>
-        <v>3393.7274843749997</v>
+        <f t="shared" ref="G23:O23" si="21">SUM(G20:G22)</f>
+        <v>5160.0249999999996</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="18"/>
-        <v>4155.6215679687493</v>
+        <f t="shared" si="21"/>
+        <v>7138.6262500000003</v>
       </c>
       <c r="I23" s="5">
         <f>SUM(I20:I22)</f>
-        <v>5095.0085043359368</v>
+        <v>9943.3313125000004</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="18"/>
-        <v>5371.9237944542965</v>
+        <f>SUM(J20:J22)</f>
+        <v>13942.539690625001</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="18"/>
-        <v>5614.5072607038819</v>
+        <f t="shared" si="21"/>
+        <v>14323.849443687501</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="18"/>
-        <v>5880.8404456899998</v>
+        <f t="shared" si="21"/>
+        <v>14736.576056376252</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="18"/>
-        <v>6173.1804777210245</v>
+        <f t="shared" si="21"/>
+        <v>15183.456036967478</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="18"/>
-        <v>6494.0099944850126</v>
+        <f t="shared" si="21"/>
+        <v>15667.496858918752</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="18"/>
-        <v>6846.0596468502454</v>
+        <f t="shared" si="21"/>
+        <v>16192.003895316066</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" ref="P23:R23" si="19">SUM(P20:P22)</f>
-        <v>7232.3328529644441</v>
+        <f t="shared" ref="P23:R23" si="22">SUM(P20:P22)</f>
+        <v>16760.610045691323</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="19"/>
-        <v>7656.1330276636727</v>
+        <f t="shared" si="22"/>
+        <v>17377.308324382517</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="19"/>
-        <v>8121.0935347030045</v>
-      </c>
-      <c r="S23" s="5"/>
+        <f t="shared" si="22"/>
+        <v>18046.487706525579</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" ref="S23" si="23">SUM(S20:S22)</f>
+        <v>18772.972557375353</v>
+      </c>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:243" x14ac:dyDescent="0.15">
@@ -1984,63 +2038,66 @@
         <f>D19-D23</f>
         <v>27.833999999999378</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:F24" si="20">E19-E23</f>
-        <v>1071.6969775613193</v>
+      <c r="E24" s="7">
+        <f>E19-E23</f>
+        <v>-18.983000000000175</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="20"/>
-        <v>2897.3818765569722</v>
+        <f t="shared" ref="E24:F24" si="24">F19-F23</f>
+        <v>1111.5633309174546</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:O24" si="21">G19-G23</f>
-        <v>6061.3168634217782</v>
+        <f t="shared" ref="G24:O24" si="25">G19-G23</f>
+        <v>3186.9092123052451</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="21"/>
-        <v>9130.8614019547567</v>
+        <f t="shared" si="25"/>
+        <v>4725.5655101268794</v>
       </c>
       <c r="I24" s="5">
         <f>I19-I23</f>
-        <v>11199.362144506409</v>
+        <v>4662.1198365844521</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="21"/>
-        <v>12551.883919272286</v>
+        <f>J19-J23</f>
+        <v>4077.9829856858869</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="21"/>
-        <v>14101.681224395361</v>
+        <f t="shared" si="25"/>
+        <v>5498.7255002544807</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="21"/>
-        <v>15806.96688791917</v>
+        <f t="shared" si="25"/>
+        <v>7068.2563819599272</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="21"/>
-        <v>17683.407589249065</v>
+        <f t="shared" si="25"/>
+        <v>8801.8596452023248</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="21"/>
-        <v>19748.236879182088</v>
+        <f t="shared" si="25"/>
+        <v>10716.350391468033</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="21"/>
-        <v>22020.411914183565</v>
+        <f t="shared" si="25"/>
+        <v>12830.228080109398</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" ref="P24:R24" si="22">P19-P23</f>
-        <v>24520.785864172751</v>
+        <f t="shared" ref="P24:R24" si="26">P19-P23</f>
+        <v>15163.845127276691</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="22"/>
-        <v>27272.297561187246</v>
+        <f t="shared" si="26"/>
+        <v>17739.592365882301</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="22"/>
-        <v>30300.180113033006</v>
-      </c>
-      <c r="S24" s="5"/>
+        <f t="shared" si="26"/>
+        <v>20582.10305276572</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" ref="S24" si="27">S19-S23</f>
+        <v>23718.477277845079</v>
+      </c>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:243" x14ac:dyDescent="0.15">
@@ -2059,63 +2116,66 @@
         <f>SUM(Reports!J16:M16)</f>
         <v>348</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" ref="E25:R25" si="23">D42*$F$3</f>
-        <v>22.740000000000002</v>
+      <c r="E25" s="17">
+        <f>SUM(Reports!N16:Q16)</f>
+        <v>235</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="23"/>
-        <v>41.345428618542428</v>
+        <f t="shared" ref="E25:S25" si="28">E42*$F$3</f>
+        <v>86.5</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="23"/>
-        <v>91.303792806526175</v>
+        <f t="shared" si="28"/>
+        <v>137.41769156399184</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="23"/>
-        <v>195.89834396240735</v>
+        <f t="shared" si="28"/>
+        <v>278.70158497843443</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="23"/>
-        <v>354.45325964299917</v>
+        <f t="shared" si="28"/>
+        <v>491.38293652041034</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="23"/>
-        <v>550.86812151353922</v>
+        <f t="shared" si="28"/>
+        <v>710.40680437736694</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="23"/>
-        <v>773.61490620689813</v>
+        <f t="shared" si="28"/>
+        <v>913.9133704550552</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="23"/>
-        <v>1026.4949404271367</v>
+        <f t="shared" si="28"/>
+        <v>1186.4505224602105</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="23"/>
-        <v>1312.6637915090239</v>
+        <f t="shared" si="28"/>
+        <v>1537.2755658980664</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="23"/>
-        <v>1635.5970049819116</v>
+        <f t="shared" si="28"/>
+        <v>1976.6888123698329</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="23"/>
-        <v>1999.1221810126995</v>
+        <f t="shared" si="28"/>
+        <v>2516.1429785329424</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="23"/>
-        <v>2407.454260631036</v>
+        <f t="shared" si="28"/>
+        <v>3168.363748525242</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="23"/>
-        <v>2865.2343427527003</v>
+        <f t="shared" si="28"/>
+        <v>3947.4826257468239</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="23"/>
-        <v>3377.5723851196794</v>
-      </c>
-      <c r="S25" s="5"/>
+        <f t="shared" si="28"/>
+        <v>4869.1833128910612</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="28"/>
+        <v>5950.8629834314752</v>
+      </c>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:243" x14ac:dyDescent="0.15">
@@ -2134,63 +2194,66 @@
         <f>D24+D25</f>
         <v>375.83399999999938</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" ref="E26:F26" si="24">E24+E25</f>
-        <v>1094.4369775613193</v>
+      <c r="E26" s="7">
+        <f>E24+E25</f>
+        <v>216.01699999999983</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="24"/>
-        <v>2938.7273051755146</v>
+        <f t="shared" ref="E26:F26" si="29">F24+F25</f>
+        <v>1198.0633309174546</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:O26" si="25">G24+G25</f>
-        <v>6152.6206562283041</v>
+        <f t="shared" ref="G26:O26" si="30">G24+G25</f>
+        <v>3324.326903869237</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="25"/>
-        <v>9326.7597459171648</v>
+        <f t="shared" si="30"/>
+        <v>5004.2670951053142</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="25"/>
-        <v>11553.815404149409</v>
+        <f t="shared" si="30"/>
+        <v>5153.5027731048622</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="25"/>
-        <v>13102.752040785825</v>
+        <f t="shared" ref="J26" si="31">J24+J25</f>
+        <v>4788.3897900632537</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="25"/>
-        <v>14875.296130602259</v>
+        <f t="shared" si="30"/>
+        <v>6412.6388707095357</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="25"/>
-        <v>16833.461828346306</v>
+        <f t="shared" si="30"/>
+        <v>8254.706904420138</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="25"/>
-        <v>18996.071380758091</v>
+        <f t="shared" si="30"/>
+        <v>10339.135211100391</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="25"/>
-        <v>21383.833884164</v>
+        <f t="shared" si="30"/>
+        <v>12693.039203837867</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="25"/>
-        <v>24019.534095196264</v>
+        <f t="shared" si="30"/>
+        <v>15346.37105864234</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" ref="P26:R26" si="26">P24+P25</f>
-        <v>26928.240124803786</v>
+        <f t="shared" ref="P26:R26" si="32">P24+P25</f>
+        <v>18332.208875801931</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="26"/>
-        <v>30137.531903939947</v>
+        <f t="shared" si="32"/>
+        <v>21687.074991629124</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="26"/>
-        <v>33677.752498152688</v>
-      </c>
-      <c r="S26" s="5"/>
+        <f t="shared" si="32"/>
+        <v>25451.286365656782</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" ref="S26" si="33">S24+S25</f>
+        <v>29669.340261276553</v>
+      </c>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:243" x14ac:dyDescent="0.15">
@@ -2209,63 +2272,66 @@
         <f>SUM(Reports!J18:M18)</f>
         <v>4</v>
       </c>
-      <c r="E27" s="5">
-        <f>E26*0.15</f>
-        <v>164.16554663419788</v>
+      <c r="E27" s="17">
+        <f>SUM(Reports!N18:Q18)</f>
+        <v>3</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:O27" si="27">F26*0.15</f>
-        <v>440.80909577632718</v>
+        <f t="shared" ref="F27:O27" si="34">F26*0.15</f>
+        <v>179.70949963761817</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="27"/>
-        <v>922.89309843424553</v>
+        <f t="shared" si="34"/>
+        <v>498.64903558038554</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="27"/>
-        <v>1399.0139618875746</v>
+        <f t="shared" si="34"/>
+        <v>750.64006426579715</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="27"/>
-        <v>1733.0723106224114</v>
+        <f t="shared" si="34"/>
+        <v>773.02541596572928</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="27"/>
-        <v>1965.4128061178735</v>
+        <f t="shared" ref="J27" si="35">J26*0.15</f>
+        <v>718.25846850948801</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="27"/>
-        <v>2231.2944195903387</v>
+        <f t="shared" si="34"/>
+        <v>961.89583060643031</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="27"/>
-        <v>2525.0192742519457</v>
+        <f t="shared" si="34"/>
+        <v>1238.2060356630207</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="27"/>
-        <v>2849.4107071137137</v>
+        <f t="shared" si="34"/>
+        <v>1550.8702816650587</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="27"/>
-        <v>3207.5750826245999</v>
+        <f t="shared" si="34"/>
+        <v>1903.9558805756799</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="27"/>
-        <v>3602.9301142794397</v>
+        <f t="shared" si="34"/>
+        <v>2301.9556587963511</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" ref="P27:R27" si="28">P26*0.15</f>
-        <v>4039.2360187205677</v>
+        <f t="shared" ref="P27:R27" si="36">P26*0.15</f>
+        <v>2749.8313313702897</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="28"/>
-        <v>4520.6297855909916</v>
+        <f t="shared" si="36"/>
+        <v>3253.0612487443686</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="28"/>
-        <v>5051.6628747229033</v>
-      </c>
-      <c r="S27" s="5"/>
+        <f t="shared" si="36"/>
+        <v>3817.6929548485173</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" ref="S27" si="37">S26*0.15</f>
+        <v>4450.4010391914826</v>
+      </c>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:243" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2281,964 +2347,964 @@
         <v>-36</v>
       </c>
       <c r="D28" s="23">
-        <f t="shared" ref="D28:F28" si="29">D26-D27</f>
+        <f t="shared" ref="D28:F28" si="38">D26-D27</f>
         <v>371.83399999999938</v>
       </c>
       <c r="E28" s="23">
-        <f t="shared" si="29"/>
-        <v>930.2714309271214</v>
+        <f t="shared" ref="E28" si="39">E26-E27</f>
+        <v>213.01699999999983</v>
       </c>
       <c r="F28" s="23">
-        <f t="shared" si="29"/>
-        <v>2497.9182093991876</v>
+        <f t="shared" si="38"/>
+        <v>1018.3538312798364</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" ref="G28" si="30">G26-G27</f>
-        <v>5229.7275577940582</v>
+        <f t="shared" ref="G28" si="40">G26-G27</f>
+        <v>2825.6778682888516</v>
       </c>
       <c r="H28" s="23">
-        <f t="shared" ref="H28" si="31">H26-H27</f>
-        <v>7927.7457840295901</v>
+        <f t="shared" ref="H28" si="41">H26-H27</f>
+        <v>4253.6270308395169</v>
       </c>
       <c r="I28" s="23">
-        <f t="shared" ref="I28" si="32">I26-I27</f>
-        <v>9820.7430935269986</v>
+        <f t="shared" ref="I28:J28" si="42">I26-I27</f>
+        <v>4380.4773571391324</v>
       </c>
       <c r="J28" s="23">
-        <f t="shared" ref="J28" si="33">J26-J27</f>
-        <v>11137.33923466795</v>
+        <f t="shared" si="42"/>
+        <v>4070.1313215537657</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" ref="K28" si="34">K26-K27</f>
-        <v>12644.001711011921</v>
+        <f t="shared" ref="K28" si="43">K26-K27</f>
+        <v>5450.7430401031052</v>
       </c>
       <c r="L28" s="23">
-        <f t="shared" ref="L28" si="35">L26-L27</f>
-        <v>14308.442554094359</v>
+        <f t="shared" ref="L28" si="44">L26-L27</f>
+        <v>7016.5008687571171</v>
       </c>
       <c r="M28" s="23">
-        <f t="shared" ref="M28" si="36">M26-M27</f>
-        <v>16146.660673644377</v>
+        <f t="shared" ref="M28" si="45">M26-M27</f>
+        <v>8788.2649294353323</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" ref="N28" si="37">N26-N27</f>
-        <v>18176.258801539399</v>
+        <f t="shared" ref="N28" si="46">N26-N27</f>
+        <v>10789.083323262186</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" ref="O28:P28" si="38">O26-O27</f>
-        <v>20416.603980916825</v>
+        <f t="shared" ref="O28:P28" si="47">O26-O27</f>
+        <v>13044.41539984599</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" si="38"/>
-        <v>22889.004106083219</v>
+        <f t="shared" si="47"/>
+        <v>15582.377544431642</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" ref="Q28:R28" si="39">Q26-Q27</f>
-        <v>25616.902118348957</v>
+        <f t="shared" ref="Q28:R28" si="48">Q26-Q27</f>
+        <v>18434.013742884756</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" si="39"/>
-        <v>28626.089623429783</v>
+        <f t="shared" si="48"/>
+        <v>21633.593410808266</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" ref="S28:AU28" si="40">R28*($F$2+1)</f>
-        <v>28769.22007154693</v>
+        <f t="shared" ref="S28" si="49">S26-S27</f>
+        <v>25218.939222085071</v>
       </c>
       <c r="T28" s="23">
-        <f t="shared" si="40"/>
-        <v>28913.066171904662</v>
+        <f>S28*($F$2+1)</f>
+        <v>25345.033918195495</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="40"/>
-        <v>29057.631502764183</v>
+        <f t="shared" ref="S28:AU28" si="50">T28*($F$2+1)</f>
+        <v>25471.759087786471</v>
       </c>
       <c r="V28" s="23">
-        <f t="shared" si="40"/>
-        <v>29202.919660277999</v>
+        <f t="shared" si="50"/>
+        <v>25599.117883225401</v>
       </c>
       <c r="W28" s="23">
-        <f t="shared" si="40"/>
-        <v>29348.934258579386</v>
+        <f t="shared" si="50"/>
+        <v>25727.113472641526</v>
       </c>
       <c r="X28" s="23">
-        <f t="shared" si="40"/>
-        <v>29495.67892987228</v>
+        <f t="shared" si="50"/>
+        <v>25855.749040004732</v>
       </c>
       <c r="Y28" s="23">
-        <f t="shared" si="40"/>
-        <v>29643.157324521639</v>
+        <f t="shared" si="50"/>
+        <v>25985.027785204751</v>
       </c>
       <c r="Z28" s="23">
-        <f t="shared" si="40"/>
-        <v>29791.373111144243</v>
+        <f t="shared" si="50"/>
+        <v>26114.952924130772</v>
       </c>
       <c r="AA28" s="23">
-        <f t="shared" si="40"/>
-        <v>29940.329976699963</v>
+        <f t="shared" si="50"/>
+        <v>26245.527688751423</v>
       </c>
       <c r="AB28" s="23">
-        <f t="shared" si="40"/>
-        <v>30090.031626583459</v>
+        <f t="shared" si="50"/>
+        <v>26376.755327195177</v>
       </c>
       <c r="AC28" s="23">
-        <f t="shared" si="40"/>
-        <v>30240.481784716372</v>
+        <f t="shared" si="50"/>
+        <v>26508.639103831149</v>
       </c>
       <c r="AD28" s="23">
-        <f t="shared" si="40"/>
-        <v>30391.684193639951</v>
+        <f t="shared" si="50"/>
+        <v>26641.182299350301</v>
       </c>
       <c r="AE28" s="23">
-        <f t="shared" si="40"/>
-        <v>30543.642614608147</v>
+        <f t="shared" si="50"/>
+        <v>26774.38821084705</v>
       </c>
       <c r="AF28" s="23">
-        <f t="shared" si="40"/>
-        <v>30696.360827681183</v>
+        <f t="shared" si="50"/>
+        <v>26908.260151901282</v>
       </c>
       <c r="AG28" s="23">
-        <f t="shared" si="40"/>
-        <v>30849.842631819585</v>
+        <f t="shared" si="50"/>
+        <v>27042.801452660788</v>
       </c>
       <c r="AH28" s="23">
-        <f t="shared" si="40"/>
-        <v>31004.09184497868</v>
+        <f t="shared" si="50"/>
+        <v>27178.015459924089</v>
       </c>
       <c r="AI28" s="23">
-        <f t="shared" si="40"/>
-        <v>31159.112304203569</v>
+        <f t="shared" si="50"/>
+        <v>27313.905537223705</v>
       </c>
       <c r="AJ28" s="23">
-        <f t="shared" si="40"/>
-        <v>31314.907865724585</v>
+        <f t="shared" si="50"/>
+        <v>27450.475064909821</v>
       </c>
       <c r="AK28" s="23">
-        <f t="shared" si="40"/>
-        <v>31471.482405053204</v>
+        <f t="shared" si="50"/>
+        <v>27587.727440234368</v>
       </c>
       <c r="AL28" s="23">
-        <f t="shared" si="40"/>
-        <v>31628.839817078468</v>
+        <f t="shared" si="50"/>
+        <v>27725.666077435537</v>
       </c>
       <c r="AM28" s="23">
-        <f t="shared" si="40"/>
-        <v>31786.984016163857</v>
+        <f t="shared" si="50"/>
+        <v>27864.294407822712</v>
       </c>
       <c r="AN28" s="23">
-        <f t="shared" si="40"/>
-        <v>31945.918936244674</v>
+        <f t="shared" si="50"/>
+        <v>28003.615879861823</v>
       </c>
       <c r="AO28" s="23">
-        <f t="shared" si="40"/>
-        <v>32105.648530925893</v>
+        <f t="shared" si="50"/>
+        <v>28143.633959261129</v>
       </c>
       <c r="AP28" s="23">
-        <f t="shared" si="40"/>
-        <v>32266.176773580519</v>
+        <f t="shared" si="50"/>
+        <v>28284.352129057432</v>
       </c>
       <c r="AQ28" s="23">
-        <f t="shared" si="40"/>
-        <v>32427.507657448419</v>
+        <f t="shared" si="50"/>
+        <v>28425.773889702716</v>
       </c>
       <c r="AR28" s="23">
-        <f t="shared" si="40"/>
-        <v>32589.645195735658</v>
+        <f t="shared" si="50"/>
+        <v>28567.902759151228</v>
       </c>
       <c r="AS28" s="23">
-        <f t="shared" si="40"/>
-        <v>32752.593421714333</v>
+        <f t="shared" si="50"/>
+        <v>28710.74227294698</v>
       </c>
       <c r="AT28" s="23">
-        <f t="shared" si="40"/>
-        <v>32916.356388822904</v>
+        <f t="shared" si="50"/>
+        <v>28854.295984311713</v>
       </c>
       <c r="AU28" s="23">
-        <f t="shared" si="40"/>
-        <v>33080.938170767018</v>
+        <f t="shared" si="50"/>
+        <v>28998.567464233267</v>
       </c>
       <c r="AV28" s="23">
-        <f t="shared" ref="AV28:CA28" si="41">AU28*($F$2+1)</f>
-        <v>33246.342861620848</v>
+        <f t="shared" ref="AV28:CA28" si="51">AU28*($F$2+1)</f>
+        <v>29143.560301554429</v>
       </c>
       <c r="AW28" s="23">
-        <f t="shared" si="41"/>
-        <v>33412.574575928949</v>
+        <f t="shared" si="51"/>
+        <v>29289.278103062199</v>
       </c>
       <c r="AX28" s="23">
-        <f t="shared" si="41"/>
-        <v>33579.637448808593</v>
+        <f t="shared" si="51"/>
+        <v>29435.724493577505</v>
       </c>
       <c r="AY28" s="23">
-        <f t="shared" si="41"/>
-        <v>33747.535636052635</v>
+        <f t="shared" si="51"/>
+        <v>29582.903116045389</v>
       </c>
       <c r="AZ28" s="23">
-        <f t="shared" si="41"/>
-        <v>33916.273314232894</v>
+        <f t="shared" si="51"/>
+        <v>29730.817631625614</v>
       </c>
       <c r="BA28" s="23">
-        <f t="shared" si="41"/>
-        <v>34085.854680804056</v>
+        <f t="shared" si="51"/>
+        <v>29879.471719783738</v>
       </c>
       <c r="BB28" s="23">
-        <f t="shared" si="41"/>
-        <v>34256.283954208069</v>
+        <f t="shared" si="51"/>
+        <v>30028.869078382653</v>
       </c>
       <c r="BC28" s="23">
-        <f t="shared" si="41"/>
-        <v>34427.565373979109</v>
+        <f t="shared" si="51"/>
+        <v>30179.013423774562</v>
       </c>
       <c r="BD28" s="23">
-        <f t="shared" si="41"/>
-        <v>34599.703200848999</v>
+        <f t="shared" si="51"/>
+        <v>30329.908490893431</v>
       </c>
       <c r="BE28" s="23">
-        <f t="shared" si="41"/>
-        <v>34772.70171685324</v>
+        <f t="shared" si="51"/>
+        <v>30481.558033347894</v>
       </c>
       <c r="BF28" s="23">
-        <f t="shared" si="41"/>
-        <v>34946.565225437502</v>
+        <f t="shared" si="51"/>
+        <v>30633.965823514631</v>
       </c>
       <c r="BG28" s="23">
-        <f t="shared" si="41"/>
-        <v>35121.298051564685</v>
+        <f t="shared" si="51"/>
+        <v>30787.135652632202</v>
       </c>
       <c r="BH28" s="23">
-        <f t="shared" si="41"/>
-        <v>35296.904541822507</v>
+        <f t="shared" si="51"/>
+        <v>30941.07133089536</v>
       </c>
       <c r="BI28" s="23">
-        <f t="shared" si="41"/>
-        <v>35473.389064531613</v>
+        <f t="shared" si="51"/>
+        <v>31095.776687549835</v>
       </c>
       <c r="BJ28" s="23">
-        <f t="shared" si="41"/>
-        <v>35650.756009854267</v>
+        <f t="shared" si="51"/>
+        <v>31251.255570987581</v>
       </c>
       <c r="BK28" s="23">
-        <f t="shared" si="41"/>
-        <v>35829.009789903532</v>
+        <f t="shared" si="51"/>
+        <v>31407.511848842518</v>
       </c>
       <c r="BL28" s="23">
-        <f t="shared" si="41"/>
-        <v>36008.154838853043</v>
+        <f t="shared" si="51"/>
+        <v>31564.549408086728</v>
       </c>
       <c r="BM28" s="23">
-        <f t="shared" si="41"/>
-        <v>36188.195613047305</v>
+        <f t="shared" si="51"/>
+        <v>31722.372155127159</v>
       </c>
       <c r="BN28" s="23">
-        <f t="shared" si="41"/>
-        <v>36369.136591112539</v>
+        <f t="shared" si="51"/>
+        <v>31880.984015902792</v>
       </c>
       <c r="BO28" s="23">
-        <f t="shared" si="41"/>
-        <v>36550.982274068097</v>
+        <f t="shared" si="51"/>
+        <v>32040.388935982301</v>
       </c>
       <c r="BP28" s="23">
-        <f t="shared" si="41"/>
-        <v>36733.737185438433</v>
+        <f t="shared" si="51"/>
+        <v>32200.59088066221</v>
       </c>
       <c r="BQ28" s="23">
-        <f t="shared" si="41"/>
-        <v>36917.40587136562</v>
+        <f t="shared" si="51"/>
+        <v>32361.593835065516</v>
       </c>
       <c r="BR28" s="23">
-        <f t="shared" si="41"/>
-        <v>37101.992900722442</v>
+        <f t="shared" si="51"/>
+        <v>32523.401804240839</v>
       </c>
       <c r="BS28" s="23">
-        <f t="shared" si="41"/>
-        <v>37287.502865226052</v>
+        <f t="shared" si="51"/>
+        <v>32686.018813262039</v>
       </c>
       <c r="BT28" s="23">
-        <f t="shared" si="41"/>
-        <v>37473.940379552179</v>
+        <f t="shared" si="51"/>
+        <v>32849.448907328348</v>
       </c>
       <c r="BU28" s="23">
-        <f t="shared" si="41"/>
-        <v>37661.310081449934</v>
+        <f t="shared" si="51"/>
+        <v>33013.696151864984</v>
       </c>
       <c r="BV28" s="23">
-        <f t="shared" si="41"/>
-        <v>37849.616631857178</v>
+        <f t="shared" si="51"/>
+        <v>33178.764632624305</v>
       </c>
       <c r="BW28" s="23">
-        <f t="shared" si="41"/>
-        <v>38038.864715016462</v>
+        <f t="shared" si="51"/>
+        <v>33344.658455787423</v>
       </c>
       <c r="BX28" s="23">
-        <f t="shared" si="41"/>
-        <v>38229.059038591542</v>
+        <f t="shared" si="51"/>
+        <v>33511.381748066357</v>
       </c>
       <c r="BY28" s="23">
-        <f t="shared" si="41"/>
-        <v>38420.204333784495</v>
+        <f t="shared" si="51"/>
+        <v>33678.938656806684</v>
       </c>
       <c r="BZ28" s="23">
-        <f t="shared" si="41"/>
-        <v>38612.305355453413</v>
+        <f t="shared" si="51"/>
+        <v>33847.33335009071</v>
       </c>
       <c r="CA28" s="23">
-        <f t="shared" si="41"/>
-        <v>38805.366882230679</v>
+        <f t="shared" si="51"/>
+        <v>34016.570016841157</v>
       </c>
       <c r="CB28" s="23">
-        <f t="shared" ref="CB28:DG28" si="42">CA28*($F$2+1)</f>
-        <v>38999.393716641825</v>
+        <f t="shared" ref="CB28:DG28" si="52">CA28*($F$2+1)</f>
+        <v>34186.65286692536</v>
       </c>
       <c r="CC28" s="23">
-        <f t="shared" si="42"/>
-        <v>39194.390685225029</v>
+        <f t="shared" si="52"/>
+        <v>34357.586131259981</v>
       </c>
       <c r="CD28" s="23">
-        <f t="shared" si="42"/>
-        <v>39390.362638651153</v>
+        <f t="shared" si="52"/>
+        <v>34529.374061916278</v>
       </c>
       <c r="CE28" s="23">
-        <f t="shared" si="42"/>
-        <v>39587.314451844402</v>
+        <f t="shared" si="52"/>
+        <v>34702.020932225852</v>
       </c>
       <c r="CF28" s="23">
-        <f t="shared" si="42"/>
-        <v>39785.251024103622</v>
+        <f t="shared" si="52"/>
+        <v>34875.531036886976</v>
       </c>
       <c r="CG28" s="23">
-        <f t="shared" si="42"/>
-        <v>39984.177279224139</v>
+        <f t="shared" si="52"/>
+        <v>35049.908692071403</v>
       </c>
       <c r="CH28" s="23">
-        <f t="shared" si="42"/>
-        <v>40184.098165620257</v>
+        <f t="shared" si="52"/>
+        <v>35225.158235531759</v>
       </c>
       <c r="CI28" s="23">
-        <f t="shared" si="42"/>
-        <v>40385.018656448352</v>
+        <f t="shared" si="52"/>
+        <v>35401.284026709414</v>
       </c>
       <c r="CJ28" s="23">
-        <f t="shared" si="42"/>
-        <v>40586.943749730592</v>
+        <f t="shared" si="52"/>
+        <v>35578.290446842955</v>
       </c>
       <c r="CK28" s="23">
-        <f t="shared" si="42"/>
-        <v>40789.878468479241</v>
+        <f t="shared" si="52"/>
+        <v>35756.181899077164</v>
       </c>
       <c r="CL28" s="23">
-        <f t="shared" si="42"/>
-        <v>40993.827860821635</v>
+        <f t="shared" si="52"/>
+        <v>35934.962808572549</v>
       </c>
       <c r="CM28" s="23">
-        <f t="shared" si="42"/>
-        <v>41198.797000125742</v>
+        <f t="shared" si="52"/>
+        <v>36114.63762261541</v>
       </c>
       <c r="CN28" s="23">
-        <f t="shared" si="42"/>
-        <v>41404.790985126368</v>
+        <f t="shared" si="52"/>
+        <v>36295.21081072848</v>
       </c>
       <c r="CO28" s="23">
-        <f t="shared" si="42"/>
-        <v>41611.814940051998</v>
+        <f t="shared" si="52"/>
+        <v>36476.686864782117</v>
       </c>
       <c r="CP28" s="23">
-        <f t="shared" si="42"/>
-        <v>41819.874014752255</v>
+        <f t="shared" si="52"/>
+        <v>36659.070299106024</v>
       </c>
       <c r="CQ28" s="23">
-        <f t="shared" si="42"/>
-        <v>42028.973384826015</v>
+        <f t="shared" si="52"/>
+        <v>36842.365650601554</v>
       </c>
       <c r="CR28" s="23">
-        <f t="shared" si="42"/>
-        <v>42239.118251750144</v>
+        <f t="shared" si="52"/>
+        <v>37026.57747885456</v>
       </c>
       <c r="CS28" s="23">
-        <f t="shared" si="42"/>
-        <v>42450.313843008887</v>
+        <f t="shared" si="52"/>
+        <v>37211.71036624883</v>
       </c>
       <c r="CT28" s="23">
-        <f t="shared" si="42"/>
-        <v>42662.565412223928</v>
+        <f t="shared" si="52"/>
+        <v>37397.768918080073</v>
       </c>
       <c r="CU28" s="23">
-        <f t="shared" si="42"/>
-        <v>42875.878239285041</v>
+        <f t="shared" si="52"/>
+        <v>37584.757762670473</v>
       </c>
       <c r="CV28" s="23">
-        <f t="shared" si="42"/>
-        <v>43090.257630481465</v>
+        <f t="shared" si="52"/>
+        <v>37772.681551483824</v>
       </c>
       <c r="CW28" s="23">
-        <f t="shared" si="42"/>
-        <v>43305.708918633871</v>
+        <f t="shared" si="52"/>
+        <v>37961.544959241241</v>
       </c>
       <c r="CX28" s="23">
-        <f t="shared" si="42"/>
-        <v>43522.237463227037</v>
+        <f t="shared" si="52"/>
+        <v>38151.35268403744</v>
       </c>
       <c r="CY28" s="23">
-        <f t="shared" si="42"/>
-        <v>43739.848650543165</v>
+        <f t="shared" si="52"/>
+        <v>38342.109447457624</v>
       </c>
       <c r="CZ28" s="23">
-        <f t="shared" si="42"/>
-        <v>43958.547893795876</v>
+        <f t="shared" si="52"/>
+        <v>38533.81999469491</v>
       </c>
       <c r="DA28" s="23">
-        <f t="shared" si="42"/>
-        <v>44178.340633264852</v>
+        <f t="shared" si="52"/>
+        <v>38726.489094668381</v>
       </c>
       <c r="DB28" s="23">
-        <f t="shared" si="42"/>
-        <v>44399.232336431174</v>
+        <f t="shared" si="52"/>
+        <v>38920.121540141721</v>
       </c>
       <c r="DC28" s="23">
-        <f t="shared" si="42"/>
-        <v>44621.228498113327</v>
+        <f t="shared" si="52"/>
+        <v>39114.722147842425</v>
       </c>
       <c r="DD28" s="23">
-        <f t="shared" si="42"/>
-        <v>44844.334640603891</v>
+        <f t="shared" si="52"/>
+        <v>39310.295758581633</v>
       </c>
       <c r="DE28" s="23">
-        <f t="shared" si="42"/>
-        <v>45068.556313806905</v>
+        <f t="shared" si="52"/>
+        <v>39506.847237374539</v>
       </c>
       <c r="DF28" s="23">
-        <f t="shared" si="42"/>
-        <v>45293.899095375935</v>
+        <f t="shared" si="52"/>
+        <v>39704.381473561407</v>
       </c>
       <c r="DG28" s="23">
-        <f t="shared" si="42"/>
-        <v>45520.368590852813</v>
+        <f t="shared" si="52"/>
+        <v>39902.903380929209</v>
       </c>
       <c r="DH28" s="23">
-        <f t="shared" ref="DH28:DP28" si="43">DG28*($F$2+1)</f>
-        <v>45747.970433807073</v>
+        <f t="shared" ref="DH28:DP28" si="53">DG28*($F$2+1)</f>
+        <v>40102.417897833853</v>
       </c>
       <c r="DI28" s="23">
-        <f t="shared" si="43"/>
-        <v>45976.710285976107</v>
+        <f t="shared" si="53"/>
+        <v>40302.929987323019</v>
       </c>
       <c r="DJ28" s="23">
-        <f t="shared" si="43"/>
-        <v>46206.593837405984</v>
+        <f t="shared" si="53"/>
+        <v>40504.444637259629</v>
       </c>
       <c r="DK28" s="23">
-        <f t="shared" si="43"/>
-        <v>46437.626806593013</v>
+        <f t="shared" si="53"/>
+        <v>40706.966860445922</v>
       </c>
       <c r="DL28" s="23">
-        <f t="shared" si="43"/>
-        <v>46669.814940625976</v>
+        <f t="shared" si="53"/>
+        <v>40910.501694748149</v>
       </c>
       <c r="DM28" s="23">
-        <f t="shared" si="43"/>
-        <v>46903.164015329101</v>
+        <f t="shared" si="53"/>
+        <v>41115.054203221887</v>
       </c>
       <c r="DN28" s="23">
-        <f t="shared" si="43"/>
-        <v>47137.679835405739</v>
+        <f t="shared" si="53"/>
+        <v>41320.629474237991</v>
       </c>
       <c r="DO28" s="23">
-        <f t="shared" si="43"/>
-        <v>47373.368234582762</v>
+        <f t="shared" si="53"/>
+        <v>41527.232621609175</v>
       </c>
       <c r="DP28" s="23">
-        <f t="shared" si="43"/>
-        <v>47610.235075755671</v>
+        <f t="shared" si="53"/>
+        <v>41734.868784717219</v>
       </c>
       <c r="DQ28" s="23">
-        <f t="shared" ref="DQ28" si="44">DP28*($F$2+1)</f>
-        <v>47848.286251134443</v>
+        <f t="shared" ref="DQ28" si="54">DP28*($F$2+1)</f>
+        <v>41943.543128640798</v>
       </c>
       <c r="DR28" s="23">
-        <f t="shared" ref="DR28" si="45">DQ28*($F$2+1)</f>
-        <v>48087.527682390108</v>
+        <f t="shared" ref="DR28" si="55">DQ28*($F$2+1)</f>
+        <v>42153.260844283999</v>
       </c>
       <c r="DS28" s="23">
-        <f t="shared" ref="DS28" si="46">DR28*($F$2+1)</f>
-        <v>48327.965320802054</v>
+        <f t="shared" ref="DS28" si="56">DR28*($F$2+1)</f>
+        <v>42364.027148505418</v>
       </c>
       <c r="DT28" s="23">
-        <f t="shared" ref="DT28" si="47">DS28*($F$2+1)</f>
-        <v>48569.605147406059</v>
+        <f t="shared" ref="DT28" si="57">DS28*($F$2+1)</f>
+        <v>42575.847284247939</v>
       </c>
       <c r="DU28" s="23">
-        <f t="shared" ref="DU28" si="48">DT28*($F$2+1)</f>
-        <v>48812.453173143083</v>
+        <f t="shared" ref="DU28" si="58">DT28*($F$2+1)</f>
+        <v>42788.726520669174</v>
       </c>
       <c r="DV28" s="23">
-        <f t="shared" ref="DV28" si="49">DU28*($F$2+1)</f>
-        <v>49056.515439008792</v>
+        <f t="shared" ref="DV28" si="59">DU28*($F$2+1)</f>
+        <v>43002.670153272513</v>
       </c>
       <c r="DW28" s="23">
-        <f t="shared" ref="DW28" si="50">DV28*($F$2+1)</f>
-        <v>49301.798016203829</v>
+        <f t="shared" ref="DW28" si="60">DV28*($F$2+1)</f>
+        <v>43217.683504038869</v>
       </c>
       <c r="DX28" s="23">
-        <f t="shared" ref="DX28" si="51">DW28*($F$2+1)</f>
-        <v>49548.307006284842</v>
+        <f t="shared" ref="DX28" si="61">DW28*($F$2+1)</f>
+        <v>43433.771921559055</v>
       </c>
       <c r="DY28" s="23">
-        <f t="shared" ref="DY28" si="52">DX28*($F$2+1)</f>
-        <v>49796.048541316261</v>
+        <f t="shared" ref="DY28" si="62">DX28*($F$2+1)</f>
+        <v>43650.940781166842</v>
       </c>
       <c r="DZ28" s="23">
-        <f t="shared" ref="DZ28" si="53">DY28*($F$2+1)</f>
-        <v>50045.028784022834</v>
+        <f t="shared" ref="DZ28" si="63">DY28*($F$2+1)</f>
+        <v>43869.195485072669</v>
       </c>
       <c r="EA28" s="23">
-        <f t="shared" ref="EA28" si="54">DZ28*($F$2+1)</f>
-        <v>50295.25392794294</v>
+        <f t="shared" ref="EA28" si="64">DZ28*($F$2+1)</f>
+        <v>44088.541462498026</v>
       </c>
       <c r="EB28" s="23">
-        <f t="shared" ref="EB28" si="55">EA28*($F$2+1)</f>
-        <v>50546.730197582649</v>
+        <f t="shared" ref="EB28" si="65">EA28*($F$2+1)</f>
+        <v>44308.984169810508</v>
       </c>
       <c r="EC28" s="23">
-        <f t="shared" ref="EC28" si="56">EB28*($F$2+1)</f>
-        <v>50799.463848570558</v>
+        <f t="shared" ref="EC28" si="66">EB28*($F$2+1)</f>
+        <v>44530.529090659555</v>
       </c>
       <c r="ED28" s="23">
-        <f t="shared" ref="ED28" si="57">EC28*($F$2+1)</f>
-        <v>51053.461167813402</v>
+        <f t="shared" ref="ED28" si="67">EC28*($F$2+1)</f>
+        <v>44753.181736112849</v>
       </c>
       <c r="EE28" s="23">
-        <f t="shared" ref="EE28" si="58">ED28*($F$2+1)</f>
-        <v>51308.728473652467</v>
+        <f t="shared" ref="EE28" si="68">ED28*($F$2+1)</f>
+        <v>44976.947644793407</v>
       </c>
       <c r="EF28" s="23">
-        <f t="shared" ref="EF28" si="59">EE28*($F$2+1)</f>
-        <v>51565.272116020722</v>
+        <f t="shared" ref="EF28" si="69">EE28*($F$2+1)</f>
+        <v>45201.832383017369</v>
       </c>
       <c r="EG28" s="23">
-        <f t="shared" ref="EG28" si="60">EF28*($F$2+1)</f>
-        <v>51823.098476600819</v>
+        <f t="shared" ref="EG28" si="70">EF28*($F$2+1)</f>
+        <v>45427.841544932453</v>
       </c>
       <c r="EH28" s="23">
-        <f t="shared" ref="EH28" si="61">EG28*($F$2+1)</f>
-        <v>52082.213968983815</v>
+        <f t="shared" ref="EH28" si="71">EG28*($F$2+1)</f>
+        <v>45654.980752657109</v>
       </c>
       <c r="EI28" s="23">
-        <f t="shared" ref="EI28" si="62">EH28*($F$2+1)</f>
-        <v>52342.62503882873</v>
+        <f t="shared" ref="EI28" si="72">EH28*($F$2+1)</f>
+        <v>45883.255656420391</v>
       </c>
       <c r="EJ28" s="23">
-        <f t="shared" ref="EJ28" si="63">EI28*($F$2+1)</f>
-        <v>52604.338164022869</v>
+        <f t="shared" ref="EJ28" si="73">EI28*($F$2+1)</f>
+        <v>46112.671934702492</v>
       </c>
       <c r="EK28" s="23">
-        <f t="shared" ref="EK28" si="64">EJ28*($F$2+1)</f>
-        <v>52867.35985484298</v>
+        <f t="shared" ref="EK28" si="74">EJ28*($F$2+1)</f>
+        <v>46343.235294375998</v>
       </c>
       <c r="EL28" s="23">
-        <f t="shared" ref="EL28" si="65">EK28*($F$2+1)</f>
-        <v>53131.696654117186</v>
+        <f t="shared" ref="EL28" si="75">EK28*($F$2+1)</f>
+        <v>46574.951470847875</v>
       </c>
       <c r="EM28" s="23">
-        <f t="shared" ref="EM28" si="66">EL28*($F$2+1)</f>
-        <v>53397.355137387764</v>
+        <f t="shared" ref="EM28" si="76">EL28*($F$2+1)</f>
+        <v>46807.82622820211</v>
       </c>
       <c r="EN28" s="23">
-        <f t="shared" ref="EN28" si="67">EM28*($F$2+1)</f>
-        <v>53664.341913074699</v>
+        <f t="shared" ref="EN28" si="77">EM28*($F$2+1)</f>
+        <v>47041.865359343115</v>
       </c>
       <c r="EO28" s="23">
-        <f t="shared" ref="EO28" si="68">EN28*($F$2+1)</f>
-        <v>53932.663622640066</v>
+        <f t="shared" ref="EO28" si="78">EN28*($F$2+1)</f>
+        <v>47277.074686139829</v>
       </c>
       <c r="EP28" s="23">
-        <f t="shared" ref="EP28" si="69">EO28*($F$2+1)</f>
-        <v>54202.326940753257</v>
+        <f t="shared" ref="EP28" si="79">EO28*($F$2+1)</f>
+        <v>47513.460059570527</v>
       </c>
       <c r="EQ28" s="23">
-        <f t="shared" ref="EQ28" si="70">EP28*($F$2+1)</f>
-        <v>54473.338575457019</v>
+        <f t="shared" ref="EQ28" si="80">EP28*($F$2+1)</f>
+        <v>47751.027359868378</v>
       </c>
       <c r="ER28" s="23">
-        <f t="shared" ref="ER28" si="71">EQ28*($F$2+1)</f>
-        <v>54745.705268334299</v>
+        <f t="shared" ref="ER28" si="81">EQ28*($F$2+1)</f>
+        <v>47989.782496667714</v>
       </c>
       <c r="ES28" s="23">
-        <f t="shared" ref="ES28" si="72">ER28*($F$2+1)</f>
-        <v>55019.433794675962</v>
+        <f t="shared" ref="ES28" si="82">ER28*($F$2+1)</f>
+        <v>48229.731409151049</v>
       </c>
       <c r="ET28" s="23">
-        <f t="shared" ref="ET28" si="73">ES28*($F$2+1)</f>
-        <v>55294.530963649333</v>
+        <f t="shared" ref="ET28" si="83">ES28*($F$2+1)</f>
+        <v>48470.880066196798</v>
       </c>
       <c r="EU28" s="23">
-        <f t="shared" ref="EU28" si="74">ET28*($F$2+1)</f>
-        <v>55571.003618467577</v>
+        <f t="shared" ref="EU28" si="84">ET28*($F$2+1)</f>
+        <v>48713.234466527778</v>
       </c>
       <c r="EV28" s="23">
-        <f t="shared" ref="EV28" si="75">EU28*($F$2+1)</f>
-        <v>55848.858636559911</v>
+        <f t="shared" ref="EV28" si="85">EU28*($F$2+1)</f>
+        <v>48956.800638860412</v>
       </c>
       <c r="EW28" s="23">
-        <f t="shared" ref="EW28" si="76">EV28*($F$2+1)</f>
-        <v>56128.102929742701</v>
+        <f t="shared" ref="EW28" si="86">EV28*($F$2+1)</f>
+        <v>49201.58464205471</v>
       </c>
       <c r="EX28" s="23">
-        <f t="shared" ref="EX28" si="77">EW28*($F$2+1)</f>
-        <v>56408.74344439141</v>
+        <f t="shared" ref="EX28" si="87">EW28*($F$2+1)</f>
+        <v>49447.592565264975</v>
       </c>
       <c r="EY28" s="23">
-        <f t="shared" ref="EY28" si="78">EX28*($F$2+1)</f>
-        <v>56690.787161613363</v>
+        <f t="shared" ref="EY28" si="88">EX28*($F$2+1)</f>
+        <v>49694.830528091297</v>
       </c>
       <c r="EZ28" s="23">
-        <f t="shared" ref="EZ28" si="79">EY28*($F$2+1)</f>
-        <v>56974.241097421422</v>
+        <f t="shared" ref="EZ28" si="89">EY28*($F$2+1)</f>
+        <v>49943.304680731751</v>
       </c>
       <c r="FA28" s="23">
-        <f t="shared" ref="FA28" si="80">EZ28*($F$2+1)</f>
-        <v>57259.112302908521</v>
+        <f t="shared" ref="FA28" si="90">EZ28*($F$2+1)</f>
+        <v>50193.021204135403</v>
       </c>
       <c r="FB28" s="23">
-        <f t="shared" ref="FB28" si="81">FA28*($F$2+1)</f>
-        <v>57545.407864423054</v>
+        <f t="shared" ref="FB28" si="91">FA28*($F$2+1)</f>
+        <v>50443.986310156077</v>
       </c>
       <c r="FC28" s="23">
-        <f t="shared" ref="FC28" si="82">FB28*($F$2+1)</f>
-        <v>57833.134903745166</v>
+        <f t="shared" ref="FC28" si="92">FB28*($F$2+1)</f>
+        <v>50696.206241706852</v>
       </c>
       <c r="FD28" s="23">
-        <f t="shared" ref="FD28" si="83">FC28*($F$2+1)</f>
-        <v>58122.300578263887</v>
+        <f t="shared" ref="FD28" si="93">FC28*($F$2+1)</f>
+        <v>50949.687272915384</v>
       </c>
       <c r="FE28" s="23">
-        <f t="shared" ref="FE28" si="84">FD28*($F$2+1)</f>
-        <v>58412.912081155198</v>
+        <f t="shared" ref="FE28" si="94">FD28*($F$2+1)</f>
+        <v>51204.435709279955</v>
       </c>
       <c r="FF28" s="23">
-        <f t="shared" ref="FF28" si="85">FE28*($F$2+1)</f>
-        <v>58704.97664156097</v>
+        <f t="shared" ref="FF28" si="95">FE28*($F$2+1)</f>
+        <v>51460.457887826349</v>
       </c>
       <c r="FG28" s="23">
-        <f t="shared" ref="FG28" si="86">FF28*($F$2+1)</f>
-        <v>58998.50152476877</v>
+        <f t="shared" ref="FG28" si="96">FF28*($F$2+1)</f>
+        <v>51717.760177265474</v>
       </c>
       <c r="FH28" s="23">
-        <f t="shared" ref="FH28" si="87">FG28*($F$2+1)</f>
-        <v>59293.494032392606</v>
+        <f t="shared" ref="FH28" si="97">FG28*($F$2+1)</f>
+        <v>51976.348978151793</v>
       </c>
       <c r="FI28" s="23">
-        <f t="shared" ref="FI28" si="88">FH28*($F$2+1)</f>
-        <v>59589.961502554565</v>
+        <f t="shared" ref="FI28" si="98">FH28*($F$2+1)</f>
+        <v>52236.230723042543</v>
       </c>
       <c r="FJ28" s="23">
-        <f t="shared" ref="FJ28" si="89">FI28*($F$2+1)</f>
-        <v>59887.911310067328</v>
+        <f t="shared" ref="FJ28" si="99">FI28*($F$2+1)</f>
+        <v>52497.411876657752</v>
       </c>
       <c r="FK28" s="23">
-        <f t="shared" ref="FK28" si="90">FJ28*($F$2+1)</f>
-        <v>60187.350866617657</v>
+        <f t="shared" ref="FK28" si="100">FJ28*($F$2+1)</f>
+        <v>52759.898936041034</v>
       </c>
       <c r="FL28" s="23">
-        <f t="shared" ref="FL28" si="91">FK28*($F$2+1)</f>
-        <v>60488.287620950738</v>
+        <f t="shared" ref="FL28" si="101">FK28*($F$2+1)</f>
+        <v>53023.698430721233</v>
       </c>
       <c r="FM28" s="23">
-        <f t="shared" ref="FM28" si="92">FL28*($F$2+1)</f>
-        <v>60790.729059055484</v>
+        <f t="shared" ref="FM28" si="102">FL28*($F$2+1)</f>
+        <v>53288.81692287483</v>
       </c>
       <c r="FN28" s="23">
-        <f t="shared" ref="FN28" si="93">FM28*($F$2+1)</f>
-        <v>61094.682704350758</v>
+        <f t="shared" ref="FN28" si="103">FM28*($F$2+1)</f>
+        <v>53555.2610074892</v>
       </c>
       <c r="FO28" s="23">
-        <f t="shared" ref="FO28" si="94">FN28*($F$2+1)</f>
-        <v>61400.156117872502</v>
+        <f t="shared" ref="FO28" si="104">FN28*($F$2+1)</f>
+        <v>53823.037312526641</v>
       </c>
       <c r="FP28" s="23">
-        <f t="shared" ref="FP28" si="95">FO28*($F$2+1)</f>
-        <v>61707.156898461857</v>
+        <f t="shared" ref="FP28" si="105">FO28*($F$2+1)</f>
+        <v>54092.152499089272</v>
       </c>
       <c r="FQ28" s="23">
-        <f t="shared" ref="FQ28" si="96">FP28*($F$2+1)</f>
-        <v>62015.692682954163</v>
+        <f t="shared" ref="FQ28" si="106">FP28*($F$2+1)</f>
+        <v>54362.613261584716</v>
       </c>
       <c r="FR28" s="23">
-        <f t="shared" ref="FR28" si="97">FQ28*($F$2+1)</f>
-        <v>62325.771146368927</v>
+        <f t="shared" ref="FR28" si="107">FQ28*($F$2+1)</f>
+        <v>54634.426327892637</v>
       </c>
       <c r="FS28" s="23">
-        <f t="shared" ref="FS28" si="98">FR28*($F$2+1)</f>
-        <v>62637.400002100767</v>
+        <f t="shared" ref="FS28" si="108">FR28*($F$2+1)</f>
+        <v>54907.598459532092</v>
       </c>
       <c r="FT28" s="23">
-        <f t="shared" ref="FT28" si="99">FS28*($F$2+1)</f>
-        <v>62950.587002111264</v>
+        <f t="shared" ref="FT28" si="109">FS28*($F$2+1)</f>
+        <v>55182.136451829749</v>
       </c>
       <c r="FU28" s="23">
-        <f t="shared" ref="FU28" si="100">FT28*($F$2+1)</f>
-        <v>63265.339937121811</v>
+        <f t="shared" ref="FU28" si="110">FT28*($F$2+1)</f>
+        <v>55458.047134088891</v>
       </c>
       <c r="FV28" s="23">
-        <f t="shared" ref="FV28" si="101">FU28*($F$2+1)</f>
-        <v>63581.666636807415</v>
+        <f t="shared" ref="FV28" si="111">FU28*($F$2+1)</f>
+        <v>55735.337369759327</v>
       </c>
       <c r="FW28" s="23">
-        <f t="shared" ref="FW28" si="102">FV28*($F$2+1)</f>
-        <v>63899.574969991445</v>
+        <f t="shared" ref="FW28" si="112">FV28*($F$2+1)</f>
+        <v>56014.014056608117</v>
       </c>
       <c r="FX28" s="23">
-        <f t="shared" ref="FX28" si="103">FW28*($F$2+1)</f>
-        <v>64219.072844841394</v>
+        <f t="shared" ref="FX28" si="113">FW28*($F$2+1)</f>
+        <v>56294.084126891154</v>
       </c>
       <c r="FY28" s="23">
-        <f t="shared" ref="FY28" si="104">FX28*($F$2+1)</f>
-        <v>64540.168209065596</v>
+        <f t="shared" ref="FY28" si="114">FX28*($F$2+1)</f>
+        <v>56575.5545475256</v>
       </c>
       <c r="FZ28" s="23">
-        <f t="shared" ref="FZ28" si="105">FY28*($F$2+1)</f>
-        <v>64862.869050110916</v>
+        <f t="shared" ref="FZ28" si="115">FY28*($F$2+1)</f>
+        <v>56858.432320263222</v>
       </c>
       <c r="GA28" s="23">
-        <f t="shared" ref="GA28" si="106">FZ28*($F$2+1)</f>
-        <v>65187.183395361462</v>
+        <f t="shared" ref="GA28" si="116">FZ28*($F$2+1)</f>
+        <v>57142.724481864534</v>
       </c>
       <c r="GB28" s="23">
-        <f t="shared" ref="GB28" si="107">GA28*($F$2+1)</f>
-        <v>65513.119312338262</v>
+        <f t="shared" ref="GB28" si="117">GA28*($F$2+1)</f>
+        <v>57428.438104273853</v>
       </c>
       <c r="GC28" s="23">
-        <f t="shared" ref="GC28" si="108">GB28*($F$2+1)</f>
-        <v>65840.684908899944</v>
+        <f t="shared" ref="GC28" si="118">GB28*($F$2+1)</f>
+        <v>57715.580294795218</v>
       </c>
       <c r="GD28" s="23">
-        <f t="shared" ref="GD28" si="109">GC28*($F$2+1)</f>
-        <v>66169.88833344444</v>
+        <f t="shared" ref="GD28" si="119">GC28*($F$2+1)</f>
+        <v>58004.158196269185</v>
       </c>
       <c r="GE28" s="23">
-        <f t="shared" ref="GE28" si="110">GD28*($F$2+1)</f>
-        <v>66500.737775111658</v>
+        <f t="shared" ref="GE28" si="120">GD28*($F$2+1)</f>
+        <v>58294.178987250525</v>
       </c>
       <c r="GF28" s="23">
-        <f t="shared" ref="GF28" si="111">GE28*($F$2+1)</f>
-        <v>66833.241463987215</v>
+        <f t="shared" ref="GF28" si="121">GE28*($F$2+1)</f>
+        <v>58585.649882186772</v>
       </c>
       <c r="GG28" s="23">
-        <f t="shared" ref="GG28" si="112">GF28*($F$2+1)</f>
-        <v>67167.407671307141</v>
+        <f t="shared" ref="GG28" si="122">GF28*($F$2+1)</f>
+        <v>58878.5781315977</v>
       </c>
       <c r="GH28" s="23">
-        <f t="shared" ref="GH28" si="113">GG28*($F$2+1)</f>
-        <v>67503.244709663675</v>
+        <f t="shared" ref="GH28" si="123">GG28*($F$2+1)</f>
+        <v>59172.971022255682</v>
       </c>
       <c r="GI28" s="23">
-        <f t="shared" ref="GI28" si="114">GH28*($F$2+1)</f>
-        <v>67840.76093321199</v>
+        <f t="shared" ref="GI28" si="124">GH28*($F$2+1)</f>
+        <v>59468.835877366953</v>
       </c>
       <c r="GJ28" s="23">
-        <f t="shared" ref="GJ28" si="115">GI28*($F$2+1)</f>
-        <v>68179.964737878036</v>
+        <f t="shared" ref="GJ28" si="125">GI28*($F$2+1)</f>
+        <v>59766.180056753779</v>
       </c>
       <c r="GK28" s="23">
-        <f t="shared" ref="GK28" si="116">GJ28*($F$2+1)</f>
-        <v>68520.864561567418</v>
+        <f t="shared" ref="GK28" si="126">GJ28*($F$2+1)</f>
+        <v>60065.010957037543</v>
       </c>
       <c r="GL28" s="23">
-        <f t="shared" ref="GL28" si="117">GK28*($F$2+1)</f>
-        <v>68863.468884375252</v>
+        <f t="shared" ref="GL28" si="127">GK28*($F$2+1)</f>
+        <v>60365.336011822721</v>
       </c>
       <c r="GM28" s="23">
-        <f t="shared" ref="GM28" si="118">GL28*($F$2+1)</f>
-        <v>69207.786228797122</v>
+        <f t="shared" ref="GM28" si="128">GL28*($F$2+1)</f>
+        <v>60667.162691881829</v>
       </c>
       <c r="GN28" s="23">
-        <f t="shared" ref="GN28" si="119">GM28*($F$2+1)</f>
-        <v>69553.825159941101</v>
+        <f t="shared" ref="GN28" si="129">GM28*($F$2+1)</f>
+        <v>60970.498505341231</v>
       </c>
       <c r="GO28" s="23">
-        <f t="shared" ref="GO28" si="120">GN28*($F$2+1)</f>
-        <v>69901.594285740794</v>
+        <f t="shared" ref="GO28" si="130">GN28*($F$2+1)</f>
+        <v>61275.350997867929</v>
       </c>
       <c r="GP28" s="23">
-        <f t="shared" ref="GP28" si="121">GO28*($F$2+1)</f>
-        <v>70251.102257169492</v>
+        <f t="shared" ref="GP28" si="131">GO28*($F$2+1)</f>
+        <v>61581.727752857259</v>
       </c>
       <c r="GQ28" s="23">
-        <f t="shared" ref="GQ28" si="122">GP28*($F$2+1)</f>
-        <v>70602.357768455331</v>
+        <f t="shared" ref="GQ28" si="132">GP28*($F$2+1)</f>
+        <v>61889.636391621541</v>
       </c>
       <c r="GR28" s="23">
-        <f t="shared" ref="GR28" si="123">GQ28*($F$2+1)</f>
-        <v>70955.369557297599</v>
+        <f t="shared" ref="GR28" si="133">GQ28*($F$2+1)</f>
+        <v>62199.084573579639</v>
       </c>
       <c r="GS28" s="23">
-        <f t="shared" ref="GS28" si="124">GR28*($F$2+1)</f>
-        <v>71310.146405084073</v>
+        <f t="shared" ref="GS28" si="134">GR28*($F$2+1)</f>
+        <v>62510.07999644753</v>
       </c>
       <c r="GT28" s="23">
-        <f t="shared" ref="GT28" si="125">GS28*($F$2+1)</f>
-        <v>71666.697137109484</v>
+        <f t="shared" ref="GT28" si="135">GS28*($F$2+1)</f>
+        <v>62822.630396429762</v>
       </c>
       <c r="GU28" s="23">
-        <f t="shared" ref="GU28" si="126">GT28*($F$2+1)</f>
-        <v>72025.03062279502</v>
+        <f t="shared" ref="GU28" si="136">GT28*($F$2+1)</f>
+        <v>63136.743548411905</v>
       </c>
       <c r="GV28" s="23">
-        <f t="shared" ref="GV28" si="127">GU28*($F$2+1)</f>
-        <v>72385.155775908992</v>
+        <f t="shared" ref="GV28" si="137">GU28*($F$2+1)</f>
+        <v>63452.427266153958</v>
       </c>
       <c r="GW28" s="23">
-        <f t="shared" ref="GW28" si="128">GV28*($F$2+1)</f>
-        <v>72747.081554788529</v>
+        <f t="shared" ref="GW28" si="138">GV28*($F$2+1)</f>
+        <v>63769.689402484721</v>
       </c>
       <c r="GX28" s="23">
-        <f t="shared" ref="GX28" si="129">GW28*($F$2+1)</f>
-        <v>73110.816962562458</v>
+        <f t="shared" ref="GX28" si="139">GW28*($F$2+1)</f>
+        <v>64088.537849497137</v>
       </c>
       <c r="GY28" s="23">
-        <f t="shared" ref="GY28" si="130">GX28*($F$2+1)</f>
-        <v>73476.371047375258</v>
+        <f t="shared" ref="GY28" si="140">GX28*($F$2+1)</f>
+        <v>64408.980538744618</v>
       </c>
       <c r="GZ28" s="23">
-        <f t="shared" ref="GZ28" si="131">GY28*($F$2+1)</f>
-        <v>73843.752902612134</v>
+        <f t="shared" ref="GZ28" si="141">GY28*($F$2+1)</f>
+        <v>64731.025441438331</v>
       </c>
       <c r="HA28" s="23">
-        <f t="shared" ref="HA28" si="132">GZ28*($F$2+1)</f>
-        <v>74212.971667125181</v>
+        <f t="shared" ref="HA28" si="142">GZ28*($F$2+1)</f>
+        <v>65054.680568645519</v>
       </c>
       <c r="HB28" s="23">
-        <f t="shared" ref="HB28" si="133">HA28*($F$2+1)</f>
-        <v>74584.036525460804</v>
+        <f t="shared" ref="HB28" si="143">HA28*($F$2+1)</f>
+        <v>65379.953971488743</v>
       </c>
       <c r="HC28" s="23">
-        <f t="shared" ref="HC28" si="134">HB28*($F$2+1)</f>
-        <v>74956.956708088095</v>
+        <f t="shared" ref="HC28" si="144">HB28*($F$2+1)</f>
+        <v>65706.853741346175</v>
       </c>
       <c r="HD28" s="23">
-        <f t="shared" ref="HD28" si="135">HC28*($F$2+1)</f>
-        <v>75331.741491628534</v>
+        <f t="shared" ref="HD28" si="145">HC28*($F$2+1)</f>
+        <v>66035.388010052891</v>
       </c>
       <c r="HE28" s="23">
-        <f t="shared" ref="HE28" si="136">HD28*($F$2+1)</f>
-        <v>75708.400199086667</v>
+        <f t="shared" ref="HE28" si="146">HD28*($F$2+1)</f>
+        <v>66365.564950103144</v>
       </c>
       <c r="HF28" s="23">
-        <f t="shared" ref="HF28" si="137">HE28*($F$2+1)</f>
-        <v>76086.942200082092</v>
+        <f t="shared" ref="HF28" si="147">HE28*($F$2+1)</f>
+        <v>66697.392774853652</v>
       </c>
       <c r="HG28" s="23">
-        <f t="shared" ref="HG28" si="138">HF28*($F$2+1)</f>
-        <v>76467.376911082494</v>
+        <f t="shared" ref="HG28" si="148">HF28*($F$2+1)</f>
+        <v>67030.879738727919</v>
       </c>
       <c r="HH28" s="23">
-        <f t="shared" ref="HH28" si="139">HG28*($F$2+1)</f>
-        <v>76849.713795637901</v>
+        <f t="shared" ref="HH28" si="149">HG28*($F$2+1)</f>
+        <v>67366.03413742155</v>
       </c>
       <c r="HI28" s="23">
-        <f t="shared" ref="HI28" si="140">HH28*($F$2+1)</f>
-        <v>77233.962364616076</v>
+        <f t="shared" ref="HI28" si="150">HH28*($F$2+1)</f>
+        <v>67702.864308108648</v>
       </c>
       <c r="HJ28" s="23">
-        <f t="shared" ref="HJ28" si="141">HI28*($F$2+1)</f>
-        <v>77620.132176439147</v>
+        <f t="shared" ref="HJ28" si="151">HI28*($F$2+1)</f>
+        <v>68041.378629649189</v>
       </c>
       <c r="HK28" s="23">
-        <f t="shared" ref="HK28" si="142">HJ28*($F$2+1)</f>
-        <v>78008.232837321339</v>
+        <f t="shared" ref="HK28" si="152">HJ28*($F$2+1)</f>
+        <v>68381.585522797424</v>
       </c>
       <c r="HL28" s="23">
-        <f t="shared" ref="HL28" si="143">HK28*($F$2+1)</f>
-        <v>78398.274001507933</v>
+        <f t="shared" ref="HL28" si="153">HK28*($F$2+1)</f>
+        <v>68723.493450411406</v>
       </c>
       <c r="HM28" s="23">
-        <f t="shared" ref="HM28" si="144">HL28*($F$2+1)</f>
-        <v>78790.265371515459</v>
+        <f t="shared" ref="HM28" si="154">HL28*($F$2+1)</f>
+        <v>69067.110917663449</v>
       </c>
       <c r="HN28" s="23">
-        <f t="shared" ref="HN28" si="145">HM28*($F$2+1)</f>
-        <v>79184.216698373028</v>
+        <f t="shared" ref="HN28" si="155">HM28*($F$2+1)</f>
+        <v>69412.446472251759</v>
       </c>
       <c r="HO28" s="23">
-        <f t="shared" ref="HO28" si="146">HN28*($F$2+1)</f>
-        <v>79580.137781864891</v>
+        <f t="shared" ref="HO28" si="156">HN28*($F$2+1)</f>
+        <v>69759.508704613007</v>
       </c>
       <c r="HP28" s="23">
-        <f t="shared" ref="HP28" si="147">HO28*($F$2+1)</f>
-        <v>79978.038470774205</v>
+        <f t="shared" ref="HP28" si="157">HO28*($F$2+1)</f>
+        <v>70108.306248136068</v>
       </c>
       <c r="HQ28" s="23">
-        <f t="shared" ref="HQ28" si="148">HP28*($F$2+1)</f>
-        <v>80377.92866312807</v>
+        <f t="shared" ref="HQ28" si="158">HP28*($F$2+1)</f>
+        <v>70458.847779376738</v>
       </c>
       <c r="HR28" s="23">
-        <f t="shared" ref="HR28" si="149">HQ28*($F$2+1)</f>
-        <v>80779.818306443703</v>
+        <f t="shared" ref="HR28" si="159">HQ28*($F$2+1)</f>
+        <v>70811.142018273618</v>
       </c>
       <c r="HS28" s="23">
-        <f t="shared" ref="HS28" si="150">HR28*($F$2+1)</f>
-        <v>81183.71739797591</v>
+        <f t="shared" ref="HS28" si="160">HR28*($F$2+1)</f>
+        <v>71165.197728364976</v>
       </c>
       <c r="HT28" s="23">
-        <f t="shared" ref="HT28" si="151">HS28*($F$2+1)</f>
-        <v>81589.635984965775</v>
+        <f t="shared" ref="HT28" si="161">HS28*($F$2+1)</f>
+        <v>71521.023717006799</v>
       </c>
       <c r="HU28" s="23">
-        <f t="shared" ref="HU28" si="152">HT28*($F$2+1)</f>
-        <v>81997.584164890592</v>
+        <f t="shared" ref="HU28" si="162">HT28*($F$2+1)</f>
+        <v>71878.628835591822</v>
       </c>
       <c r="HV28" s="23">
-        <f t="shared" ref="HV28" si="153">HU28*($F$2+1)</f>
-        <v>82407.57208571503</v>
+        <f t="shared" ref="HV28" si="163">HU28*($F$2+1)</f>
+        <v>72238.021979769779</v>
       </c>
       <c r="HW28" s="23">
-        <f t="shared" ref="HW28" si="154">HV28*($F$2+1)</f>
-        <v>82819.609946143595</v>
+        <f t="shared" ref="HW28" si="164">HV28*($F$2+1)</f>
+        <v>72599.212089668625</v>
       </c>
       <c r="HX28" s="23">
-        <f t="shared" ref="HX28" si="155">HW28*($F$2+1)</f>
-        <v>83233.707995874298</v>
+        <f t="shared" ref="HX28" si="165">HW28*($F$2+1)</f>
+        <v>72962.20815011696</v>
       </c>
       <c r="HY28" s="23">
-        <f t="shared" ref="HY28" si="156">HX28*($F$2+1)</f>
-        <v>83649.876535853662</v>
+        <f t="shared" ref="HY28" si="166">HX28*($F$2+1)</f>
+        <v>73327.019190867533</v>
       </c>
       <c r="HZ28" s="23">
-        <f t="shared" ref="HZ28" si="157">HY28*($F$2+1)</f>
-        <v>84068.125918532925</v>
+        <f t="shared" ref="HZ28" si="167">HY28*($F$2+1)</f>
+        <v>73693.654286821868</v>
       </c>
       <c r="IA28" s="23">
-        <f t="shared" ref="IA28" si="158">HZ28*($F$2+1)</f>
-        <v>84488.46654812558</v>
+        <f t="shared" ref="IA28" si="168">HZ28*($F$2+1)</f>
+        <v>74062.122558255971</v>
       </c>
       <c r="IB28" s="23">
-        <f t="shared" ref="IB28" si="159">IA28*($F$2+1)</f>
-        <v>84910.908880866205</v>
+        <f t="shared" ref="IB28" si="169">IA28*($F$2+1)</f>
+        <v>74432.433171047247</v>
       </c>
       <c r="IC28" s="23">
-        <f t="shared" ref="IC28" si="160">IB28*($F$2+1)</f>
-        <v>85335.463425270529</v>
+        <f t="shared" ref="IC28" si="170">IB28*($F$2+1)</f>
+        <v>74804.595336902479</v>
       </c>
       <c r="ID28" s="23">
-        <f t="shared" ref="ID28" si="161">IC28*($F$2+1)</f>
-        <v>85762.140742396878</v>
+        <f t="shared" ref="ID28" si="171">IC28*($F$2+1)</f>
+        <v>75178.61831358698</v>
       </c>
       <c r="IE28" s="23">
-        <f t="shared" ref="IE28" si="162">ID28*($F$2+1)</f>
-        <v>86190.951446108855</v>
+        <f t="shared" ref="IE28" si="172">ID28*($F$2+1)</f>
+        <v>75554.511405154903</v>
       </c>
       <c r="IF28" s="23">
-        <f t="shared" ref="IF28" si="163">IE28*($F$2+1)</f>
-        <v>86621.906203339386</v>
+        <f t="shared" ref="IF28" si="173">IE28*($F$2+1)</f>
+        <v>75932.283962180663</v>
       </c>
       <c r="IG28" s="23">
-        <f t="shared" ref="IG28" si="164">IF28*($F$2+1)</f>
-        <v>87055.015734356071</v>
+        <f t="shared" ref="IG28" si="174">IF28*($F$2+1)</f>
+        <v>76311.945381991565</v>
       </c>
       <c r="IH28" s="23">
-        <f t="shared" ref="IH28" si="165">IG28*($F$2+1)</f>
-        <v>87490.290813027837</v>
+        <f t="shared" ref="IH28" si="175">IG28*($F$2+1)</f>
+        <v>76693.505108901518</v>
       </c>
       <c r="II28" s="23">
-        <f t="shared" ref="II28" si="166">IH28*($F$2+1)</f>
-        <v>87927.742267092966</v>
+        <f t="shared" ref="II28" si="176">IH28*($F$2+1)</f>
+        <v>77076.972634446021</v>
       </c>
     </row>
     <row r="29" spans="1:243" x14ac:dyDescent="0.15">
@@ -3257,63 +3323,66 @@
         <f>D28/D30</f>
         <v>0.76604572780050717</v>
       </c>
-      <c r="E29" s="19">
-        <f t="shared" ref="E29:F29" si="167">E28/E30</f>
-        <v>1.9165284921674379</v>
+      <c r="E29" s="24">
+        <f>E28/E30</f>
+        <v>0.42413641368517219</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="167"/>
-        <v>5.1461662266101094</v>
+        <f t="shared" ref="E29:F29" si="177">F28/F30</f>
+        <v>2.0276360190106191</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" ref="G29:O29" si="168">G28/G30</f>
-        <v>10.774190776552777</v>
+        <f t="shared" ref="G29:O29" si="178">G28/G30</f>
+        <v>5.6261841885182724</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="168"/>
-        <v>16.33259946358956</v>
+        <f t="shared" si="178"/>
+        <v>8.4693621354848734</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" si="168"/>
-        <v>20.232518518001868</v>
+        <f t="shared" si="178"/>
+        <v>8.7219327869892744</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="168"/>
-        <v>22.944946238865644</v>
+        <f t="shared" ref="J29" si="179">J28/J30</f>
+        <v>8.1040053232911262</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" si="168"/>
-        <v>26.048945209483268</v>
+        <f t="shared" si="178"/>
+        <v>10.852930071068251</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="168"/>
-        <v>29.477996337190735</v>
+        <f t="shared" si="178"/>
+        <v>13.970497730667228</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="168"/>
-        <v>33.265060288434505</v>
+        <f t="shared" si="178"/>
+        <v>17.498242720937192</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="168"/>
-        <v>37.446401895242623</v>
+        <f t="shared" si="178"/>
+        <v>21.482055928301151</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="168"/>
-        <v>42.061920792009843</v>
+        <f t="shared" si="178"/>
+        <v>25.97262925639885</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" ref="P29:R29" si="169">P28/P30</f>
-        <v>47.155515119847422</v>
+        <f t="shared" ref="P29:R29" si="180">P28/P30</f>
+        <v>31.025945010884584</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="169"/>
-        <v>52.775481605353498</v>
+        <f t="shared" si="180"/>
+        <v>36.703814619163374</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="169"/>
-        <v>58.974955651346704</v>
-      </c>
-      <c r="S29" s="19"/>
+        <f t="shared" si="180"/>
+        <v>43.074471635519217</v>
+      </c>
+      <c r="S29" s="19">
+        <f t="shared" ref="S29" si="181">S28/S30</f>
+        <v>50.213224477856208</v>
+      </c>
       <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:243" x14ac:dyDescent="0.15">
@@ -3333,62 +3402,65 @@
         <v>485.39400000000001</v>
       </c>
       <c r="E30" s="5">
-        <f>D30</f>
-        <v>485.39400000000001</v>
+        <f>Reports!Q21</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ref="F30" si="170">E30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="F30" si="182">E30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" ref="G30" si="171">F30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="G30" si="183">F30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30" si="172">G30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="H30" si="184">G30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" ref="I30" si="173">H30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="I30:J30" si="185">H30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ref="J30" si="174">I30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" si="185"/>
+        <v>502.23700000000002</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30" si="175">J30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="K30" si="186">J30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" ref="L30" si="176">K30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="L30" si="187">K30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" ref="M30" si="177">L30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="M30" si="188">L30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" ref="N30" si="178">M30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="N30" si="189">M30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" ref="O30:R30" si="179">N30</f>
-        <v>485.39400000000001</v>
+        <f t="shared" ref="O30:S30" si="190">N30</f>
+        <v>502.23700000000002</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="179"/>
-        <v>485.39400000000001</v>
+        <f t="shared" si="190"/>
+        <v>502.23700000000002</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="179"/>
-        <v>485.39400000000001</v>
+        <f t="shared" si="190"/>
+        <v>502.23700000000002</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="179"/>
-        <v>485.39400000000001</v>
-      </c>
-      <c r="S30" s="5"/>
+        <f t="shared" si="190"/>
+        <v>502.23700000000002</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="190"/>
+        <v>502.23700000000002</v>
+      </c>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:243" x14ac:dyDescent="0.15">
@@ -3417,74 +3489,77 @@
         <v>19</v>
       </c>
       <c r="B32" s="22">
-        <f t="shared" ref="B32:O32" si="180">IFERROR(B19/B17,0)</f>
+        <f t="shared" ref="B32:O32" si="191">IFERROR(B19/B17,0)</f>
         <v>0.37867148666967915</v>
       </c>
       <c r="C32" s="22">
-        <f t="shared" si="180"/>
+        <f t="shared" si="191"/>
         <v>0.39532766990291263</v>
       </c>
       <c r="D32" s="22">
-        <f t="shared" si="180"/>
+        <f>IFERROR(D19/D17,0)</f>
         <v>0.40115752146093647</v>
       </c>
       <c r="E32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f>IFERROR(E19/E17,0)</f>
+        <v>0.2877593634924609</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="G32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="I32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="J32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093642</v>
+        <f t="shared" ref="J32" si="192">IFERROR(J19/J17,0)</f>
+        <v>0.2877593634924609</v>
       </c>
       <c r="K32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093642</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="M32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="N32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="O32" s="22">
-        <f t="shared" si="180"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="191"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="P32" s="22">
-        <f t="shared" ref="P32:R32" si="181">IFERROR(P19/P17,0)</f>
-        <v>0.40115752146093647</v>
+        <f t="shared" ref="P32:R32" si="193">IFERROR(P19/P17,0)</f>
+        <v>0.2877593634924609</v>
       </c>
       <c r="Q32" s="22">
-        <f t="shared" si="181"/>
-        <v>0.40115752146093647</v>
+        <f t="shared" si="193"/>
+        <v>0.2877593634924609</v>
       </c>
       <c r="R32" s="22">
-        <f t="shared" si="181"/>
-        <v>0.40115752146093642</v>
-      </c>
-      <c r="S32" s="22"/>
+        <f t="shared" si="193"/>
+        <v>0.2877593634924609</v>
+      </c>
+      <c r="S32" s="22">
+        <f t="shared" ref="S32" si="194">IFERROR(S19/S17,0)</f>
+        <v>0.2877593634924609</v>
+      </c>
       <c r="T32" s="22"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
@@ -3492,74 +3567,77 @@
         <v>20</v>
       </c>
       <c r="B33" s="21">
-        <f t="shared" ref="B33:O33" si="182">IFERROR(B24/B17,0)</f>
+        <f t="shared" ref="B33:O33" si="195">IFERROR(B24/B17,0)</f>
         <v>-2.5305015815634886E-2</v>
       </c>
       <c r="C33" s="21">
-        <f t="shared" si="182"/>
+        <f t="shared" si="195"/>
         <v>-1.0922330097087379E-2</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" si="182"/>
+        <f t="shared" si="195"/>
         <v>5.9036266983742607E-3</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.12855705260243497</v>
+        <f>IFERROR(E24/E17,0)</f>
+        <v>-1.9987200947441733E-3</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.2048996748560579</v>
+        <f t="shared" si="195"/>
+        <v>6.5719867369400234E-2</v>
       </c>
       <c r="G33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.25716884662590273</v>
+        <f t="shared" si="195"/>
+        <v>0.10986823941768485</v>
       </c>
       <c r="H33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.27568723319054467</v>
+        <f t="shared" si="195"/>
+        <v>0.11461595958910012</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.27572150263764983</v>
+        <f t="shared" si="195"/>
+        <v>9.185396760477435E-2</v>
       </c>
       <c r="J33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.28092706210324309</v>
+        <f t="shared" ref="J33" si="196">IFERROR(J24/J17,0)</f>
+        <v>6.5118965158356176E-2</v>
       </c>
       <c r="K33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.28692135362197474</v>
+        <f t="shared" si="195"/>
+        <v>7.9823623038265581E-2</v>
       </c>
       <c r="L33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.29238011759474153</v>
+        <f t="shared" si="195"/>
+        <v>9.3280100327591167E-2</v>
       </c>
       <c r="M33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.29735316465090905</v>
+        <f t="shared" si="195"/>
+        <v>0.10559867389763997</v>
       </c>
       <c r="N33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.30188549775536433</v>
+        <f t="shared" si="195"/>
+        <v>0.11687947319986923</v>
       </c>
       <c r="O33" s="21">
-        <f t="shared" si="182"/>
-        <v>0.30601779113755984</v>
+        <f t="shared" si="195"/>
+        <v>0.1272134503273763</v>
       </c>
       <c r="P33" s="21">
-        <f t="shared" ref="P33:R33" si="183">IFERROR(P24/P17,0)</f>
-        <v>0.30978682028600329</v>
+        <f t="shared" ref="P33:R33" si="197">IFERROR(P24/P17,0)</f>
+        <v>0.13668325421002689</v>
       </c>
       <c r="Q33" s="21">
-        <f t="shared" si="183"/>
-        <v>0.31322584810561738</v>
+        <f t="shared" si="197"/>
+        <v>0.1453640186771139</v>
       </c>
       <c r="R33" s="21">
-        <f t="shared" si="183"/>
-        <v>0.31636497179682965</v>
-      </c>
-      <c r="S33" s="21"/>
+        <f t="shared" si="197"/>
+        <v>0.15332407311223281</v>
+      </c>
+      <c r="S33" s="21">
+        <f t="shared" ref="S33" si="198">IFERROR(S24/S17,0)</f>
+        <v>0.16062558352211825</v>
+      </c>
       <c r="T33" s="21"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
@@ -3567,74 +3645,77 @@
         <v>21</v>
       </c>
       <c r="B34" s="21">
-        <f t="shared" ref="B34:O34" si="184">IFERROR(B27/B26,0)</f>
+        <f t="shared" ref="B34:O34" si="199">IFERROR(B27/B26,0)</f>
         <v>1.5625E-2</v>
       </c>
       <c r="C34" s="21">
-        <f t="shared" si="184"/>
+        <f t="shared" si="199"/>
         <v>-5.8823529411764705E-2</v>
       </c>
       <c r="D34" s="21">
-        <f t="shared" si="184"/>
+        <f t="shared" si="199"/>
         <v>1.0642996642134576E-2</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" si="184"/>
+        <f t="shared" si="199"/>
+        <v>1.3887795867917814E-2</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="F34" s="21">
-        <f t="shared" si="184"/>
+      <c r="G34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="G34" s="21">
-        <f t="shared" si="184"/>
+      <c r="H34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="H34" s="21">
-        <f t="shared" si="184"/>
+      <c r="I34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="I34" s="21">
-        <f t="shared" si="184"/>
+      <c r="J34" s="21">
+        <f t="shared" ref="J34" si="200">IFERROR(J27/J26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="J34" s="21">
-        <f t="shared" si="184"/>
+      <c r="K34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="K34" s="21">
-        <f t="shared" si="184"/>
+      <c r="L34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="L34" s="21">
-        <f t="shared" si="184"/>
+      <c r="M34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="M34" s="21">
-        <f t="shared" si="184"/>
+      <c r="N34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="N34" s="21">
-        <f t="shared" si="184"/>
+      <c r="O34" s="21">
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
-      <c r="O34" s="21">
-        <f t="shared" si="184"/>
+      <c r="P34" s="21">
+        <f t="shared" ref="P34:R34" si="201">IFERROR(P27/P26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="P34" s="21">
-        <f t="shared" ref="P34:R34" si="185">IFERROR(P27/P26,0)</f>
+      <c r="Q34" s="21">
+        <f t="shared" si="201"/>
         <v>0.15</v>
       </c>
-      <c r="Q34" s="21">
-        <f t="shared" si="185"/>
+      <c r="R34" s="21">
+        <f t="shared" si="201"/>
         <v>0.15</v>
       </c>
-      <c r="R34" s="21">
-        <f t="shared" si="185"/>
+      <c r="S34" s="21">
+        <f t="shared" ref="S34" si="202">IFERROR(S27/S26,0)</f>
         <v>0.15</v>
       </c>
-      <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
@@ -3668,66 +3749,69 @@
         <v>0.48938093086308188</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" ref="D36:R36" si="186">D17/C17-1</f>
+        <f t="shared" ref="D36:S36" si="203">D17/C17-1</f>
         <v>0.43043962378640765</v>
       </c>
       <c r="E36" s="20">
         <f>E17/D17-1</f>
-        <v>0.76815105385696669</v>
+        <v>1.01444833838806</v>
       </c>
       <c r="F36" s="20">
         <f>F17/E17-1</f>
-        <v>0.69624418168086089</v>
+        <v>0.78083902548628692</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" si="186"/>
-        <v>0.66680256776767144</v>
+        <f t="shared" si="203"/>
+        <v>0.71498368621635033</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="186"/>
-        <v>0.4052269329672189</v>
+        <f t="shared" si="203"/>
+        <v>0.42138316396892317</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="186"/>
-        <v>0.22638704958473732</v>
+        <f t="shared" si="203"/>
+        <v>0.23105319303506078</v>
       </c>
       <c r="J36" s="20">
-        <f t="shared" si="186"/>
+        <f t="shared" si="203"/>
+        <v>0.23382170755064347</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K36" s="20">
-        <f t="shared" si="186"/>
+      <c r="L36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L36" s="20">
-        <f t="shared" si="186"/>
+      <c r="M36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M36" s="20">
-        <f t="shared" si="186"/>
+      <c r="N36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N36" s="20">
-        <f t="shared" si="186"/>
+      <c r="O36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O36" s="20">
-        <f t="shared" si="186"/>
+      <c r="P36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P36" s="20">
-        <f t="shared" si="186"/>
+      <c r="Q36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q36" s="20">
-        <f t="shared" si="186"/>
+      <c r="R36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R36" s="20">
-        <f t="shared" si="186"/>
+      <c r="S36" s="20">
+        <f t="shared" si="203"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S36" s="20"/>
       <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
@@ -3736,70 +3820,73 @@
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21">
-        <f t="shared" ref="C37:R37" si="187">C20/B20-1</f>
+        <f t="shared" ref="C37:S37" si="204">C20/B20-1</f>
         <v>0.54179566563467496</v>
       </c>
       <c r="D37" s="21">
-        <f t="shared" si="187"/>
+        <f t="shared" si="204"/>
         <v>0.34595180722891561</v>
       </c>
       <c r="E37" s="21">
-        <f t="shared" si="187"/>
+        <f t="shared" si="204"/>
+        <v>0.31586014286481556</v>
+      </c>
+      <c r="F37" s="21">
+        <f t="shared" si="204"/>
         <v>0.25</v>
       </c>
-      <c r="F37" s="21">
-        <f t="shared" si="187"/>
-        <v>0.24999999999999978</v>
-      </c>
       <c r="G37" s="21">
-        <f t="shared" si="187"/>
+        <f t="shared" si="204"/>
         <v>0.25</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="187"/>
+        <f t="shared" si="204"/>
         <v>0.25</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="187"/>
+        <f t="shared" si="204"/>
         <v>0.25</v>
       </c>
       <c r="J37" s="21">
-        <f t="shared" si="187"/>
+        <f t="shared" si="204"/>
+        <v>0.25</v>
+      </c>
+      <c r="K37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K37" s="21">
-        <f t="shared" si="187"/>
+      <c r="L37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L37" s="21">
-        <f t="shared" si="187"/>
+      <c r="M37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M37" s="21">
-        <f t="shared" si="187"/>
+      <c r="N37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N37" s="21">
-        <f t="shared" si="187"/>
+      <c r="O37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O37" s="21">
-        <f t="shared" si="187"/>
+      <c r="P37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P37" s="21">
-        <f t="shared" si="187"/>
+      <c r="Q37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q37" s="21">
-        <f t="shared" si="187"/>
+      <c r="R37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R37" s="21">
-        <f t="shared" si="187"/>
+      <c r="S37" s="21">
+        <f t="shared" si="204"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S37" s="21"/>
       <c r="T37" s="21"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
@@ -3808,70 +3895,73 @@
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21">
-        <f t="shared" ref="C38:R38" si="188">C21/B21-1</f>
+        <f t="shared" ref="C38:S38" si="205">C21/B21-1</f>
         <v>0.61417322834645671</v>
       </c>
       <c r="D38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>0.52251463414634136</v>
       </c>
       <c r="E38" s="21">
-        <f t="shared" si="188"/>
-        <v>0.25</v>
+        <f t="shared" si="205"/>
+        <v>0.77818788237046865</v>
       </c>
       <c r="F38" s="21">
-        <f t="shared" si="188"/>
-        <v>0.25</v>
+        <f t="shared" si="205"/>
+        <v>0.5</v>
       </c>
       <c r="G38" s="21">
-        <f t="shared" si="188"/>
-        <v>0.25</v>
+        <f t="shared" si="205"/>
+        <v>0.5</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="188"/>
-        <v>0.25</v>
+        <f t="shared" si="205"/>
+        <v>0.5</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="188"/>
-        <v>0.25</v>
+        <f t="shared" si="205"/>
+        <v>0.5</v>
       </c>
       <c r="J38" s="21">
-        <f t="shared" si="188"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="205"/>
+        <v>0.5</v>
       </c>
       <c r="K38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="L38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="M38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="N38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="O38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R38" s="21">
-        <f t="shared" si="188"/>
+        <f t="shared" si="205"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S38" s="21"/>
+      <c r="S38" s="21">
+        <f t="shared" si="205"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="T38" s="21"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
@@ -3880,70 +3970,73 @@
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="21">
-        <f t="shared" ref="C39:R39" si="189">C22/B22-1</f>
+        <f t="shared" ref="C39:S39" si="206">C22/B22-1</f>
         <v>0.35962145110410093</v>
       </c>
       <c r="D39" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="206"/>
         <v>0.32018561484918795</v>
       </c>
       <c r="E39" s="21">
-        <f t="shared" si="189"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="206"/>
+        <v>0.33567662565905088</v>
       </c>
       <c r="F39" s="21">
-        <f t="shared" si="189"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="206"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G39" s="21">
-        <f t="shared" si="189"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="206"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H39" s="21">
-        <f t="shared" si="189"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="206"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="189"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="206"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J39" s="21">
-        <f t="shared" si="189"/>
+        <f t="shared" si="206"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="206"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="L39" s="21">
+        <f t="shared" si="206"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M39" s="21">
+        <f t="shared" si="206"/>
         <v>-2.0000000000000129E-2</v>
       </c>
-      <c r="K39" s="21">
-        <f t="shared" si="189"/>
+      <c r="N39" s="21">
+        <f t="shared" si="206"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O39" s="21">
+        <f t="shared" si="206"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="P39" s="21">
+        <f t="shared" si="206"/>
         <v>-1.9999999999999907E-2</v>
       </c>
-      <c r="L39" s="21">
-        <f t="shared" si="189"/>
+      <c r="Q39" s="21">
+        <f t="shared" si="206"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="R39" s="21">
+        <f t="shared" si="206"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="S39" s="21">
+        <f t="shared" si="206"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M39" s="21">
-        <f t="shared" si="189"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="N39" s="21">
-        <f t="shared" si="189"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="O39" s="21">
-        <f t="shared" si="189"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="P39" s="21">
-        <f t="shared" si="189"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="Q39" s="21">
-        <f t="shared" si="189"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="R39" s="21">
-        <f t="shared" si="189"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="S39" s="21"/>
       <c r="T39" s="21"/>
     </row>
     <row r="40" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.15">
@@ -3956,66 +4049,69 @@
         <v>0.49776286353467558</v>
       </c>
       <c r="D40" s="21">
-        <f t="shared" ref="D40:R40" si="190">D23/C23-1</f>
+        <f t="shared" ref="D40:S40" si="207">D23/C23-1</f>
         <v>0.39172143390589986</v>
       </c>
       <c r="E40" s="21">
-        <f t="shared" si="190"/>
-        <v>0.21946630426908276</v>
+        <f t="shared" si="207"/>
+        <v>0.47677909756562209</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="190"/>
-        <v>0.22120564137965171</v>
+        <f t="shared" si="207"/>
+        <v>0.36464389534883712</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" si="190"/>
-        <v>0.222884573006074</v>
+        <f t="shared" si="207"/>
+        <v>0.37399147916389297</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="190"/>
-        <v>0.22450066692201198</v>
+        <f t="shared" si="207"/>
+        <v>0.38344799686048048</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="190"/>
-        <v>0.22605208896014939</v>
+        <f t="shared" si="207"/>
+        <v>0.39289142816518785</v>
       </c>
       <c r="J40" s="21">
-        <f t="shared" si="190"/>
-        <v>5.435030969677479E-2</v>
+        <f t="shared" si="207"/>
+        <v>0.40220005272252157</v>
       </c>
       <c r="K40" s="21">
-        <f t="shared" si="190"/>
-        <v>4.5157652180400687E-2</v>
+        <f t="shared" si="207"/>
+        <v>2.7348658244730872E-2</v>
       </c>
       <c r="L40" s="21">
-        <f t="shared" si="190"/>
-        <v>4.7436608881102016E-2</v>
+        <f t="shared" si="207"/>
+        <v>2.881394518361402E-2</v>
       </c>
       <c r="M40" s="21">
-        <f t="shared" si="190"/>
-        <v>4.9710587241875936E-2</v>
+        <f t="shared" si="207"/>
+        <v>3.0324546141630382E-2</v>
       </c>
       <c r="N40" s="21">
-        <f t="shared" si="190"/>
-        <v>5.1971510945105326E-2</v>
+        <f t="shared" si="207"/>
+        <v>3.1879489147448981E-2</v>
       </c>
       <c r="O40" s="21">
-        <f t="shared" si="190"/>
-        <v>5.4211442955001354E-2</v>
+        <f t="shared" si="207"/>
+        <v>3.3477398535346481E-2</v>
       </c>
       <c r="P40" s="21">
-        <f t="shared" si="190"/>
-        <v>5.6422705328300182E-2</v>
+        <f t="shared" si="207"/>
+        <v>3.5116478111751226E-2</v>
       </c>
       <c r="Q40" s="21">
-        <f t="shared" si="190"/>
-        <v>5.8597990899370567E-2</v>
+        <f t="shared" si="207"/>
+        <v>3.6794500737741931E-2</v>
       </c>
       <c r="R40" s="21">
-        <f t="shared" si="190"/>
-        <v>6.0730463454501615E-2</v>
-      </c>
-      <c r="S40" s="21"/>
+        <f t="shared" si="207"/>
+        <v>3.850880525634226E-2</v>
+      </c>
+      <c r="S40" s="21">
+        <f t="shared" si="207"/>
+        <v>4.0256301539888018E-2</v>
+      </c>
       <c r="T40" s="21"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
@@ -4052,63 +4148,66 @@
         <f>D43-D44</f>
         <v>1137</v>
       </c>
-      <c r="E42" s="18">
-        <f>D42+E28</f>
-        <v>2067.2714309271214</v>
+      <c r="E42" s="23">
+        <f>E43-E44</f>
+        <v>1730</v>
       </c>
       <c r="F42" s="18">
-        <f t="shared" ref="F42:R42" si="191">E42+F28</f>
-        <v>4565.189640326309</v>
+        <f t="shared" ref="F42:S42" si="208">E42+F28</f>
+        <v>2748.3538312798364</v>
       </c>
       <c r="G42" s="18">
-        <f t="shared" si="191"/>
-        <v>9794.9171981203672</v>
+        <f t="shared" si="208"/>
+        <v>5574.0316995686881</v>
       </c>
       <c r="H42" s="18">
-        <f t="shared" si="191"/>
-        <v>17722.662982149959</v>
+        <f t="shared" si="208"/>
+        <v>9827.6587304082059</v>
       </c>
       <c r="I42" s="18">
-        <f t="shared" si="191"/>
-        <v>27543.406075676958</v>
+        <f t="shared" si="208"/>
+        <v>14208.136087547338</v>
       </c>
       <c r="J42" s="18">
-        <f t="shared" si="191"/>
-        <v>38680.745310344908</v>
+        <f t="shared" si="208"/>
+        <v>18278.267409101103</v>
       </c>
       <c r="K42" s="18">
-        <f t="shared" si="191"/>
-        <v>51324.74702135683</v>
+        <f t="shared" si="208"/>
+        <v>23729.010449204208</v>
       </c>
       <c r="L42" s="18">
-        <f t="shared" si="191"/>
-        <v>65633.189575451193</v>
+        <f t="shared" si="208"/>
+        <v>30745.511317961325</v>
       </c>
       <c r="M42" s="18">
-        <f t="shared" si="191"/>
-        <v>81779.850249095573</v>
+        <f t="shared" si="208"/>
+        <v>39533.776247396658</v>
       </c>
       <c r="N42" s="18">
-        <f t="shared" si="191"/>
-        <v>99956.109050634972</v>
+        <f t="shared" si="208"/>
+        <v>50322.859570658846</v>
       </c>
       <c r="O42" s="18">
-        <f t="shared" si="191"/>
-        <v>120372.7130315518</v>
+        <f t="shared" si="208"/>
+        <v>63367.274970504834</v>
       </c>
       <c r="P42" s="18">
-        <f t="shared" si="191"/>
-        <v>143261.71713763502</v>
+        <f t="shared" si="208"/>
+        <v>78949.652514936475</v>
       </c>
       <c r="Q42" s="18">
-        <f t="shared" si="191"/>
-        <v>168878.61925598397</v>
+        <f t="shared" si="208"/>
+        <v>97383.666257821227</v>
       </c>
       <c r="R42" s="18">
-        <f t="shared" si="191"/>
-        <v>197504.70887941375</v>
-      </c>
-      <c r="S42" s="18"/>
+        <f t="shared" si="208"/>
+        <v>119017.2596686295</v>
+      </c>
+      <c r="S42" s="18">
+        <f t="shared" si="208"/>
+        <v>144236.19889071456</v>
+      </c>
       <c r="T42" s="18"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
@@ -4124,6 +4223,10 @@
         <f>Reports!M34</f>
         <v>2076</v>
       </c>
+      <c r="E43" s="17">
+        <f>Reports!Q34</f>
+        <v>4317</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -4138,6 +4241,10 @@
         <f>Reports!M35</f>
         <v>939</v>
       </c>
+      <c r="E44" s="17">
+        <f>Reports!Q35</f>
+        <v>2587</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
@@ -4155,6 +4262,10 @@
         <f>Reports!M37</f>
         <v>335</v>
       </c>
+      <c r="E46" s="17">
+        <f>Reports!Q37</f>
+        <v>455</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -4169,6 +4280,10 @@
         <f>Reports!M38</f>
         <v>4551</v>
       </c>
+      <c r="E47" s="17">
+        <f>Reports!Q38</f>
+        <v>9870</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -4183,11 +4298,15 @@
         <f>Reports!M39</f>
         <v>2836</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E48" s="17">
+        <f>Reports!Q39</f>
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -4200,8 +4319,12 @@
         <f>D47-D46-D43</f>
         <v>2140</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E50" s="25">
+        <f>E47-E46-E43</f>
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -4214,11 +4337,15 @@
         <f>D47-D48</f>
         <v>1715</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E51" s="25">
+        <f>E47-E48</f>
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -4231,8 +4358,12 @@
         <f>D28/D51</f>
         <v>0.21681282798833784</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E53" s="14">
+        <f>E28/E51</f>
+        <v>7.942468307233401E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -4245,8 +4376,12 @@
         <f>D28/D47</f>
         <v>8.1703801362337805E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E54" s="14">
+        <f>E28/E47</f>
+        <v>2.1582269503546081E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -4259,8 +4394,12 @@
         <f>D28/(D51-D46)</f>
         <v>0.26944492753623145</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E55" s="14">
+        <f>E28/(E51-E46)</f>
+        <v>9.5651998203861624E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -4273,108 +4412,124 @@
         <f>D28/D50</f>
         <v>0.17375420560747634</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E56" s="14">
+        <f>E28/E50</f>
+        <v>4.1784425264809695E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="35" t="s">
         <v>77</v>
       </c>
       <c r="C58" s="14">
-        <f t="shared" ref="C58:D60" si="192">C12/B12-1</f>
+        <f t="shared" ref="C58:D60" si="209">C12/B12-1</f>
         <v>0.28697916666666656</v>
       </c>
       <c r="D58" s="14">
-        <f t="shared" si="192"/>
+        <f t="shared" si="209"/>
         <v>0.24734115742614327</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" ref="E58:I58" si="193">E12/D12-1</f>
-        <v>6.4624713676683543E-2</v>
+        <f>E12/D12-1</f>
+        <v>6.9041392780434752E-2</v>
       </c>
       <c r="F58" s="14">
-        <f t="shared" si="193"/>
+        <f t="shared" ref="E58:J58" si="210">F12/E12-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="G58" s="14">
-        <f t="shared" si="193"/>
+        <f t="shared" si="210"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="H58" s="14">
-        <f t="shared" si="193"/>
+        <f t="shared" si="210"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I58" s="14">
-        <f t="shared" si="193"/>
+        <f t="shared" si="210"/>
         <v>5.0000000000000044E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58" s="14">
+        <f t="shared" si="210"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C59" s="14">
-        <f t="shared" si="192"/>
+        <f t="shared" si="209"/>
         <v>1.3452380952380953</v>
       </c>
       <c r="D59" s="14">
-        <f t="shared" si="192"/>
+        <f t="shared" si="209"/>
         <v>0.74520304568527918</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" ref="E59:I59" si="194">E13/D13-1</f>
-        <v>0.39788615639679459</v>
+        <f t="shared" ref="E59:J59" si="211">E13/D13-1</f>
+        <v>0.49251562174294516</v>
       </c>
       <c r="F59" s="14">
-        <f t="shared" si="194"/>
+        <f t="shared" si="211"/>
         <v>0.25</v>
       </c>
       <c r="G59" s="14">
-        <f t="shared" si="194"/>
-        <v>0.25000000000000022</v>
+        <f t="shared" si="211"/>
+        <v>0.25</v>
       </c>
       <c r="H59" s="14">
-        <f t="shared" si="194"/>
+        <f t="shared" si="211"/>
         <v>0.25</v>
       </c>
       <c r="I59" s="14">
-        <f t="shared" si="194"/>
+        <f t="shared" si="211"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J59" s="14">
+        <f t="shared" si="211"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14">
-        <f t="shared" si="192"/>
+        <f t="shared" si="209"/>
         <v>0.65853658536585358</v>
       </c>
       <c r="D60" s="14">
-        <f t="shared" si="192"/>
+        <f t="shared" si="209"/>
         <v>0.24363235294117658</v>
       </c>
       <c r="E60" s="14">
-        <f t="shared" ref="E60:I60" si="195">E14/D14-1</f>
-        <v>3.5880426170964874E-2</v>
+        <f t="shared" ref="E60:J60" si="212">E14/D14-1</f>
+        <v>8.3803374838885114E-2</v>
       </c>
       <c r="F60" s="14">
-        <f t="shared" si="195"/>
-        <v>-0.10000000000000009</v>
+        <f t="shared" si="212"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G60" s="14">
-        <f t="shared" si="195"/>
-        <v>-0.10000000000000009</v>
+        <f t="shared" si="212"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="H60" s="14">
-        <f t="shared" si="195"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="212"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I60" s="14">
-        <f t="shared" si="195"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="212"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="212"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="35" t="s">
         <v>80</v>
       </c>
@@ -4385,27 +4540,31 @@
         <v>2.1118493975903614</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" ref="E61:I61" si="196">E15/D15-1</f>
-        <v>5.825031409284759</v>
+        <f t="shared" ref="E61:J61" si="213">E15/D15-1</f>
+        <v>7.8498549074950574</v>
       </c>
       <c r="F61" s="14">
-        <f t="shared" si="196"/>
+        <f t="shared" si="213"/>
         <v>1.5</v>
       </c>
       <c r="G61" s="14">
-        <f t="shared" si="196"/>
+        <f t="shared" si="213"/>
         <v>1</v>
       </c>
       <c r="H61" s="14">
-        <f t="shared" si="196"/>
+        <f t="shared" si="213"/>
         <v>0.5</v>
       </c>
       <c r="I61" s="14">
-        <f t="shared" si="196"/>
+        <f t="shared" si="213"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J61" s="14">
+        <f t="shared" si="213"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="75" t="s">
         <v>97</v>
       </c>
@@ -4423,59 +4582,67 @@
       </c>
       <c r="E63" s="17">
         <f>SUM(Reports!N55:Q55)</f>
-        <v>124935.65</v>
+        <v>112295</v>
       </c>
       <c r="F63" s="75">
         <f>E63*1.15</f>
-        <v>143675.99749999997</v>
+        <v>129139.24999999999</v>
       </c>
       <c r="G63" s="75">
-        <f t="shared" ref="G63:I63" si="197">F63*1.15</f>
-        <v>165227.39712499996</v>
+        <f t="shared" ref="G63:J63" si="214">F63*1.15</f>
+        <v>148510.13749999998</v>
       </c>
       <c r="H63" s="75">
-        <f t="shared" si="197"/>
-        <v>190011.50669374995</v>
+        <f t="shared" si="214"/>
+        <v>170786.65812499996</v>
       </c>
       <c r="I63" s="75">
-        <f t="shared" si="197"/>
-        <v>218513.23269781243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="214"/>
+        <v>196404.65684374992</v>
+      </c>
+      <c r="J63" s="75">
+        <f t="shared" si="214"/>
+        <v>225865.35537031241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="84" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="14">
-        <f>C63/B63-1</f>
+        <f t="shared" ref="C64:J64" si="215">C63/B63-1</f>
         <v>0.29556793486578314</v>
       </c>
       <c r="D64" s="14">
-        <f>D63/C63-1</f>
+        <f t="shared" si="215"/>
         <v>0.25496426672966743</v>
       </c>
       <c r="E64" s="14">
-        <f>E63/D63-1</f>
-        <v>0.17598669038676951</v>
+        <f t="shared" si="215"/>
+        <v>5.7003548602678755E-2</v>
       </c>
       <c r="F64" s="14">
-        <f>F63/E63-1</f>
+        <f t="shared" si="215"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="G64" s="14">
-        <f>G63/F63-1</f>
+        <f t="shared" si="215"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="H64" s="14">
-        <f>H63/G63-1</f>
+        <f t="shared" si="215"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I64" s="14">
-        <f>I63/H63-1</f>
+        <f t="shared" si="215"/>
         <v>0.14999999999999991</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="14">
+        <f t="shared" si="215"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="84" t="s">
         <v>102</v>
       </c>
@@ -4492,24 +4659,28 @@
         <v>4.4378514481499258E-2</v>
       </c>
       <c r="E66" s="14">
-        <f t="shared" ref="E66:I66" si="198">E17/E63</f>
-        <v>6.6725174519842834E-2</v>
+        <f t="shared" ref="E66:I66" si="216">E17/E63</f>
+        <v>8.4577033705864016E-2</v>
       </c>
       <c r="F66" s="14">
-        <f t="shared" si="198"/>
-        <v>9.841929482688995E-2</v>
+        <f t="shared" si="216"/>
+        <v>0.13097224546371455</v>
       </c>
       <c r="G66" s="14">
-        <f t="shared" si="198"/>
-        <v>0.1426482898568206</v>
+        <f t="shared" si="216"/>
+        <v>0.19531762114555984</v>
       </c>
       <c r="H66" s="14">
-        <f t="shared" si="198"/>
-        <v>0.174307146824799</v>
+        <f t="shared" si="216"/>
+        <v>0.24140972028066029</v>
       </c>
       <c r="I66" s="14">
-        <f t="shared" si="198"/>
-        <v>0.1858852413182599</v>
+        <f t="shared" si="216"/>
+        <v>0.2584245278097459</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" ref="J66" si="217">J17/J63</f>
+        <v>0.27726068884799082</v>
       </c>
     </row>
   </sheetData>
@@ -4526,13 +4697,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4549,7 +4720,7 @@
     <col min="15" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>45</v>
       </c>
@@ -4602,7 +4773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="33"/>
       <c r="B2" s="27" t="s">
         <v>24</v>
@@ -4649,8 +4820,11 @@
       <c r="P2" s="79">
         <v>44104</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="79">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
         <v>73</v>
       </c>
@@ -4700,11 +4874,10 @@
         <v>925.29399999999998</v>
       </c>
       <c r="Q3" s="35">
-        <f>M3*1.1</f>
-        <v>915.39800000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <v>929.01099999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>74</v>
       </c>
@@ -4754,11 +4927,10 @@
         <v>447.52199999999999</v>
       </c>
       <c r="Q4" s="35">
-        <f>M4*1.25</f>
-        <v>351.76875000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <v>449.37099999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>75</v>
       </c>
@@ -4808,11 +4980,10 @@
         <v>27.294</v>
       </c>
       <c r="Q5" s="35">
-        <f>M5*0.9</f>
-        <v>20.310300000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24.363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>76</v>
       </c>
@@ -4854,15 +5025,10 @@
         <v>1633.7639999999999</v>
       </c>
       <c r="Q6" s="35">
-        <f>M6*4</f>
-        <v>710.26800000000003</v>
-      </c>
-      <c r="S6" s="35">
-        <f>SUM(Q3:Q6)</f>
-        <v>1997.7450500000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1756.2249999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="76"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -4881,80 +5047,76 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="82">
-        <f>SUM(B3:B6)</f>
+        <f t="shared" ref="B8:Q8" si="0">SUM(B3:B6)</f>
         <v>461</v>
       </c>
       <c r="C8" s="83">
-        <f>SUM(C3:C6)</f>
+        <f t="shared" si="0"/>
         <v>551</v>
       </c>
       <c r="D8" s="83">
-        <f>SUM(D3:D6)</f>
+        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="E8" s="83">
-        <f>SUM(E3:E6)</f>
+        <f t="shared" si="0"/>
         <v>616</v>
       </c>
       <c r="F8" s="82">
-        <f>SUM(F3:F6)</f>
+        <f t="shared" si="0"/>
         <v>668</v>
       </c>
       <c r="G8" s="83">
-        <f>SUM(G3:G6)</f>
+        <f t="shared" si="0"/>
         <v>814</v>
       </c>
       <c r="H8" s="83">
-        <f>SUM(H3:H6)</f>
+        <f t="shared" si="0"/>
         <v>882</v>
       </c>
       <c r="I8" s="83">
-        <f>SUM(I3:I6)</f>
+        <f t="shared" si="0"/>
         <v>932</v>
       </c>
       <c r="J8" s="82">
-        <f>SUM(J3:J6)</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="K8" s="83">
-        <f>SUM(K3:K6)</f>
+        <f t="shared" si="0"/>
         <v>1174</v>
       </c>
       <c r="L8" s="83">
-        <f>SUM(L3:L6)</f>
+        <f t="shared" si="0"/>
         <v>1267</v>
       </c>
       <c r="M8" s="83">
-        <f>SUM(M3:M6)</f>
+        <f t="shared" si="0"/>
         <v>1313.729</v>
       </c>
       <c r="N8" s="82">
-        <f>SUM(N3:N6)</f>
+        <f t="shared" si="0"/>
         <v>1381.1089999999999</v>
       </c>
       <c r="O8" s="83">
-        <f>SUM(O3:O6)</f>
+        <f t="shared" si="0"/>
         <v>1923.625</v>
       </c>
       <c r="P8" s="83">
-        <f>SUM(P3:P6)</f>
+        <f t="shared" si="0"/>
         <v>3033.8739999999998</v>
       </c>
-      <c r="Q8" s="81">
-        <f>Q55*P58</f>
-        <v>3108.9509026504811</v>
-      </c>
-      <c r="S8" s="81">
-        <f>SUM(N8:Q8)</f>
-        <v>9447.5589026504822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="83">
+        <f t="shared" si="0"/>
+        <v>3158.9700000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
@@ -5004,80 +5166,79 @@
         <v>2239.4189999999999</v>
       </c>
       <c r="Q9" s="35">
-        <f>Q8-Q10</f>
-        <v>2294.8361472700044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2355.2800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="42">
-        <f t="shared" ref="B10:D10" si="0">B8-B9</f>
+        <f t="shared" ref="B10:D10" si="1">B8-B9</f>
         <v>173</v>
       </c>
       <c r="C10" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="D10" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="E10" s="41">
-        <f t="shared" ref="E10:G10" si="1">E8-E9</f>
+        <f t="shared" ref="E10:G10" si="2">E8-E9</f>
         <v>240</v>
       </c>
       <c r="F10" s="42">
-        <f t="shared" ref="F10" si="2">F8-F9</f>
+        <f t="shared" ref="F10" si="3">F8-F9</f>
         <v>255</v>
       </c>
       <c r="G10" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
       <c r="H10" s="41">
-        <f t="shared" ref="H10:P10" si="3">H8-H9</f>
+        <f t="shared" ref="H10:Q10" si="4">H8-H9</f>
         <v>353</v>
       </c>
       <c r="I10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>380</v>
       </c>
       <c r="J10" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>397</v>
       </c>
       <c r="K10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>466</v>
       </c>
       <c r="L10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>501</v>
       </c>
       <c r="M10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>527.34900000000005</v>
       </c>
       <c r="N10" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>538.10899999999992</v>
       </c>
       <c r="O10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>596.76299999999992</v>
       </c>
       <c r="P10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>794.45499999999993</v>
       </c>
-      <c r="Q10" s="35">
-        <f>Q8*P23</f>
-        <v>814.11475538047659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q10" s="41">
+        <f t="shared" si="4"/>
+        <v>803.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
         <v>7</v>
       </c>
@@ -5127,11 +5288,10 @@
         <v>227</v>
       </c>
       <c r="Q11" s="35">
-        <f>M11*1.35</f>
-        <v>233.93340000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
         <v>8</v>
       </c>
@@ -5181,11 +5341,10 @@
         <v>348</v>
       </c>
       <c r="Q12" s="35">
-        <f>M12*2.2</f>
-        <v>407.50820000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
@@ -5250,109 +5409,109 @@
         <v>170</v>
       </c>
       <c r="Q13" s="35">
-        <f>M13*1.2</f>
-        <v>181.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <f>159+16+1</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="42">
-        <f t="shared" ref="B14:D14" si="4">SUM(B11:B13)</f>
+        <f t="shared" ref="B14:D14" si="5">SUM(B11:B13)</f>
         <v>188</v>
       </c>
       <c r="C14" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="D14" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>234</v>
       </c>
       <c r="E14" s="41">
-        <f t="shared" ref="E14:G14" si="5">SUM(E11:E13)</f>
+        <f t="shared" ref="E14:G14" si="6">SUM(E11:E13)</f>
         <v>253</v>
       </c>
       <c r="F14" s="42">
-        <f t="shared" ref="F14" si="6">SUM(F11:F13)</f>
+        <f t="shared" ref="F14" si="7">SUM(F11:F13)</f>
         <v>276</v>
       </c>
       <c r="G14" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>318</v>
       </c>
       <c r="H14" s="41">
-        <f t="shared" ref="H14:L14" si="7">SUM(H11:H13)</f>
+        <f t="shared" ref="H14:L14" si="8">SUM(H11:H13)</f>
         <v>363</v>
       </c>
       <c r="I14" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>382</v>
       </c>
       <c r="J14" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="K14" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>466</v>
       </c>
       <c r="L14" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468</v>
       </c>
       <c r="M14" s="41">
-        <f t="shared" ref="M14:N14" si="8">SUM(M11:M13)</f>
+        <f t="shared" ref="M14:N14" si="9">SUM(M11:M13)</f>
         <v>509.51499999999999</v>
       </c>
       <c r="N14" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>629</v>
       </c>
       <c r="O14" s="41">
-        <f t="shared" ref="O14:P14" si="9">SUM(O11:O13)</f>
+        <f t="shared" ref="O14:P14" si="10">SUM(O11:O13)</f>
         <v>620</v>
       </c>
       <c r="P14" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>745</v>
       </c>
       <c r="Q14" s="41">
-        <f t="shared" ref="Q14" si="10">SUM(Q11:Q13)</f>
-        <v>822.64160000000015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="Q14" si="11">SUM(Q11:Q13)</f>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="42">
-        <f t="shared" ref="B15:H15" si="11">B10-B14</f>
+        <f t="shared" ref="B15:H15" si="12">B10-B14</f>
         <v>-15</v>
       </c>
       <c r="C15" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
       <c r="D15" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-16</v>
       </c>
       <c r="E15" s="41">
-        <f t="shared" ref="E15" si="12">E10-E14</f>
+        <f t="shared" ref="E15" si="13">E10-E14</f>
         <v>-13</v>
       </c>
       <c r="F15" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-21</v>
       </c>
       <c r="G15" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="H15" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="I15" s="41">
@@ -5360,39 +5519,39 @@
         <v>-2</v>
       </c>
       <c r="J15" s="42">
-        <f t="shared" ref="J15" si="13">J10-J14</f>
+        <f t="shared" ref="J15" si="14">J10-J14</f>
         <v>-23</v>
       </c>
       <c r="K15" s="41">
-        <f t="shared" ref="K15:L15" si="14">K10-K14</f>
+        <f t="shared" ref="K15:L15" si="15">K10-K14</f>
         <v>0</v>
       </c>
       <c r="L15" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="M15" s="41">
-        <f t="shared" ref="M15:N15" si="15">M10-M14</f>
+        <f t="shared" ref="M15:N15" si="16">M10-M14</f>
         <v>17.83400000000006</v>
       </c>
       <c r="N15" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-90.891000000000076</v>
       </c>
       <c r="O15" s="41">
-        <f t="shared" ref="O15:P15" si="16">O10-O14</f>
+        <f t="shared" ref="O15:P15" si="17">O10-O14</f>
         <v>-23.23700000000008</v>
       </c>
       <c r="P15" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>49.454999999999927</v>
       </c>
       <c r="Q15" s="41">
-        <f t="shared" ref="Q15" si="17">Q10-Q14</f>
-        <v>-8.5268446195235583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="Q15" si="18">Q10-Q14</f>
+        <v>45.690000000000055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35" t="s">
         <v>12</v>
       </c>
@@ -5453,6 +5612,10 @@
         <f>-15+1</f>
         <v>-14</v>
       </c>
+      <c r="Q16" s="35">
+        <f>-18+271</f>
+        <v>253</v>
+      </c>
     </row>
     <row r="17" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35" t="s">
@@ -5463,27 +5626,27 @@
         <v>-16</v>
       </c>
       <c r="C17" s="41">
-        <f t="shared" ref="C17" si="18">C15+C16</f>
+        <f t="shared" ref="C17" si="19">C15+C16</f>
         <v>-15</v>
       </c>
       <c r="D17" s="41">
-        <f t="shared" ref="D17:E17" si="19">D15+D16</f>
+        <f t="shared" ref="D17:E17" si="20">D15+D16</f>
         <v>-18</v>
       </c>
       <c r="E17" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="F17" s="42">
-        <f t="shared" ref="F17" si="20">F15+F16</f>
+        <f t="shared" ref="F17" si="21">F15+F16</f>
         <v>-24</v>
       </c>
       <c r="G17" s="41">
-        <f t="shared" ref="G17:H17" si="21">G15+G16</f>
+        <f t="shared" ref="G17:H17" si="22">G15+G16</f>
         <v>-5</v>
       </c>
       <c r="H17" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="I17" s="41">
@@ -5491,32 +5654,36 @@
         <v>-26</v>
       </c>
       <c r="J17" s="42">
-        <f t="shared" ref="J17" si="22">J15+J16</f>
+        <f t="shared" ref="J17" si="23">J15+J16</f>
         <v>-39</v>
       </c>
       <c r="K17" s="41">
-        <f t="shared" ref="K17:P17" si="23">K15+K16</f>
+        <f t="shared" ref="K17:Q17" si="24">K15+K16</f>
         <v>-7</v>
       </c>
       <c r="L17" s="41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="M17" s="41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>389.83400000000006</v>
       </c>
       <c r="N17" s="42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-105.89100000000008</v>
       </c>
       <c r="O17" s="41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-12.23700000000008</v>
       </c>
       <c r="P17" s="41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35.454999999999927</v>
+      </c>
+      <c r="Q17" s="41">
+        <f t="shared" si="24"/>
+        <v>298.69000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
@@ -5568,70 +5735,77 @@
       <c r="P18" s="35">
         <v>-1</v>
       </c>
+      <c r="Q18" s="35">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="40">
-        <f t="shared" ref="B19:F19" si="24">B17-B18</f>
+        <f t="shared" ref="B19:F19" si="25">B17-B18</f>
         <v>-16</v>
       </c>
       <c r="C19" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-15</v>
       </c>
       <c r="D19" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-17</v>
       </c>
       <c r="E19" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-15</v>
       </c>
       <c r="F19" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-24</v>
       </c>
       <c r="G19" s="39">
-        <f t="shared" ref="G19:H19" si="25">G17-G18</f>
+        <f t="shared" ref="G19:H19" si="26">G17-G18</f>
         <v>-6</v>
       </c>
       <c r="H19" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="I19" s="39">
-        <f t="shared" ref="I19:J19" si="26">I17-I18</f>
+        <f t="shared" ref="I19:J19" si="27">I17-I18</f>
         <v>-26</v>
       </c>
       <c r="J19" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-39</v>
       </c>
       <c r="K19" s="39">
-        <f t="shared" ref="K19:L19" si="27">K17-K18</f>
+        <f t="shared" ref="K19:L19" si="28">K17-K18</f>
         <v>-7</v>
       </c>
       <c r="L19" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29</v>
       </c>
       <c r="M19" s="39">
-        <f t="shared" ref="M19:N19" si="28">M17-M18</f>
+        <f t="shared" ref="M19:N19" si="29">M17-M18</f>
         <v>388.83400000000006</v>
       </c>
       <c r="N19" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-106.89100000000008</v>
       </c>
       <c r="O19" s="39">
-        <f t="shared" ref="O19:P19" si="29">O17-O18</f>
+        <f t="shared" ref="O19:P19" si="30">O17-O18</f>
         <v>-11.23700000000008</v>
       </c>
       <c r="P19" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>36.454999999999927</v>
+      </c>
+      <c r="Q19" s="39">
+        <f t="shared" ref="Q19" si="31">Q17-Q18</f>
+        <v>294.69000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -5639,64 +5813,68 @@
         <v>16</v>
       </c>
       <c r="B20" s="44">
-        <f t="shared" ref="B20:C20" si="30">IFERROR(B19/B21,0)</f>
+        <f t="shared" ref="B20:C20" si="32">IFERROR(B19/B21,0)</f>
         <v>-4.3596730245231606E-2</v>
       </c>
       <c r="C20" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-3.9893617021276598E-2</v>
       </c>
       <c r="D20" s="43">
-        <f t="shared" ref="D20:E20" si="31">IFERROR(D19/D21,0)</f>
+        <f t="shared" ref="D20:E20" si="33">IFERROR(D19/D21,0)</f>
         <v>-4.4270833333333336E-2</v>
       </c>
       <c r="E20" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-3.8461538461538464E-2</v>
       </c>
       <c r="F20" s="44">
-        <f t="shared" ref="F20" si="32">IFERROR(F19/F21,0)</f>
+        <f t="shared" ref="F20" si="34">IFERROR(F19/F21,0)</f>
         <v>-6.0606060606060608E-2</v>
       </c>
       <c r="G20" s="43">
-        <f t="shared" ref="G20:H20" si="33">IFERROR(G19/G21,0)</f>
+        <f t="shared" ref="G20:H20" si="35">IFERROR(G19/G21,0)</f>
         <v>-1.488833746898263E-2</v>
       </c>
       <c r="H20" s="43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.2105263157894736E-2</v>
       </c>
       <c r="I20" s="43">
-        <f t="shared" ref="I20:J20" si="34">IFERROR(I19/I21,0)</f>
+        <f t="shared" ref="I20:J20" si="36">IFERROR(I19/I21,0)</f>
         <v>-6.280193236714976E-2</v>
       </c>
       <c r="J20" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-9.3078758949880672E-2</v>
       </c>
       <c r="K20" s="43">
-        <f t="shared" ref="K20:L20" si="35">IFERROR(K19/K21,0)</f>
+        <f t="shared" ref="K20:L20" si="37">IFERROR(K19/K21,0)</f>
         <v>-1.6548463356973995E-2</v>
       </c>
       <c r="L20" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6.2231759656652362E-2</v>
       </c>
       <c r="M20" s="43">
-        <f t="shared" ref="M20:N20" si="36">IFERROR(M19/M21,0)</f>
+        <f t="shared" ref="M20:N20" si="38">IFERROR(M19/M21,0)</f>
         <v>0.80106882244115096</v>
       </c>
       <c r="N20" s="44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.24576033475881748</v>
       </c>
       <c r="O20" s="43">
-        <f t="shared" ref="O20:P20" si="37">IFERROR(O19/O21,0)</f>
+        <f t="shared" ref="O20:P20" si="39">IFERROR(O19/O21,0)</f>
         <v>-2.5531847213354813E-2</v>
       </c>
       <c r="P20" s="43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>7.4692307849914513E-2</v>
+      </c>
+      <c r="Q20" s="43">
+        <f t="shared" ref="Q20" si="40">IFERROR(Q19/Q21,0)</f>
+        <v>0.58675485876189937</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -5747,6 +5925,9 @@
       </c>
       <c r="P21" s="36">
         <v>488.06900000000002</v>
+      </c>
+      <c r="Q21" s="74">
+        <v>502.23700000000002</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -5768,64 +5949,68 @@
         <v>19</v>
       </c>
       <c r="B23" s="46">
-        <f t="shared" ref="B23:J23" si="38">IFERROR(B10/B8,0)</f>
+        <f t="shared" ref="B23:J23" si="41">IFERROR(B10/B8,0)</f>
         <v>0.37527114967462039</v>
       </c>
       <c r="C23" s="45">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.37568058076225047</v>
       </c>
       <c r="D23" s="45">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.37264957264957266</v>
       </c>
       <c r="E23" s="45">
-        <f t="shared" ref="E23" si="39">IFERROR(E10/E8,0)</f>
+        <f t="shared" ref="E23" si="42">IFERROR(E10/E8,0)</f>
         <v>0.38961038961038963</v>
       </c>
       <c r="F23" s="46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.38173652694610777</v>
       </c>
       <c r="G23" s="45">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.38697788697788699</v>
       </c>
       <c r="H23" s="45">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.40022675736961449</v>
       </c>
       <c r="I23" s="47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.40772532188841204</v>
       </c>
       <c r="J23" s="46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.41354166666666664</v>
       </c>
       <c r="K23" s="45">
-        <f t="shared" ref="K23:L23" si="40">IFERROR(K10/K8,0)</f>
+        <f t="shared" ref="K23:L23" si="43">IFERROR(K10/K8,0)</f>
         <v>0.39693356047700168</v>
       </c>
       <c r="L23" s="45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.39542225730071034</v>
       </c>
       <c r="M23" s="45">
-        <f t="shared" ref="M23:N23" si="41">IFERROR(M10/M8,0)</f>
+        <f t="shared" ref="M23:N23" si="44">IFERROR(M10/M8,0)</f>
         <v>0.40141383801377606</v>
       </c>
       <c r="N23" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.38962094954127441</v>
       </c>
       <c r="O23" s="45">
-        <f t="shared" ref="O23:P23" si="42">IFERROR(O10/O8,0)</f>
+        <f t="shared" ref="O23:P23" si="45">IFERROR(O10/O8,0)</f>
         <v>0.31022834492169726</v>
       </c>
       <c r="P23" s="45">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.26186156709210734</v>
+      </c>
+      <c r="Q23" s="45">
+        <f t="shared" ref="Q23" si="46">IFERROR(Q10/Q8,0)</f>
+        <v>0.2544152049560458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -5833,64 +6018,68 @@
         <v>20</v>
       </c>
       <c r="B24" s="49">
-        <f t="shared" ref="B24:J24" si="43">IFERROR(B15/B8,0)</f>
+        <f t="shared" ref="B24:J24" si="47">IFERROR(B15/B8,0)</f>
         <v>-3.2537960954446853E-2</v>
       </c>
       <c r="C24" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-2.1778584392014518E-2</v>
       </c>
       <c r="D24" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-2.735042735042735E-2</v>
       </c>
       <c r="E24" s="48">
-        <f t="shared" ref="E24" si="44">IFERROR(E15/E8,0)</f>
+        <f t="shared" ref="E24" si="48">IFERROR(E15/E8,0)</f>
         <v>-2.1103896103896104E-2</v>
       </c>
       <c r="F24" s="49">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-3.1437125748502992E-2</v>
       </c>
       <c r="G24" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-3.6855036855036856E-3</v>
       </c>
       <c r="H24" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-1.1337868480725623E-2</v>
       </c>
       <c r="I24" s="50">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-2.1459227467811159E-3</v>
       </c>
       <c r="J24" s="49">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-2.3958333333333335E-2</v>
       </c>
       <c r="K24" s="48">
-        <f t="shared" ref="K24:L24" si="45">IFERROR(K15/K8,0)</f>
+        <f t="shared" ref="K24:L24" si="49">IFERROR(K15/K8,0)</f>
         <v>0</v>
       </c>
       <c r="L24" s="48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.6045777426992895E-2</v>
       </c>
       <c r="M24" s="48">
-        <f t="shared" ref="M24:N24" si="46">IFERROR(M15/M8,0)</f>
+        <f t="shared" ref="M24:N24" si="50">IFERROR(M15/M8,0)</f>
         <v>1.3575098060558958E-2</v>
       </c>
       <c r="N24" s="49">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-6.5810156910135323E-2</v>
       </c>
       <c r="O24" s="48">
-        <f t="shared" ref="O24:P24" si="47">IFERROR(O15/O8,0)</f>
+        <f t="shared" ref="O24:P24" si="51">IFERROR(O15/O8,0)</f>
         <v>-1.2079797257781574E-2</v>
       </c>
       <c r="P24" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1.6300940645524477E-2</v>
+      </c>
+      <c r="Q24" s="48">
+        <f t="shared" ref="Q24" si="52">IFERROR(Q15/Q8,0)</f>
+        <v>1.4463575152660535E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -5898,82 +6087,89 @@
         <v>21</v>
       </c>
       <c r="B25" s="49">
-        <f t="shared" ref="B25:J25" si="48">IFERROR(B18/B17,0)</f>
+        <f t="shared" ref="B25:J25" si="53">IFERROR(B18/B17,0)</f>
         <v>0</v>
       </c>
       <c r="C25" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D25" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E25" s="48">
-        <f t="shared" ref="E25" si="49">IFERROR(E18/E17,0)</f>
+        <f t="shared" ref="E25" si="54">IFERROR(E18/E17,0)</f>
         <v>0</v>
       </c>
       <c r="F25" s="49">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G25" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-0.2</v>
       </c>
       <c r="H25" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="I25" s="50">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J25" s="49">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K25" s="48">
-        <f t="shared" ref="K25:L25" si="50">IFERROR(K18/K17,0)</f>
+        <f t="shared" ref="K25:L25" si="55">IFERROR(K18/K17,0)</f>
         <v>0</v>
       </c>
       <c r="L25" s="48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>9.375E-2</v>
       </c>
       <c r="M25" s="48">
-        <f t="shared" ref="M25:N25" si="51">IFERROR(M18/M17,0)</f>
+        <f t="shared" ref="M25:N25" si="56">IFERROR(M18/M17,0)</f>
         <v>2.5651944160847945E-3</v>
       </c>
       <c r="N25" s="49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-9.4436732111321947E-3</v>
       </c>
       <c r="O25" s="48">
-        <f t="shared" ref="O25:P25" si="52">IFERROR(O18/O17,0)</f>
+        <f t="shared" ref="O25:P25" si="57">IFERROR(O18/O17,0)</f>
         <v>8.171937566396939E-2</v>
       </c>
       <c r="P25" s="48">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-2.8204766605556396E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
+      <c r="Q25" s="48">
+        <f t="shared" ref="Q25" si="58">IFERROR(Q18/Q17,0)</f>
+        <v>1.3391810907629982E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="51" t="s">
@@ -5984,35 +6180,35 @@
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="53">
-        <f t="shared" ref="F27:I27" si="53">IFERROR((F8/B8)-1,0)</f>
+        <f t="shared" ref="F27:I27" si="59">IFERROR((F8/B8)-1,0)</f>
         <v>0.44902386117136661</v>
       </c>
       <c r="G27" s="52">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.47731397459165148</v>
       </c>
       <c r="H27" s="52">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.50769230769230766</v>
       </c>
       <c r="I27" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.51298701298701288</v>
       </c>
       <c r="J27" s="53">
-        <f t="shared" ref="J27:P27" si="54">IFERROR((J8/F8)-1,0)</f>
+        <f t="shared" ref="J27:Q27" si="60">IFERROR((J8/F8)-1,0)</f>
         <v>0.43712574850299402</v>
       </c>
       <c r="K27" s="52">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.44226044226044237</v>
       </c>
       <c r="L27" s="52">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.43650793650793651</v>
       </c>
       <c r="M27" s="52">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.4095804721030043</v>
       </c>
       <c r="N27" s="53">
@@ -6020,16 +6216,16 @@
         <v>0.43865520833333327</v>
       </c>
       <c r="O27" s="52">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.63852214650766603</v>
       </c>
       <c r="P27" s="52">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1.3945335438042621</v>
       </c>
       <c r="Q27" s="52">
-        <f>IFERROR((Q8/M8)-1,0)</f>
-        <v>1.3665085437335107</v>
+        <f t="shared" si="60"/>
+        <v>1.4045826802940335</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -6041,52 +6237,52 @@
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="56">
-        <f t="shared" ref="F28:I30" si="55">F11/B11-1</f>
+        <f t="shared" ref="F28:I30" si="61">F11/B11-1</f>
         <v>0.52173913043478271</v>
       </c>
       <c r="G28" s="55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.47435897435897445</v>
       </c>
       <c r="H28" s="55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.63855421686746983</v>
       </c>
       <c r="I28" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.5268817204301075</v>
       </c>
       <c r="J28" s="56">
-        <f t="shared" ref="J28:Q30" si="56">J11/F11-1</f>
+        <f t="shared" ref="J28:Q30" si="62">J11/F11-1</f>
         <v>0.46666666666666656</v>
       </c>
       <c r="K28" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.51304347826086949</v>
       </c>
       <c r="L28" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.24264705882352944</v>
       </c>
       <c r="M28" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.22030985915492951</v>
       </c>
       <c r="N28" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.26623376623376616</v>
       </c>
       <c r="O28" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.18965517241379315</v>
       </c>
       <c r="P28" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.34319526627218933</v>
       </c>
       <c r="Q28" s="55">
-        <f t="shared" si="56"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="62"/>
+        <v>0.46003093188061217</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -6098,52 +6294,52 @@
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.54</v>
       </c>
       <c r="G29" s="55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="H29" s="55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.73134328358208944</v>
       </c>
       <c r="I29" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="J29" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.74025974025974017</v>
       </c>
       <c r="K29" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.59183673469387754</v>
       </c>
       <c r="L29" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.28448275862068972</v>
       </c>
       <c r="M29" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.55656302521008394</v>
       </c>
       <c r="N29" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.45522388059701502</v>
       </c>
       <c r="O29" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.52564102564102555</v>
       </c>
       <c r="P29" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1.3355704697986579</v>
       </c>
       <c r="Q29" s="55">
-        <f t="shared" si="56"/>
-        <v>1.2000000000000002</v>
+        <f t="shared" si="62"/>
+        <v>0.77616057787303427</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -6155,52 +6351,52 @@
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.3623188405797102</v>
       </c>
       <c r="G30" s="55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="H30" s="55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.3214285714285714</v>
       </c>
       <c r="I30" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.45783132530120474</v>
       </c>
       <c r="J30" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.4042553191489362</v>
       </c>
       <c r="K30" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.2952380952380953</v>
       </c>
       <c r="L30" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.35135135135135132</v>
       </c>
       <c r="M30" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.24793388429752072</v>
       </c>
       <c r="N30" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.81060606060606055</v>
       </c>
       <c r="O30" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.28676470588235303</v>
       </c>
       <c r="P30" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.1333333333333333</v>
       </c>
       <c r="Q30" s="55">
-        <f t="shared" si="56"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="62"/>
+        <v>0.16556291390728473</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -6212,52 +6408,52 @@
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="56">
-        <f>F14/B14-1</f>
+        <f t="shared" ref="F31:Q31" si="63">F14/B14-1</f>
         <v>0.46808510638297873</v>
       </c>
       <c r="G31" s="55">
-        <f>G14/C14-1</f>
+        <f t="shared" si="63"/>
         <v>0.45205479452054798</v>
       </c>
       <c r="H31" s="55">
-        <f>H14/D14-1</f>
+        <f t="shared" si="63"/>
         <v>0.55128205128205132</v>
       </c>
       <c r="I31" s="55">
-        <f>I14/E14-1</f>
+        <f t="shared" si="63"/>
         <v>0.50988142292490113</v>
       </c>
       <c r="J31" s="56">
-        <f>J14/F14-1</f>
+        <f t="shared" si="63"/>
         <v>0.52173913043478271</v>
       </c>
       <c r="K31" s="55">
-        <f>K14/G14-1</f>
+        <f t="shared" si="63"/>
         <v>0.46540880503144644</v>
       </c>
       <c r="L31" s="55">
-        <f>L14/H14-1</f>
+        <f t="shared" si="63"/>
         <v>0.28925619834710736</v>
       </c>
       <c r="M31" s="55">
-        <f>M14/I14-1</f>
+        <f t="shared" si="63"/>
         <v>0.33380890052356027</v>
       </c>
       <c r="N31" s="56">
-        <f>N14/J14-1</f>
+        <f t="shared" si="63"/>
         <v>0.49761904761904763</v>
       </c>
       <c r="O31" s="55">
-        <f>O14/K14-1</f>
+        <f t="shared" si="63"/>
         <v>0.33047210300429186</v>
       </c>
       <c r="P31" s="55">
-        <f>P14/L14-1</f>
+        <f t="shared" si="63"/>
         <v>0.59188034188034178</v>
       </c>
       <c r="Q31" s="55">
-        <f>Q14/M14-1</f>
-        <v>0.61455815824853088</v>
+        <f t="shared" si="63"/>
+        <v>0.4876892731322926</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -6273,59 +6469,65 @@
       <c r="N32" s="27"/>
       <c r="P32" s="58"/>
     </row>
-    <row r="33" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51" t="s">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="39">
-        <f t="shared" ref="I33:N33" si="57">I34-I35</f>
+        <f t="shared" ref="I33:N33" si="64">I34-I35</f>
         <v>689</v>
       </c>
       <c r="J33" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>661</v>
       </c>
       <c r="K33" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>731</v>
       </c>
       <c r="L33" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>806</v>
       </c>
       <c r="M33" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1137</v>
       </c>
       <c r="N33" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1252</v>
       </c>
       <c r="O33" s="39">
-        <f t="shared" ref="O33:P33" si="58">O34-O35</f>
+        <f t="shared" ref="O33:Q33" si="65">O34-O35</f>
         <v>1356</v>
       </c>
       <c r="P33" s="39">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1521</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="32" t="s">
+      <c r="Q33" s="39">
+        <f t="shared" si="65"/>
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="36">
         <f>583+541+465</f>
         <v>1589</v>
@@ -6358,16 +6560,22 @@
         <f>2119+762+399</f>
         <v>3280</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="32" t="s">
+      <c r="Q34" s="35">
+        <f>3158+695+464</f>
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="36">
         <v>900</v>
       </c>
@@ -6392,13 +6600,18 @@
       <c r="P35" s="36">
         <v>1759</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q35" s="35">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="28"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="28"/>
       <c r="K36" s="36"/>
@@ -6407,15 +6620,17 @@
       <c r="N36" s="28"/>
       <c r="P36" s="36"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="36">
         <f>262+77</f>
         <v>339</v>
@@ -6440,7 +6655,7 @@
         <f>289+82</f>
         <v>371</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="35">
         <f>296+100</f>
         <v>396</v>
       </c>
@@ -6448,16 +6663,22 @@
         <f>301+108</f>
         <v>409</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="32" t="s">
+      <c r="Q37" s="35">
+        <f>317+138</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="36">
         <v>3281</v>
       </c>
@@ -6482,16 +6703,21 @@
       <c r="P38" s="36">
         <v>8114</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="32" t="s">
+      <c r="Q38" s="35">
+        <v>9870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="36">
         <v>2161</v>
       </c>
@@ -6516,13 +6742,18 @@
       <c r="P39" s="36">
         <v>6051</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q39" s="35">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="28"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="28"/>
       <c r="K40" s="36"/>
@@ -6531,96 +6762,110 @@
       <c r="N40" s="28"/>
       <c r="P40" s="36"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="35" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="41">
-        <f t="shared" ref="I41:N41" si="59">I38-I37-I34</f>
+        <f t="shared" ref="I41:N41" si="66">I38-I37-I34</f>
         <v>1353</v>
       </c>
       <c r="J41" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>2486</v>
       </c>
       <c r="K41" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>2650</v>
       </c>
       <c r="L41" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1927</v>
       </c>
       <c r="M41" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>2140</v>
       </c>
       <c r="N41" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>2620</v>
       </c>
       <c r="O41" s="41">
-        <f t="shared" ref="O41:P41" si="60">O38-O37-O34</f>
+        <f t="shared" ref="O41:P41" si="67">O38-O37-O34</f>
         <v>4282</v>
       </c>
       <c r="P41" s="41">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4425</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="32" t="s">
+      <c r="Q41" s="41">
+        <f t="shared" ref="Q41" si="68">Q38-Q37-Q34</f>
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="41">
-        <f t="shared" ref="I42:N42" si="61">I38-I39</f>
+        <f t="shared" ref="I42:N42" si="69">I38-I39</f>
         <v>1120</v>
       </c>
       <c r="J42" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1122</v>
       </c>
       <c r="K42" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1184</v>
       </c>
       <c r="L42" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1250</v>
       </c>
       <c r="M42" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1715</v>
       </c>
       <c r="N42" s="42">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1808</v>
       </c>
       <c r="O42" s="41">
-        <f t="shared" ref="O42:P42" si="62">O38-O39</f>
+        <f t="shared" ref="O42:P42" si="70">O38-O39</f>
         <v>1926</v>
       </c>
       <c r="P42" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>2063</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q42" s="41">
+        <f t="shared" ref="Q42" si="71">Q38-Q39</f>
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="28"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="28"/>
       <c r="K43" s="36"/>
@@ -6628,52 +6873,57 @@
       <c r="M43" s="36"/>
       <c r="N43" s="28"/>
       <c r="P43" s="36"/>
-    </row>
-    <row r="44" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="38" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="39">
-        <f t="shared" ref="I44:O44" si="63">SUM(F19:I19)</f>
+        <f t="shared" ref="I44:O44" si="72">SUM(F19:I19)</f>
         <v>-36</v>
       </c>
       <c r="J44" s="40">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>-51</v>
       </c>
       <c r="K44" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>-52</v>
       </c>
       <c r="L44" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>-43</v>
       </c>
       <c r="M44" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>371.83400000000006</v>
       </c>
       <c r="N44" s="40">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>303.94299999999998</v>
       </c>
       <c r="O44" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>299.7059999999999</v>
       </c>
       <c r="P44" s="39">
         <f>SUM(M19:P19)</f>
         <v>307.16099999999983</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q44" s="39">
+        <f>SUM(N19:Q19)</f>
+        <v>213.01699999999983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="62" t="s">
         <v>59</v>
       </c>
@@ -6685,39 +6935,43 @@
       <c r="G45" s="58"/>
       <c r="H45" s="58"/>
       <c r="I45" s="45">
-        <f t="shared" ref="I45:N45" si="64">I44/I42</f>
+        <f t="shared" ref="I45:N45" si="73">I44/I42</f>
         <v>-3.214285714285714E-2</v>
       </c>
       <c r="J45" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>-4.5454545454545456E-2</v>
       </c>
       <c r="K45" s="45">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>-4.3918918918918921E-2</v>
       </c>
       <c r="L45" s="45">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>-3.44E-2</v>
       </c>
       <c r="M45" s="45">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.21681282798833823</v>
       </c>
       <c r="N45" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.16811006637168141</v>
       </c>
       <c r="O45" s="45">
-        <f t="shared" ref="O45:P45" si="65">O44/O42</f>
+        <f t="shared" ref="O45:P45" si="74">O44/O42</f>
         <v>0.15561059190031148</v>
       </c>
       <c r="P45" s="45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>0.14889045079980603</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q45" s="45">
+        <f t="shared" ref="Q45" si="75">Q44/Q42</f>
+        <v>7.942468307233401E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="62" t="s">
         <v>60</v>
       </c>
@@ -6729,39 +6983,43 @@
       <c r="G46" s="58"/>
       <c r="H46" s="58"/>
       <c r="I46" s="45">
-        <f t="shared" ref="I46:N46" si="66">I44/I38</f>
+        <f t="shared" ref="I46:N46" si="76">I44/I38</f>
         <v>-1.0972264553489789E-2</v>
       </c>
       <c r="J46" s="46">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>-1.1583011583011582E-2</v>
       </c>
       <c r="K46" s="45">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>-1.11731843575419E-2</v>
       </c>
       <c r="L46" s="45">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>-1.0747313171707074E-2</v>
       </c>
       <c r="M46" s="45">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>8.1703801362337958E-2</v>
       </c>
       <c r="N46" s="46">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>5.0623417721518987E-2</v>
       </c>
       <c r="O46" s="45">
-        <f t="shared" ref="O46:P46" si="67">O44/O38</f>
+        <f t="shared" ref="O46:P46" si="77">O44/O38</f>
         <v>3.8364823348694302E-2</v>
       </c>
       <c r="P46" s="45">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>3.7855681538082303E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q46" s="45">
+        <f t="shared" ref="Q46" si="78">Q44/Q38</f>
+        <v>2.1582269503546081E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="62" t="s">
         <v>61</v>
       </c>
@@ -6773,39 +7031,43 @@
       <c r="G47" s="58"/>
       <c r="H47" s="58"/>
       <c r="I47" s="45">
-        <f t="shared" ref="I47:N47" si="68">I44/(I42-I37)</f>
+        <f t="shared" ref="I47:N47" si="79">I44/(I42-I37)</f>
         <v>-4.6094750320102434E-2</v>
       </c>
       <c r="J47" s="46">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>-6.580645161290323E-2</v>
       </c>
       <c r="K47" s="45">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>-6.2650602409638559E-2</v>
       </c>
       <c r="L47" s="45">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>-4.7200878155872671E-2</v>
       </c>
       <c r="M47" s="45">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.26944492753623195</v>
       </c>
       <c r="N47" s="46">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.21151217814892134</v>
       </c>
       <c r="O47" s="45">
-        <f t="shared" ref="O47:P47" si="69">O44/(O42-O37)</f>
+        <f t="shared" ref="O47:P47" si="80">O44/(O42-O37)</f>
         <v>0.19588627450980386</v>
       </c>
       <c r="P47" s="45">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.1857079806529624</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q47" s="45">
+        <f t="shared" ref="Q47" si="81">Q44/(Q42-Q37)</f>
+        <v>9.5651998203861624E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="62" t="s">
         <v>62</v>
       </c>
@@ -6817,36 +7079,40 @@
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
       <c r="I48" s="45">
-        <f t="shared" ref="I48:N48" si="70">I44/I41</f>
+        <f t="shared" ref="I48:N48" si="82">I44/I41</f>
         <v>-2.6607538802660754E-2</v>
       </c>
       <c r="J48" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-2.0514883346741754E-2</v>
       </c>
       <c r="K48" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-1.9622641509433963E-2</v>
       </c>
       <c r="L48" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-2.2314478463933574E-2</v>
       </c>
       <c r="M48" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.17375420560747667</v>
       </c>
       <c r="N48" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.1160087786259542</v>
       </c>
       <c r="O48" s="45">
-        <f t="shared" ref="O48:P48" si="71">O44/O41</f>
+        <f t="shared" ref="O48:P48" si="83">O44/O41</f>
         <v>6.9992059785147109E-2</v>
       </c>
       <c r="P48" s="45">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>6.941491525423725E-2</v>
+      </c>
+      <c r="Q48" s="45">
+        <f t="shared" ref="Q48" si="84">Q44/Q41</f>
+        <v>4.1784425264809695E-2</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
@@ -6864,6 +7130,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="35" t="s">
@@ -6873,50 +7140,53 @@
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="F50" s="46">
-        <f>F3/B3-1</f>
+        <f t="shared" ref="F50:Q52" si="85">F3/B3-1</f>
         <v>0.29776674937965253</v>
       </c>
       <c r="G50" s="45">
-        <f>G3/C3-1</f>
+        <f t="shared" si="85"/>
         <v>0.29668049792531126</v>
       </c>
       <c r="H50" s="45">
-        <f>H3/D3-1</f>
+        <f t="shared" si="85"/>
         <v>0.28431372549019618</v>
       </c>
       <c r="I50" s="45">
-        <f>I3/E3-1</f>
+        <f t="shared" si="85"/>
         <v>0.27238095238095239</v>
       </c>
       <c r="J50" s="46">
-        <f>J3/F3-1</f>
+        <f t="shared" si="85"/>
         <v>0.25621414913957929</v>
       </c>
       <c r="K50" s="45">
-        <f>K3/G3-1</f>
+        <f t="shared" si="85"/>
         <v>0.24160000000000004</v>
       </c>
       <c r="L50" s="45">
-        <f>L3/H3-1</f>
+        <f t="shared" si="85"/>
         <v>0.24732824427480926</v>
       </c>
       <c r="M50" s="45">
-        <f>M3/I3-1</f>
+        <f t="shared" si="85"/>
         <v>0.24577844311377239</v>
       </c>
       <c r="N50" s="46">
-        <f>N3/J3-1</f>
+        <f t="shared" si="85"/>
         <v>0.15388280060882797</v>
       </c>
       <c r="O50" s="45">
-        <f>O3/K3-1</f>
+        <f t="shared" si="85"/>
         <v>-0.12039690721649488</v>
       </c>
       <c r="P50" s="45">
-        <f>P3/L3-1</f>
+        <f t="shared" si="85"/>
         <v>0.13255079559363514</v>
       </c>
-      <c r="Q50" s="45"/>
+      <c r="Q50" s="45">
+        <f t="shared" si="85"/>
+        <v>0.11635823980388871</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="35" t="s">
@@ -6926,50 +7196,53 @@
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
       <c r="F51" s="46">
-        <f>F4/B4-1</f>
+        <f t="shared" si="85"/>
         <v>0.97959183673469385</v>
       </c>
       <c r="G51" s="45">
-        <f>G4/C4-1</f>
+        <f t="shared" si="85"/>
         <v>1.2711864406779663</v>
       </c>
       <c r="H51" s="45">
-        <f>H4/D4-1</f>
+        <f t="shared" si="85"/>
         <v>1.5538461538461537</v>
       </c>
       <c r="I51" s="45">
-        <f>I4/E4-1</f>
+        <f t="shared" si="85"/>
         <v>1.4556962025316458</v>
       </c>
       <c r="J51" s="46">
-        <f>J4/F4-1</f>
+        <f t="shared" si="85"/>
         <v>1.2577319587628866</v>
       </c>
       <c r="K51" s="45">
-        <f>K4/G4-1</f>
+        <f t="shared" si="85"/>
         <v>0.87313432835820892</v>
       </c>
       <c r="L51" s="45">
-        <f>L4/H4-1</f>
+        <f t="shared" si="85"/>
         <v>0.68674698795180733</v>
       </c>
       <c r="M51" s="45">
-        <f>M4/I4-1</f>
+        <f t="shared" si="85"/>
         <v>0.45059278350515464</v>
       </c>
       <c r="N51" s="46">
-        <f>N4/J4-1</f>
+        <f t="shared" si="85"/>
         <v>0.35267123287671232</v>
       </c>
       <c r="O51" s="45">
-        <f>O4/K4-1</f>
+        <f t="shared" si="85"/>
         <v>0.37958167330677273</v>
       </c>
       <c r="P51" s="45">
-        <f>P4/L4-1</f>
+        <f t="shared" si="85"/>
         <v>0.59829285714285718</v>
       </c>
-      <c r="Q51" s="45"/>
+      <c r="Q51" s="45">
+        <f t="shared" si="85"/>
+        <v>0.5968267505285787</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="35" t="s">
@@ -6980,50 +7253,53 @@
       <c r="D52" s="36"/>
       <c r="E52" s="45"/>
       <c r="F52" s="46">
-        <f>F5/B5-1</f>
+        <f t="shared" si="85"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="G52" s="45">
-        <f>G5/C5-1</f>
+        <f t="shared" si="85"/>
         <v>0.8</v>
       </c>
       <c r="H52" s="45">
-        <f>H5/D5-1</f>
+        <f t="shared" si="85"/>
         <v>0.8</v>
       </c>
       <c r="I52" s="45">
-        <f>I5/E5-1</f>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="J52" s="46">
-        <f>J5/F5-1</f>
+        <f t="shared" si="85"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="K52" s="45">
-        <f>K5/G5-1</f>
+        <f t="shared" si="85"/>
         <v>0.22222222222222232</v>
       </c>
       <c r="L52" s="45">
-        <f>L5/H5-1</f>
+        <f t="shared" si="85"/>
         <v>0.22222222222222232</v>
       </c>
       <c r="M52" s="45">
-        <f>M5/I5-1</f>
+        <f t="shared" si="85"/>
         <v>0.25372222222222218</v>
       </c>
       <c r="N52" s="46">
-        <f>N5/J5-1</f>
+        <f t="shared" si="85"/>
         <v>0.14861111111111125</v>
       </c>
       <c r="O52" s="45">
-        <f>O5/K5-1</f>
+        <f t="shared" si="85"/>
         <v>-0.1217272727272728</v>
       </c>
       <c r="P52" s="45">
-        <f>P5/L5-1</f>
+        <f t="shared" si="85"/>
         <v>0.24063636363636376</v>
       </c>
-      <c r="Q52" s="45"/>
+      <c r="Q52" s="45">
+        <f t="shared" si="85"/>
+        <v>7.9585235077768379E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="35" t="s">
@@ -7038,34 +7314,37 @@
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
       <c r="J53" s="46">
-        <f>J6/F6-1</f>
+        <f t="shared" ref="J53:Q53" si="86">J6/F6-1</f>
         <v>0.94117647058823528</v>
       </c>
       <c r="K53" s="45">
-        <f>K6/G6-1</f>
+        <f t="shared" si="86"/>
         <v>2.3783783783783785</v>
       </c>
       <c r="L53" s="45">
-        <f>L6/H6-1</f>
+        <f t="shared" si="86"/>
         <v>2.441860465116279</v>
       </c>
       <c r="M53" s="45">
-        <f>M6/I6-1</f>
+        <f t="shared" si="86"/>
         <v>2.4147500000000002</v>
       </c>
       <c r="N53" s="46">
-        <f>N6/J6-1</f>
+        <f t="shared" si="86"/>
         <v>3.6378484848484849</v>
       </c>
       <c r="O53" s="45">
-        <f>O6/K6-1</f>
+        <f t="shared" si="86"/>
         <v>6.0036480000000001</v>
       </c>
       <c r="P53" s="45">
-        <f>P6/L6-1</f>
+        <f t="shared" si="86"/>
         <v>10.038945945945946</v>
       </c>
-      <c r="Q53" s="45"/>
+      <c r="Q53" s="45">
+        <f t="shared" si="86"/>
+        <v>8.890492039624478</v>
+      </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B54" s="28"/>
@@ -7129,11 +7408,10 @@
         <v>22801</v>
       </c>
       <c r="P55" s="35">
-        <v>37729</v>
+        <v>31729</v>
       </c>
       <c r="Q55" s="35">
-        <f>M55*1.35</f>
-        <v>38662.65</v>
+        <v>32022</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
@@ -7142,52 +7420,52 @@
       </c>
       <c r="B56" s="65"/>
       <c r="F56" s="63">
-        <f t="shared" ref="F56:Q56" si="72">F55/B55-1</f>
+        <f t="shared" ref="F56:Q56" si="87">F55/B55-1</f>
         <v>0.30629442368286064</v>
       </c>
       <c r="G56" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.30150417148772912</v>
       </c>
       <c r="H56" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.29402967905211086</v>
       </c>
       <c r="I56" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.28343023255813948</v>
       </c>
       <c r="J56" s="63">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.26701071408537613</v>
       </c>
       <c r="K56" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.25327531349429155</v>
       </c>
       <c r="L56" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.25468930571606374</v>
       </c>
       <c r="M56" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.24745186862967161</v>
       </c>
       <c r="N56" s="63">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.13972639128702347</v>
       </c>
       <c r="O56" s="64">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>-0.14873996639910403</v>
       </c>
       <c r="P56" s="64">
-        <f t="shared" si="72"/>
-        <v>0.33658070001417029</v>
+        <f t="shared" si="87"/>
+        <v>0.12402578999574887</v>
       </c>
       <c r="Q56" s="64">
-        <f t="shared" si="72"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="87"/>
+        <v>0.11812563287824296</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
@@ -7195,68 +7473,68 @@
         <v>102</v>
       </c>
       <c r="B58" s="46">
-        <f>B8/B55</f>
+        <f t="shared" ref="B58:Q58" si="88">B8/B55</f>
         <v>3.378031801861215E-2</v>
       </c>
       <c r="C58" s="45">
-        <f>C8/C55</f>
+        <f t="shared" si="88"/>
         <v>3.3554594726265145E-2</v>
       </c>
       <c r="D58" s="45">
-        <f>D8/D55</f>
+        <f t="shared" si="88"/>
         <v>3.364776256758311E-2</v>
       </c>
       <c r="E58" s="45">
-        <f>E8/E55</f>
+        <f t="shared" si="88"/>
         <v>3.4436493738819317E-2</v>
       </c>
       <c r="F58" s="46">
-        <f>F8/F55</f>
+        <f t="shared" si="88"/>
         <v>3.7471251472485555E-2</v>
       </c>
       <c r="G58" s="45">
-        <f>G8/G55</f>
+        <f t="shared" si="88"/>
         <v>3.8087216919333707E-2</v>
       </c>
       <c r="H58" s="45">
-        <f>H8/H55</f>
+        <f t="shared" si="88"/>
         <v>3.9203484754200373E-2</v>
       </c>
       <c r="I58" s="45">
-        <f>I8/I55</f>
+        <f t="shared" si="88"/>
         <v>4.0595870720446035E-2</v>
       </c>
       <c r="J58" s="46">
-        <f>J8/J55</f>
+        <f t="shared" si="88"/>
         <v>4.2502324345862666E-2</v>
       </c>
       <c r="K58" s="45">
-        <f>K8/K55</f>
+        <f t="shared" si="88"/>
         <v>4.3830502146723911E-2</v>
       </c>
       <c r="L58" s="45">
-        <f>L8/L55</f>
+        <f t="shared" si="88"/>
         <v>4.4884511832223327E-2</v>
       </c>
       <c r="M58" s="45">
-        <f>M8/M55</f>
+        <f t="shared" si="88"/>
         <v>4.5872027654596879E-2</v>
       </c>
       <c r="N58" s="46">
-        <f>N8/N55</f>
+        <f t="shared" si="88"/>
         <v>5.3649885405741365E-2</v>
       </c>
       <c r="O58" s="45">
-        <f>O8/O55</f>
+        <f t="shared" si="88"/>
         <v>8.4365817288715408E-2</v>
       </c>
       <c r="P58" s="45">
-        <f>P8/P55</f>
-        <v>8.0412255824432136E-2</v>
+        <f t="shared" si="88"/>
+        <v>9.5618330234170629E-2</v>
       </c>
       <c r="Q58" s="45">
-        <f>Q8/Q55</f>
-        <v>8.0412255824432136E-2</v>
+        <f t="shared" si="88"/>
+        <v>9.8649990631440893E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +7551,7 @@
   <dimension ref="B4:C13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7305,11 +7583,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:3" s="67" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="67" t="s">
         <v>101</v>
       </c>
     </row>
